--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="raslistar" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Webhooks" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="einkunnir" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="499" uniqueCount="215">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1446" uniqueCount="307">
   <si>
     <t>Nr.</t>
   </si>
@@ -83,7 +84,7 @@
     <t>Roberta Larsen</t>
   </si>
   <si>
-    <t>Rauður</t>
+    <t>1 - Rauður</t>
   </si>
   <si>
     <t>Danmark</t>
@@ -650,13 +651,289 @@
     <t>payload</t>
   </si>
   <si>
-    <t>2026-02-04T11:07:27.055Z</t>
-  </si>
-  <si>
-    <t>event_raslisti_birtur</t>
-  </si>
-  <si>
-    <t>{"eventId":999,"classId":58547,"published":1,"competitionId":1}</t>
+    <t>knapi_nafn</t>
+  </si>
+  <si>
+    <t>hross_nafn</t>
+  </si>
+  <si>
+    <t>hross_fulltnafn</t>
+  </si>
+  <si>
+    <t>faedingarnumer</t>
+  </si>
+  <si>
+    <t>keppandi_numer</t>
+  </si>
+  <si>
+    <t>vallarnumer</t>
+  </si>
+  <si>
+    <t>saeti</t>
+  </si>
+  <si>
+    <t>keppandi_medaleinkunn</t>
+  </si>
+  <si>
+    <t>keppandi_einkunn_5_ds</t>
+  </si>
+  <si>
+    <t>einkunnir_domara</t>
+  </si>
+  <si>
+    <t>2026-02-04T12:15:57.523Z</t>
+  </si>
+  <si>
+    <t>Reynir</t>
+  </si>
+  <si>
+    <t>IS2012101031</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"7,3","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":403096},{"athugasemd":"","einkunn":7.5,"gangtegund":"Brokk","keppandi_numer":403096},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":403096},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":403096},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":403096}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"7,1","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7.5,"gangtegund":"Hægt tölt","keppandi_numer":403096},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":403096},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":403096},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":403096},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":403096}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,7","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"deep, narrow and tight, more uplift needed","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":403096},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":403096},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":403096},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":403096},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":403096}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"7,3","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":403096},{"athugasemd":"","einkunn":7.5,"gangtegund":"Brokk","keppandi_numer":403096},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":403096},{"athugasemd":"More elevation ","einkunn":7,"gangtegund":"Stökk","keppandi_numer":403096},{"athugasemd":"Littl stiff in betten , more elevation","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":403096}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"7,3","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":403096},{"athugasemd":"","einkunn":7.5,"gangtegund":"Brokk","keppandi_numer":403096},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":403096},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":403096},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":403096}]}]</t>
+  </si>
+  <si>
+    <t>Kiljan</t>
+  </si>
+  <si>
+    <t>DK2006107673</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,4","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402861},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402861},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402861},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402861},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402861}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,7","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402861},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402861},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402861},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402861},{"athugasemd":"","einkunn":8,"gangtegund":"Greitt tölt","keppandi_numer":402861}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,5","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402861},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402861},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402861},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402861},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402861}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,6","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Maximum speed","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402861},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402861},{"athugasemd":"Rushed, ealy tradition into trot","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402861},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402861},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402861}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"7,1","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402861},{"athugasemd":"","einkunn":7.5,"gangtegund":"Brokk","keppandi_numer":402861},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402861},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402861},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402861}]}]</t>
+  </si>
+  <si>
+    <t>Veigur</t>
+  </si>
+  <si>
+    <t>IS2006180622</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,4","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402432},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402432},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402432},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402432},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402432}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402432},{"athugasemd":"Og","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402432},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402432},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402432},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402432}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,7","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402432},{"athugasemd":"slightly out of balance sometimes","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402432},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402432},{"athugasemd":"","einkunn":7.5,"gangtegund":"Stökk","keppandi_numer":402432},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402432}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,6","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402432},{"athugasemd":"Late, minus 1","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402432},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402432},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402432},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402432}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"7,2","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7.5,"gangtegund":"Hægt tölt","keppandi_numer":402432},{"athugasemd":"","einkunn":7.5,"gangtegund":"Brokk","keppandi_numer":402432},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402432},{"athugasemd":"","einkunn":7.5,"gangtegund":"Stökk","keppandi_numer":402432},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402432}]}]</t>
+  </si>
+  <si>
+    <t>Vítus</t>
+  </si>
+  <si>
+    <t>DK2012100371</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,7","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402408},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402408}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402408},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402408}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,5","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402408}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,5","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402408}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,8","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402408},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402408},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402408}]}]</t>
+  </si>
+  <si>
+    <t>Straumur</t>
+  </si>
+  <si>
+    <t>IS2008186917</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402437},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402437},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402437},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402437},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402437}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402437},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402437},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402437},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402437},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402437}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,6","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402437},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402437},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402437},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402437},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402437}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,6","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402437},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402437},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402437},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402437},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402437}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,7","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402437},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402437},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402437},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402437},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402437}]}]</t>
+  </si>
+  <si>
+    <t>Hörður</t>
+  </si>
+  <si>
+    <t>IS2010125611</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,4","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402396},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402396},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402396},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402396},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402396}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,7","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7.5,"gangtegund":"Hægt tölt","keppandi_numer":402396},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402396},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402396},{"athugasemd":"","einkunn":7.5,"gangtegund":"Stökk","keppandi_numer":402396},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402396}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,6","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402396},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402396},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402396},{"athugasemd":"","einkunn":7.5,"gangtegund":"Stökk","keppandi_numer":402396},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402396}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,4","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Narrow ","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402396},{"athugasemd":"Narrow shape ","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402396},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402396},{"athugasemd":"Narrow shape ","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402396},{"athugasemd":"Some stiffness","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402396}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"7,1","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7.5,"gangtegund":"Hægt tölt","keppandi_numer":402396},{"athugasemd":"","einkunn":7.5,"gangtegund":"Brokk","keppandi_numer":402396},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402396},{"athugasemd":"","einkunn":7.5,"gangtegund":"Stökk","keppandi_numer":402396},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402396}]}]</t>
+  </si>
+  <si>
+    <t>Ljóska</t>
+  </si>
+  <si>
+    <t>IS2007284310</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,6","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402410},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402410},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402410},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402410}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402410},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402410},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402410},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402410}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,3","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402410},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402410},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402410}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,5","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"More energy ","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402410},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402410},{"athugasemd":"Little high","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402410}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,4","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402410},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402410},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402410},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402410}]}]</t>
+  </si>
+  <si>
+    <t>Núpur</t>
+  </si>
+  <si>
+    <t>DK2015100189</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,1","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402397},{"athugasemd":"","einkunn":3.5,"gangtegund":"Brokk","keppandi_numer":402397},{"athugasemd":"","einkunn":7.5,"gangtegund":"Fet","keppandi_numer":402397},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402397},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402397}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,4","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402397},{"athugasemd":"","einkunn":4.5,"gangtegund":"Brokk","keppandi_numer":402397},{"athugasemd":"","einkunn":7.5,"gangtegund":"Fet","keppandi_numer":402397},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402397},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402397}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,3","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":402397},{"athugasemd":"transition -1, second attempt -1","einkunn":4.5,"gangtegund":"Brokk","keppandi_numer":402397},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402397},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402397},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402397}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,8","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":402397},{"athugasemd":"Losing gait ","einkunn":4.5,"gangtegund":"Brokk","keppandi_numer":402397},{"athugasemd":"","einkunn":7.5,"gangtegund":"Fet","keppandi_numer":402397},{"athugasemd":"","einkunn":7.5,"gangtegund":"Stökk","keppandi_numer":402397},{"athugasemd":"Little stiff ","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402397}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,3","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7.5,"gangtegund":"Hægt tölt","keppandi_numer":402397},{"athugasemd":"","einkunn":4.5,"gangtegund":"Brokk","keppandi_numer":402397},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402397},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402397},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402397}]}]</t>
+  </si>
+  <si>
+    <t>Tígur</t>
+  </si>
+  <si>
+    <t>SE2010101864</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,3","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402412},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402412},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402412}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,3","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"Tempo","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402412},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402412}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,7","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"speed","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402412},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402412},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402412},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402412},{"athugasemd":"balance  in corners","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402412}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,4","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402412},{"athugasemd":"Balance ","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402412}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,5","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402412},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402412},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402412},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402412}]}]</t>
+  </si>
+  <si>
+    <t>Kormákur</t>
+  </si>
+  <si>
+    <t>IS2011165442</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,4","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402442},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402442},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402442},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402442},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402442}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,6","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402442},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402442},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402442},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402442},{"athugasemd":"","einkunn":7.5,"gangtegund":"Greitt tölt","keppandi_numer":402442}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"slightly trotty","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402442},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402442},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402442},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402442},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402442}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,2","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Slightly trotty","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402442},{"athugasemd":"","einkunn":7,"gangtegund":"Brokk","keppandi_numer":402442},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402442},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402442},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402442}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,3","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402442},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402442},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402442},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402442},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402442}]}]</t>
+  </si>
+  <si>
+    <t>Hlýri</t>
+  </si>
+  <si>
+    <t>IS2008187133</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,3","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402417},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402417},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402417},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402417},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402417}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":402417},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402417},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402417},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402417},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402417}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,1","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"too fast","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402417},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402417},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402417},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402417},{"athugasemd":"rider's hands","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402417}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,1","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Too fast and slightly trotty","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402417},{"athugasemd":"Balance","einkunn":5,"gangtegund":"Brokk","keppandi_numer":402417},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402417},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402417},{"athugasemd":"Stiff moments","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402417}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,4","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402417},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402417},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402417},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402417},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402417}]}]</t>
+  </si>
+  <si>
+    <t>Sölvi</t>
+  </si>
+  <si>
+    <t>IS2010187017</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,2","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402449},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402449},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402449}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,2","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402449},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402449},{"athugasemd":"Tempo ","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402449}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"6,2","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402449},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402449},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402449}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,1","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Slightly trotty","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402449},{"athugasemd":"Little stiff","einkunn":6,"gangtegund":"Fet","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402449},{"athugasemd":"Medium speed ","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402449}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,2","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402449},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402449},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402449}]}]</t>
+  </si>
+  <si>
+    <t>Jöfur</t>
+  </si>
+  <si>
+    <t>SE2016171051</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,2","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402418},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402418},{"athugasemd":"","einkunn":7.5,"gangtegund":"Fet","keppandi_numer":402418},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402418},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402418}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,2","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402418},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402418},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402418},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402418},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402418}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,9","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402418},{"athugasemd":"shape inconsistent and open","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402418},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402418},{"athugasemd":"early transistion -1","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402418},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402418}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,2","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402418},{"athugasemd":"Balance","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402418},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402418},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402418},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402418}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,2","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402418},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402418},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402418},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402418},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402418}]}]</t>
+  </si>
+  <si>
+    <t>Sleipnir</t>
+  </si>
+  <si>
+    <t>IS2010165246</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,4","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402430},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402430}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"Tempo","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402430},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402430},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402430}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,8","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"speed","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402430},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402430},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402430},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402430}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,3","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Little fast","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402430},{"athugasemd":"Slightly stiff","einkunn":6,"gangtegund":"Fet","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402430}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,2","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402430},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402430},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402430},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402430}]}]</t>
+  </si>
+  <si>
+    <t>Fafnir</t>
+  </si>
+  <si>
+    <t>SE2009110451</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,2","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402395},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402395},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402395}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402395},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402395},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402395}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,6","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"downhill and balance ","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402395},{"athugasemd":"energy","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402395},{"athugasemd":"late transition -1","einkunn":5,"gangtegund":"Stökk","keppandi_numer":402395},{"athugasemd":"medium speed, stiff","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":402395}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"On front , connection","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402395},{"athugasemd":"Connection","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402395},{"athugasemd":"Late minus 1","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402395},{"athugasemd":"Medium speed, connection ","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402395}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,2","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402395},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402395},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402395},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402395}]}]</t>
+  </si>
+  <si>
+    <t>Vikar</t>
+  </si>
+  <si>
+    <t>IS2009155108</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,3","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402482}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,2","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402482}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,7","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"speed","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402482},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402482}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Stiff and little fast","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402482},{"athugasemd":"Losing gait","einkunn":6,"gangtegund":"Fet","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402482}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,9","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402482},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402482},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402482},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402482}]}]</t>
+  </si>
+  <si>
+    <t>Prins</t>
+  </si>
+  <si>
+    <t>SE2008108581</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402445},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":402445},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402445}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402445},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402445},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402445}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,9","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402445},{"athugasemd":"shape unstable","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402445},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402445},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402445}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"6,1","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Connection","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402445},{"athugasemd":"Balance","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402445},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402445},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402445}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,1","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402445},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402445},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402445},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402445}]}]</t>
+  </si>
+  <si>
+    <t>Darri</t>
+  </si>
+  <si>
+    <t>IS2009184874</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"5,7","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402425},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402425},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402425},{"athugasemd":"","einkunn":5,"gangtegund":"Stökk","keppandi_numer":402425},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402425}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6,3","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402425},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402425},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402425},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402425},{"athugasemd":"","einkunn":7,"gangtegund":"Greitt tölt","keppandi_numer":402425}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,9","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402425},{"athugasemd":"open shape, balance in the beginning","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402425},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402425},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402425},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402425}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,7","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"high shape, not carrying well with hind , slightly trotty","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402425},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402425},{"athugasemd":"Rushed","einkunn":5,"gangtegund":"Fet","keppandi_numer":402425},{"athugasemd":"Late ","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402425},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402425}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"6,1","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402425},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402425},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402425},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402425},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402425}]}]</t>
+  </si>
+  <si>
+    <t>Gráni</t>
+  </si>
+  <si>
+    <t>SE2011103782</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"6,1","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402431},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402431},{"athugasemd":"","einkunn":7,"gangtegund":"Fet","keppandi_numer":402431},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402431},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402431}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402431},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402431},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402431},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402431},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402431}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,5","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402431},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402431},{"athugasemd":"soemtimes behind the bit","einkunn":6,"gangtegund":"Fet","keppandi_numer":402431},{"athugasemd":"energy","einkunn":5,"gangtegund":"Stökk","keppandi_numer":402431},{"athugasemd":"open shape","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402431}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,8","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Little stiff","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402431},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402431},{"athugasemd":"BEHIND the bit at times","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402431},{"athugasemd":"Stiff","einkunn":5,"gangtegund":"Stökk","keppandi_numer":402431},{"athugasemd":"Little stiff","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402431}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,7","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402431},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402431},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402431},{"athugasemd":"","einkunn":5,"gangtegund":"Stökk","keppandi_numer":402431},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402431}]}]</t>
+  </si>
+  <si>
+    <t>Halla</t>
+  </si>
+  <si>
+    <t>IS2010256301</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"5,8","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402423},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402423}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"5,9","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402423},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402423}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,5","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"speed, high croop","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402423}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,7","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Uneven shape ","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402423}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,8","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402423},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402423},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402423}]}]</t>
+  </si>
+  <si>
+    <t>Salvar</t>
+  </si>
+  <si>
+    <t>IS2013101592</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"5,6","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402479},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402479},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402479},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402479},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402479}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"6","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402479},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402479},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402479},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402479},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402479}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,9","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"lost gait twice -2","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402479},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402479},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402479},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402479},{"athugasemd":"tense","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402479}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,8","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Connection, losing gait ","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402479},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402479},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402479},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402479},{"athugasemd":"Connection, over the bit ","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402479}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,6","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402479},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402479},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402479},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402479},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402479}]}]</t>
+  </si>
+  <si>
+    <t>Auðjöfur</t>
+  </si>
+  <si>
+    <t>IS2011135919</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"5,4","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402421},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":402421},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402421},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402421},{"athugasemd":"","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":402421}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"5,9","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402421},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402421},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402421},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402421},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402421}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,7","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402421},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402421},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402421},{"athugasemd":"free shape","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402421},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402421}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,5","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402421},{"athugasemd":"Stiff back ","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402421},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402421},{"athugasemd":"Long outline","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402421},{"athugasemd":"Long and high","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402421}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,6","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402421},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402421},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402421},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402421},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402421}]}]</t>
+  </si>
+  <si>
+    <t>Jónsteinn</t>
+  </si>
+  <si>
+    <t>IS2014182280</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"5,6","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402392},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402392},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402392},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402392},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402392}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"5,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402392},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402392},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402392},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402392},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402392}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,7","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"outside bend, on forehand, balance","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402392},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402392},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402392},{"athugasemd":"","einkunn":7,"gangtegund":"Stökk","keppandi_numer":402392},{"athugasemd":"speed and balance","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402392}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,5","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Stiff","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402392},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402392},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402392},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402392},{"athugasemd":"Outside bending, balance ","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402392}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,6","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402392},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402392},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402392},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402392},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402392}]}]</t>
+  </si>
+  <si>
+    <t>Gorm</t>
+  </si>
+  <si>
+    <t>SE2007107366</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"5,6","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402415},{"athugasemd":"","einkunn":6.5,"gangtegund":"Stökk","keppandi_numer":402415},{"athugasemd":"","einkunn":4,"gangtegund":"Greitt tölt","keppandi_numer":402415}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"5,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"Tempo ","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402415},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402415},{"athugasemd":"","einkunn":4,"gangtegund":"Greitt tölt","keppandi_numer":402415}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,4","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402415},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402415},{"athugasemd":"lost gait 2 times -2","einkunn":4,"gangtegund":"Greitt tölt","keppandi_numer":402415}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,3","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Little fast","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402415},{"athugasemd":"Connection, more lightbess ","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402415},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402415},{"athugasemd":"Connection, lighter in the front","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402415},{"athugasemd":"Losing gait","einkunn":3,"gangtegund":"Greitt tölt","keppandi_numer":402415}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,4","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402415},{"athugasemd":"","einkunn":6.5,"gangtegund":"Fet","keppandi_numer":402415},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402415},{"athugasemd":"","einkunn":3,"gangtegund":"Greitt tölt","keppandi_numer":402415}]}]</t>
+  </si>
+  <si>
+    <t>Glyðra</t>
+  </si>
+  <si>
+    <t>SE2004206018</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"5,2","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402407},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402407},{"athugasemd":"","einkunn":4,"gangtegund":"Fet","keppandi_numer":402407},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402407},{"athugasemd":"","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":402407}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"5,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402407},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402407},{"athugasemd":"","einkunn":4.5,"gangtegund":"Fet","keppandi_numer":402407},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402407},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402407}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"5,1","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402407},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402407},{"athugasemd":"uneven hindlegs, zügellahm","einkunn":3.5,"gangtegund":"Fet","keppandi_numer":402407},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402407},{"athugasemd":"","einkunn":5.5,"gangtegund":"Greitt tölt","keppandi_numer":402407}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"5,5","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Little fast ","einkunn":5.5,"gangtegund":"Hægt tölt","keppandi_numer":402407},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402407},{"athugasemd":"Lack of connection","einkunn":4,"gangtegund":"Fet","keppandi_numer":402407},{"athugasemd":"","einkunn":5.5,"gangtegund":"Stökk","keppandi_numer":402407},{"athugasemd":"","einkunn":6.5,"gangtegund":"Greitt tölt","keppandi_numer":402407}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"5,8","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402407},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402407},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402407},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":402407},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":402407}]}]</t>
+  </si>
+  <si>
+    <t>Rafael</t>
+  </si>
+  <si>
+    <t>IS2013184960</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Ólafur Árnason","domari_adaleinkunn":"3,9","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":402393},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402393},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402393},{"athugasemd":"","einkunn":0,"gangtegund":"Stökk","keppandi_numer":402393},{"athugasemd":"","einkunn":2,"gangtegund":"Greitt tölt","keppandi_numer":402393}]},{"domarar":"Pétur Vopni Sigurðsson","domari_adaleinkunn":"4,5","domsaeti_saeti":"2","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6.5,"gangtegund":"Hægt tölt","keppandi_numer":402393},{"athugasemd":"","einkunn":6.5,"gangtegund":"Brokk","keppandi_numer":402393},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402393},{"athugasemd":"","einkunn":0,"gangtegund":"Stökk","keppandi_numer":402393},{"athugasemd":"","einkunn":4,"gangtegund":"Greitt tölt","keppandi_numer":402393}]},{"domarar":"Florian Schneider","domari_adaleinkunn":"3,4","domsaeti_saeti":"3","sundurlidun_einkunna":[{"athugasemd":"rider's aids, shape, head shake","einkunn":4.5,"gangtegund":"Hægt tölt","keppandi_numer":402393},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":402393},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":402393},{"athugasemd":"wrong lead","einkunn":0,"gangtegund":"Stökk","keppandi_numer":402393},{"athugasemd":"lost gait, pulled reins -2, trotty ","einkunn":2.5,"gangtegund":"Greitt tölt","keppandi_numer":402393}]},{"domarar":"Alexandra Dannenmann","domari_adaleinkunn":"3,8","domsaeti_saeti":"4","sundurlidun_einkunna":[{"athugasemd":"Hands! Connection","einkunn":4.5,"gangtegund":"Hægt tölt","keppandi_numer":402393},{"athugasemd":"","einkunn":5.5,"gangtegund":"Brokk","keppandi_numer":402393},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":402393},{"athugasemd":"Wrong lead","einkunn":0,"gangtegund":"Stökk","keppandi_numer":402393},{"athugasemd":"Hands. Losing gait ","einkunn":3,"gangtegund":"Greitt tölt","keppandi_numer":402393}]},{"domarar":"Peter Häggberg","domari_adaleinkunn":"3,7","domsaeti_saeti":"5","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":402393},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":402393},{"athugasemd":"","einkunn":5.5,"gangtegund":"Fet","keppandi_numer":402393},{"athugasemd":"","einkunn":0,"gangtegund":"Stökk","keppandi_numer":402393},{"athugasemd":"","einkunn":2,"gangtegund":"Greitt tölt","keppandi_numer":402393}]}]</t>
+  </si>
+  <si>
+    <t>2026-02-04T12:20:53.847Z</t>
+  </si>
+  <si>
+    <t>2026-02-04T12:23:39.318Z</t>
+  </si>
+  <si>
+    <t>2026-02-04T12:23:39.319Z</t>
+  </si>
+  <si>
+    <t>2026-02-04T12:25:07.429Z</t>
+  </si>
+  <si>
+    <t>2026-02-04T12:27:22.641Z</t>
+  </si>
+  <si>
+    <t>2026-02-04T12:30:04.758Z</t>
   </si>
 </sst>
 </file>
@@ -1147,23 +1424,23 @@
       <c r="O2" t="s">
         <v>32</v>
       </c>
-      <c r="P2" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q2" t="s">
-        <v>31</v>
-      </c>
-      <c r="R2" t="s">
-        <v>31</v>
-      </c>
-      <c r="S2" t="s">
-        <v>31</v>
-      </c>
-      <c r="T2" t="s">
-        <v>31</v>
-      </c>
-      <c r="U2" t="s">
-        <v>31</v>
+      <c r="P2">
+        <v>6.4</v>
+      </c>
+      <c r="Q2">
+        <v>6.5</v>
+      </c>
+      <c r="R2">
+        <v>6.7</v>
+      </c>
+      <c r="S2">
+        <v>6.6</v>
+      </c>
+      <c r="T2">
+        <v>7.2</v>
+      </c>
+      <c r="U2">
+        <v>6.6</v>
       </c>
     </row>
     <row r="3" spans="1:21" x14ac:dyDescent="0.25">
@@ -1212,23 +1489,23 @@
       <c r="O3" t="s">
         <v>40</v>
       </c>
-      <c r="P3" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q3" t="s">
-        <v>31</v>
-      </c>
-      <c r="R3" t="s">
-        <v>31</v>
-      </c>
-      <c r="S3" t="s">
-        <v>31</v>
-      </c>
-      <c r="T3" t="s">
-        <v>31</v>
-      </c>
-      <c r="U3" t="s">
-        <v>31</v>
+      <c r="P3">
+        <v>6.2</v>
+      </c>
+      <c r="Q3">
+        <v>6.5</v>
+      </c>
+      <c r="R3">
+        <v>5.6</v>
+      </c>
+      <c r="S3">
+        <v>6</v>
+      </c>
+      <c r="T3">
+        <v>6.2</v>
+      </c>
+      <c r="U3">
+        <v>6.13</v>
       </c>
     </row>
     <row r="4" spans="1:21" x14ac:dyDescent="0.25">
@@ -1277,23 +1554,23 @@
       <c r="O4" t="s">
         <v>49</v>
       </c>
-      <c r="P4" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>31</v>
-      </c>
-      <c r="R4" t="s">
-        <v>31</v>
-      </c>
-      <c r="S4" t="s">
-        <v>31</v>
-      </c>
-      <c r="T4" t="s">
-        <v>31</v>
-      </c>
-      <c r="U4" t="s">
-        <v>31</v>
+      <c r="P4">
+        <v>6.3</v>
+      </c>
+      <c r="Q4">
+        <v>6.2</v>
+      </c>
+      <c r="R4">
+        <v>5.7</v>
+      </c>
+      <c r="S4">
+        <v>6</v>
+      </c>
+      <c r="T4">
+        <v>5.9</v>
+      </c>
+      <c r="U4">
+        <v>6.03</v>
       </c>
     </row>
     <row r="5" spans="1:21" x14ac:dyDescent="0.25">
@@ -1342,23 +1619,23 @@
       <c r="O5" t="s">
         <v>58</v>
       </c>
-      <c r="P5" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>31</v>
-      </c>
-      <c r="R5" t="s">
-        <v>31</v>
-      </c>
-      <c r="S5" t="s">
-        <v>31</v>
-      </c>
-      <c r="T5" t="s">
-        <v>31</v>
-      </c>
-      <c r="U5" t="s">
-        <v>31</v>
+      <c r="P5">
+        <v>6.4</v>
+      </c>
+      <c r="Q5">
+        <v>6.6</v>
+      </c>
+      <c r="R5">
+        <v>6</v>
+      </c>
+      <c r="S5">
+        <v>6.2</v>
+      </c>
+      <c r="T5">
+        <v>6.3</v>
+      </c>
+      <c r="U5">
+        <v>6.3</v>
       </c>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.25">
@@ -1407,23 +1684,23 @@
       <c r="O6" t="s">
         <v>66</v>
       </c>
-      <c r="P6" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>31</v>
-      </c>
-      <c r="R6" t="s">
-        <v>31</v>
-      </c>
-      <c r="S6" t="s">
-        <v>31</v>
-      </c>
-      <c r="T6" t="s">
-        <v>31</v>
-      </c>
-      <c r="U6" t="s">
-        <v>31</v>
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6">
+        <v>6</v>
+      </c>
+      <c r="R6">
+        <v>5.9</v>
+      </c>
+      <c r="S6">
+        <v>6.1</v>
+      </c>
+      <c r="T6">
+        <v>6.1</v>
+      </c>
+      <c r="U6">
+        <v>6.03</v>
       </c>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.25">
@@ -1472,23 +1749,23 @@
       <c r="O7" t="s">
         <v>74</v>
       </c>
-      <c r="P7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q7" t="s">
-        <v>31</v>
-      </c>
-      <c r="R7" t="s">
-        <v>31</v>
-      </c>
-      <c r="S7" t="s">
-        <v>31</v>
-      </c>
-      <c r="T7" t="s">
-        <v>31</v>
-      </c>
-      <c r="U7" t="s">
-        <v>31</v>
+      <c r="P7">
+        <v>5.7</v>
+      </c>
+      <c r="Q7">
+        <v>6.3</v>
+      </c>
+      <c r="R7">
+        <v>5.9</v>
+      </c>
+      <c r="S7">
+        <v>5.7</v>
+      </c>
+      <c r="T7">
+        <v>6.1</v>
+      </c>
+      <c r="U7">
+        <v>5.9</v>
       </c>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.25">
@@ -1537,23 +1814,23 @@
       <c r="O8" t="s">
         <v>81</v>
       </c>
-      <c r="P8" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>31</v>
-      </c>
-      <c r="R8" t="s">
-        <v>31</v>
-      </c>
-      <c r="S8" t="s">
-        <v>31</v>
-      </c>
-      <c r="T8" t="s">
-        <v>31</v>
-      </c>
-      <c r="U8" t="s">
-        <v>31</v>
+      <c r="P8">
+        <v>6.4</v>
+      </c>
+      <c r="Q8">
+        <v>6.7</v>
+      </c>
+      <c r="R8">
+        <v>6.6</v>
+      </c>
+      <c r="S8">
+        <v>6.4</v>
+      </c>
+      <c r="T8">
+        <v>7.1</v>
+      </c>
+      <c r="U8">
+        <v>6.57</v>
       </c>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.25">
@@ -1602,23 +1879,23 @@
       <c r="O9" t="s">
         <v>88</v>
       </c>
-      <c r="P9" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>31</v>
-      </c>
-      <c r="R9" t="s">
-        <v>31</v>
-      </c>
-      <c r="S9" t="s">
-        <v>31</v>
-      </c>
-      <c r="T9" t="s">
-        <v>31</v>
-      </c>
-      <c r="U9" t="s">
-        <v>31</v>
+      <c r="P9">
+        <v>6.1</v>
+      </c>
+      <c r="Q9">
+        <v>6</v>
+      </c>
+      <c r="R9">
+        <v>5.5</v>
+      </c>
+      <c r="S9">
+        <v>5.8</v>
+      </c>
+      <c r="T9">
+        <v>5.7</v>
+      </c>
+      <c r="U9">
+        <v>5.83</v>
       </c>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.25">
@@ -1667,23 +1944,23 @@
       <c r="O10" t="s">
         <v>97</v>
       </c>
-      <c r="P10" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q10" t="s">
-        <v>31</v>
-      </c>
-      <c r="R10" t="s">
-        <v>31</v>
-      </c>
-      <c r="S10" t="s">
-        <v>31</v>
-      </c>
-      <c r="T10" t="s">
-        <v>31</v>
-      </c>
-      <c r="U10" t="s">
-        <v>31</v>
+      <c r="P10">
+        <v>6.3</v>
+      </c>
+      <c r="Q10">
+        <v>6.3</v>
+      </c>
+      <c r="R10">
+        <v>5.7</v>
+      </c>
+      <c r="S10">
+        <v>6.4</v>
+      </c>
+      <c r="T10">
+        <v>6.5</v>
+      </c>
+      <c r="U10">
+        <v>6.33</v>
       </c>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.25">
@@ -1732,23 +2009,23 @@
       <c r="O11" t="s">
         <v>102</v>
       </c>
-      <c r="P11" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q11" t="s">
-        <v>31</v>
-      </c>
-      <c r="R11" t="s">
-        <v>31</v>
-      </c>
-      <c r="S11" t="s">
-        <v>31</v>
-      </c>
-      <c r="T11" t="s">
-        <v>31</v>
-      </c>
-      <c r="U11" t="s">
-        <v>31</v>
+      <c r="P11">
+        <v>6.4</v>
+      </c>
+      <c r="Q11">
+        <v>6.7</v>
+      </c>
+      <c r="R11">
+        <v>6.5</v>
+      </c>
+      <c r="S11">
+        <v>6.6</v>
+      </c>
+      <c r="T11">
+        <v>7.1</v>
+      </c>
+      <c r="U11">
+        <v>6.6</v>
       </c>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.25">
@@ -1797,23 +2074,23 @@
       <c r="O12" t="s">
         <v>109</v>
       </c>
-      <c r="P12" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q12" t="s">
-        <v>31</v>
-      </c>
-      <c r="R12" t="s">
-        <v>31</v>
-      </c>
-      <c r="S12" t="s">
-        <v>31</v>
-      </c>
-      <c r="T12" t="s">
-        <v>31</v>
-      </c>
-      <c r="U12" t="s">
-        <v>31</v>
+      <c r="P12">
+        <v>3.9</v>
+      </c>
+      <c r="Q12">
+        <v>4.5</v>
+      </c>
+      <c r="R12">
+        <v>3.4</v>
+      </c>
+      <c r="S12">
+        <v>3.8</v>
+      </c>
+      <c r="T12">
+        <v>3.7</v>
+      </c>
+      <c r="U12">
+        <v>3.8</v>
       </c>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.25">
@@ -1862,23 +2139,23 @@
       <c r="O13" t="s">
         <v>117</v>
       </c>
-      <c r="P13" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q13" t="s">
-        <v>31</v>
-      </c>
-      <c r="R13" t="s">
-        <v>31</v>
-      </c>
-      <c r="S13" t="s">
-        <v>31</v>
-      </c>
-      <c r="T13" t="s">
-        <v>31</v>
-      </c>
-      <c r="U13" t="s">
-        <v>31</v>
+      <c r="P13">
+        <v>6.4</v>
+      </c>
+      <c r="Q13">
+        <v>6</v>
+      </c>
+      <c r="R13">
+        <v>5.8</v>
+      </c>
+      <c r="S13">
+        <v>6.3</v>
+      </c>
+      <c r="T13">
+        <v>6.2</v>
+      </c>
+      <c r="U13">
+        <v>6.17</v>
       </c>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.25">
@@ -1927,23 +2204,23 @@
       <c r="O14" t="s">
         <v>123</v>
       </c>
-      <c r="P14" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q14" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" t="s">
-        <v>31</v>
-      </c>
-      <c r="S14" t="s">
-        <v>31</v>
-      </c>
-      <c r="T14" t="s">
-        <v>31</v>
-      </c>
-      <c r="U14" t="s">
-        <v>31</v>
+      <c r="P14">
+        <v>6.5</v>
+      </c>
+      <c r="Q14">
+        <v>6.5</v>
+      </c>
+      <c r="R14">
+        <v>6.6</v>
+      </c>
+      <c r="S14">
+        <v>6.6</v>
+      </c>
+      <c r="T14">
+        <v>6.7</v>
+      </c>
+      <c r="U14">
+        <v>6.57</v>
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
@@ -1992,23 +2269,23 @@
       <c r="O15" t="s">
         <v>129</v>
       </c>
-      <c r="P15" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q15" t="s">
-        <v>31</v>
-      </c>
-      <c r="R15" t="s">
-        <v>31</v>
-      </c>
-      <c r="S15" t="s">
-        <v>31</v>
-      </c>
-      <c r="T15" t="s">
-        <v>31</v>
-      </c>
-      <c r="U15" t="s">
-        <v>31</v>
+      <c r="P15">
+        <v>6.6</v>
+      </c>
+      <c r="Q15">
+        <v>6.5</v>
+      </c>
+      <c r="R15">
+        <v>6.3</v>
+      </c>
+      <c r="S15">
+        <v>6.5</v>
+      </c>
+      <c r="T15">
+        <v>6.4</v>
+      </c>
+      <c r="U15">
+        <v>6.47</v>
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
@@ -2057,23 +2334,23 @@
       <c r="O16" t="s">
         <v>135</v>
       </c>
-      <c r="P16" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q16" t="s">
-        <v>31</v>
-      </c>
-      <c r="R16" t="s">
-        <v>31</v>
-      </c>
-      <c r="S16" t="s">
-        <v>31</v>
-      </c>
-      <c r="T16" t="s">
-        <v>31</v>
-      </c>
-      <c r="U16" t="s">
-        <v>31</v>
+      <c r="P16">
+        <v>5.8</v>
+      </c>
+      <c r="Q16">
+        <v>5.9</v>
+      </c>
+      <c r="R16">
+        <v>5.5</v>
+      </c>
+      <c r="S16">
+        <v>5.7</v>
+      </c>
+      <c r="T16">
+        <v>5.8</v>
+      </c>
+      <c r="U16">
+        <v>5.77</v>
       </c>
     </row>
     <row r="17" spans="1:21" x14ac:dyDescent="0.25">
@@ -2122,23 +2399,23 @@
       <c r="O17" t="s">
         <v>143</v>
       </c>
-      <c r="P17" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q17" t="s">
-        <v>31</v>
-      </c>
-      <c r="R17" t="s">
-        <v>31</v>
-      </c>
-      <c r="S17" t="s">
-        <v>31</v>
-      </c>
-      <c r="T17" t="s">
-        <v>31</v>
-      </c>
-      <c r="U17" t="s">
-        <v>31</v>
+      <c r="P17">
+        <v>6.2</v>
+      </c>
+      <c r="Q17">
+        <v>6.2</v>
+      </c>
+      <c r="R17">
+        <v>5.9</v>
+      </c>
+      <c r="S17">
+        <v>6.2</v>
+      </c>
+      <c r="T17">
+        <v>6.2</v>
+      </c>
+      <c r="U17">
+        <v>6.2</v>
       </c>
     </row>
     <row r="18" spans="1:21" x14ac:dyDescent="0.25">
@@ -2187,23 +2464,23 @@
       <c r="O18" t="s">
         <v>148</v>
       </c>
-      <c r="P18" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q18" t="s">
-        <v>31</v>
-      </c>
-      <c r="R18" t="s">
-        <v>31</v>
-      </c>
-      <c r="S18" t="s">
-        <v>31</v>
-      </c>
-      <c r="T18" t="s">
-        <v>31</v>
-      </c>
-      <c r="U18" t="s">
-        <v>31</v>
+      <c r="P18">
+        <v>5.6</v>
+      </c>
+      <c r="Q18">
+        <v>5.5</v>
+      </c>
+      <c r="R18">
+        <v>5.4</v>
+      </c>
+      <c r="S18">
+        <v>5.3</v>
+      </c>
+      <c r="T18">
+        <v>5.4</v>
+      </c>
+      <c r="U18">
+        <v>5.43</v>
       </c>
     </row>
     <row r="19" spans="1:21" x14ac:dyDescent="0.25">
@@ -2252,23 +2529,23 @@
       <c r="O19" t="s">
         <v>155</v>
       </c>
-      <c r="P19" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q19" t="s">
-        <v>31</v>
-      </c>
-      <c r="R19" t="s">
-        <v>31</v>
-      </c>
-      <c r="S19" t="s">
-        <v>31</v>
-      </c>
-      <c r="T19" t="s">
-        <v>31</v>
-      </c>
-      <c r="U19" t="s">
-        <v>31</v>
+      <c r="P19">
+        <v>5.6</v>
+      </c>
+      <c r="Q19">
+        <v>6</v>
+      </c>
+      <c r="R19">
+        <v>5.9</v>
+      </c>
+      <c r="S19">
+        <v>5.8</v>
+      </c>
+      <c r="T19">
+        <v>5.6</v>
+      </c>
+      <c r="U19">
+        <v>5.77</v>
       </c>
     </row>
     <row r="20" spans="1:21" x14ac:dyDescent="0.25">
@@ -2317,23 +2594,23 @@
       <c r="O20" t="s">
         <v>102</v>
       </c>
-      <c r="P20" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q20" t="s">
-        <v>31</v>
-      </c>
-      <c r="R20" t="s">
-        <v>31</v>
-      </c>
-      <c r="S20" t="s">
-        <v>31</v>
-      </c>
-      <c r="T20" t="s">
-        <v>31</v>
-      </c>
-      <c r="U20" t="s">
-        <v>31</v>
+      <c r="P20">
+        <v>6.2</v>
+      </c>
+      <c r="Q20">
+        <v>6.2</v>
+      </c>
+      <c r="R20">
+        <v>6.2</v>
+      </c>
+      <c r="S20">
+        <v>6.1</v>
+      </c>
+      <c r="T20">
+        <v>6.2</v>
+      </c>
+      <c r="U20">
+        <v>6.2</v>
       </c>
     </row>
     <row r="21" spans="1:21" x14ac:dyDescent="0.25">
@@ -2382,23 +2659,23 @@
       <c r="O21" t="s">
         <v>165</v>
       </c>
-      <c r="P21" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R21" t="s">
-        <v>31</v>
-      </c>
-      <c r="S21" t="s">
-        <v>31</v>
-      </c>
-      <c r="T21" t="s">
-        <v>31</v>
-      </c>
-      <c r="U21" t="s">
-        <v>31</v>
+      <c r="P21">
+        <v>5.2</v>
+      </c>
+      <c r="Q21">
+        <v>5.5</v>
+      </c>
+      <c r="R21">
+        <v>5.1</v>
+      </c>
+      <c r="S21">
+        <v>5.5</v>
+      </c>
+      <c r="T21">
+        <v>5.8</v>
+      </c>
+      <c r="U21">
+        <v>5.4</v>
       </c>
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
@@ -2447,23 +2724,23 @@
       <c r="O22" t="s">
         <v>171</v>
       </c>
-      <c r="P22" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q22" t="s">
-        <v>31</v>
-      </c>
-      <c r="R22" t="s">
-        <v>31</v>
-      </c>
-      <c r="S22" t="s">
-        <v>31</v>
-      </c>
-      <c r="T22" t="s">
-        <v>31</v>
-      </c>
-      <c r="U22" t="s">
-        <v>31</v>
+      <c r="P22">
+        <v>7.3</v>
+      </c>
+      <c r="Q22">
+        <v>7.1</v>
+      </c>
+      <c r="R22">
+        <v>6.7</v>
+      </c>
+      <c r="S22">
+        <v>7.3</v>
+      </c>
+      <c r="T22">
+        <v>7.3</v>
+      </c>
+      <c r="U22">
+        <v>7.23</v>
       </c>
     </row>
     <row r="23" spans="1:21" x14ac:dyDescent="0.25">
@@ -2512,23 +2789,23 @@
       <c r="O23" t="s">
         <v>177</v>
       </c>
-      <c r="P23" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q23" t="s">
-        <v>31</v>
-      </c>
-      <c r="R23" t="s">
-        <v>31</v>
-      </c>
-      <c r="S23" t="s">
-        <v>31</v>
-      </c>
-      <c r="T23" t="s">
-        <v>31</v>
-      </c>
-      <c r="U23" t="s">
-        <v>31</v>
+      <c r="P23">
+        <v>5.4</v>
+      </c>
+      <c r="Q23">
+        <v>5.9</v>
+      </c>
+      <c r="R23">
+        <v>5.7</v>
+      </c>
+      <c r="S23">
+        <v>5.5</v>
+      </c>
+      <c r="T23">
+        <v>5.6</v>
+      </c>
+      <c r="U23">
+        <v>5.6</v>
       </c>
     </row>
     <row r="24" spans="1:21" x14ac:dyDescent="0.25">
@@ -2577,23 +2854,23 @@
       <c r="O24" t="s">
         <v>185</v>
       </c>
-      <c r="P24" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q24" t="s">
-        <v>31</v>
-      </c>
-      <c r="R24" t="s">
-        <v>31</v>
-      </c>
-      <c r="S24" t="s">
-        <v>31</v>
-      </c>
-      <c r="T24" t="s">
-        <v>31</v>
-      </c>
-      <c r="U24" t="s">
-        <v>31</v>
+      <c r="P24">
+        <v>5.6</v>
+      </c>
+      <c r="Q24">
+        <v>5.5</v>
+      </c>
+      <c r="R24">
+        <v>5.7</v>
+      </c>
+      <c r="S24">
+        <v>5.5</v>
+      </c>
+      <c r="T24">
+        <v>5.6</v>
+      </c>
+      <c r="U24">
+        <v>5.57</v>
       </c>
     </row>
     <row r="25" spans="1:21" x14ac:dyDescent="0.25">
@@ -2642,23 +2919,23 @@
       <c r="O25" t="s">
         <v>192</v>
       </c>
-      <c r="P25" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q25" t="s">
-        <v>31</v>
-      </c>
-      <c r="R25" t="s">
-        <v>31</v>
-      </c>
-      <c r="S25" t="s">
-        <v>31</v>
-      </c>
-      <c r="T25" t="s">
-        <v>31</v>
-      </c>
-      <c r="U25" t="s">
-        <v>31</v>
+      <c r="P25">
+        <v>6.7</v>
+      </c>
+      <c r="Q25">
+        <v>6.5</v>
+      </c>
+      <c r="R25">
+        <v>6.5</v>
+      </c>
+      <c r="S25">
+        <v>6.5</v>
+      </c>
+      <c r="T25">
+        <v>6.8</v>
+      </c>
+      <c r="U25">
+        <v>6.57</v>
       </c>
     </row>
     <row r="26" spans="1:21" x14ac:dyDescent="0.25">
@@ -2707,23 +2984,23 @@
       <c r="O26" t="s">
         <v>198</v>
       </c>
-      <c r="P26" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q26" t="s">
-        <v>31</v>
-      </c>
-      <c r="R26" t="s">
-        <v>31</v>
-      </c>
-      <c r="S26" t="s">
-        <v>31</v>
-      </c>
-      <c r="T26" t="s">
-        <v>31</v>
-      </c>
-      <c r="U26" t="s">
-        <v>31</v>
+      <c r="P26">
+        <v>6.3</v>
+      </c>
+      <c r="Q26">
+        <v>6.5</v>
+      </c>
+      <c r="R26">
+        <v>6.1</v>
+      </c>
+      <c r="S26">
+        <v>6.1</v>
+      </c>
+      <c r="T26">
+        <v>6.4</v>
+      </c>
+      <c r="U26">
+        <v>6.27</v>
       </c>
     </row>
     <row r="27" spans="1:21" x14ac:dyDescent="0.25">
@@ -2772,23 +3049,23 @@
       <c r="O27" t="s">
         <v>204</v>
       </c>
-      <c r="P27" t="s">
-        <v>31</v>
-      </c>
-      <c r="Q27" t="s">
-        <v>31</v>
-      </c>
-      <c r="R27" t="s">
-        <v>31</v>
-      </c>
-      <c r="S27" t="s">
-        <v>31</v>
-      </c>
-      <c r="T27" t="s">
-        <v>31</v>
-      </c>
-      <c r="U27" t="s">
-        <v>31</v>
+      <c r="P27">
+        <v>6.1</v>
+      </c>
+      <c r="Q27">
+        <v>6.4</v>
+      </c>
+      <c r="R27">
+        <v>6.3</v>
+      </c>
+      <c r="S27">
+        <v>6.8</v>
+      </c>
+      <c r="T27">
+        <v>6.3</v>
+      </c>
+      <c r="U27">
+        <v>6.33</v>
       </c>
     </row>
   </sheetData>
@@ -2799,7 +3076,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G1"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -2833,27 +3110,6923 @@
         <v>211</v>
       </c>
     </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N157"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>205</v>
+      </c>
+      <c r="B1" t="s">
+        <v>207</v>
+      </c>
+      <c r="C1" t="s">
+        <v>208</v>
+      </c>
+      <c r="D1" t="s">
+        <v>209</v>
+      </c>
+      <c r="E1" t="s">
+        <v>212</v>
+      </c>
+      <c r="F1" t="s">
+        <v>213</v>
+      </c>
+      <c r="G1" t="s">
+        <v>214</v>
+      </c>
+      <c r="H1" t="s">
+        <v>215</v>
+      </c>
+      <c r="I1" t="s">
+        <v>216</v>
+      </c>
+      <c r="J1" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>212</v>
-      </c>
-      <c r="B2" t="s">
-        <v>213</v>
+        <v>222</v>
+      </c>
+      <c r="B2">
+        <v>999</v>
       </c>
       <c r="C2">
-        <v>999</v>
+        <v>58547</v>
       </c>
       <c r="D2">
-        <v>58547</v>
-      </c>
-      <c r="E2">
-        <v>1</v>
-      </c>
-      <c r="F2">
-        <v>1</v>
+        <v>1</v>
+      </c>
+      <c r="E2" t="s">
+        <v>166</v>
+      </c>
+      <c r="F2" t="s">
+        <v>223</v>
       </c>
       <c r="G2" t="s">
-        <v>214</v>
+        <v>167</v>
+      </c>
+      <c r="H2" t="s">
+        <v>224</v>
+      </c>
+      <c r="I2">
+        <v>403096</v>
+      </c>
+      <c r="J2">
+        <v>21</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>7.233333333333333</v>
+      </c>
+      <c r="M2" t="s">
+        <v>31</v>
+      </c>
+      <c r="N2" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>222</v>
+      </c>
+      <c r="B3">
+        <v>999</v>
+      </c>
+      <c r="C3">
+        <v>58547</v>
+      </c>
+      <c r="D3">
+        <v>1</v>
+      </c>
+      <c r="E3" t="s">
+        <v>98</v>
+      </c>
+      <c r="F3" t="s">
+        <v>226</v>
+      </c>
+      <c r="G3" t="s">
+        <v>99</v>
+      </c>
+      <c r="H3" t="s">
+        <v>227</v>
+      </c>
+      <c r="I3">
+        <v>402861</v>
+      </c>
+      <c r="J3">
+        <v>10</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>6.6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>31</v>
+      </c>
+      <c r="N3" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>222</v>
+      </c>
+      <c r="B4">
+        <v>999</v>
+      </c>
+      <c r="C4">
+        <v>58547</v>
+      </c>
+      <c r="D4">
+        <v>1</v>
+      </c>
+      <c r="E4" t="s">
+        <v>22</v>
+      </c>
+      <c r="F4" t="s">
+        <v>229</v>
+      </c>
+      <c r="G4" t="s">
+        <v>25</v>
+      </c>
+      <c r="H4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4">
+        <v>402432</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>6.6</v>
+      </c>
+      <c r="M4" t="s">
+        <v>31</v>
+      </c>
+      <c r="N4" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>222</v>
+      </c>
+      <c r="B5">
+        <v>999</v>
+      </c>
+      <c r="C5">
+        <v>58547</v>
+      </c>
+      <c r="D5">
+        <v>1</v>
+      </c>
+      <c r="E5" t="s">
+        <v>186</v>
+      </c>
+      <c r="F5" t="s">
+        <v>232</v>
+      </c>
+      <c r="G5" t="s">
+        <v>187</v>
+      </c>
+      <c r="H5" t="s">
+        <v>233</v>
+      </c>
+      <c r="I5">
+        <v>402408</v>
+      </c>
+      <c r="J5">
+        <v>24</v>
+      </c>
+      <c r="K5">
+        <v>4</v>
+      </c>
+      <c r="L5">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M5" t="s">
+        <v>31</v>
+      </c>
+      <c r="N5" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>222</v>
+      </c>
+      <c r="B6">
+        <v>999</v>
+      </c>
+      <c r="C6">
+        <v>58547</v>
+      </c>
+      <c r="D6">
+        <v>1</v>
+      </c>
+      <c r="E6" t="s">
+        <v>118</v>
+      </c>
+      <c r="F6" t="s">
+        <v>235</v>
+      </c>
+      <c r="G6" t="s">
+        <v>119</v>
+      </c>
+      <c r="H6" t="s">
+        <v>236</v>
+      </c>
+      <c r="I6">
+        <v>402437</v>
+      </c>
+      <c r="J6">
+        <v>13</v>
+      </c>
+      <c r="K6">
+        <v>4</v>
+      </c>
+      <c r="L6">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M6" t="s">
+        <v>31</v>
+      </c>
+      <c r="N6" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>222</v>
+      </c>
+      <c r="B7">
+        <v>999</v>
+      </c>
+      <c r="C7">
+        <v>58547</v>
+      </c>
+      <c r="D7">
+        <v>1</v>
+      </c>
+      <c r="E7" t="s">
+        <v>75</v>
+      </c>
+      <c r="F7" t="s">
+        <v>238</v>
+      </c>
+      <c r="G7" t="s">
+        <v>77</v>
+      </c>
+      <c r="H7" t="s">
+        <v>239</v>
+      </c>
+      <c r="I7">
+        <v>402396</v>
+      </c>
+      <c r="J7">
+        <v>7</v>
+      </c>
+      <c r="K7">
+        <v>4</v>
+      </c>
+      <c r="L7">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M7" t="s">
+        <v>31</v>
+      </c>
+      <c r="N7" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>222</v>
+      </c>
+      <c r="B8">
+        <v>999</v>
+      </c>
+      <c r="C8">
+        <v>58547</v>
+      </c>
+      <c r="D8">
+        <v>1</v>
+      </c>
+      <c r="E8" t="s">
+        <v>124</v>
+      </c>
+      <c r="F8" t="s">
+        <v>241</v>
+      </c>
+      <c r="G8" t="s">
+        <v>125</v>
+      </c>
+      <c r="H8" t="s">
+        <v>242</v>
+      </c>
+      <c r="I8">
+        <v>402410</v>
+      </c>
+      <c r="J8">
+        <v>14</v>
+      </c>
+      <c r="K8">
+        <v>7</v>
+      </c>
+      <c r="L8">
+        <v>6.466666666666667</v>
+      </c>
+      <c r="M8" t="s">
+        <v>31</v>
+      </c>
+      <c r="N8" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>222</v>
+      </c>
+      <c r="B9">
+        <v>999</v>
+      </c>
+      <c r="C9">
+        <v>58547</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9" t="s">
+        <v>199</v>
+      </c>
+      <c r="F9" t="s">
+        <v>244</v>
+      </c>
+      <c r="G9" t="s">
+        <v>200</v>
+      </c>
+      <c r="H9" t="s">
+        <v>245</v>
+      </c>
+      <c r="I9">
+        <v>402397</v>
+      </c>
+      <c r="J9">
+        <v>26</v>
+      </c>
+      <c r="K9">
+        <v>8</v>
+      </c>
+      <c r="L9">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M9" t="s">
+        <v>31</v>
+      </c>
+      <c r="N9" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>222</v>
+      </c>
+      <c r="B10">
+        <v>999</v>
+      </c>
+      <c r="C10">
+        <v>58547</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10" t="s">
+        <v>89</v>
+      </c>
+      <c r="F10" t="s">
+        <v>247</v>
+      </c>
+      <c r="G10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H10" t="s">
+        <v>248</v>
+      </c>
+      <c r="I10">
+        <v>402412</v>
+      </c>
+      <c r="J10">
+        <v>9</v>
+      </c>
+      <c r="K10">
+        <v>8</v>
+      </c>
+      <c r="L10">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M10" t="s">
+        <v>31</v>
+      </c>
+      <c r="N10" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>222</v>
+      </c>
+      <c r="B11">
+        <v>999</v>
+      </c>
+      <c r="C11">
+        <v>58547</v>
+      </c>
+      <c r="D11">
+        <v>1</v>
+      </c>
+      <c r="E11" t="s">
+        <v>50</v>
+      </c>
+      <c r="F11" t="s">
+        <v>250</v>
+      </c>
+      <c r="G11" t="s">
+        <v>52</v>
+      </c>
+      <c r="H11" t="s">
+        <v>251</v>
+      </c>
+      <c r="I11">
+        <v>402442</v>
+      </c>
+      <c r="J11">
+        <v>4</v>
+      </c>
+      <c r="K11">
+        <v>10</v>
+      </c>
+      <c r="L11">
+        <v>6.3</v>
+      </c>
+      <c r="M11" t="s">
+        <v>31</v>
+      </c>
+      <c r="N11" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>222</v>
+      </c>
+      <c r="B12">
+        <v>999</v>
+      </c>
+      <c r="C12">
+        <v>58547</v>
+      </c>
+      <c r="D12">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>193</v>
+      </c>
+      <c r="F12" t="s">
+        <v>253</v>
+      </c>
+      <c r="G12" t="s">
+        <v>194</v>
+      </c>
+      <c r="H12" t="s">
+        <v>254</v>
+      </c>
+      <c r="I12">
+        <v>402417</v>
+      </c>
+      <c r="J12">
+        <v>25</v>
+      </c>
+      <c r="K12">
+        <v>11</v>
+      </c>
+      <c r="L12">
+        <v>6.266666666666667</v>
+      </c>
+      <c r="M12" t="s">
+        <v>31</v>
+      </c>
+      <c r="N12" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>222</v>
+      </c>
+      <c r="B13">
+        <v>999</v>
+      </c>
+      <c r="C13">
+        <v>58547</v>
+      </c>
+      <c r="D13">
+        <v>1</v>
+      </c>
+      <c r="E13" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" t="s">
+        <v>256</v>
+      </c>
+      <c r="G13" t="s">
+        <v>156</v>
+      </c>
+      <c r="H13" t="s">
+        <v>257</v>
+      </c>
+      <c r="I13">
+        <v>402449</v>
+      </c>
+      <c r="J13">
+        <v>19</v>
+      </c>
+      <c r="K13">
+        <v>12</v>
+      </c>
+      <c r="L13">
+        <v>6.2</v>
+      </c>
+      <c r="M13" t="s">
+        <v>31</v>
+      </c>
+      <c r="N13" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>222</v>
+      </c>
+      <c r="B14">
+        <v>999</v>
+      </c>
+      <c r="C14">
+        <v>58547</v>
+      </c>
+      <c r="D14">
+        <v>1</v>
+      </c>
+      <c r="E14" t="s">
+        <v>136</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" t="s">
+        <v>138</v>
+      </c>
+      <c r="H14" t="s">
+        <v>260</v>
+      </c>
+      <c r="I14">
+        <v>402418</v>
+      </c>
+      <c r="J14">
+        <v>16</v>
+      </c>
+      <c r="K14">
+        <v>12</v>
+      </c>
+      <c r="L14">
+        <v>6.2</v>
+      </c>
+      <c r="M14" t="s">
+        <v>31</v>
+      </c>
+      <c r="N14" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>222</v>
+      </c>
+      <c r="B15">
+        <v>999</v>
+      </c>
+      <c r="C15">
+        <v>58547</v>
+      </c>
+      <c r="D15">
+        <v>1</v>
+      </c>
+      <c r="E15" t="s">
+        <v>110</v>
+      </c>
+      <c r="F15" t="s">
+        <v>262</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>263</v>
+      </c>
+      <c r="I15">
+        <v>402430</v>
+      </c>
+      <c r="J15">
+        <v>12</v>
+      </c>
+      <c r="K15">
+        <v>14</v>
+      </c>
+      <c r="L15">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="M15" t="s">
+        <v>31</v>
+      </c>
+      <c r="N15" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>222</v>
+      </c>
+      <c r="B16">
+        <v>999</v>
+      </c>
+      <c r="C16">
+        <v>58547</v>
+      </c>
+      <c r="D16">
+        <v>1</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" t="s">
+        <v>265</v>
+      </c>
+      <c r="G16" t="s">
+        <v>35</v>
+      </c>
+      <c r="H16" t="s">
+        <v>266</v>
+      </c>
+      <c r="I16">
+        <v>402395</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>15</v>
+      </c>
+      <c r="L16">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="M16" t="s">
+        <v>31</v>
+      </c>
+      <c r="N16" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>222</v>
+      </c>
+      <c r="B17">
+        <v>999</v>
+      </c>
+      <c r="C17">
+        <v>58547</v>
+      </c>
+      <c r="D17">
+        <v>1</v>
+      </c>
+      <c r="E17" t="s">
+        <v>41</v>
+      </c>
+      <c r="F17" t="s">
+        <v>268</v>
+      </c>
+      <c r="G17" t="s">
+        <v>43</v>
+      </c>
+      <c r="H17" t="s">
+        <v>269</v>
+      </c>
+      <c r="I17">
+        <v>402482</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>16</v>
+      </c>
+      <c r="L17">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M17" t="s">
+        <v>31</v>
+      </c>
+      <c r="N17" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>222</v>
+      </c>
+      <c r="B18">
+        <v>999</v>
+      </c>
+      <c r="C18">
+        <v>58547</v>
+      </c>
+      <c r="D18">
+        <v>1</v>
+      </c>
+      <c r="E18" t="s">
+        <v>59</v>
+      </c>
+      <c r="F18" t="s">
+        <v>271</v>
+      </c>
+      <c r="G18" t="s">
+        <v>61</v>
+      </c>
+      <c r="H18" t="s">
+        <v>272</v>
+      </c>
+      <c r="I18">
+        <v>402445</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>16</v>
+      </c>
+      <c r="L18">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M18" t="s">
+        <v>31</v>
+      </c>
+      <c r="N18" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>222</v>
+      </c>
+      <c r="B19">
+        <v>999</v>
+      </c>
+      <c r="C19">
+        <v>58547</v>
+      </c>
+      <c r="D19">
+        <v>1</v>
+      </c>
+      <c r="E19" t="s">
+        <v>67</v>
+      </c>
+      <c r="F19" t="s">
+        <v>274</v>
+      </c>
+      <c r="G19" t="s">
+        <v>69</v>
+      </c>
+      <c r="H19" t="s">
+        <v>275</v>
+      </c>
+      <c r="I19">
+        <v>402425</v>
+      </c>
+      <c r="J19">
+        <v>6</v>
+      </c>
+      <c r="K19">
+        <v>18</v>
+      </c>
+      <c r="L19">
+        <v>5.9</v>
+      </c>
+      <c r="M19" t="s">
+        <v>31</v>
+      </c>
+      <c r="N19" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>222</v>
+      </c>
+      <c r="B20">
+        <v>999</v>
+      </c>
+      <c r="C20">
+        <v>58547</v>
+      </c>
+      <c r="D20">
+        <v>1</v>
+      </c>
+      <c r="E20" t="s">
+        <v>82</v>
+      </c>
+      <c r="F20" t="s">
+        <v>277</v>
+      </c>
+      <c r="G20" t="s">
+        <v>84</v>
+      </c>
+      <c r="H20" t="s">
+        <v>278</v>
+      </c>
+      <c r="I20">
+        <v>402431</v>
+      </c>
+      <c r="J20">
+        <v>8</v>
+      </c>
+      <c r="K20">
+        <v>19</v>
+      </c>
+      <c r="L20">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M20" t="s">
+        <v>31</v>
+      </c>
+      <c r="N20" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>222</v>
+      </c>
+      <c r="B21">
+        <v>999</v>
+      </c>
+      <c r="C21">
+        <v>58547</v>
+      </c>
+      <c r="D21">
+        <v>1</v>
+      </c>
+      <c r="E21" t="s">
+        <v>130</v>
+      </c>
+      <c r="F21" t="s">
+        <v>280</v>
+      </c>
+      <c r="G21" t="s">
+        <v>131</v>
+      </c>
+      <c r="H21" t="s">
+        <v>281</v>
+      </c>
+      <c r="I21">
+        <v>402423</v>
+      </c>
+      <c r="J21">
+        <v>15</v>
+      </c>
+      <c r="K21">
+        <v>20</v>
+      </c>
+      <c r="L21">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M21" t="s">
+        <v>31</v>
+      </c>
+      <c r="N21" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>222</v>
+      </c>
+      <c r="B22">
+        <v>999</v>
+      </c>
+      <c r="C22">
+        <v>58547</v>
+      </c>
+      <c r="D22">
+        <v>1</v>
+      </c>
+      <c r="E22" t="s">
+        <v>149</v>
+      </c>
+      <c r="F22" t="s">
+        <v>283</v>
+      </c>
+      <c r="G22" t="s">
+        <v>150</v>
+      </c>
+      <c r="H22" t="s">
+        <v>284</v>
+      </c>
+      <c r="I22">
+        <v>402479</v>
+      </c>
+      <c r="J22">
+        <v>18</v>
+      </c>
+      <c r="K22">
+        <v>20</v>
+      </c>
+      <c r="L22">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M22" t="s">
+        <v>31</v>
+      </c>
+      <c r="N22" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>222</v>
+      </c>
+      <c r="B23">
+        <v>999</v>
+      </c>
+      <c r="C23">
+        <v>58547</v>
+      </c>
+      <c r="D23">
+        <v>1</v>
+      </c>
+      <c r="E23" t="s">
+        <v>172</v>
+      </c>
+      <c r="F23" t="s">
+        <v>286</v>
+      </c>
+      <c r="G23" t="s">
+        <v>173</v>
+      </c>
+      <c r="H23" t="s">
+        <v>287</v>
+      </c>
+      <c r="I23">
+        <v>402421</v>
+      </c>
+      <c r="J23">
+        <v>22</v>
+      </c>
+      <c r="K23">
+        <v>22</v>
+      </c>
+      <c r="L23">
+        <v>5.6</v>
+      </c>
+      <c r="M23" t="s">
+        <v>31</v>
+      </c>
+      <c r="N23" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>222</v>
+      </c>
+      <c r="B24">
+        <v>999</v>
+      </c>
+      <c r="C24">
+        <v>58547</v>
+      </c>
+      <c r="D24">
+        <v>1</v>
+      </c>
+      <c r="E24" t="s">
+        <v>178</v>
+      </c>
+      <c r="F24" t="s">
+        <v>289</v>
+      </c>
+      <c r="G24" t="s">
+        <v>180</v>
+      </c>
+      <c r="H24" t="s">
+        <v>290</v>
+      </c>
+      <c r="I24">
+        <v>402392</v>
+      </c>
+      <c r="J24">
+        <v>23</v>
+      </c>
+      <c r="K24">
+        <v>23</v>
+      </c>
+      <c r="L24">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="M24" t="s">
+        <v>31</v>
+      </c>
+      <c r="N24" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>222</v>
+      </c>
+      <c r="B25">
+        <v>999</v>
+      </c>
+      <c r="C25">
+        <v>58547</v>
+      </c>
+      <c r="D25">
+        <v>1</v>
+      </c>
+      <c r="E25" t="s">
+        <v>144</v>
+      </c>
+      <c r="F25" t="s">
+        <v>292</v>
+      </c>
+      <c r="G25" t="s">
+        <v>145</v>
+      </c>
+      <c r="H25" t="s">
+        <v>293</v>
+      </c>
+      <c r="I25">
+        <v>402415</v>
+      </c>
+      <c r="J25">
+        <v>17</v>
+      </c>
+      <c r="K25">
+        <v>24</v>
+      </c>
+      <c r="L25">
+        <v>5.433333333333334</v>
+      </c>
+      <c r="M25" t="s">
+        <v>31</v>
+      </c>
+      <c r="N25" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>222</v>
+      </c>
+      <c r="B26">
+        <v>999</v>
+      </c>
+      <c r="C26">
+        <v>58547</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+      <c r="E26" t="s">
+        <v>159</v>
+      </c>
+      <c r="F26" t="s">
+        <v>295</v>
+      </c>
+      <c r="G26" t="s">
+        <v>160</v>
+      </c>
+      <c r="H26" t="s">
+        <v>296</v>
+      </c>
+      <c r="I26">
+        <v>402407</v>
+      </c>
+      <c r="J26">
+        <v>20</v>
+      </c>
+      <c r="K26">
+        <v>25</v>
+      </c>
+      <c r="L26">
+        <v>5.4</v>
+      </c>
+      <c r="M26" t="s">
+        <v>31</v>
+      </c>
+      <c r="N26" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>222</v>
+      </c>
+      <c r="B27">
+        <v>999</v>
+      </c>
+      <c r="C27">
+        <v>58547</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27" t="s">
+        <v>103</v>
+      </c>
+      <c r="F27" t="s">
+        <v>298</v>
+      </c>
+      <c r="G27" t="s">
+        <v>105</v>
+      </c>
+      <c r="H27" t="s">
+        <v>299</v>
+      </c>
+      <c r="I27">
+        <v>402393</v>
+      </c>
+      <c r="J27">
+        <v>11</v>
+      </c>
+      <c r="K27">
+        <v>26</v>
+      </c>
+      <c r="L27">
+        <v>3.8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>31</v>
+      </c>
+      <c r="N27" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>301</v>
+      </c>
+      <c r="B28">
+        <v>999</v>
+      </c>
+      <c r="C28">
+        <v>58547</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>166</v>
+      </c>
+      <c r="F28" t="s">
+        <v>223</v>
+      </c>
+      <c r="G28" t="s">
+        <v>167</v>
+      </c>
+      <c r="H28" t="s">
+        <v>224</v>
+      </c>
+      <c r="I28">
+        <v>403096</v>
+      </c>
+      <c r="J28">
+        <v>21</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>7.233333333333333</v>
+      </c>
+      <c r="M28" t="s">
+        <v>31</v>
+      </c>
+      <c r="N28" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>301</v>
+      </c>
+      <c r="B29">
+        <v>999</v>
+      </c>
+      <c r="C29">
+        <v>58547</v>
+      </c>
+      <c r="D29">
+        <v>1</v>
+      </c>
+      <c r="E29" t="s">
+        <v>98</v>
+      </c>
+      <c r="F29" t="s">
+        <v>226</v>
+      </c>
+      <c r="G29" t="s">
+        <v>99</v>
+      </c>
+      <c r="H29" t="s">
+        <v>227</v>
+      </c>
+      <c r="I29">
+        <v>402861</v>
+      </c>
+      <c r="J29">
+        <v>10</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>6.6</v>
+      </c>
+      <c r="M29" t="s">
+        <v>31</v>
+      </c>
+      <c r="N29" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>301</v>
+      </c>
+      <c r="B30">
+        <v>999</v>
+      </c>
+      <c r="C30">
+        <v>58547</v>
+      </c>
+      <c r="D30">
+        <v>1</v>
+      </c>
+      <c r="E30" t="s">
+        <v>22</v>
+      </c>
+      <c r="F30" t="s">
+        <v>229</v>
+      </c>
+      <c r="G30" t="s">
+        <v>25</v>
+      </c>
+      <c r="H30" t="s">
+        <v>230</v>
+      </c>
+      <c r="I30">
+        <v>402432</v>
+      </c>
+      <c r="J30">
+        <v>1</v>
+      </c>
+      <c r="K30">
+        <v>2</v>
+      </c>
+      <c r="L30">
+        <v>6.6</v>
+      </c>
+      <c r="M30" t="s">
+        <v>31</v>
+      </c>
+      <c r="N30" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>301</v>
+      </c>
+      <c r="B31">
+        <v>999</v>
+      </c>
+      <c r="C31">
+        <v>58547</v>
+      </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
+      <c r="E31" t="s">
+        <v>186</v>
+      </c>
+      <c r="F31" t="s">
+        <v>232</v>
+      </c>
+      <c r="G31" t="s">
+        <v>187</v>
+      </c>
+      <c r="H31" t="s">
+        <v>233</v>
+      </c>
+      <c r="I31">
+        <v>402408</v>
+      </c>
+      <c r="J31">
+        <v>24</v>
+      </c>
+      <c r="K31">
+        <v>4</v>
+      </c>
+      <c r="L31">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M31" t="s">
+        <v>31</v>
+      </c>
+      <c r="N31" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>301</v>
+      </c>
+      <c r="B32">
+        <v>999</v>
+      </c>
+      <c r="C32">
+        <v>58547</v>
+      </c>
+      <c r="D32">
+        <v>1</v>
+      </c>
+      <c r="E32" t="s">
+        <v>118</v>
+      </c>
+      <c r="F32" t="s">
+        <v>235</v>
+      </c>
+      <c r="G32" t="s">
+        <v>119</v>
+      </c>
+      <c r="H32" t="s">
+        <v>236</v>
+      </c>
+      <c r="I32">
+        <v>402437</v>
+      </c>
+      <c r="J32">
+        <v>13</v>
+      </c>
+      <c r="K32">
+        <v>4</v>
+      </c>
+      <c r="L32">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M32" t="s">
+        <v>31</v>
+      </c>
+      <c r="N32" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>301</v>
+      </c>
+      <c r="B33">
+        <v>999</v>
+      </c>
+      <c r="C33">
+        <v>58547</v>
+      </c>
+      <c r="D33">
+        <v>1</v>
+      </c>
+      <c r="E33" t="s">
+        <v>75</v>
+      </c>
+      <c r="F33" t="s">
+        <v>238</v>
+      </c>
+      <c r="G33" t="s">
+        <v>77</v>
+      </c>
+      <c r="H33" t="s">
+        <v>239</v>
+      </c>
+      <c r="I33">
+        <v>402396</v>
+      </c>
+      <c r="J33">
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <v>4</v>
+      </c>
+      <c r="L33">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M33" t="s">
+        <v>31</v>
+      </c>
+      <c r="N33" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>301</v>
+      </c>
+      <c r="B34">
+        <v>999</v>
+      </c>
+      <c r="C34">
+        <v>58547</v>
+      </c>
+      <c r="D34">
+        <v>1</v>
+      </c>
+      <c r="E34" t="s">
+        <v>124</v>
+      </c>
+      <c r="F34" t="s">
+        <v>241</v>
+      </c>
+      <c r="G34" t="s">
+        <v>125</v>
+      </c>
+      <c r="H34" t="s">
+        <v>242</v>
+      </c>
+      <c r="I34">
+        <v>402410</v>
+      </c>
+      <c r="J34">
+        <v>14</v>
+      </c>
+      <c r="K34">
+        <v>7</v>
+      </c>
+      <c r="L34">
+        <v>6.466666666666667</v>
+      </c>
+      <c r="M34" t="s">
+        <v>31</v>
+      </c>
+      <c r="N34" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>301</v>
+      </c>
+      <c r="B35">
+        <v>999</v>
+      </c>
+      <c r="C35">
+        <v>58547</v>
+      </c>
+      <c r="D35">
+        <v>1</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>244</v>
+      </c>
+      <c r="G35" t="s">
+        <v>200</v>
+      </c>
+      <c r="H35" t="s">
+        <v>245</v>
+      </c>
+      <c r="I35">
+        <v>402397</v>
+      </c>
+      <c r="J35">
+        <v>26</v>
+      </c>
+      <c r="K35">
+        <v>8</v>
+      </c>
+      <c r="L35">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M35" t="s">
+        <v>31</v>
+      </c>
+      <c r="N35" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>301</v>
+      </c>
+      <c r="B36">
+        <v>999</v>
+      </c>
+      <c r="C36">
+        <v>58547</v>
+      </c>
+      <c r="D36">
+        <v>1</v>
+      </c>
+      <c r="E36" t="s">
+        <v>89</v>
+      </c>
+      <c r="F36" t="s">
+        <v>247</v>
+      </c>
+      <c r="G36" t="s">
+        <v>91</v>
+      </c>
+      <c r="H36" t="s">
+        <v>248</v>
+      </c>
+      <c r="I36">
+        <v>402412</v>
+      </c>
+      <c r="J36">
+        <v>9</v>
+      </c>
+      <c r="K36">
+        <v>8</v>
+      </c>
+      <c r="L36">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M36" t="s">
+        <v>31</v>
+      </c>
+      <c r="N36" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>301</v>
+      </c>
+      <c r="B37">
+        <v>999</v>
+      </c>
+      <c r="C37">
+        <v>58547</v>
+      </c>
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37" t="s">
+        <v>50</v>
+      </c>
+      <c r="F37" t="s">
+        <v>250</v>
+      </c>
+      <c r="G37" t="s">
+        <v>52</v>
+      </c>
+      <c r="H37" t="s">
+        <v>251</v>
+      </c>
+      <c r="I37">
+        <v>402442</v>
+      </c>
+      <c r="J37">
+        <v>4</v>
+      </c>
+      <c r="K37">
+        <v>10</v>
+      </c>
+      <c r="L37">
+        <v>6.3</v>
+      </c>
+      <c r="M37" t="s">
+        <v>31</v>
+      </c>
+      <c r="N37" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>301</v>
+      </c>
+      <c r="B38">
+        <v>999</v>
+      </c>
+      <c r="C38">
+        <v>58547</v>
+      </c>
+      <c r="D38">
+        <v>1</v>
+      </c>
+      <c r="E38" t="s">
+        <v>193</v>
+      </c>
+      <c r="F38" t="s">
+        <v>253</v>
+      </c>
+      <c r="G38" t="s">
+        <v>194</v>
+      </c>
+      <c r="H38" t="s">
+        <v>254</v>
+      </c>
+      <c r="I38">
+        <v>402417</v>
+      </c>
+      <c r="J38">
+        <v>25</v>
+      </c>
+      <c r="K38">
+        <v>11</v>
+      </c>
+      <c r="L38">
+        <v>6.266666666666667</v>
+      </c>
+      <c r="M38" t="s">
+        <v>31</v>
+      </c>
+      <c r="N38" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>301</v>
+      </c>
+      <c r="B39">
+        <v>999</v>
+      </c>
+      <c r="C39">
+        <v>58547</v>
+      </c>
+      <c r="D39">
+        <v>1</v>
+      </c>
+      <c r="E39" t="s">
+        <v>98</v>
+      </c>
+      <c r="F39" t="s">
+        <v>256</v>
+      </c>
+      <c r="G39" t="s">
+        <v>156</v>
+      </c>
+      <c r="H39" t="s">
+        <v>257</v>
+      </c>
+      <c r="I39">
+        <v>402449</v>
+      </c>
+      <c r="J39">
+        <v>19</v>
+      </c>
+      <c r="K39">
+        <v>12</v>
+      </c>
+      <c r="L39">
+        <v>6.2</v>
+      </c>
+      <c r="M39" t="s">
+        <v>31</v>
+      </c>
+      <c r="N39" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>301</v>
+      </c>
+      <c r="B40">
+        <v>999</v>
+      </c>
+      <c r="C40">
+        <v>58547</v>
+      </c>
+      <c r="D40">
+        <v>1</v>
+      </c>
+      <c r="E40" t="s">
+        <v>136</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" t="s">
+        <v>138</v>
+      </c>
+      <c r="H40" t="s">
+        <v>260</v>
+      </c>
+      <c r="I40">
+        <v>402418</v>
+      </c>
+      <c r="J40">
+        <v>16</v>
+      </c>
+      <c r="K40">
+        <v>12</v>
+      </c>
+      <c r="L40">
+        <v>6.2</v>
+      </c>
+      <c r="M40" t="s">
+        <v>31</v>
+      </c>
+      <c r="N40" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>301</v>
+      </c>
+      <c r="B41">
+        <v>999</v>
+      </c>
+      <c r="C41">
+        <v>58547</v>
+      </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
+      <c r="E41" t="s">
+        <v>110</v>
+      </c>
+      <c r="F41" t="s">
+        <v>262</v>
+      </c>
+      <c r="G41" t="s">
+        <v>112</v>
+      </c>
+      <c r="H41" t="s">
+        <v>263</v>
+      </c>
+      <c r="I41">
+        <v>402430</v>
+      </c>
+      <c r="J41">
+        <v>12</v>
+      </c>
+      <c r="K41">
+        <v>14</v>
+      </c>
+      <c r="L41">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="M41" t="s">
+        <v>31</v>
+      </c>
+      <c r="N41" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>301</v>
+      </c>
+      <c r="B42">
+        <v>999</v>
+      </c>
+      <c r="C42">
+        <v>58547</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
+      </c>
+      <c r="E42" t="s">
+        <v>33</v>
+      </c>
+      <c r="F42" t="s">
+        <v>265</v>
+      </c>
+      <c r="G42" t="s">
+        <v>35</v>
+      </c>
+      <c r="H42" t="s">
+        <v>266</v>
+      </c>
+      <c r="I42">
+        <v>402395</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>15</v>
+      </c>
+      <c r="L42">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="M42" t="s">
+        <v>31</v>
+      </c>
+      <c r="N42" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>301</v>
+      </c>
+      <c r="B43">
+        <v>999</v>
+      </c>
+      <c r="C43">
+        <v>58547</v>
+      </c>
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43" t="s">
+        <v>41</v>
+      </c>
+      <c r="F43" t="s">
+        <v>268</v>
+      </c>
+      <c r="G43" t="s">
+        <v>43</v>
+      </c>
+      <c r="H43" t="s">
+        <v>269</v>
+      </c>
+      <c r="I43">
+        <v>402482</v>
+      </c>
+      <c r="J43">
+        <v>3</v>
+      </c>
+      <c r="K43">
+        <v>16</v>
+      </c>
+      <c r="L43">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M43" t="s">
+        <v>31</v>
+      </c>
+      <c r="N43" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>301</v>
+      </c>
+      <c r="B44">
+        <v>999</v>
+      </c>
+      <c r="C44">
+        <v>58547</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44" t="s">
+        <v>59</v>
+      </c>
+      <c r="F44" t="s">
+        <v>271</v>
+      </c>
+      <c r="G44" t="s">
+        <v>61</v>
+      </c>
+      <c r="H44" t="s">
+        <v>272</v>
+      </c>
+      <c r="I44">
+        <v>402445</v>
+      </c>
+      <c r="J44">
+        <v>5</v>
+      </c>
+      <c r="K44">
+        <v>16</v>
+      </c>
+      <c r="L44">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M44" t="s">
+        <v>31</v>
+      </c>
+      <c r="N44" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>301</v>
+      </c>
+      <c r="B45">
+        <v>999</v>
+      </c>
+      <c r="C45">
+        <v>58547</v>
+      </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45" t="s">
+        <v>67</v>
+      </c>
+      <c r="F45" t="s">
+        <v>274</v>
+      </c>
+      <c r="G45" t="s">
+        <v>69</v>
+      </c>
+      <c r="H45" t="s">
+        <v>275</v>
+      </c>
+      <c r="I45">
+        <v>402425</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>18</v>
+      </c>
+      <c r="L45">
+        <v>5.9</v>
+      </c>
+      <c r="M45" t="s">
+        <v>31</v>
+      </c>
+      <c r="N45" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>301</v>
+      </c>
+      <c r="B46">
+        <v>999</v>
+      </c>
+      <c r="C46">
+        <v>58547</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46" t="s">
+        <v>82</v>
+      </c>
+      <c r="F46" t="s">
+        <v>277</v>
+      </c>
+      <c r="G46" t="s">
+        <v>84</v>
+      </c>
+      <c r="H46" t="s">
+        <v>278</v>
+      </c>
+      <c r="I46">
+        <v>402431</v>
+      </c>
+      <c r="J46">
+        <v>8</v>
+      </c>
+      <c r="K46">
+        <v>19</v>
+      </c>
+      <c r="L46">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M46" t="s">
+        <v>31</v>
+      </c>
+      <c r="N46" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>301</v>
+      </c>
+      <c r="B47">
+        <v>999</v>
+      </c>
+      <c r="C47">
+        <v>58547</v>
+      </c>
+      <c r="D47">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>130</v>
+      </c>
+      <c r="F47" t="s">
+        <v>280</v>
+      </c>
+      <c r="G47" t="s">
+        <v>131</v>
+      </c>
+      <c r="H47" t="s">
+        <v>281</v>
+      </c>
+      <c r="I47">
+        <v>402423</v>
+      </c>
+      <c r="J47">
+        <v>15</v>
+      </c>
+      <c r="K47">
+        <v>20</v>
+      </c>
+      <c r="L47">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M47" t="s">
+        <v>31</v>
+      </c>
+      <c r="N47" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>301</v>
+      </c>
+      <c r="B48">
+        <v>999</v>
+      </c>
+      <c r="C48">
+        <v>58547</v>
+      </c>
+      <c r="D48">
+        <v>1</v>
+      </c>
+      <c r="E48" t="s">
+        <v>149</v>
+      </c>
+      <c r="F48" t="s">
+        <v>283</v>
+      </c>
+      <c r="G48" t="s">
+        <v>150</v>
+      </c>
+      <c r="H48" t="s">
+        <v>284</v>
+      </c>
+      <c r="I48">
+        <v>402479</v>
+      </c>
+      <c r="J48">
+        <v>18</v>
+      </c>
+      <c r="K48">
+        <v>20</v>
+      </c>
+      <c r="L48">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M48" t="s">
+        <v>31</v>
+      </c>
+      <c r="N48" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>301</v>
+      </c>
+      <c r="B49">
+        <v>999</v>
+      </c>
+      <c r="C49">
+        <v>58547</v>
+      </c>
+      <c r="D49">
+        <v>1</v>
+      </c>
+      <c r="E49" t="s">
+        <v>172</v>
+      </c>
+      <c r="F49" t="s">
+        <v>286</v>
+      </c>
+      <c r="G49" t="s">
+        <v>173</v>
+      </c>
+      <c r="H49" t="s">
+        <v>287</v>
+      </c>
+      <c r="I49">
+        <v>402421</v>
+      </c>
+      <c r="J49">
+        <v>22</v>
+      </c>
+      <c r="K49">
+        <v>22</v>
+      </c>
+      <c r="L49">
+        <v>5.6</v>
+      </c>
+      <c r="M49" t="s">
+        <v>31</v>
+      </c>
+      <c r="N49" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>301</v>
+      </c>
+      <c r="B50">
+        <v>999</v>
+      </c>
+      <c r="C50">
+        <v>58547</v>
+      </c>
+      <c r="D50">
+        <v>1</v>
+      </c>
+      <c r="E50" t="s">
+        <v>178</v>
+      </c>
+      <c r="F50" t="s">
+        <v>289</v>
+      </c>
+      <c r="G50" t="s">
+        <v>180</v>
+      </c>
+      <c r="H50" t="s">
+        <v>290</v>
+      </c>
+      <c r="I50">
+        <v>402392</v>
+      </c>
+      <c r="J50">
+        <v>23</v>
+      </c>
+      <c r="K50">
+        <v>23</v>
+      </c>
+      <c r="L50">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="M50" t="s">
+        <v>31</v>
+      </c>
+      <c r="N50" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>301</v>
+      </c>
+      <c r="B51">
+        <v>999</v>
+      </c>
+      <c r="C51">
+        <v>58547</v>
+      </c>
+      <c r="D51">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>144</v>
+      </c>
+      <c r="F51" t="s">
+        <v>292</v>
+      </c>
+      <c r="G51" t="s">
+        <v>145</v>
+      </c>
+      <c r="H51" t="s">
+        <v>293</v>
+      </c>
+      <c r="I51">
+        <v>402415</v>
+      </c>
+      <c r="J51">
+        <v>17</v>
+      </c>
+      <c r="K51">
+        <v>24</v>
+      </c>
+      <c r="L51">
+        <v>5.433333333333334</v>
+      </c>
+      <c r="M51" t="s">
+        <v>31</v>
+      </c>
+      <c r="N51" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>301</v>
+      </c>
+      <c r="B52">
+        <v>999</v>
+      </c>
+      <c r="C52">
+        <v>58547</v>
+      </c>
+      <c r="D52">
+        <v>1</v>
+      </c>
+      <c r="E52" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" t="s">
+        <v>295</v>
+      </c>
+      <c r="G52" t="s">
+        <v>160</v>
+      </c>
+      <c r="H52" t="s">
+        <v>296</v>
+      </c>
+      <c r="I52">
+        <v>402407</v>
+      </c>
+      <c r="J52">
+        <v>20</v>
+      </c>
+      <c r="K52">
+        <v>25</v>
+      </c>
+      <c r="L52">
+        <v>5.4</v>
+      </c>
+      <c r="M52" t="s">
+        <v>31</v>
+      </c>
+      <c r="N52" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>301</v>
+      </c>
+      <c r="B53">
+        <v>999</v>
+      </c>
+      <c r="C53">
+        <v>58547</v>
+      </c>
+      <c r="D53">
+        <v>1</v>
+      </c>
+      <c r="E53" t="s">
+        <v>103</v>
+      </c>
+      <c r="F53" t="s">
+        <v>298</v>
+      </c>
+      <c r="G53" t="s">
+        <v>105</v>
+      </c>
+      <c r="H53" t="s">
+        <v>299</v>
+      </c>
+      <c r="I53">
+        <v>402393</v>
+      </c>
+      <c r="J53">
+        <v>11</v>
+      </c>
+      <c r="K53">
+        <v>26</v>
+      </c>
+      <c r="L53">
+        <v>3.8</v>
+      </c>
+      <c r="M53" t="s">
+        <v>31</v>
+      </c>
+      <c r="N53" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>302</v>
+      </c>
+      <c r="B54">
+        <v>999</v>
+      </c>
+      <c r="C54">
+        <v>58547</v>
+      </c>
+      <c r="D54">
+        <v>1</v>
+      </c>
+      <c r="E54" t="s">
+        <v>166</v>
+      </c>
+      <c r="F54" t="s">
+        <v>223</v>
+      </c>
+      <c r="G54" t="s">
+        <v>167</v>
+      </c>
+      <c r="H54" t="s">
+        <v>224</v>
+      </c>
+      <c r="I54">
+        <v>403096</v>
+      </c>
+      <c r="J54">
+        <v>21</v>
+      </c>
+      <c r="K54">
+        <v>1</v>
+      </c>
+      <c r="L54">
+        <v>7.233333333333333</v>
+      </c>
+      <c r="M54" t="s">
+        <v>31</v>
+      </c>
+      <c r="N54" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>302</v>
+      </c>
+      <c r="B55">
+        <v>999</v>
+      </c>
+      <c r="C55">
+        <v>58547</v>
+      </c>
+      <c r="D55">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>22</v>
+      </c>
+      <c r="F55" t="s">
+        <v>229</v>
+      </c>
+      <c r="G55" t="s">
+        <v>25</v>
+      </c>
+      <c r="H55" t="s">
+        <v>230</v>
+      </c>
+      <c r="I55">
+        <v>402432</v>
+      </c>
+      <c r="J55">
+        <v>1</v>
+      </c>
+      <c r="K55">
+        <v>2</v>
+      </c>
+      <c r="L55">
+        <v>6.6</v>
+      </c>
+      <c r="M55" t="s">
+        <v>31</v>
+      </c>
+      <c r="N55" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>302</v>
+      </c>
+      <c r="B56">
+        <v>999</v>
+      </c>
+      <c r="C56">
+        <v>58547</v>
+      </c>
+      <c r="D56">
+        <v>1</v>
+      </c>
+      <c r="E56" t="s">
+        <v>98</v>
+      </c>
+      <c r="F56" t="s">
+        <v>226</v>
+      </c>
+      <c r="G56" t="s">
+        <v>99</v>
+      </c>
+      <c r="H56" t="s">
+        <v>227</v>
+      </c>
+      <c r="I56">
+        <v>402861</v>
+      </c>
+      <c r="J56">
+        <v>10</v>
+      </c>
+      <c r="K56">
+        <v>2</v>
+      </c>
+      <c r="L56">
+        <v>6.6</v>
+      </c>
+      <c r="M56" t="s">
+        <v>31</v>
+      </c>
+      <c r="N56" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>302</v>
+      </c>
+      <c r="B57">
+        <v>999</v>
+      </c>
+      <c r="C57">
+        <v>58547</v>
+      </c>
+      <c r="D57">
+        <v>1</v>
+      </c>
+      <c r="E57" t="s">
+        <v>118</v>
+      </c>
+      <c r="F57" t="s">
+        <v>235</v>
+      </c>
+      <c r="G57" t="s">
+        <v>119</v>
+      </c>
+      <c r="H57" t="s">
+        <v>236</v>
+      </c>
+      <c r="I57">
+        <v>402437</v>
+      </c>
+      <c r="J57">
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <v>4</v>
+      </c>
+      <c r="L57">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M57" t="s">
+        <v>31</v>
+      </c>
+      <c r="N57" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>302</v>
+      </c>
+      <c r="B58">
+        <v>999</v>
+      </c>
+      <c r="C58">
+        <v>58547</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>186</v>
+      </c>
+      <c r="F58" t="s">
+        <v>232</v>
+      </c>
+      <c r="G58" t="s">
+        <v>187</v>
+      </c>
+      <c r="H58" t="s">
+        <v>233</v>
+      </c>
+      <c r="I58">
+        <v>402408</v>
+      </c>
+      <c r="J58">
+        <v>24</v>
+      </c>
+      <c r="K58">
+        <v>4</v>
+      </c>
+      <c r="L58">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M58" t="s">
+        <v>31</v>
+      </c>
+      <c r="N58" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>302</v>
+      </c>
+      <c r="B59">
+        <v>999</v>
+      </c>
+      <c r="C59">
+        <v>58547</v>
+      </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
+      <c r="E59" t="s">
+        <v>75</v>
+      </c>
+      <c r="F59" t="s">
+        <v>238</v>
+      </c>
+      <c r="G59" t="s">
+        <v>77</v>
+      </c>
+      <c r="H59" t="s">
+        <v>239</v>
+      </c>
+      <c r="I59">
+        <v>402396</v>
+      </c>
+      <c r="J59">
+        <v>7</v>
+      </c>
+      <c r="K59">
+        <v>4</v>
+      </c>
+      <c r="L59">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M59" t="s">
+        <v>31</v>
+      </c>
+      <c r="N59" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>302</v>
+      </c>
+      <c r="B60">
+        <v>999</v>
+      </c>
+      <c r="C60">
+        <v>58547</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="E60" t="s">
+        <v>124</v>
+      </c>
+      <c r="F60" t="s">
+        <v>241</v>
+      </c>
+      <c r="G60" t="s">
+        <v>125</v>
+      </c>
+      <c r="H60" t="s">
+        <v>242</v>
+      </c>
+      <c r="I60">
+        <v>402410</v>
+      </c>
+      <c r="J60">
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <v>7</v>
+      </c>
+      <c r="L60">
+        <v>6.466666666666667</v>
+      </c>
+      <c r="M60" t="s">
+        <v>31</v>
+      </c>
+      <c r="N60" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>302</v>
+      </c>
+      <c r="B61">
+        <v>999</v>
+      </c>
+      <c r="C61">
+        <v>58547</v>
+      </c>
+      <c r="D61">
+        <v>1</v>
+      </c>
+      <c r="E61" t="s">
+        <v>199</v>
+      </c>
+      <c r="F61" t="s">
+        <v>244</v>
+      </c>
+      <c r="G61" t="s">
+        <v>200</v>
+      </c>
+      <c r="H61" t="s">
+        <v>245</v>
+      </c>
+      <c r="I61">
+        <v>402397</v>
+      </c>
+      <c r="J61">
+        <v>26</v>
+      </c>
+      <c r="K61">
+        <v>8</v>
+      </c>
+      <c r="L61">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M61" t="s">
+        <v>31</v>
+      </c>
+      <c r="N61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>303</v>
+      </c>
+      <c r="B62">
+        <v>999</v>
+      </c>
+      <c r="C62">
+        <v>58547</v>
+      </c>
+      <c r="D62">
+        <v>1</v>
+      </c>
+      <c r="E62" t="s">
+        <v>89</v>
+      </c>
+      <c r="F62" t="s">
+        <v>247</v>
+      </c>
+      <c r="G62" t="s">
+        <v>91</v>
+      </c>
+      <c r="H62" t="s">
+        <v>248</v>
+      </c>
+      <c r="I62">
+        <v>402412</v>
+      </c>
+      <c r="J62">
+        <v>9</v>
+      </c>
+      <c r="K62">
+        <v>8</v>
+      </c>
+      <c r="L62">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M62" t="s">
+        <v>31</v>
+      </c>
+      <c r="N62" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>303</v>
+      </c>
+      <c r="B63">
+        <v>999</v>
+      </c>
+      <c r="C63">
+        <v>58547</v>
+      </c>
+      <c r="D63">
+        <v>1</v>
+      </c>
+      <c r="E63" t="s">
+        <v>50</v>
+      </c>
+      <c r="F63" t="s">
+        <v>250</v>
+      </c>
+      <c r="G63" t="s">
+        <v>52</v>
+      </c>
+      <c r="H63" t="s">
+        <v>251</v>
+      </c>
+      <c r="I63">
+        <v>402442</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+      <c r="K63">
+        <v>10</v>
+      </c>
+      <c r="L63">
+        <v>6.3</v>
+      </c>
+      <c r="M63" t="s">
+        <v>31</v>
+      </c>
+      <c r="N63" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>303</v>
+      </c>
+      <c r="B64">
+        <v>999</v>
+      </c>
+      <c r="C64">
+        <v>58547</v>
+      </c>
+      <c r="D64">
+        <v>1</v>
+      </c>
+      <c r="E64" t="s">
+        <v>193</v>
+      </c>
+      <c r="F64" t="s">
+        <v>253</v>
+      </c>
+      <c r="G64" t="s">
+        <v>194</v>
+      </c>
+      <c r="H64" t="s">
+        <v>254</v>
+      </c>
+      <c r="I64">
+        <v>402417</v>
+      </c>
+      <c r="J64">
+        <v>25</v>
+      </c>
+      <c r="K64">
+        <v>11</v>
+      </c>
+      <c r="L64">
+        <v>6.266666666666667</v>
+      </c>
+      <c r="M64" t="s">
+        <v>31</v>
+      </c>
+      <c r="N64" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>303</v>
+      </c>
+      <c r="B65">
+        <v>999</v>
+      </c>
+      <c r="C65">
+        <v>58547</v>
+      </c>
+      <c r="D65">
+        <v>1</v>
+      </c>
+      <c r="E65" t="s">
+        <v>98</v>
+      </c>
+      <c r="F65" t="s">
+        <v>256</v>
+      </c>
+      <c r="G65" t="s">
+        <v>156</v>
+      </c>
+      <c r="H65" t="s">
+        <v>257</v>
+      </c>
+      <c r="I65">
+        <v>402449</v>
+      </c>
+      <c r="J65">
+        <v>19</v>
+      </c>
+      <c r="K65">
+        <v>12</v>
+      </c>
+      <c r="L65">
+        <v>6.2</v>
+      </c>
+      <c r="M65" t="s">
+        <v>31</v>
+      </c>
+      <c r="N65" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>303</v>
+      </c>
+      <c r="B66">
+        <v>999</v>
+      </c>
+      <c r="C66">
+        <v>58547</v>
+      </c>
+      <c r="D66">
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>136</v>
+      </c>
+      <c r="F66" t="s">
+        <v>259</v>
+      </c>
+      <c r="G66" t="s">
+        <v>138</v>
+      </c>
+      <c r="H66" t="s">
+        <v>260</v>
+      </c>
+      <c r="I66">
+        <v>402418</v>
+      </c>
+      <c r="J66">
+        <v>16</v>
+      </c>
+      <c r="K66">
+        <v>12</v>
+      </c>
+      <c r="L66">
+        <v>6.2</v>
+      </c>
+      <c r="M66" t="s">
+        <v>31</v>
+      </c>
+      <c r="N66" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>303</v>
+      </c>
+      <c r="B67">
+        <v>999</v>
+      </c>
+      <c r="C67">
+        <v>58547</v>
+      </c>
+      <c r="D67">
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>110</v>
+      </c>
+      <c r="F67" t="s">
+        <v>262</v>
+      </c>
+      <c r="G67" t="s">
+        <v>112</v>
+      </c>
+      <c r="H67" t="s">
+        <v>263</v>
+      </c>
+      <c r="I67">
+        <v>402430</v>
+      </c>
+      <c r="J67">
+        <v>12</v>
+      </c>
+      <c r="K67">
+        <v>14</v>
+      </c>
+      <c r="L67">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="M67" t="s">
+        <v>31</v>
+      </c>
+      <c r="N67" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>303</v>
+      </c>
+      <c r="B68">
+        <v>999</v>
+      </c>
+      <c r="C68">
+        <v>58547</v>
+      </c>
+      <c r="D68">
+        <v>1</v>
+      </c>
+      <c r="E68" t="s">
+        <v>33</v>
+      </c>
+      <c r="F68" t="s">
+        <v>265</v>
+      </c>
+      <c r="G68" t="s">
+        <v>35</v>
+      </c>
+      <c r="H68" t="s">
+        <v>266</v>
+      </c>
+      <c r="I68">
+        <v>402395</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+      <c r="K68">
+        <v>15</v>
+      </c>
+      <c r="L68">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="M68" t="s">
+        <v>31</v>
+      </c>
+      <c r="N68" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>303</v>
+      </c>
+      <c r="B69">
+        <v>999</v>
+      </c>
+      <c r="C69">
+        <v>58547</v>
+      </c>
+      <c r="D69">
+        <v>1</v>
+      </c>
+      <c r="E69" t="s">
+        <v>41</v>
+      </c>
+      <c r="F69" t="s">
+        <v>268</v>
+      </c>
+      <c r="G69" t="s">
+        <v>43</v>
+      </c>
+      <c r="H69" t="s">
+        <v>269</v>
+      </c>
+      <c r="I69">
+        <v>402482</v>
+      </c>
+      <c r="J69">
+        <v>3</v>
+      </c>
+      <c r="K69">
+        <v>16</v>
+      </c>
+      <c r="L69">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M69" t="s">
+        <v>31</v>
+      </c>
+      <c r="N69" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>303</v>
+      </c>
+      <c r="B70">
+        <v>999</v>
+      </c>
+      <c r="C70">
+        <v>58547</v>
+      </c>
+      <c r="D70">
+        <v>1</v>
+      </c>
+      <c r="E70" t="s">
+        <v>59</v>
+      </c>
+      <c r="F70" t="s">
+        <v>271</v>
+      </c>
+      <c r="G70" t="s">
+        <v>61</v>
+      </c>
+      <c r="H70" t="s">
+        <v>272</v>
+      </c>
+      <c r="I70">
+        <v>402445</v>
+      </c>
+      <c r="J70">
+        <v>5</v>
+      </c>
+      <c r="K70">
+        <v>16</v>
+      </c>
+      <c r="L70">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M70" t="s">
+        <v>31</v>
+      </c>
+      <c r="N70" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>303</v>
+      </c>
+      <c r="B71">
+        <v>999</v>
+      </c>
+      <c r="C71">
+        <v>58547</v>
+      </c>
+      <c r="D71">
+        <v>1</v>
+      </c>
+      <c r="E71" t="s">
+        <v>67</v>
+      </c>
+      <c r="F71" t="s">
+        <v>274</v>
+      </c>
+      <c r="G71" t="s">
+        <v>69</v>
+      </c>
+      <c r="H71" t="s">
+        <v>275</v>
+      </c>
+      <c r="I71">
+        <v>402425</v>
+      </c>
+      <c r="J71">
+        <v>6</v>
+      </c>
+      <c r="K71">
+        <v>18</v>
+      </c>
+      <c r="L71">
+        <v>5.9</v>
+      </c>
+      <c r="M71" t="s">
+        <v>31</v>
+      </c>
+      <c r="N71" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>303</v>
+      </c>
+      <c r="B72">
+        <v>999</v>
+      </c>
+      <c r="C72">
+        <v>58547</v>
+      </c>
+      <c r="D72">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>82</v>
+      </c>
+      <c r="F72" t="s">
+        <v>277</v>
+      </c>
+      <c r="G72" t="s">
+        <v>84</v>
+      </c>
+      <c r="H72" t="s">
+        <v>278</v>
+      </c>
+      <c r="I72">
+        <v>402431</v>
+      </c>
+      <c r="J72">
+        <v>8</v>
+      </c>
+      <c r="K72">
+        <v>19</v>
+      </c>
+      <c r="L72">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M72" t="s">
+        <v>31</v>
+      </c>
+      <c r="N72" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>303</v>
+      </c>
+      <c r="B73">
+        <v>999</v>
+      </c>
+      <c r="C73">
+        <v>58547</v>
+      </c>
+      <c r="D73">
+        <v>1</v>
+      </c>
+      <c r="E73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" t="s">
+        <v>283</v>
+      </c>
+      <c r="G73" t="s">
+        <v>150</v>
+      </c>
+      <c r="H73" t="s">
+        <v>284</v>
+      </c>
+      <c r="I73">
+        <v>402479</v>
+      </c>
+      <c r="J73">
+        <v>18</v>
+      </c>
+      <c r="K73">
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M73" t="s">
+        <v>31</v>
+      </c>
+      <c r="N73" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>303</v>
+      </c>
+      <c r="B74">
+        <v>999</v>
+      </c>
+      <c r="C74">
+        <v>58547</v>
+      </c>
+      <c r="D74">
+        <v>1</v>
+      </c>
+      <c r="E74" t="s">
+        <v>130</v>
+      </c>
+      <c r="F74" t="s">
+        <v>280</v>
+      </c>
+      <c r="G74" t="s">
+        <v>131</v>
+      </c>
+      <c r="H74" t="s">
+        <v>281</v>
+      </c>
+      <c r="I74">
+        <v>402423</v>
+      </c>
+      <c r="J74">
+        <v>15</v>
+      </c>
+      <c r="K74">
+        <v>20</v>
+      </c>
+      <c r="L74">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M74" t="s">
+        <v>31</v>
+      </c>
+      <c r="N74" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>303</v>
+      </c>
+      <c r="B75">
+        <v>999</v>
+      </c>
+      <c r="C75">
+        <v>58547</v>
+      </c>
+      <c r="D75">
+        <v>1</v>
+      </c>
+      <c r="E75" t="s">
+        <v>172</v>
+      </c>
+      <c r="F75" t="s">
+        <v>286</v>
+      </c>
+      <c r="G75" t="s">
+        <v>173</v>
+      </c>
+      <c r="H75" t="s">
+        <v>287</v>
+      </c>
+      <c r="I75">
+        <v>402421</v>
+      </c>
+      <c r="J75">
+        <v>22</v>
+      </c>
+      <c r="K75">
+        <v>22</v>
+      </c>
+      <c r="L75">
+        <v>5.6</v>
+      </c>
+      <c r="M75" t="s">
+        <v>31</v>
+      </c>
+      <c r="N75" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>303</v>
+      </c>
+      <c r="B76">
+        <v>999</v>
+      </c>
+      <c r="C76">
+        <v>58547</v>
+      </c>
+      <c r="D76">
+        <v>1</v>
+      </c>
+      <c r="E76" t="s">
+        <v>178</v>
+      </c>
+      <c r="F76" t="s">
+        <v>289</v>
+      </c>
+      <c r="G76" t="s">
+        <v>180</v>
+      </c>
+      <c r="H76" t="s">
+        <v>290</v>
+      </c>
+      <c r="I76">
+        <v>402392</v>
+      </c>
+      <c r="J76">
+        <v>23</v>
+      </c>
+      <c r="K76">
+        <v>23</v>
+      </c>
+      <c r="L76">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="M76" t="s">
+        <v>31</v>
+      </c>
+      <c r="N76" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>303</v>
+      </c>
+      <c r="B77">
+        <v>999</v>
+      </c>
+      <c r="C77">
+        <v>58547</v>
+      </c>
+      <c r="D77">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>144</v>
+      </c>
+      <c r="F77" t="s">
+        <v>292</v>
+      </c>
+      <c r="G77" t="s">
+        <v>145</v>
+      </c>
+      <c r="H77" t="s">
+        <v>293</v>
+      </c>
+      <c r="I77">
+        <v>402415</v>
+      </c>
+      <c r="J77">
+        <v>17</v>
+      </c>
+      <c r="K77">
+        <v>24</v>
+      </c>
+      <c r="L77">
+        <v>5.433333333333334</v>
+      </c>
+      <c r="M77" t="s">
+        <v>31</v>
+      </c>
+      <c r="N77" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>303</v>
+      </c>
+      <c r="B78">
+        <v>999</v>
+      </c>
+      <c r="C78">
+        <v>58547</v>
+      </c>
+      <c r="D78">
+        <v>1</v>
+      </c>
+      <c r="E78" t="s">
+        <v>159</v>
+      </c>
+      <c r="F78" t="s">
+        <v>295</v>
+      </c>
+      <c r="G78" t="s">
+        <v>160</v>
+      </c>
+      <c r="H78" t="s">
+        <v>296</v>
+      </c>
+      <c r="I78">
+        <v>402407</v>
+      </c>
+      <c r="J78">
+        <v>20</v>
+      </c>
+      <c r="K78">
+        <v>25</v>
+      </c>
+      <c r="L78">
+        <v>5.4</v>
+      </c>
+      <c r="M78" t="s">
+        <v>31</v>
+      </c>
+      <c r="N78" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>303</v>
+      </c>
+      <c r="B79">
+        <v>999</v>
+      </c>
+      <c r="C79">
+        <v>58547</v>
+      </c>
+      <c r="D79">
+        <v>1</v>
+      </c>
+      <c r="E79" t="s">
+        <v>103</v>
+      </c>
+      <c r="F79" t="s">
+        <v>298</v>
+      </c>
+      <c r="G79" t="s">
+        <v>105</v>
+      </c>
+      <c r="H79" t="s">
+        <v>299</v>
+      </c>
+      <c r="I79">
+        <v>402393</v>
+      </c>
+      <c r="J79">
+        <v>11</v>
+      </c>
+      <c r="K79">
+        <v>26</v>
+      </c>
+      <c r="L79">
+        <v>3.8</v>
+      </c>
+      <c r="M79" t="s">
+        <v>31</v>
+      </c>
+      <c r="N79" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>304</v>
+      </c>
+      <c r="B80">
+        <v>999</v>
+      </c>
+      <c r="C80">
+        <v>58547</v>
+      </c>
+      <c r="D80">
+        <v>1</v>
+      </c>
+      <c r="E80" t="s">
+        <v>166</v>
+      </c>
+      <c r="F80" t="s">
+        <v>223</v>
+      </c>
+      <c r="G80" t="s">
+        <v>167</v>
+      </c>
+      <c r="H80" t="s">
+        <v>224</v>
+      </c>
+      <c r="I80">
+        <v>403096</v>
+      </c>
+      <c r="J80">
+        <v>21</v>
+      </c>
+      <c r="K80">
+        <v>1</v>
+      </c>
+      <c r="L80">
+        <v>7.233333333333333</v>
+      </c>
+      <c r="M80" t="s">
+        <v>31</v>
+      </c>
+      <c r="N80" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>304</v>
+      </c>
+      <c r="B81">
+        <v>999</v>
+      </c>
+      <c r="C81">
+        <v>58547</v>
+      </c>
+      <c r="D81">
+        <v>1</v>
+      </c>
+      <c r="E81" t="s">
+        <v>22</v>
+      </c>
+      <c r="F81" t="s">
+        <v>229</v>
+      </c>
+      <c r="G81" t="s">
+        <v>25</v>
+      </c>
+      <c r="H81" t="s">
+        <v>230</v>
+      </c>
+      <c r="I81">
+        <v>402432</v>
+      </c>
+      <c r="J81">
+        <v>1</v>
+      </c>
+      <c r="K81">
+        <v>2</v>
+      </c>
+      <c r="L81">
+        <v>6.6</v>
+      </c>
+      <c r="M81" t="s">
+        <v>31</v>
+      </c>
+      <c r="N81" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>304</v>
+      </c>
+      <c r="B82">
+        <v>999</v>
+      </c>
+      <c r="C82">
+        <v>58547</v>
+      </c>
+      <c r="D82">
+        <v>1</v>
+      </c>
+      <c r="E82" t="s">
+        <v>98</v>
+      </c>
+      <c r="F82" t="s">
+        <v>226</v>
+      </c>
+      <c r="G82" t="s">
+        <v>99</v>
+      </c>
+      <c r="H82" t="s">
+        <v>227</v>
+      </c>
+      <c r="I82">
+        <v>402861</v>
+      </c>
+      <c r="J82">
+        <v>10</v>
+      </c>
+      <c r="K82">
+        <v>2</v>
+      </c>
+      <c r="L82">
+        <v>6.6</v>
+      </c>
+      <c r="M82" t="s">
+        <v>31</v>
+      </c>
+      <c r="N82" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>304</v>
+      </c>
+      <c r="B83">
+        <v>999</v>
+      </c>
+      <c r="C83">
+        <v>58547</v>
+      </c>
+      <c r="D83">
+        <v>1</v>
+      </c>
+      <c r="E83" t="s">
+        <v>118</v>
+      </c>
+      <c r="F83" t="s">
+        <v>235</v>
+      </c>
+      <c r="G83" t="s">
+        <v>119</v>
+      </c>
+      <c r="H83" t="s">
+        <v>236</v>
+      </c>
+      <c r="I83">
+        <v>402437</v>
+      </c>
+      <c r="J83">
+        <v>13</v>
+      </c>
+      <c r="K83">
+        <v>4</v>
+      </c>
+      <c r="L83">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M83" t="s">
+        <v>31</v>
+      </c>
+      <c r="N83" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>304</v>
+      </c>
+      <c r="B84">
+        <v>999</v>
+      </c>
+      <c r="C84">
+        <v>58547</v>
+      </c>
+      <c r="D84">
+        <v>1</v>
+      </c>
+      <c r="E84" t="s">
+        <v>186</v>
+      </c>
+      <c r="F84" t="s">
+        <v>232</v>
+      </c>
+      <c r="G84" t="s">
+        <v>187</v>
+      </c>
+      <c r="H84" t="s">
+        <v>233</v>
+      </c>
+      <c r="I84">
+        <v>402408</v>
+      </c>
+      <c r="J84">
+        <v>24</v>
+      </c>
+      <c r="K84">
+        <v>4</v>
+      </c>
+      <c r="L84">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M84" t="s">
+        <v>31</v>
+      </c>
+      <c r="N84" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>304</v>
+      </c>
+      <c r="B85">
+        <v>999</v>
+      </c>
+      <c r="C85">
+        <v>58547</v>
+      </c>
+      <c r="D85">
+        <v>1</v>
+      </c>
+      <c r="E85" t="s">
+        <v>75</v>
+      </c>
+      <c r="F85" t="s">
+        <v>238</v>
+      </c>
+      <c r="G85" t="s">
+        <v>77</v>
+      </c>
+      <c r="H85" t="s">
+        <v>239</v>
+      </c>
+      <c r="I85">
+        <v>402396</v>
+      </c>
+      <c r="J85">
+        <v>7</v>
+      </c>
+      <c r="K85">
+        <v>4</v>
+      </c>
+      <c r="L85">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M85" t="s">
+        <v>31</v>
+      </c>
+      <c r="N85" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>304</v>
+      </c>
+      <c r="B86">
+        <v>999</v>
+      </c>
+      <c r="C86">
+        <v>58547</v>
+      </c>
+      <c r="D86">
+        <v>1</v>
+      </c>
+      <c r="E86" t="s">
+        <v>124</v>
+      </c>
+      <c r="F86" t="s">
+        <v>241</v>
+      </c>
+      <c r="G86" t="s">
+        <v>125</v>
+      </c>
+      <c r="H86" t="s">
+        <v>242</v>
+      </c>
+      <c r="I86">
+        <v>402410</v>
+      </c>
+      <c r="J86">
+        <v>14</v>
+      </c>
+      <c r="K86">
+        <v>7</v>
+      </c>
+      <c r="L86">
+        <v>6.466666666666667</v>
+      </c>
+      <c r="M86" t="s">
+        <v>31</v>
+      </c>
+      <c r="N86" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>304</v>
+      </c>
+      <c r="B87">
+        <v>999</v>
+      </c>
+      <c r="C87">
+        <v>58547</v>
+      </c>
+      <c r="D87">
+        <v>1</v>
+      </c>
+      <c r="E87" t="s">
+        <v>199</v>
+      </c>
+      <c r="F87" t="s">
+        <v>244</v>
+      </c>
+      <c r="G87" t="s">
+        <v>200</v>
+      </c>
+      <c r="H87" t="s">
+        <v>245</v>
+      </c>
+      <c r="I87">
+        <v>402397</v>
+      </c>
+      <c r="J87">
+        <v>26</v>
+      </c>
+      <c r="K87">
+        <v>8</v>
+      </c>
+      <c r="L87">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M87" t="s">
+        <v>31</v>
+      </c>
+      <c r="N87" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>304</v>
+      </c>
+      <c r="B88">
+        <v>999</v>
+      </c>
+      <c r="C88">
+        <v>58547</v>
+      </c>
+      <c r="D88">
+        <v>1</v>
+      </c>
+      <c r="E88" t="s">
+        <v>89</v>
+      </c>
+      <c r="F88" t="s">
+        <v>247</v>
+      </c>
+      <c r="G88" t="s">
+        <v>91</v>
+      </c>
+      <c r="H88" t="s">
+        <v>248</v>
+      </c>
+      <c r="I88">
+        <v>402412</v>
+      </c>
+      <c r="J88">
+        <v>9</v>
+      </c>
+      <c r="K88">
+        <v>8</v>
+      </c>
+      <c r="L88">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M88" t="s">
+        <v>31</v>
+      </c>
+      <c r="N88" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>304</v>
+      </c>
+      <c r="B89">
+        <v>999</v>
+      </c>
+      <c r="C89">
+        <v>58547</v>
+      </c>
+      <c r="D89">
+        <v>1</v>
+      </c>
+      <c r="E89" t="s">
+        <v>50</v>
+      </c>
+      <c r="F89" t="s">
+        <v>250</v>
+      </c>
+      <c r="G89" t="s">
+        <v>52</v>
+      </c>
+      <c r="H89" t="s">
+        <v>251</v>
+      </c>
+      <c r="I89">
+        <v>402442</v>
+      </c>
+      <c r="J89">
+        <v>4</v>
+      </c>
+      <c r="K89">
+        <v>10</v>
+      </c>
+      <c r="L89">
+        <v>6.3</v>
+      </c>
+      <c r="M89" t="s">
+        <v>31</v>
+      </c>
+      <c r="N89" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>304</v>
+      </c>
+      <c r="B90">
+        <v>999</v>
+      </c>
+      <c r="C90">
+        <v>58547</v>
+      </c>
+      <c r="D90">
+        <v>1</v>
+      </c>
+      <c r="E90" t="s">
+        <v>193</v>
+      </c>
+      <c r="F90" t="s">
+        <v>253</v>
+      </c>
+      <c r="G90" t="s">
+        <v>194</v>
+      </c>
+      <c r="H90" t="s">
+        <v>254</v>
+      </c>
+      <c r="I90">
+        <v>402417</v>
+      </c>
+      <c r="J90">
+        <v>25</v>
+      </c>
+      <c r="K90">
+        <v>11</v>
+      </c>
+      <c r="L90">
+        <v>6.266666666666667</v>
+      </c>
+      <c r="M90" t="s">
+        <v>31</v>
+      </c>
+      <c r="N90" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>304</v>
+      </c>
+      <c r="B91">
+        <v>999</v>
+      </c>
+      <c r="C91">
+        <v>58547</v>
+      </c>
+      <c r="D91">
+        <v>1</v>
+      </c>
+      <c r="E91" t="s">
+        <v>98</v>
+      </c>
+      <c r="F91" t="s">
+        <v>256</v>
+      </c>
+      <c r="G91" t="s">
+        <v>156</v>
+      </c>
+      <c r="H91" t="s">
+        <v>257</v>
+      </c>
+      <c r="I91">
+        <v>402449</v>
+      </c>
+      <c r="J91">
+        <v>19</v>
+      </c>
+      <c r="K91">
+        <v>12</v>
+      </c>
+      <c r="L91">
+        <v>6.2</v>
+      </c>
+      <c r="M91" t="s">
+        <v>31</v>
+      </c>
+      <c r="N91" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>304</v>
+      </c>
+      <c r="B92">
+        <v>999</v>
+      </c>
+      <c r="C92">
+        <v>58547</v>
+      </c>
+      <c r="D92">
+        <v>1</v>
+      </c>
+      <c r="E92" t="s">
+        <v>136</v>
+      </c>
+      <c r="F92" t="s">
+        <v>259</v>
+      </c>
+      <c r="G92" t="s">
+        <v>138</v>
+      </c>
+      <c r="H92" t="s">
+        <v>260</v>
+      </c>
+      <c r="I92">
+        <v>402418</v>
+      </c>
+      <c r="J92">
+        <v>16</v>
+      </c>
+      <c r="K92">
+        <v>12</v>
+      </c>
+      <c r="L92">
+        <v>6.2</v>
+      </c>
+      <c r="M92" t="s">
+        <v>31</v>
+      </c>
+      <c r="N92" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>304</v>
+      </c>
+      <c r="B93">
+        <v>999</v>
+      </c>
+      <c r="C93">
+        <v>58547</v>
+      </c>
+      <c r="D93">
+        <v>1</v>
+      </c>
+      <c r="E93" t="s">
+        <v>110</v>
+      </c>
+      <c r="F93" t="s">
+        <v>262</v>
+      </c>
+      <c r="G93" t="s">
+        <v>112</v>
+      </c>
+      <c r="H93" t="s">
+        <v>263</v>
+      </c>
+      <c r="I93">
+        <v>402430</v>
+      </c>
+      <c r="J93">
+        <v>12</v>
+      </c>
+      <c r="K93">
+        <v>14</v>
+      </c>
+      <c r="L93">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="M93" t="s">
+        <v>31</v>
+      </c>
+      <c r="N93" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>304</v>
+      </c>
+      <c r="B94">
+        <v>999</v>
+      </c>
+      <c r="C94">
+        <v>58547</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+      <c r="E94" t="s">
+        <v>33</v>
+      </c>
+      <c r="F94" t="s">
+        <v>265</v>
+      </c>
+      <c r="G94" t="s">
+        <v>35</v>
+      </c>
+      <c r="H94" t="s">
+        <v>266</v>
+      </c>
+      <c r="I94">
+        <v>402395</v>
+      </c>
+      <c r="J94">
+        <v>2</v>
+      </c>
+      <c r="K94">
+        <v>15</v>
+      </c>
+      <c r="L94">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="M94" t="s">
+        <v>31</v>
+      </c>
+      <c r="N94" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>304</v>
+      </c>
+      <c r="B95">
+        <v>999</v>
+      </c>
+      <c r="C95">
+        <v>58547</v>
+      </c>
+      <c r="D95">
+        <v>1</v>
+      </c>
+      <c r="E95" t="s">
+        <v>41</v>
+      </c>
+      <c r="F95" t="s">
+        <v>268</v>
+      </c>
+      <c r="G95" t="s">
+        <v>43</v>
+      </c>
+      <c r="H95" t="s">
+        <v>269</v>
+      </c>
+      <c r="I95">
+        <v>402482</v>
+      </c>
+      <c r="J95">
+        <v>3</v>
+      </c>
+      <c r="K95">
+        <v>16</v>
+      </c>
+      <c r="L95">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M95" t="s">
+        <v>31</v>
+      </c>
+      <c r="N95" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>304</v>
+      </c>
+      <c r="B96">
+        <v>999</v>
+      </c>
+      <c r="C96">
+        <v>58547</v>
+      </c>
+      <c r="D96">
+        <v>1</v>
+      </c>
+      <c r="E96" t="s">
+        <v>59</v>
+      </c>
+      <c r="F96" t="s">
+        <v>271</v>
+      </c>
+      <c r="G96" t="s">
+        <v>61</v>
+      </c>
+      <c r="H96" t="s">
+        <v>272</v>
+      </c>
+      <c r="I96">
+        <v>402445</v>
+      </c>
+      <c r="J96">
+        <v>5</v>
+      </c>
+      <c r="K96">
+        <v>16</v>
+      </c>
+      <c r="L96">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M96" t="s">
+        <v>31</v>
+      </c>
+      <c r="N96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>304</v>
+      </c>
+      <c r="B97">
+        <v>999</v>
+      </c>
+      <c r="C97">
+        <v>58547</v>
+      </c>
+      <c r="D97">
+        <v>1</v>
+      </c>
+      <c r="E97" t="s">
+        <v>67</v>
+      </c>
+      <c r="F97" t="s">
+        <v>274</v>
+      </c>
+      <c r="G97" t="s">
+        <v>69</v>
+      </c>
+      <c r="H97" t="s">
+        <v>275</v>
+      </c>
+      <c r="I97">
+        <v>402425</v>
+      </c>
+      <c r="J97">
+        <v>6</v>
+      </c>
+      <c r="K97">
+        <v>18</v>
+      </c>
+      <c r="L97">
+        <v>5.9</v>
+      </c>
+      <c r="M97" t="s">
+        <v>31</v>
+      </c>
+      <c r="N97" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>304</v>
+      </c>
+      <c r="B98">
+        <v>999</v>
+      </c>
+      <c r="C98">
+        <v>58547</v>
+      </c>
+      <c r="D98">
+        <v>1</v>
+      </c>
+      <c r="E98" t="s">
+        <v>82</v>
+      </c>
+      <c r="F98" t="s">
+        <v>277</v>
+      </c>
+      <c r="G98" t="s">
+        <v>84</v>
+      </c>
+      <c r="H98" t="s">
+        <v>278</v>
+      </c>
+      <c r="I98">
+        <v>402431</v>
+      </c>
+      <c r="J98">
+        <v>8</v>
+      </c>
+      <c r="K98">
+        <v>19</v>
+      </c>
+      <c r="L98">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M98" t="s">
+        <v>31</v>
+      </c>
+      <c r="N98" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>304</v>
+      </c>
+      <c r="B99">
+        <v>999</v>
+      </c>
+      <c r="C99">
+        <v>58547</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+      <c r="E99" t="s">
+        <v>149</v>
+      </c>
+      <c r="F99" t="s">
+        <v>283</v>
+      </c>
+      <c r="G99" t="s">
+        <v>150</v>
+      </c>
+      <c r="H99" t="s">
+        <v>284</v>
+      </c>
+      <c r="I99">
+        <v>402479</v>
+      </c>
+      <c r="J99">
+        <v>18</v>
+      </c>
+      <c r="K99">
+        <v>20</v>
+      </c>
+      <c r="L99">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M99" t="s">
+        <v>31</v>
+      </c>
+      <c r="N99" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>304</v>
+      </c>
+      <c r="B100">
+        <v>999</v>
+      </c>
+      <c r="C100">
+        <v>58547</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+      <c r="E100" t="s">
+        <v>130</v>
+      </c>
+      <c r="F100" t="s">
+        <v>280</v>
+      </c>
+      <c r="G100" t="s">
+        <v>131</v>
+      </c>
+      <c r="H100" t="s">
+        <v>281</v>
+      </c>
+      <c r="I100">
+        <v>402423</v>
+      </c>
+      <c r="J100">
+        <v>15</v>
+      </c>
+      <c r="K100">
+        <v>20</v>
+      </c>
+      <c r="L100">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M100" t="s">
+        <v>31</v>
+      </c>
+      <c r="N100" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>304</v>
+      </c>
+      <c r="B101">
+        <v>999</v>
+      </c>
+      <c r="C101">
+        <v>58547</v>
+      </c>
+      <c r="D101">
+        <v>1</v>
+      </c>
+      <c r="E101" t="s">
+        <v>172</v>
+      </c>
+      <c r="F101" t="s">
+        <v>286</v>
+      </c>
+      <c r="G101" t="s">
+        <v>173</v>
+      </c>
+      <c r="H101" t="s">
+        <v>287</v>
+      </c>
+      <c r="I101">
+        <v>402421</v>
+      </c>
+      <c r="J101">
+        <v>22</v>
+      </c>
+      <c r="K101">
+        <v>22</v>
+      </c>
+      <c r="L101">
+        <v>5.6</v>
+      </c>
+      <c r="M101" t="s">
+        <v>31</v>
+      </c>
+      <c r="N101" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="102" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>304</v>
+      </c>
+      <c r="B102">
+        <v>999</v>
+      </c>
+      <c r="C102">
+        <v>58547</v>
+      </c>
+      <c r="D102">
+        <v>1</v>
+      </c>
+      <c r="E102" t="s">
+        <v>178</v>
+      </c>
+      <c r="F102" t="s">
+        <v>289</v>
+      </c>
+      <c r="G102" t="s">
+        <v>180</v>
+      </c>
+      <c r="H102" t="s">
+        <v>290</v>
+      </c>
+      <c r="I102">
+        <v>402392</v>
+      </c>
+      <c r="J102">
+        <v>23</v>
+      </c>
+      <c r="K102">
+        <v>23</v>
+      </c>
+      <c r="L102">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="M102" t="s">
+        <v>31</v>
+      </c>
+      <c r="N102" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="103" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>304</v>
+      </c>
+      <c r="B103">
+        <v>999</v>
+      </c>
+      <c r="C103">
+        <v>58547</v>
+      </c>
+      <c r="D103">
+        <v>1</v>
+      </c>
+      <c r="E103" t="s">
+        <v>144</v>
+      </c>
+      <c r="F103" t="s">
+        <v>292</v>
+      </c>
+      <c r="G103" t="s">
+        <v>145</v>
+      </c>
+      <c r="H103" t="s">
+        <v>293</v>
+      </c>
+      <c r="I103">
+        <v>402415</v>
+      </c>
+      <c r="J103">
+        <v>17</v>
+      </c>
+      <c r="K103">
+        <v>24</v>
+      </c>
+      <c r="L103">
+        <v>5.433333333333334</v>
+      </c>
+      <c r="M103" t="s">
+        <v>31</v>
+      </c>
+      <c r="N103" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="104" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>304</v>
+      </c>
+      <c r="B104">
+        <v>999</v>
+      </c>
+      <c r="C104">
+        <v>58547</v>
+      </c>
+      <c r="D104">
+        <v>1</v>
+      </c>
+      <c r="E104" t="s">
+        <v>159</v>
+      </c>
+      <c r="F104" t="s">
+        <v>295</v>
+      </c>
+      <c r="G104" t="s">
+        <v>160</v>
+      </c>
+      <c r="H104" t="s">
+        <v>296</v>
+      </c>
+      <c r="I104">
+        <v>402407</v>
+      </c>
+      <c r="J104">
+        <v>20</v>
+      </c>
+      <c r="K104">
+        <v>25</v>
+      </c>
+      <c r="L104">
+        <v>5.4</v>
+      </c>
+      <c r="M104" t="s">
+        <v>31</v>
+      </c>
+      <c r="N104" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="105" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>304</v>
+      </c>
+      <c r="B105">
+        <v>999</v>
+      </c>
+      <c r="C105">
+        <v>58547</v>
+      </c>
+      <c r="D105">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>103</v>
+      </c>
+      <c r="F105" t="s">
+        <v>298</v>
+      </c>
+      <c r="G105" t="s">
+        <v>105</v>
+      </c>
+      <c r="H105" t="s">
+        <v>299</v>
+      </c>
+      <c r="I105">
+        <v>402393</v>
+      </c>
+      <c r="J105">
+        <v>11</v>
+      </c>
+      <c r="K105">
+        <v>26</v>
+      </c>
+      <c r="L105">
+        <v>3.8</v>
+      </c>
+      <c r="M105" t="s">
+        <v>31</v>
+      </c>
+      <c r="N105" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="106" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>305</v>
+      </c>
+      <c r="B106">
+        <v>999</v>
+      </c>
+      <c r="C106">
+        <v>58547</v>
+      </c>
+      <c r="D106">
+        <v>1</v>
+      </c>
+      <c r="E106" t="s">
+        <v>166</v>
+      </c>
+      <c r="F106" t="s">
+        <v>223</v>
+      </c>
+      <c r="G106" t="s">
+        <v>167</v>
+      </c>
+      <c r="H106" t="s">
+        <v>224</v>
+      </c>
+      <c r="I106">
+        <v>403096</v>
+      </c>
+      <c r="J106">
+        <v>21</v>
+      </c>
+      <c r="K106">
+        <v>1</v>
+      </c>
+      <c r="L106">
+        <v>7.233333333333333</v>
+      </c>
+      <c r="M106" t="s">
+        <v>31</v>
+      </c>
+      <c r="N106" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="107" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>305</v>
+      </c>
+      <c r="B107">
+        <v>999</v>
+      </c>
+      <c r="C107">
+        <v>58547</v>
+      </c>
+      <c r="D107">
+        <v>1</v>
+      </c>
+      <c r="E107" t="s">
+        <v>98</v>
+      </c>
+      <c r="F107" t="s">
+        <v>226</v>
+      </c>
+      <c r="G107" t="s">
+        <v>99</v>
+      </c>
+      <c r="H107" t="s">
+        <v>227</v>
+      </c>
+      <c r="I107">
+        <v>402861</v>
+      </c>
+      <c r="J107">
+        <v>10</v>
+      </c>
+      <c r="K107">
+        <v>2</v>
+      </c>
+      <c r="L107">
+        <v>6.6</v>
+      </c>
+      <c r="M107" t="s">
+        <v>31</v>
+      </c>
+      <c r="N107" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="108" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A108" t="s">
+        <v>305</v>
+      </c>
+      <c r="B108">
+        <v>999</v>
+      </c>
+      <c r="C108">
+        <v>58547</v>
+      </c>
+      <c r="D108">
+        <v>1</v>
+      </c>
+      <c r="E108" t="s">
+        <v>22</v>
+      </c>
+      <c r="F108" t="s">
+        <v>229</v>
+      </c>
+      <c r="G108" t="s">
+        <v>25</v>
+      </c>
+      <c r="H108" t="s">
+        <v>230</v>
+      </c>
+      <c r="I108">
+        <v>402432</v>
+      </c>
+      <c r="J108">
+        <v>1</v>
+      </c>
+      <c r="K108">
+        <v>2</v>
+      </c>
+      <c r="L108">
+        <v>6.6</v>
+      </c>
+      <c r="M108" t="s">
+        <v>31</v>
+      </c>
+      <c r="N108" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="109" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A109" t="s">
+        <v>305</v>
+      </c>
+      <c r="B109">
+        <v>999</v>
+      </c>
+      <c r="C109">
+        <v>58547</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>186</v>
+      </c>
+      <c r="F109" t="s">
+        <v>232</v>
+      </c>
+      <c r="G109" t="s">
+        <v>187</v>
+      </c>
+      <c r="H109" t="s">
+        <v>233</v>
+      </c>
+      <c r="I109">
+        <v>402408</v>
+      </c>
+      <c r="J109">
+        <v>24</v>
+      </c>
+      <c r="K109">
+        <v>4</v>
+      </c>
+      <c r="L109">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M109" t="s">
+        <v>31</v>
+      </c>
+      <c r="N109" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="110" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
+        <v>305</v>
+      </c>
+      <c r="B110">
+        <v>999</v>
+      </c>
+      <c r="C110">
+        <v>58547</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>118</v>
+      </c>
+      <c r="F110" t="s">
+        <v>235</v>
+      </c>
+      <c r="G110" t="s">
+        <v>119</v>
+      </c>
+      <c r="H110" t="s">
+        <v>236</v>
+      </c>
+      <c r="I110">
+        <v>402437</v>
+      </c>
+      <c r="J110">
+        <v>13</v>
+      </c>
+      <c r="K110">
+        <v>4</v>
+      </c>
+      <c r="L110">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M110" t="s">
+        <v>31</v>
+      </c>
+      <c r="N110" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="111" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A111" t="s">
+        <v>305</v>
+      </c>
+      <c r="B111">
+        <v>999</v>
+      </c>
+      <c r="C111">
+        <v>58547</v>
+      </c>
+      <c r="D111">
+        <v>1</v>
+      </c>
+      <c r="E111" t="s">
+        <v>75</v>
+      </c>
+      <c r="F111" t="s">
+        <v>238</v>
+      </c>
+      <c r="G111" t="s">
+        <v>77</v>
+      </c>
+      <c r="H111" t="s">
+        <v>239</v>
+      </c>
+      <c r="I111">
+        <v>402396</v>
+      </c>
+      <c r="J111">
+        <v>7</v>
+      </c>
+      <c r="K111">
+        <v>4</v>
+      </c>
+      <c r="L111">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M111" t="s">
+        <v>31</v>
+      </c>
+      <c r="N111" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="112" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A112" t="s">
+        <v>305</v>
+      </c>
+      <c r="B112">
+        <v>999</v>
+      </c>
+      <c r="C112">
+        <v>58547</v>
+      </c>
+      <c r="D112">
+        <v>1</v>
+      </c>
+      <c r="E112" t="s">
+        <v>124</v>
+      </c>
+      <c r="F112" t="s">
+        <v>241</v>
+      </c>
+      <c r="G112" t="s">
+        <v>125</v>
+      </c>
+      <c r="H112" t="s">
+        <v>242</v>
+      </c>
+      <c r="I112">
+        <v>402410</v>
+      </c>
+      <c r="J112">
+        <v>14</v>
+      </c>
+      <c r="K112">
+        <v>7</v>
+      </c>
+      <c r="L112">
+        <v>6.466666666666667</v>
+      </c>
+      <c r="M112" t="s">
+        <v>31</v>
+      </c>
+      <c r="N112" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="113" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A113" t="s">
+        <v>305</v>
+      </c>
+      <c r="B113">
+        <v>999</v>
+      </c>
+      <c r="C113">
+        <v>58547</v>
+      </c>
+      <c r="D113">
+        <v>1</v>
+      </c>
+      <c r="E113" t="s">
+        <v>199</v>
+      </c>
+      <c r="F113" t="s">
+        <v>244</v>
+      </c>
+      <c r="G113" t="s">
+        <v>200</v>
+      </c>
+      <c r="H113" t="s">
+        <v>245</v>
+      </c>
+      <c r="I113">
+        <v>402397</v>
+      </c>
+      <c r="J113">
+        <v>26</v>
+      </c>
+      <c r="K113">
+        <v>8</v>
+      </c>
+      <c r="L113">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M113" t="s">
+        <v>31</v>
+      </c>
+      <c r="N113" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="114" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A114" t="s">
+        <v>305</v>
+      </c>
+      <c r="B114">
+        <v>999</v>
+      </c>
+      <c r="C114">
+        <v>58547</v>
+      </c>
+      <c r="D114">
+        <v>1</v>
+      </c>
+      <c r="E114" t="s">
+        <v>89</v>
+      </c>
+      <c r="F114" t="s">
+        <v>247</v>
+      </c>
+      <c r="G114" t="s">
+        <v>91</v>
+      </c>
+      <c r="H114" t="s">
+        <v>248</v>
+      </c>
+      <c r="I114">
+        <v>402412</v>
+      </c>
+      <c r="J114">
+        <v>9</v>
+      </c>
+      <c r="K114">
+        <v>8</v>
+      </c>
+      <c r="L114">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M114" t="s">
+        <v>31</v>
+      </c>
+      <c r="N114" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="115" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A115" t="s">
+        <v>305</v>
+      </c>
+      <c r="B115">
+        <v>999</v>
+      </c>
+      <c r="C115">
+        <v>58547</v>
+      </c>
+      <c r="D115">
+        <v>1</v>
+      </c>
+      <c r="E115" t="s">
+        <v>50</v>
+      </c>
+      <c r="F115" t="s">
+        <v>250</v>
+      </c>
+      <c r="G115" t="s">
+        <v>52</v>
+      </c>
+      <c r="H115" t="s">
+        <v>251</v>
+      </c>
+      <c r="I115">
+        <v>402442</v>
+      </c>
+      <c r="J115">
+        <v>4</v>
+      </c>
+      <c r="K115">
+        <v>10</v>
+      </c>
+      <c r="L115">
+        <v>6.3</v>
+      </c>
+      <c r="M115" t="s">
+        <v>31</v>
+      </c>
+      <c r="N115" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="116" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A116" t="s">
+        <v>305</v>
+      </c>
+      <c r="B116">
+        <v>999</v>
+      </c>
+      <c r="C116">
+        <v>58547</v>
+      </c>
+      <c r="D116">
+        <v>1</v>
+      </c>
+      <c r="E116" t="s">
+        <v>193</v>
+      </c>
+      <c r="F116" t="s">
+        <v>253</v>
+      </c>
+      <c r="G116" t="s">
+        <v>194</v>
+      </c>
+      <c r="H116" t="s">
+        <v>254</v>
+      </c>
+      <c r="I116">
+        <v>402417</v>
+      </c>
+      <c r="J116">
+        <v>25</v>
+      </c>
+      <c r="K116">
+        <v>11</v>
+      </c>
+      <c r="L116">
+        <v>6.266666666666667</v>
+      </c>
+      <c r="M116" t="s">
+        <v>31</v>
+      </c>
+      <c r="N116" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="117" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A117" t="s">
+        <v>305</v>
+      </c>
+      <c r="B117">
+        <v>999</v>
+      </c>
+      <c r="C117">
+        <v>58547</v>
+      </c>
+      <c r="D117">
+        <v>1</v>
+      </c>
+      <c r="E117" t="s">
+        <v>98</v>
+      </c>
+      <c r="F117" t="s">
+        <v>256</v>
+      </c>
+      <c r="G117" t="s">
+        <v>156</v>
+      </c>
+      <c r="H117" t="s">
+        <v>257</v>
+      </c>
+      <c r="I117">
+        <v>402449</v>
+      </c>
+      <c r="J117">
+        <v>19</v>
+      </c>
+      <c r="K117">
+        <v>12</v>
+      </c>
+      <c r="L117">
+        <v>6.2</v>
+      </c>
+      <c r="M117" t="s">
+        <v>31</v>
+      </c>
+      <c r="N117" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="118" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A118" t="s">
+        <v>305</v>
+      </c>
+      <c r="B118">
+        <v>999</v>
+      </c>
+      <c r="C118">
+        <v>58547</v>
+      </c>
+      <c r="D118">
+        <v>1</v>
+      </c>
+      <c r="E118" t="s">
+        <v>136</v>
+      </c>
+      <c r="F118" t="s">
+        <v>259</v>
+      </c>
+      <c r="G118" t="s">
+        <v>138</v>
+      </c>
+      <c r="H118" t="s">
+        <v>260</v>
+      </c>
+      <c r="I118">
+        <v>402418</v>
+      </c>
+      <c r="J118">
+        <v>16</v>
+      </c>
+      <c r="K118">
+        <v>12</v>
+      </c>
+      <c r="L118">
+        <v>6.2</v>
+      </c>
+      <c r="M118" t="s">
+        <v>31</v>
+      </c>
+      <c r="N118" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="119" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A119" t="s">
+        <v>305</v>
+      </c>
+      <c r="B119">
+        <v>999</v>
+      </c>
+      <c r="C119">
+        <v>58547</v>
+      </c>
+      <c r="D119">
+        <v>1</v>
+      </c>
+      <c r="E119" t="s">
+        <v>110</v>
+      </c>
+      <c r="F119" t="s">
+        <v>262</v>
+      </c>
+      <c r="G119" t="s">
+        <v>112</v>
+      </c>
+      <c r="H119" t="s">
+        <v>263</v>
+      </c>
+      <c r="I119">
+        <v>402430</v>
+      </c>
+      <c r="J119">
+        <v>12</v>
+      </c>
+      <c r="K119">
+        <v>14</v>
+      </c>
+      <c r="L119">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="M119" t="s">
+        <v>31</v>
+      </c>
+      <c r="N119" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="120" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A120" t="s">
+        <v>305</v>
+      </c>
+      <c r="B120">
+        <v>999</v>
+      </c>
+      <c r="C120">
+        <v>58547</v>
+      </c>
+      <c r="D120">
+        <v>1</v>
+      </c>
+      <c r="E120" t="s">
+        <v>33</v>
+      </c>
+      <c r="F120" t="s">
+        <v>265</v>
+      </c>
+      <c r="G120" t="s">
+        <v>35</v>
+      </c>
+      <c r="H120" t="s">
+        <v>266</v>
+      </c>
+      <c r="I120">
+        <v>402395</v>
+      </c>
+      <c r="J120">
+        <v>2</v>
+      </c>
+      <c r="K120">
+        <v>15</v>
+      </c>
+      <c r="L120">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="M120" t="s">
+        <v>31</v>
+      </c>
+      <c r="N120" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="121" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A121" t="s">
+        <v>305</v>
+      </c>
+      <c r="B121">
+        <v>999</v>
+      </c>
+      <c r="C121">
+        <v>58547</v>
+      </c>
+      <c r="D121">
+        <v>1</v>
+      </c>
+      <c r="E121" t="s">
+        <v>41</v>
+      </c>
+      <c r="F121" t="s">
+        <v>268</v>
+      </c>
+      <c r="G121" t="s">
+        <v>43</v>
+      </c>
+      <c r="H121" t="s">
+        <v>269</v>
+      </c>
+      <c r="I121">
+        <v>402482</v>
+      </c>
+      <c r="J121">
+        <v>3</v>
+      </c>
+      <c r="K121">
+        <v>16</v>
+      </c>
+      <c r="L121">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M121" t="s">
+        <v>31</v>
+      </c>
+      <c r="N121" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="122" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A122" t="s">
+        <v>305</v>
+      </c>
+      <c r="B122">
+        <v>999</v>
+      </c>
+      <c r="C122">
+        <v>58547</v>
+      </c>
+      <c r="D122">
+        <v>1</v>
+      </c>
+      <c r="E122" t="s">
+        <v>59</v>
+      </c>
+      <c r="F122" t="s">
+        <v>271</v>
+      </c>
+      <c r="G122" t="s">
+        <v>61</v>
+      </c>
+      <c r="H122" t="s">
+        <v>272</v>
+      </c>
+      <c r="I122">
+        <v>402445</v>
+      </c>
+      <c r="J122">
+        <v>5</v>
+      </c>
+      <c r="K122">
+        <v>16</v>
+      </c>
+      <c r="L122">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M122" t="s">
+        <v>31</v>
+      </c>
+      <c r="N122" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="123" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A123" t="s">
+        <v>305</v>
+      </c>
+      <c r="B123">
+        <v>999</v>
+      </c>
+      <c r="C123">
+        <v>58547</v>
+      </c>
+      <c r="D123">
+        <v>1</v>
+      </c>
+      <c r="E123" t="s">
+        <v>67</v>
+      </c>
+      <c r="F123" t="s">
+        <v>274</v>
+      </c>
+      <c r="G123" t="s">
+        <v>69</v>
+      </c>
+      <c r="H123" t="s">
+        <v>275</v>
+      </c>
+      <c r="I123">
+        <v>402425</v>
+      </c>
+      <c r="J123">
+        <v>6</v>
+      </c>
+      <c r="K123">
+        <v>18</v>
+      </c>
+      <c r="L123">
+        <v>5.9</v>
+      </c>
+      <c r="M123" t="s">
+        <v>31</v>
+      </c>
+      <c r="N123" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="124" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A124" t="s">
+        <v>305</v>
+      </c>
+      <c r="B124">
+        <v>999</v>
+      </c>
+      <c r="C124">
+        <v>58547</v>
+      </c>
+      <c r="D124">
+        <v>1</v>
+      </c>
+      <c r="E124" t="s">
+        <v>82</v>
+      </c>
+      <c r="F124" t="s">
+        <v>277</v>
+      </c>
+      <c r="G124" t="s">
+        <v>84</v>
+      </c>
+      <c r="H124" t="s">
+        <v>278</v>
+      </c>
+      <c r="I124">
+        <v>402431</v>
+      </c>
+      <c r="J124">
+        <v>8</v>
+      </c>
+      <c r="K124">
+        <v>19</v>
+      </c>
+      <c r="L124">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M124" t="s">
+        <v>31</v>
+      </c>
+      <c r="N124" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="125" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A125" t="s">
+        <v>305</v>
+      </c>
+      <c r="B125">
+        <v>999</v>
+      </c>
+      <c r="C125">
+        <v>58547</v>
+      </c>
+      <c r="D125">
+        <v>1</v>
+      </c>
+      <c r="E125" t="s">
+        <v>130</v>
+      </c>
+      <c r="F125" t="s">
+        <v>280</v>
+      </c>
+      <c r="G125" t="s">
+        <v>131</v>
+      </c>
+      <c r="H125" t="s">
+        <v>281</v>
+      </c>
+      <c r="I125">
+        <v>402423</v>
+      </c>
+      <c r="J125">
+        <v>15</v>
+      </c>
+      <c r="K125">
+        <v>20</v>
+      </c>
+      <c r="L125">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M125" t="s">
+        <v>31</v>
+      </c>
+      <c r="N125" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="126" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A126" t="s">
+        <v>305</v>
+      </c>
+      <c r="B126">
+        <v>999</v>
+      </c>
+      <c r="C126">
+        <v>58547</v>
+      </c>
+      <c r="D126">
+        <v>1</v>
+      </c>
+      <c r="E126" t="s">
+        <v>149</v>
+      </c>
+      <c r="F126" t="s">
+        <v>283</v>
+      </c>
+      <c r="G126" t="s">
+        <v>150</v>
+      </c>
+      <c r="H126" t="s">
+        <v>284</v>
+      </c>
+      <c r="I126">
+        <v>402479</v>
+      </c>
+      <c r="J126">
+        <v>18</v>
+      </c>
+      <c r="K126">
+        <v>20</v>
+      </c>
+      <c r="L126">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M126" t="s">
+        <v>31</v>
+      </c>
+      <c r="N126" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="127" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A127" t="s">
+        <v>305</v>
+      </c>
+      <c r="B127">
+        <v>999</v>
+      </c>
+      <c r="C127">
+        <v>58547</v>
+      </c>
+      <c r="D127">
+        <v>1</v>
+      </c>
+      <c r="E127" t="s">
+        <v>172</v>
+      </c>
+      <c r="F127" t="s">
+        <v>286</v>
+      </c>
+      <c r="G127" t="s">
+        <v>173</v>
+      </c>
+      <c r="H127" t="s">
+        <v>287</v>
+      </c>
+      <c r="I127">
+        <v>402421</v>
+      </c>
+      <c r="J127">
+        <v>22</v>
+      </c>
+      <c r="K127">
+        <v>22</v>
+      </c>
+      <c r="L127">
+        <v>5.6</v>
+      </c>
+      <c r="M127" t="s">
+        <v>31</v>
+      </c>
+      <c r="N127" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="128" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A128" t="s">
+        <v>305</v>
+      </c>
+      <c r="B128">
+        <v>999</v>
+      </c>
+      <c r="C128">
+        <v>58547</v>
+      </c>
+      <c r="D128">
+        <v>1</v>
+      </c>
+      <c r="E128" t="s">
+        <v>178</v>
+      </c>
+      <c r="F128" t="s">
+        <v>289</v>
+      </c>
+      <c r="G128" t="s">
+        <v>180</v>
+      </c>
+      <c r="H128" t="s">
+        <v>290</v>
+      </c>
+      <c r="I128">
+        <v>402392</v>
+      </c>
+      <c r="J128">
+        <v>23</v>
+      </c>
+      <c r="K128">
+        <v>23</v>
+      </c>
+      <c r="L128">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="M128" t="s">
+        <v>31</v>
+      </c>
+      <c r="N128" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="129" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A129" t="s">
+        <v>305</v>
+      </c>
+      <c r="B129">
+        <v>999</v>
+      </c>
+      <c r="C129">
+        <v>58547</v>
+      </c>
+      <c r="D129">
+        <v>1</v>
+      </c>
+      <c r="E129" t="s">
+        <v>144</v>
+      </c>
+      <c r="F129" t="s">
+        <v>292</v>
+      </c>
+      <c r="G129" t="s">
+        <v>145</v>
+      </c>
+      <c r="H129" t="s">
+        <v>293</v>
+      </c>
+      <c r="I129">
+        <v>402415</v>
+      </c>
+      <c r="J129">
+        <v>17</v>
+      </c>
+      <c r="K129">
+        <v>24</v>
+      </c>
+      <c r="L129">
+        <v>5.433333333333334</v>
+      </c>
+      <c r="M129" t="s">
+        <v>31</v>
+      </c>
+      <c r="N129" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="130" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A130" t="s">
+        <v>305</v>
+      </c>
+      <c r="B130">
+        <v>999</v>
+      </c>
+      <c r="C130">
+        <v>58547</v>
+      </c>
+      <c r="D130">
+        <v>1</v>
+      </c>
+      <c r="E130" t="s">
+        <v>159</v>
+      </c>
+      <c r="F130" t="s">
+        <v>295</v>
+      </c>
+      <c r="G130" t="s">
+        <v>160</v>
+      </c>
+      <c r="H130" t="s">
+        <v>296</v>
+      </c>
+      <c r="I130">
+        <v>402407</v>
+      </c>
+      <c r="J130">
+        <v>20</v>
+      </c>
+      <c r="K130">
+        <v>25</v>
+      </c>
+      <c r="L130">
+        <v>5.4</v>
+      </c>
+      <c r="M130" t="s">
+        <v>31</v>
+      </c>
+      <c r="N130" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="131" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A131" t="s">
+        <v>305</v>
+      </c>
+      <c r="B131">
+        <v>999</v>
+      </c>
+      <c r="C131">
+        <v>58547</v>
+      </c>
+      <c r="D131">
+        <v>1</v>
+      </c>
+      <c r="E131" t="s">
+        <v>103</v>
+      </c>
+      <c r="F131" t="s">
+        <v>298</v>
+      </c>
+      <c r="G131" t="s">
+        <v>105</v>
+      </c>
+      <c r="H131" t="s">
+        <v>299</v>
+      </c>
+      <c r="I131">
+        <v>402393</v>
+      </c>
+      <c r="J131">
+        <v>11</v>
+      </c>
+      <c r="K131">
+        <v>26</v>
+      </c>
+      <c r="L131">
+        <v>3.8</v>
+      </c>
+      <c r="M131" t="s">
+        <v>31</v>
+      </c>
+      <c r="N131" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="132" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A132" t="s">
+        <v>306</v>
+      </c>
+      <c r="B132">
+        <v>999</v>
+      </c>
+      <c r="C132">
+        <v>58547</v>
+      </c>
+      <c r="D132">
+        <v>1</v>
+      </c>
+      <c r="E132" t="s">
+        <v>166</v>
+      </c>
+      <c r="F132" t="s">
+        <v>223</v>
+      </c>
+      <c r="G132" t="s">
+        <v>167</v>
+      </c>
+      <c r="H132" t="s">
+        <v>224</v>
+      </c>
+      <c r="I132">
+        <v>403096</v>
+      </c>
+      <c r="J132">
+        <v>21</v>
+      </c>
+      <c r="K132">
+        <v>1</v>
+      </c>
+      <c r="L132">
+        <v>7.233333333333333</v>
+      </c>
+      <c r="M132" t="s">
+        <v>31</v>
+      </c>
+      <c r="N132" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="133" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A133" t="s">
+        <v>306</v>
+      </c>
+      <c r="B133">
+        <v>999</v>
+      </c>
+      <c r="C133">
+        <v>58547</v>
+      </c>
+      <c r="D133">
+        <v>1</v>
+      </c>
+      <c r="E133" t="s">
+        <v>22</v>
+      </c>
+      <c r="F133" t="s">
+        <v>229</v>
+      </c>
+      <c r="G133" t="s">
+        <v>25</v>
+      </c>
+      <c r="H133" t="s">
+        <v>230</v>
+      </c>
+      <c r="I133">
+        <v>402432</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>2</v>
+      </c>
+      <c r="L133">
+        <v>6.6</v>
+      </c>
+      <c r="M133" t="s">
+        <v>31</v>
+      </c>
+      <c r="N133" t="s">
+        <v>231</v>
+      </c>
+    </row>
+    <row r="134" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A134" t="s">
+        <v>306</v>
+      </c>
+      <c r="B134">
+        <v>999</v>
+      </c>
+      <c r="C134">
+        <v>58547</v>
+      </c>
+      <c r="D134">
+        <v>1</v>
+      </c>
+      <c r="E134" t="s">
+        <v>98</v>
+      </c>
+      <c r="F134" t="s">
+        <v>226</v>
+      </c>
+      <c r="G134" t="s">
+        <v>99</v>
+      </c>
+      <c r="H134" t="s">
+        <v>227</v>
+      </c>
+      <c r="I134">
+        <v>402861</v>
+      </c>
+      <c r="J134">
+        <v>10</v>
+      </c>
+      <c r="K134">
+        <v>2</v>
+      </c>
+      <c r="L134">
+        <v>6.6</v>
+      </c>
+      <c r="M134" t="s">
+        <v>31</v>
+      </c>
+      <c r="N134" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="135" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A135" t="s">
+        <v>306</v>
+      </c>
+      <c r="B135">
+        <v>999</v>
+      </c>
+      <c r="C135">
+        <v>58547</v>
+      </c>
+      <c r="D135">
+        <v>1</v>
+      </c>
+      <c r="E135" t="s">
+        <v>186</v>
+      </c>
+      <c r="F135" t="s">
+        <v>232</v>
+      </c>
+      <c r="G135" t="s">
+        <v>187</v>
+      </c>
+      <c r="H135" t="s">
+        <v>233</v>
+      </c>
+      <c r="I135">
+        <v>402408</v>
+      </c>
+      <c r="J135">
+        <v>24</v>
+      </c>
+      <c r="K135">
+        <v>4</v>
+      </c>
+      <c r="L135">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M135" t="s">
+        <v>31</v>
+      </c>
+      <c r="N135" t="s">
+        <v>234</v>
+      </c>
+    </row>
+    <row r="136" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A136" t="s">
+        <v>306</v>
+      </c>
+      <c r="B136">
+        <v>999</v>
+      </c>
+      <c r="C136">
+        <v>58547</v>
+      </c>
+      <c r="D136">
+        <v>1</v>
+      </c>
+      <c r="E136" t="s">
+        <v>118</v>
+      </c>
+      <c r="F136" t="s">
+        <v>235</v>
+      </c>
+      <c r="G136" t="s">
+        <v>119</v>
+      </c>
+      <c r="H136" t="s">
+        <v>236</v>
+      </c>
+      <c r="I136">
+        <v>402437</v>
+      </c>
+      <c r="J136">
+        <v>13</v>
+      </c>
+      <c r="K136">
+        <v>4</v>
+      </c>
+      <c r="L136">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M136" t="s">
+        <v>31</v>
+      </c>
+      <c r="N136" t="s">
+        <v>237</v>
+      </c>
+    </row>
+    <row r="137" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A137" t="s">
+        <v>306</v>
+      </c>
+      <c r="B137">
+        <v>999</v>
+      </c>
+      <c r="C137">
+        <v>58547</v>
+      </c>
+      <c r="D137">
+        <v>1</v>
+      </c>
+      <c r="E137" t="s">
+        <v>75</v>
+      </c>
+      <c r="F137" t="s">
+        <v>238</v>
+      </c>
+      <c r="G137" t="s">
+        <v>77</v>
+      </c>
+      <c r="H137" t="s">
+        <v>239</v>
+      </c>
+      <c r="I137">
+        <v>402396</v>
+      </c>
+      <c r="J137">
+        <v>7</v>
+      </c>
+      <c r="K137">
+        <v>4</v>
+      </c>
+      <c r="L137">
+        <v>6.566666666666666</v>
+      </c>
+      <c r="M137" t="s">
+        <v>31</v>
+      </c>
+      <c r="N137" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="138" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A138" t="s">
+        <v>306</v>
+      </c>
+      <c r="B138">
+        <v>999</v>
+      </c>
+      <c r="C138">
+        <v>58547</v>
+      </c>
+      <c r="D138">
+        <v>1</v>
+      </c>
+      <c r="E138" t="s">
+        <v>124</v>
+      </c>
+      <c r="F138" t="s">
+        <v>241</v>
+      </c>
+      <c r="G138" t="s">
+        <v>125</v>
+      </c>
+      <c r="H138" t="s">
+        <v>242</v>
+      </c>
+      <c r="I138">
+        <v>402410</v>
+      </c>
+      <c r="J138">
+        <v>14</v>
+      </c>
+      <c r="K138">
+        <v>7</v>
+      </c>
+      <c r="L138">
+        <v>6.466666666666667</v>
+      </c>
+      <c r="M138" t="s">
+        <v>31</v>
+      </c>
+      <c r="N138" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="139" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A139" t="s">
+        <v>306</v>
+      </c>
+      <c r="B139">
+        <v>999</v>
+      </c>
+      <c r="C139">
+        <v>58547</v>
+      </c>
+      <c r="D139">
+        <v>1</v>
+      </c>
+      <c r="E139" t="s">
+        <v>199</v>
+      </c>
+      <c r="F139" t="s">
+        <v>244</v>
+      </c>
+      <c r="G139" t="s">
+        <v>200</v>
+      </c>
+      <c r="H139" t="s">
+        <v>245</v>
+      </c>
+      <c r="I139">
+        <v>402397</v>
+      </c>
+      <c r="J139">
+        <v>26</v>
+      </c>
+      <c r="K139">
+        <v>8</v>
+      </c>
+      <c r="L139">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M139" t="s">
+        <v>31</v>
+      </c>
+      <c r="N139" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="140" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A140" t="s">
+        <v>306</v>
+      </c>
+      <c r="B140">
+        <v>999</v>
+      </c>
+      <c r="C140">
+        <v>58547</v>
+      </c>
+      <c r="D140">
+        <v>1</v>
+      </c>
+      <c r="E140" t="s">
+        <v>89</v>
+      </c>
+      <c r="F140" t="s">
+        <v>247</v>
+      </c>
+      <c r="G140" t="s">
+        <v>91</v>
+      </c>
+      <c r="H140" t="s">
+        <v>248</v>
+      </c>
+      <c r="I140">
+        <v>402412</v>
+      </c>
+      <c r="J140">
+        <v>9</v>
+      </c>
+      <c r="K140">
+        <v>8</v>
+      </c>
+      <c r="L140">
+        <v>6.333333333333333</v>
+      </c>
+      <c r="M140" t="s">
+        <v>31</v>
+      </c>
+      <c r="N140" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="141" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A141" t="s">
+        <v>306</v>
+      </c>
+      <c r="B141">
+        <v>999</v>
+      </c>
+      <c r="C141">
+        <v>58547</v>
+      </c>
+      <c r="D141">
+        <v>1</v>
+      </c>
+      <c r="E141" t="s">
+        <v>50</v>
+      </c>
+      <c r="F141" t="s">
+        <v>250</v>
+      </c>
+      <c r="G141" t="s">
+        <v>52</v>
+      </c>
+      <c r="H141" t="s">
+        <v>251</v>
+      </c>
+      <c r="I141">
+        <v>402442</v>
+      </c>
+      <c r="J141">
+        <v>4</v>
+      </c>
+      <c r="K141">
+        <v>10</v>
+      </c>
+      <c r="L141">
+        <v>6.3</v>
+      </c>
+      <c r="M141" t="s">
+        <v>31</v>
+      </c>
+      <c r="N141" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="142" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A142" t="s">
+        <v>306</v>
+      </c>
+      <c r="B142">
+        <v>999</v>
+      </c>
+      <c r="C142">
+        <v>58547</v>
+      </c>
+      <c r="D142">
+        <v>1</v>
+      </c>
+      <c r="E142" t="s">
+        <v>193</v>
+      </c>
+      <c r="F142" t="s">
+        <v>253</v>
+      </c>
+      <c r="G142" t="s">
+        <v>194</v>
+      </c>
+      <c r="H142" t="s">
+        <v>254</v>
+      </c>
+      <c r="I142">
+        <v>402417</v>
+      </c>
+      <c r="J142">
+        <v>25</v>
+      </c>
+      <c r="K142">
+        <v>11</v>
+      </c>
+      <c r="L142">
+        <v>6.266666666666667</v>
+      </c>
+      <c r="M142" t="s">
+        <v>31</v>
+      </c>
+      <c r="N142" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="143" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A143" t="s">
+        <v>306</v>
+      </c>
+      <c r="B143">
+        <v>999</v>
+      </c>
+      <c r="C143">
+        <v>58547</v>
+      </c>
+      <c r="D143">
+        <v>1</v>
+      </c>
+      <c r="E143" t="s">
+        <v>98</v>
+      </c>
+      <c r="F143" t="s">
+        <v>256</v>
+      </c>
+      <c r="G143" t="s">
+        <v>156</v>
+      </c>
+      <c r="H143" t="s">
+        <v>257</v>
+      </c>
+      <c r="I143">
+        <v>402449</v>
+      </c>
+      <c r="J143">
+        <v>19</v>
+      </c>
+      <c r="K143">
+        <v>12</v>
+      </c>
+      <c r="L143">
+        <v>6.2</v>
+      </c>
+      <c r="M143" t="s">
+        <v>31</v>
+      </c>
+      <c r="N143" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="144" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A144" t="s">
+        <v>306</v>
+      </c>
+      <c r="B144">
+        <v>999</v>
+      </c>
+      <c r="C144">
+        <v>58547</v>
+      </c>
+      <c r="D144">
+        <v>1</v>
+      </c>
+      <c r="E144" t="s">
+        <v>136</v>
+      </c>
+      <c r="F144" t="s">
+        <v>259</v>
+      </c>
+      <c r="G144" t="s">
+        <v>138</v>
+      </c>
+      <c r="H144" t="s">
+        <v>260</v>
+      </c>
+      <c r="I144">
+        <v>402418</v>
+      </c>
+      <c r="J144">
+        <v>16</v>
+      </c>
+      <c r="K144">
+        <v>12</v>
+      </c>
+      <c r="L144">
+        <v>6.2</v>
+      </c>
+      <c r="M144" t="s">
+        <v>31</v>
+      </c>
+      <c r="N144" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="145" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A145" t="s">
+        <v>306</v>
+      </c>
+      <c r="B145">
+        <v>999</v>
+      </c>
+      <c r="C145">
+        <v>58547</v>
+      </c>
+      <c r="D145">
+        <v>1</v>
+      </c>
+      <c r="E145" t="s">
+        <v>110</v>
+      </c>
+      <c r="F145" t="s">
+        <v>262</v>
+      </c>
+      <c r="G145" t="s">
+        <v>112</v>
+      </c>
+      <c r="H145" t="s">
+        <v>263</v>
+      </c>
+      <c r="I145">
+        <v>402430</v>
+      </c>
+      <c r="J145">
+        <v>12</v>
+      </c>
+      <c r="K145">
+        <v>14</v>
+      </c>
+      <c r="L145">
+        <v>6.166666666666667</v>
+      </c>
+      <c r="M145" t="s">
+        <v>31</v>
+      </c>
+      <c r="N145" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="146" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A146" t="s">
+        <v>306</v>
+      </c>
+      <c r="B146">
+        <v>999</v>
+      </c>
+      <c r="C146">
+        <v>58547</v>
+      </c>
+      <c r="D146">
+        <v>1</v>
+      </c>
+      <c r="E146" t="s">
+        <v>33</v>
+      </c>
+      <c r="F146" t="s">
+        <v>265</v>
+      </c>
+      <c r="G146" t="s">
+        <v>35</v>
+      </c>
+      <c r="H146" t="s">
+        <v>266</v>
+      </c>
+      <c r="I146">
+        <v>402395</v>
+      </c>
+      <c r="J146">
+        <v>2</v>
+      </c>
+      <c r="K146">
+        <v>15</v>
+      </c>
+      <c r="L146">
+        <v>6.133333333333334</v>
+      </c>
+      <c r="M146" t="s">
+        <v>31</v>
+      </c>
+      <c r="N146" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="147" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A147" t="s">
+        <v>306</v>
+      </c>
+      <c r="B147">
+        <v>999</v>
+      </c>
+      <c r="C147">
+        <v>58547</v>
+      </c>
+      <c r="D147">
+        <v>1</v>
+      </c>
+      <c r="E147" t="s">
+        <v>41</v>
+      </c>
+      <c r="F147" t="s">
+        <v>268</v>
+      </c>
+      <c r="G147" t="s">
+        <v>43</v>
+      </c>
+      <c r="H147" t="s">
+        <v>269</v>
+      </c>
+      <c r="I147">
+        <v>402482</v>
+      </c>
+      <c r="J147">
+        <v>3</v>
+      </c>
+      <c r="K147">
+        <v>16</v>
+      </c>
+      <c r="L147">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M147" t="s">
+        <v>31</v>
+      </c>
+      <c r="N147" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="148" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A148" t="s">
+        <v>306</v>
+      </c>
+      <c r="B148">
+        <v>999</v>
+      </c>
+      <c r="C148">
+        <v>58547</v>
+      </c>
+      <c r="D148">
+        <v>1</v>
+      </c>
+      <c r="E148" t="s">
+        <v>59</v>
+      </c>
+      <c r="F148" t="s">
+        <v>271</v>
+      </c>
+      <c r="G148" t="s">
+        <v>61</v>
+      </c>
+      <c r="H148" t="s">
+        <v>272</v>
+      </c>
+      <c r="I148">
+        <v>402445</v>
+      </c>
+      <c r="J148">
+        <v>5</v>
+      </c>
+      <c r="K148">
+        <v>16</v>
+      </c>
+      <c r="L148">
+        <v>6.033333333333333</v>
+      </c>
+      <c r="M148" t="s">
+        <v>31</v>
+      </c>
+      <c r="N148" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="149" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A149" t="s">
+        <v>306</v>
+      </c>
+      <c r="B149">
+        <v>999</v>
+      </c>
+      <c r="C149">
+        <v>58547</v>
+      </c>
+      <c r="D149">
+        <v>1</v>
+      </c>
+      <c r="E149" t="s">
+        <v>67</v>
+      </c>
+      <c r="F149" t="s">
+        <v>274</v>
+      </c>
+      <c r="G149" t="s">
+        <v>69</v>
+      </c>
+      <c r="H149" t="s">
+        <v>275</v>
+      </c>
+      <c r="I149">
+        <v>402425</v>
+      </c>
+      <c r="J149">
+        <v>6</v>
+      </c>
+      <c r="K149">
+        <v>18</v>
+      </c>
+      <c r="L149">
+        <v>5.9</v>
+      </c>
+      <c r="M149" t="s">
+        <v>31</v>
+      </c>
+      <c r="N149" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="150" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A150" t="s">
+        <v>306</v>
+      </c>
+      <c r="B150">
+        <v>999</v>
+      </c>
+      <c r="C150">
+        <v>58547</v>
+      </c>
+      <c r="D150">
+        <v>1</v>
+      </c>
+      <c r="E150" t="s">
+        <v>82</v>
+      </c>
+      <c r="F150" t="s">
+        <v>277</v>
+      </c>
+      <c r="G150" t="s">
+        <v>84</v>
+      </c>
+      <c r="H150" t="s">
+        <v>278</v>
+      </c>
+      <c r="I150">
+        <v>402431</v>
+      </c>
+      <c r="J150">
+        <v>8</v>
+      </c>
+      <c r="K150">
+        <v>19</v>
+      </c>
+      <c r="L150">
+        <v>5.833333333333333</v>
+      </c>
+      <c r="M150" t="s">
+        <v>31</v>
+      </c>
+      <c r="N150" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="151" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A151" t="s">
+        <v>306</v>
+      </c>
+      <c r="B151">
+        <v>999</v>
+      </c>
+      <c r="C151">
+        <v>58547</v>
+      </c>
+      <c r="D151">
+        <v>1</v>
+      </c>
+      <c r="E151" t="s">
+        <v>130</v>
+      </c>
+      <c r="F151" t="s">
+        <v>280</v>
+      </c>
+      <c r="G151" t="s">
+        <v>131</v>
+      </c>
+      <c r="H151" t="s">
+        <v>281</v>
+      </c>
+      <c r="I151">
+        <v>402423</v>
+      </c>
+      <c r="J151">
+        <v>15</v>
+      </c>
+      <c r="K151">
+        <v>20</v>
+      </c>
+      <c r="L151">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M151" t="s">
+        <v>31</v>
+      </c>
+      <c r="N151" t="s">
+        <v>282</v>
+      </c>
+    </row>
+    <row r="152" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A152" t="s">
+        <v>306</v>
+      </c>
+      <c r="B152">
+        <v>999</v>
+      </c>
+      <c r="C152">
+        <v>58547</v>
+      </c>
+      <c r="D152">
+        <v>1</v>
+      </c>
+      <c r="E152" t="s">
+        <v>149</v>
+      </c>
+      <c r="F152" t="s">
+        <v>283</v>
+      </c>
+      <c r="G152" t="s">
+        <v>150</v>
+      </c>
+      <c r="H152" t="s">
+        <v>284</v>
+      </c>
+      <c r="I152">
+        <v>402479</v>
+      </c>
+      <c r="J152">
+        <v>18</v>
+      </c>
+      <c r="K152">
+        <v>20</v>
+      </c>
+      <c r="L152">
+        <v>5.766666666666667</v>
+      </c>
+      <c r="M152" t="s">
+        <v>31</v>
+      </c>
+      <c r="N152" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="153" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A153" t="s">
+        <v>306</v>
+      </c>
+      <c r="B153">
+        <v>999</v>
+      </c>
+      <c r="C153">
+        <v>58547</v>
+      </c>
+      <c r="D153">
+        <v>1</v>
+      </c>
+      <c r="E153" t="s">
+        <v>172</v>
+      </c>
+      <c r="F153" t="s">
+        <v>286</v>
+      </c>
+      <c r="G153" t="s">
+        <v>173</v>
+      </c>
+      <c r="H153" t="s">
+        <v>287</v>
+      </c>
+      <c r="I153">
+        <v>402421</v>
+      </c>
+      <c r="J153">
+        <v>22</v>
+      </c>
+      <c r="K153">
+        <v>22</v>
+      </c>
+      <c r="L153">
+        <v>5.6</v>
+      </c>
+      <c r="M153" t="s">
+        <v>31</v>
+      </c>
+      <c r="N153" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="154" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A154" t="s">
+        <v>306</v>
+      </c>
+      <c r="B154">
+        <v>999</v>
+      </c>
+      <c r="C154">
+        <v>58547</v>
+      </c>
+      <c r="D154">
+        <v>1</v>
+      </c>
+      <c r="E154" t="s">
+        <v>178</v>
+      </c>
+      <c r="F154" t="s">
+        <v>289</v>
+      </c>
+      <c r="G154" t="s">
+        <v>180</v>
+      </c>
+      <c r="H154" t="s">
+        <v>290</v>
+      </c>
+      <c r="I154">
+        <v>402392</v>
+      </c>
+      <c r="J154">
+        <v>23</v>
+      </c>
+      <c r="K154">
+        <v>23</v>
+      </c>
+      <c r="L154">
+        <v>5.566666666666666</v>
+      </c>
+      <c r="M154" t="s">
+        <v>31</v>
+      </c>
+      <c r="N154" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="155" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A155" t="s">
+        <v>306</v>
+      </c>
+      <c r="B155">
+        <v>999</v>
+      </c>
+      <c r="C155">
+        <v>58547</v>
+      </c>
+      <c r="D155">
+        <v>1</v>
+      </c>
+      <c r="E155" t="s">
+        <v>144</v>
+      </c>
+      <c r="F155" t="s">
+        <v>292</v>
+      </c>
+      <c r="G155" t="s">
+        <v>145</v>
+      </c>
+      <c r="H155" t="s">
+        <v>293</v>
+      </c>
+      <c r="I155">
+        <v>402415</v>
+      </c>
+      <c r="J155">
+        <v>17</v>
+      </c>
+      <c r="K155">
+        <v>24</v>
+      </c>
+      <c r="L155">
+        <v>5.433333333333334</v>
+      </c>
+      <c r="M155" t="s">
+        <v>31</v>
+      </c>
+      <c r="N155" t="s">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="156" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A156" t="s">
+        <v>306</v>
+      </c>
+      <c r="B156">
+        <v>999</v>
+      </c>
+      <c r="C156">
+        <v>58547</v>
+      </c>
+      <c r="D156">
+        <v>1</v>
+      </c>
+      <c r="E156" t="s">
+        <v>159</v>
+      </c>
+      <c r="F156" t="s">
+        <v>295</v>
+      </c>
+      <c r="G156" t="s">
+        <v>160</v>
+      </c>
+      <c r="H156" t="s">
+        <v>296</v>
+      </c>
+      <c r="I156">
+        <v>402407</v>
+      </c>
+      <c r="J156">
+        <v>20</v>
+      </c>
+      <c r="K156">
+        <v>25</v>
+      </c>
+      <c r="L156">
+        <v>5.4</v>
+      </c>
+      <c r="M156" t="s">
+        <v>31</v>
+      </c>
+      <c r="N156" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="157" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A157" t="s">
+        <v>306</v>
+      </c>
+      <c r="B157">
+        <v>999</v>
+      </c>
+      <c r="C157">
+        <v>58547</v>
+      </c>
+      <c r="D157">
+        <v>1</v>
+      </c>
+      <c r="E157" t="s">
+        <v>103</v>
+      </c>
+      <c r="F157" t="s">
+        <v>298</v>
+      </c>
+      <c r="G157" t="s">
+        <v>105</v>
+      </c>
+      <c r="H157" t="s">
+        <v>299</v>
+      </c>
+      <c r="I157">
+        <v>402393</v>
+      </c>
+      <c r="J157">
+        <v>11</v>
+      </c>
+      <c r="K157">
+        <v>26</v>
+      </c>
+      <c r="L157">
+        <v>3.8</v>
+      </c>
+      <c r="M157" t="s">
+        <v>31</v>
+      </c>
+      <c r="N157" t="s">
+        <v>300</v>
       </c>
     </row>
   </sheetData>

--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -6,13 +6,14 @@
   <sheets>
     <sheet sheetId="1" name="raslistar" state="visible" r:id="rId4"/>
     <sheet sheetId="2" name="Webhooks" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="einkunnir" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="721" uniqueCount="153">
   <si>
     <t>Nr.</t>
   </si>
@@ -276,6 +277,201 @@
   </si>
   <si>
     <t>{"classId":70674,"competitionId":1,"eventId":999,"published":1}</t>
+  </si>
+  <si>
+    <t>knapi_nafn</t>
+  </si>
+  <si>
+    <t>hross_nafn</t>
+  </si>
+  <si>
+    <t>hross_fulltnafn</t>
+  </si>
+  <si>
+    <t>faedingarnumer</t>
+  </si>
+  <si>
+    <t>keppandi_numer</t>
+  </si>
+  <si>
+    <t>vallarnumer</t>
+  </si>
+  <si>
+    <t>saeti</t>
+  </si>
+  <si>
+    <t>keppandi_medaleinkunn</t>
+  </si>
+  <si>
+    <t>keppandi_einkunn_5_ds</t>
+  </si>
+  <si>
+    <t>einkunnir_domara</t>
+  </si>
+  <si>
+    <t>2026-02-05T14:52:33.715Z</t>
+  </si>
+  <si>
+    <t>71234</t>
+  </si>
+  <si>
+    <t>103300</t>
+  </si>
+  <si>
+    <t>1</t>
+  </si>
+  <si>
+    <t>Oddur Ólafsson</t>
+  </si>
+  <si>
+    <t>Seifur</t>
+  </si>
+  <si>
+    <t>Seifur frá Borgarlandi</t>
+  </si>
+  <si>
+    <t>IS2019137219</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"6","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":543189},{"athugasemd":"","einkunn":6,"gangtegund":"Brokk","keppandi_numer":543189},{"athugasemd":"","einkunn":6,"gangtegund":"Fet","keppandi_numer":543189},{"athugasemd":"","einkunn":6,"gangtegund":"Stökk","keppandi_numer":543189},{"athugasemd":"","einkunn":6,"gangtegund":"Greitt tölt","keppandi_numer":543189}]}]</t>
+  </si>
+  <si>
+    <t>Sumarnótt</t>
+  </si>
+  <si>
+    <t>Sumarnótt frá Stóra-Kambi</t>
+  </si>
+  <si>
+    <t>IS2018237328</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":543171},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":543171},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":543171},{"athugasemd":"","einkunn":5,"gangtegund":"Stökk","keppandi_numer":543171},{"athugasemd":"","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":543171}]}]</t>
+  </si>
+  <si>
+    <t>Bringa</t>
+  </si>
+  <si>
+    <t>Bringa frá Borgarlandi</t>
+  </si>
+  <si>
+    <t>IS2018237218</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":543170},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":543170},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":543170},{"athugasemd":"","einkunn":5,"gangtegund":"Stökk","keppandi_numer":543170},{"athugasemd":"","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":543170}]}]</t>
+  </si>
+  <si>
+    <t>Þeódís</t>
+  </si>
+  <si>
+    <t>Þeódís frá Borgarlandi</t>
+  </si>
+  <si>
+    <t>IS2019237216</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":543169},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":543169},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":543169},{"athugasemd":"","einkunn":5,"gangtegund":"Stökk","keppandi_numer":543169},{"athugasemd":"","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":543169}]}]</t>
+  </si>
+  <si>
+    <t>Sóli</t>
+  </si>
+  <si>
+    <t>Sóli frá Borgarlandi</t>
+  </si>
+  <si>
+    <t>IS2023137215</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":543188},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":543188},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":543188},{"athugasemd":"","einkunn":5,"gangtegund":"Stökk","keppandi_numer":543188},{"athugasemd":"","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":543188}]}]</t>
+  </si>
+  <si>
+    <t>Oddviti</t>
+  </si>
+  <si>
+    <t>Oddviti frá Borgarlandi</t>
+  </si>
+  <si>
+    <t>IS2013137216</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":543172},{"athugasemd":"","einkunn":5,"gangtegund":"Brokk","keppandi_numer":543172},{"athugasemd":"","einkunn":5,"gangtegund":"Fet","keppandi_numer":543172},{"athugasemd":"","einkunn":5,"gangtegund":"Stökk","keppandi_numer":543172},{"athugasemd":"","einkunn":5,"gangtegund":"Greitt tölt","keppandi_numer":543172}]}]</t>
+  </si>
+  <si>
+    <t>Freyr</t>
+  </si>
+  <si>
+    <t>Freyr frá Borgarlandi</t>
+  </si>
+  <si>
+    <t>IS2019137215</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"0","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":null,"gangtegund":"Hægt tölt","keppandi_numer":1},{"athugasemd":"","einkunn":null,"gangtegund":"Brokk","keppandi_numer":1},{"athugasemd":"","einkunn":null,"gangtegund":"Fet","keppandi_numer":1},{"athugasemd":"","einkunn":null,"gangtegund":"Stökk","keppandi_numer":1},{"athugasemd":"","einkunn":null,"gangtegund":"Greitt tölt","keppandi_numer":1}]}]</t>
+  </si>
+  <si>
+    <t>Bjarmi</t>
+  </si>
+  <si>
+    <t>Bjarmi frá Borgarlandi</t>
+  </si>
+  <si>
+    <t>IS2015137219</t>
+  </si>
+  <si>
+    <t>2026-02-05T15:01:21.372Z</t>
+  </si>
+  <si>
+    <t>102919</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"8","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543168},{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":543168},{"athugasemd":"","einkunn":8,"gangtegund":"Tölt með slakan taum","keppandi_numer":543168}]}]</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"7,8","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543172},{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":543172},{"athugasemd":"","einkunn":9,"gangtegund":"Tölt með slakan taum","keppandi_numer":543172}]}]</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"7","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543169},{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":543169},{"athugasemd":"","einkunn":7,"gangtegund":"Tölt með slakan taum","keppandi_numer":543169}]}]</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"7","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543188},{"athugasemd":"","einkunn":7,"gangtegund":"Hægt tölt","keppandi_numer":543188},{"athugasemd":"","einkunn":7,"gangtegund":"Tölt með slakan taum","keppandi_numer":543188}]}]</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"6","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543189},{"athugasemd":"","einkunn":6,"gangtegund":"Hægt tölt","keppandi_numer":543189},{"athugasemd":"","einkunn":6,"gangtegund":"Tölt með slakan taum","keppandi_numer":543189}]}]</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":5,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543170},{"athugasemd":"","einkunn":5,"gangtegund":"Hægt tölt","keppandi_numer":543170},{"athugasemd":"","einkunn":5,"gangtegund":"Tölt með slakan taum","keppandi_numer":543170}]}]</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"4","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":4,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543171},{"athugasemd":"","einkunn":4,"gangtegund":"Hægt tölt","keppandi_numer":543171},{"athugasemd":"","einkunn":4,"gangtegund":"Tölt með slakan taum","keppandi_numer":543171}]}]</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"3","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":3,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543190},{"athugasemd":"","einkunn":3,"gangtegund":"Hægt tölt","keppandi_numer":543190},{"athugasemd":"","einkunn":3,"gangtegund":"Tölt með slakan taum","keppandi_numer":543190}]}]</t>
+  </si>
+  <si>
+    <t>2026-02-05T15:04:56.938Z</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"8,8","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543172},{"athugasemd":"","einkunn":9,"gangtegund":"Hægt tölt","keppandi_numer":543172},{"athugasemd":"","einkunn":9,"gangtegund":"Tölt með slakan taum","keppandi_numer":543172}]}]</t>
+  </si>
+  <si>
+    <t>2026-02-05T15:17:03.094Z</t>
+  </si>
+  <si>
+    <t>2026-02-05T15:30:34.820Z</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"8,5","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":8,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543172},{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":543172},{"athugasemd":"","einkunn":9,"gangtegund":"Tölt með slakan taum","keppandi_numer":543172}]}]</t>
+  </si>
+  <si>
+    <t>2026-02-05T15:37:02.636Z</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"8,3","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":7,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543172},{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":543172},{"athugasemd":"","einkunn":9,"gangtegund":"Tölt með slakan taum","keppandi_numer":543172}]}]</t>
+  </si>
+  <si>
+    <t>2026-02-05T15:42:00.620Z</t>
+  </si>
+  <si>
+    <t>[{"domarar":"Oddur Ólafsson","domari_adaleinkunn":"8","domsaeti_saeti":"1","sundurlidun_einkunna":[{"athugasemd":"","einkunn":6,"gangtegund":"Tölt frjáls hraði","keppandi_numer":543172},{"athugasemd":"","einkunn":8,"gangtegund":"Hægt tölt","keppandi_numer":543172},{"athugasemd":"","einkunn":9,"gangtegund":"Tölt með slakan taum","keppandi_numer":543172}]}]</t>
   </si>
 </sst>
 </file>
@@ -720,7 +916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -766,8 +962,26 @@
       <c r="O2" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>30</v>
+      </c>
+      <c r="R2" t="s">
+        <v>30</v>
+      </c>
+      <c r="S2" t="s">
+        <v>30</v>
+      </c>
+      <c r="T2" t="s">
+        <v>30</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
@@ -813,8 +1027,26 @@
       <c r="O3" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P3">
+        <v>4</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>30</v>
+      </c>
+      <c r="R3" t="s">
+        <v>30</v>
+      </c>
+      <c r="S3" t="s">
+        <v>30</v>
+      </c>
+      <c r="T3" t="s">
+        <v>30</v>
+      </c>
+      <c r="U3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
@@ -860,8 +1092,26 @@
       <c r="O4" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P4">
+        <v>3</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>30</v>
+      </c>
+      <c r="R4" t="s">
+        <v>30</v>
+      </c>
+      <c r="S4" t="s">
+        <v>30</v>
+      </c>
+      <c r="T4" t="s">
+        <v>30</v>
+      </c>
+      <c r="U4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
@@ -907,8 +1157,26 @@
       <c r="O5" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P5">
+        <v>5</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>30</v>
+      </c>
+      <c r="R5" t="s">
+        <v>30</v>
+      </c>
+      <c r="S5" t="s">
+        <v>30</v>
+      </c>
+      <c r="T5" t="s">
+        <v>30</v>
+      </c>
+      <c r="U5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
@@ -954,8 +1222,26 @@
       <c r="O6" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P6">
+        <v>6</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>30</v>
+      </c>
+      <c r="R6" t="s">
+        <v>30</v>
+      </c>
+      <c r="S6" t="s">
+        <v>30</v>
+      </c>
+      <c r="T6" t="s">
+        <v>30</v>
+      </c>
+      <c r="U6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>6</v>
       </c>
@@ -1001,8 +1287,26 @@
       <c r="O7" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="P7">
+        <v>7</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>30</v>
+      </c>
+      <c r="R7" t="s">
+        <v>30</v>
+      </c>
+      <c r="S7" t="s">
+        <v>30</v>
+      </c>
+      <c r="T7" t="s">
+        <v>30</v>
+      </c>
+      <c r="U7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>7</v>
       </c>
@@ -1047,6 +1351,24 @@
       </c>
       <c r="O8" t="s">
         <v>77</v>
+      </c>
+      <c r="P8">
+        <v>7</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8">
+        <v>7</v>
       </c>
     </row>
   </sheetData>
@@ -1118,4 +1440,2523 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:N57"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>78</v>
+      </c>
+      <c r="B1" t="s">
+        <v>80</v>
+      </c>
+      <c r="C1" t="s">
+        <v>81</v>
+      </c>
+      <c r="D1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F1" t="s">
+        <v>89</v>
+      </c>
+      <c r="G1" t="s">
+        <v>90</v>
+      </c>
+      <c r="H1" t="s">
+        <v>91</v>
+      </c>
+      <c r="I1" t="s">
+        <v>92</v>
+      </c>
+      <c r="J1" t="s">
+        <v>93</v>
+      </c>
+      <c r="K1" t="s">
+        <v>94</v>
+      </c>
+      <c r="L1" t="s">
+        <v>95</v>
+      </c>
+      <c r="M1" t="s">
+        <v>96</v>
+      </c>
+      <c r="N1" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>98</v>
+      </c>
+      <c r="B2" t="s">
+        <v>99</v>
+      </c>
+      <c r="C2" t="s">
+        <v>100</v>
+      </c>
+      <c r="D2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E2" t="s">
+        <v>102</v>
+      </c>
+      <c r="F2" t="s">
+        <v>103</v>
+      </c>
+      <c r="G2" t="s">
+        <v>104</v>
+      </c>
+      <c r="H2" t="s">
+        <v>105</v>
+      </c>
+      <c r="I2">
+        <v>543189</v>
+      </c>
+      <c r="J2">
+        <v>6</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>6</v>
+      </c>
+      <c r="M2" t="s">
+        <v>30</v>
+      </c>
+      <c r="N2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>98</v>
+      </c>
+      <c r="B3" t="s">
+        <v>99</v>
+      </c>
+      <c r="C3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D3" t="s">
+        <v>101</v>
+      </c>
+      <c r="E3" t="s">
+        <v>102</v>
+      </c>
+      <c r="F3" t="s">
+        <v>107</v>
+      </c>
+      <c r="G3" t="s">
+        <v>108</v>
+      </c>
+      <c r="H3" t="s">
+        <v>109</v>
+      </c>
+      <c r="I3">
+        <v>543171</v>
+      </c>
+      <c r="J3">
+        <v>5</v>
+      </c>
+      <c r="K3">
+        <v>2</v>
+      </c>
+      <c r="L3">
+        <v>5</v>
+      </c>
+      <c r="M3" t="s">
+        <v>30</v>
+      </c>
+      <c r="N3" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>98</v>
+      </c>
+      <c r="B4" t="s">
+        <v>99</v>
+      </c>
+      <c r="C4" t="s">
+        <v>100</v>
+      </c>
+      <c r="D4" t="s">
+        <v>101</v>
+      </c>
+      <c r="E4" t="s">
+        <v>102</v>
+      </c>
+      <c r="F4" t="s">
+        <v>111</v>
+      </c>
+      <c r="G4" t="s">
+        <v>112</v>
+      </c>
+      <c r="H4" t="s">
+        <v>113</v>
+      </c>
+      <c r="I4">
+        <v>543170</v>
+      </c>
+      <c r="J4">
+        <v>2</v>
+      </c>
+      <c r="K4">
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <v>5</v>
+      </c>
+      <c r="M4" t="s">
+        <v>30</v>
+      </c>
+      <c r="N4" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>98</v>
+      </c>
+      <c r="B5" t="s">
+        <v>99</v>
+      </c>
+      <c r="C5" t="s">
+        <v>100</v>
+      </c>
+      <c r="D5" t="s">
+        <v>101</v>
+      </c>
+      <c r="E5" t="s">
+        <v>102</v>
+      </c>
+      <c r="F5" t="s">
+        <v>115</v>
+      </c>
+      <c r="G5" t="s">
+        <v>116</v>
+      </c>
+      <c r="H5" t="s">
+        <v>117</v>
+      </c>
+      <c r="I5">
+        <v>543169</v>
+      </c>
+      <c r="J5">
+        <v>3</v>
+      </c>
+      <c r="K5">
+        <v>2</v>
+      </c>
+      <c r="L5">
+        <v>5</v>
+      </c>
+      <c r="M5" t="s">
+        <v>30</v>
+      </c>
+      <c r="N5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>98</v>
+      </c>
+      <c r="B6" t="s">
+        <v>99</v>
+      </c>
+      <c r="C6" t="s">
+        <v>100</v>
+      </c>
+      <c r="D6" t="s">
+        <v>101</v>
+      </c>
+      <c r="E6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" t="s">
+        <v>119</v>
+      </c>
+      <c r="G6" t="s">
+        <v>120</v>
+      </c>
+      <c r="H6" t="s">
+        <v>121</v>
+      </c>
+      <c r="I6">
+        <v>543188</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>5</v>
+      </c>
+      <c r="M6" t="s">
+        <v>30</v>
+      </c>
+      <c r="N6" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>98</v>
+      </c>
+      <c r="B7" t="s">
+        <v>99</v>
+      </c>
+      <c r="C7" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>101</v>
+      </c>
+      <c r="E7" t="s">
+        <v>102</v>
+      </c>
+      <c r="F7" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" t="s">
+        <v>124</v>
+      </c>
+      <c r="H7" t="s">
+        <v>125</v>
+      </c>
+      <c r="I7">
+        <v>543172</v>
+      </c>
+      <c r="J7">
+        <v>4</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>5</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>98</v>
+      </c>
+      <c r="B8" t="s">
+        <v>99</v>
+      </c>
+      <c r="C8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" t="s">
+        <v>101</v>
+      </c>
+      <c r="E8" t="s">
+        <v>102</v>
+      </c>
+      <c r="F8" t="s">
+        <v>127</v>
+      </c>
+      <c r="G8" t="s">
+        <v>128</v>
+      </c>
+      <c r="H8" t="s">
+        <v>129</v>
+      </c>
+      <c r="I8">
+        <v>543190</v>
+      </c>
+      <c r="J8">
+        <v>7</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>98</v>
+      </c>
+      <c r="B9" t="s">
+        <v>99</v>
+      </c>
+      <c r="C9" t="s">
+        <v>100</v>
+      </c>
+      <c r="D9" t="s">
+        <v>101</v>
+      </c>
+      <c r="E9" t="s">
+        <v>102</v>
+      </c>
+      <c r="F9" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" t="s">
+        <v>132</v>
+      </c>
+      <c r="H9" t="s">
+        <v>133</v>
+      </c>
+      <c r="I9">
+        <v>543168</v>
+      </c>
+      <c r="J9">
+        <v>8</v>
+      </c>
+      <c r="K9" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" t="s">
+        <v>30</v>
+      </c>
+      <c r="M9" t="s">
+        <v>30</v>
+      </c>
+      <c r="N9" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>134</v>
+      </c>
+      <c r="B10" t="s">
+        <v>99</v>
+      </c>
+      <c r="C10" t="s">
+        <v>135</v>
+      </c>
+      <c r="D10" t="s">
+        <v>101</v>
+      </c>
+      <c r="E10" t="s">
+        <v>102</v>
+      </c>
+      <c r="F10" t="s">
+        <v>131</v>
+      </c>
+      <c r="G10" t="s">
+        <v>132</v>
+      </c>
+      <c r="H10" t="s">
+        <v>133</v>
+      </c>
+      <c r="I10">
+        <v>543168</v>
+      </c>
+      <c r="J10">
+        <v>8</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>8</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>134</v>
+      </c>
+      <c r="B11" t="s">
+        <v>99</v>
+      </c>
+      <c r="C11" t="s">
+        <v>135</v>
+      </c>
+      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="E11" t="s">
+        <v>102</v>
+      </c>
+      <c r="F11" t="s">
+        <v>123</v>
+      </c>
+      <c r="G11" t="s">
+        <v>124</v>
+      </c>
+      <c r="H11" t="s">
+        <v>125</v>
+      </c>
+      <c r="I11">
+        <v>543172</v>
+      </c>
+      <c r="J11">
+        <v>1</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>7.8</v>
+      </c>
+      <c r="M11" t="s">
+        <v>30</v>
+      </c>
+      <c r="N11" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>134</v>
+      </c>
+      <c r="B12" t="s">
+        <v>99</v>
+      </c>
+      <c r="C12" t="s">
+        <v>135</v>
+      </c>
+      <c r="D12" t="s">
+        <v>101</v>
+      </c>
+      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="F12" t="s">
+        <v>115</v>
+      </c>
+      <c r="G12" t="s">
+        <v>116</v>
+      </c>
+      <c r="H12" t="s">
+        <v>117</v>
+      </c>
+      <c r="I12">
+        <v>543169</v>
+      </c>
+      <c r="J12">
+        <v>7</v>
+      </c>
+      <c r="K12">
+        <v>3</v>
+      </c>
+      <c r="L12">
+        <v>7</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>134</v>
+      </c>
+      <c r="B13" t="s">
+        <v>99</v>
+      </c>
+      <c r="C13" t="s">
+        <v>135</v>
+      </c>
+      <c r="D13" t="s">
+        <v>101</v>
+      </c>
+      <c r="E13" t="s">
+        <v>102</v>
+      </c>
+      <c r="F13" t="s">
+        <v>119</v>
+      </c>
+      <c r="G13" t="s">
+        <v>120</v>
+      </c>
+      <c r="H13" t="s">
+        <v>121</v>
+      </c>
+      <c r="I13">
+        <v>543188</v>
+      </c>
+      <c r="J13">
+        <v>6</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>30</v>
+      </c>
+      <c r="N13" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" t="s">
+        <v>99</v>
+      </c>
+      <c r="C14" t="s">
+        <v>135</v>
+      </c>
+      <c r="D14" t="s">
+        <v>101</v>
+      </c>
+      <c r="E14" t="s">
+        <v>102</v>
+      </c>
+      <c r="F14" t="s">
+        <v>103</v>
+      </c>
+      <c r="G14" t="s">
+        <v>104</v>
+      </c>
+      <c r="H14" t="s">
+        <v>105</v>
+      </c>
+      <c r="I14">
+        <v>543189</v>
+      </c>
+      <c r="J14">
+        <v>5</v>
+      </c>
+      <c r="K14">
+        <v>5</v>
+      </c>
+      <c r="L14">
+        <v>6</v>
+      </c>
+      <c r="M14" t="s">
+        <v>30</v>
+      </c>
+      <c r="N14" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>134</v>
+      </c>
+      <c r="B15" t="s">
+        <v>99</v>
+      </c>
+      <c r="C15" t="s">
+        <v>135</v>
+      </c>
+      <c r="D15" t="s">
+        <v>101</v>
+      </c>
+      <c r="E15" t="s">
+        <v>102</v>
+      </c>
+      <c r="F15" t="s">
+        <v>111</v>
+      </c>
+      <c r="G15" t="s">
+        <v>112</v>
+      </c>
+      <c r="H15" t="s">
+        <v>113</v>
+      </c>
+      <c r="I15">
+        <v>543170</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+      <c r="K15">
+        <v>6</v>
+      </c>
+      <c r="L15">
+        <v>5</v>
+      </c>
+      <c r="M15" t="s">
+        <v>30</v>
+      </c>
+      <c r="N15" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>134</v>
+      </c>
+      <c r="B16" t="s">
+        <v>99</v>
+      </c>
+      <c r="C16" t="s">
+        <v>135</v>
+      </c>
+      <c r="D16" t="s">
+        <v>101</v>
+      </c>
+      <c r="E16" t="s">
+        <v>102</v>
+      </c>
+      <c r="F16" t="s">
+        <v>107</v>
+      </c>
+      <c r="G16" t="s">
+        <v>108</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16">
+        <v>543171</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+      <c r="K16">
+        <v>7</v>
+      </c>
+      <c r="L16">
+        <v>4</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>134</v>
+      </c>
+      <c r="B17" t="s">
+        <v>99</v>
+      </c>
+      <c r="C17" t="s">
+        <v>135</v>
+      </c>
+      <c r="D17" t="s">
+        <v>101</v>
+      </c>
+      <c r="E17" t="s">
+        <v>102</v>
+      </c>
+      <c r="F17" t="s">
+        <v>127</v>
+      </c>
+      <c r="G17" t="s">
+        <v>128</v>
+      </c>
+      <c r="H17" t="s">
+        <v>129</v>
+      </c>
+      <c r="I17">
+        <v>543190</v>
+      </c>
+      <c r="J17">
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <v>8</v>
+      </c>
+      <c r="L17">
+        <v>3</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>144</v>
+      </c>
+      <c r="B18" t="s">
+        <v>99</v>
+      </c>
+      <c r="C18" t="s">
+        <v>135</v>
+      </c>
+      <c r="D18" t="s">
+        <v>101</v>
+      </c>
+      <c r="E18" t="s">
+        <v>102</v>
+      </c>
+      <c r="F18" t="s">
+        <v>123</v>
+      </c>
+      <c r="G18" t="s">
+        <v>124</v>
+      </c>
+      <c r="H18" t="s">
+        <v>125</v>
+      </c>
+      <c r="I18">
+        <v>543172</v>
+      </c>
+      <c r="J18">
+        <v>1</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
+      </c>
+      <c r="L18">
+        <v>8.8</v>
+      </c>
+      <c r="M18" t="s">
+        <v>30</v>
+      </c>
+      <c r="N18" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>144</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>135</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>131</v>
+      </c>
+      <c r="G19" t="s">
+        <v>132</v>
+      </c>
+      <c r="H19" t="s">
+        <v>133</v>
+      </c>
+      <c r="I19">
+        <v>543168</v>
+      </c>
+      <c r="J19">
+        <v>8</v>
+      </c>
+      <c r="K19">
+        <v>2</v>
+      </c>
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>30</v>
+      </c>
+      <c r="N19" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B20" t="s">
+        <v>99</v>
+      </c>
+      <c r="C20" t="s">
+        <v>135</v>
+      </c>
+      <c r="D20" t="s">
+        <v>101</v>
+      </c>
+      <c r="E20" t="s">
+        <v>102</v>
+      </c>
+      <c r="F20" t="s">
+        <v>119</v>
+      </c>
+      <c r="G20" t="s">
+        <v>120</v>
+      </c>
+      <c r="H20" t="s">
+        <v>121</v>
+      </c>
+      <c r="I20">
+        <v>543188</v>
+      </c>
+      <c r="J20">
+        <v>6</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>7</v>
+      </c>
+      <c r="M20" t="s">
+        <v>30</v>
+      </c>
+      <c r="N20" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>144</v>
+      </c>
+      <c r="B21" t="s">
+        <v>99</v>
+      </c>
+      <c r="C21" t="s">
+        <v>135</v>
+      </c>
+      <c r="D21" t="s">
+        <v>101</v>
+      </c>
+      <c r="E21" t="s">
+        <v>102</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>116</v>
+      </c>
+      <c r="H21" t="s">
+        <v>117</v>
+      </c>
+      <c r="I21">
+        <v>543169</v>
+      </c>
+      <c r="J21">
+        <v>7</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>7</v>
+      </c>
+      <c r="M21" t="s">
+        <v>30</v>
+      </c>
+      <c r="N21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>144</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" t="s">
+        <v>135</v>
+      </c>
+      <c r="D22" t="s">
+        <v>101</v>
+      </c>
+      <c r="E22" t="s">
+        <v>102</v>
+      </c>
+      <c r="F22" t="s">
+        <v>103</v>
+      </c>
+      <c r="G22" t="s">
+        <v>104</v>
+      </c>
+      <c r="H22" t="s">
+        <v>105</v>
+      </c>
+      <c r="I22">
+        <v>543189</v>
+      </c>
+      <c r="J22">
+        <v>5</v>
+      </c>
+      <c r="K22">
+        <v>5</v>
+      </c>
+      <c r="L22">
+        <v>6</v>
+      </c>
+      <c r="M22" t="s">
+        <v>30</v>
+      </c>
+      <c r="N22" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>144</v>
+      </c>
+      <c r="B23" t="s">
+        <v>99</v>
+      </c>
+      <c r="C23" t="s">
+        <v>135</v>
+      </c>
+      <c r="D23" t="s">
+        <v>101</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="F23" t="s">
+        <v>111</v>
+      </c>
+      <c r="G23" t="s">
+        <v>112</v>
+      </c>
+      <c r="H23" t="s">
+        <v>113</v>
+      </c>
+      <c r="I23">
+        <v>543170</v>
+      </c>
+      <c r="J23">
+        <v>4</v>
+      </c>
+      <c r="K23">
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>30</v>
+      </c>
+      <c r="N23" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>144</v>
+      </c>
+      <c r="B24" t="s">
+        <v>99</v>
+      </c>
+      <c r="C24" t="s">
+        <v>135</v>
+      </c>
+      <c r="D24" t="s">
+        <v>101</v>
+      </c>
+      <c r="E24" t="s">
+        <v>102</v>
+      </c>
+      <c r="F24" t="s">
+        <v>107</v>
+      </c>
+      <c r="G24" t="s">
+        <v>108</v>
+      </c>
+      <c r="H24" t="s">
+        <v>109</v>
+      </c>
+      <c r="I24">
+        <v>543171</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+      <c r="K24">
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <v>4</v>
+      </c>
+      <c r="M24" t="s">
+        <v>30</v>
+      </c>
+      <c r="N24" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>144</v>
+      </c>
+      <c r="B25" t="s">
+        <v>99</v>
+      </c>
+      <c r="C25" t="s">
+        <v>135</v>
+      </c>
+      <c r="D25" t="s">
+        <v>101</v>
+      </c>
+      <c r="E25" t="s">
+        <v>102</v>
+      </c>
+      <c r="F25" t="s">
+        <v>127</v>
+      </c>
+      <c r="G25" t="s">
+        <v>128</v>
+      </c>
+      <c r="H25" t="s">
+        <v>129</v>
+      </c>
+      <c r="I25">
+        <v>543190</v>
+      </c>
+      <c r="J25">
+        <v>3</v>
+      </c>
+      <c r="K25">
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <v>3</v>
+      </c>
+      <c r="M25" t="s">
+        <v>30</v>
+      </c>
+      <c r="N25" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>146</v>
+      </c>
+      <c r="B26" t="s">
+        <v>99</v>
+      </c>
+      <c r="C26" t="s">
+        <v>135</v>
+      </c>
+      <c r="D26" t="s">
+        <v>101</v>
+      </c>
+      <c r="E26" t="s">
+        <v>102</v>
+      </c>
+      <c r="F26" t="s">
+        <v>123</v>
+      </c>
+      <c r="G26" t="s">
+        <v>124</v>
+      </c>
+      <c r="H26" t="s">
+        <v>125</v>
+      </c>
+      <c r="I26">
+        <v>543172</v>
+      </c>
+      <c r="J26">
+        <v>1</v>
+      </c>
+      <c r="K26">
+        <v>1</v>
+      </c>
+      <c r="L26">
+        <v>8.8</v>
+      </c>
+      <c r="M26" t="s">
+        <v>30</v>
+      </c>
+      <c r="N26" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>146</v>
+      </c>
+      <c r="B27" t="s">
+        <v>99</v>
+      </c>
+      <c r="C27" t="s">
+        <v>135</v>
+      </c>
+      <c r="D27" t="s">
+        <v>101</v>
+      </c>
+      <c r="E27" t="s">
+        <v>102</v>
+      </c>
+      <c r="F27" t="s">
+        <v>131</v>
+      </c>
+      <c r="G27" t="s">
+        <v>132</v>
+      </c>
+      <c r="H27" t="s">
+        <v>133</v>
+      </c>
+      <c r="I27">
+        <v>543168</v>
+      </c>
+      <c r="J27">
+        <v>8</v>
+      </c>
+      <c r="K27">
+        <v>2</v>
+      </c>
+      <c r="L27">
+        <v>8</v>
+      </c>
+      <c r="M27" t="s">
+        <v>30</v>
+      </c>
+      <c r="N27" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>146</v>
+      </c>
+      <c r="B28" t="s">
+        <v>99</v>
+      </c>
+      <c r="C28" t="s">
+        <v>135</v>
+      </c>
+      <c r="D28" t="s">
+        <v>101</v>
+      </c>
+      <c r="E28" t="s">
+        <v>102</v>
+      </c>
+      <c r="F28" t="s">
+        <v>119</v>
+      </c>
+      <c r="G28" t="s">
+        <v>120</v>
+      </c>
+      <c r="H28" t="s">
+        <v>121</v>
+      </c>
+      <c r="I28">
+        <v>543188</v>
+      </c>
+      <c r="J28">
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <v>3</v>
+      </c>
+      <c r="L28">
+        <v>7</v>
+      </c>
+      <c r="M28" t="s">
+        <v>30</v>
+      </c>
+      <c r="N28" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>146</v>
+      </c>
+      <c r="B29" t="s">
+        <v>99</v>
+      </c>
+      <c r="C29" t="s">
+        <v>135</v>
+      </c>
+      <c r="D29" t="s">
+        <v>101</v>
+      </c>
+      <c r="E29" t="s">
+        <v>102</v>
+      </c>
+      <c r="F29" t="s">
+        <v>115</v>
+      </c>
+      <c r="G29" t="s">
+        <v>116</v>
+      </c>
+      <c r="H29" t="s">
+        <v>117</v>
+      </c>
+      <c r="I29">
+        <v>543169</v>
+      </c>
+      <c r="J29">
+        <v>7</v>
+      </c>
+      <c r="K29">
+        <v>3</v>
+      </c>
+      <c r="L29">
+        <v>7</v>
+      </c>
+      <c r="M29" t="s">
+        <v>30</v>
+      </c>
+      <c r="N29" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>146</v>
+      </c>
+      <c r="B30" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" t="s">
+        <v>135</v>
+      </c>
+      <c r="D30" t="s">
+        <v>101</v>
+      </c>
+      <c r="E30" t="s">
+        <v>102</v>
+      </c>
+      <c r="F30" t="s">
+        <v>103</v>
+      </c>
+      <c r="G30" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" t="s">
+        <v>105</v>
+      </c>
+      <c r="I30">
+        <v>543189</v>
+      </c>
+      <c r="J30">
+        <v>5</v>
+      </c>
+      <c r="K30">
+        <v>5</v>
+      </c>
+      <c r="L30">
+        <v>6</v>
+      </c>
+      <c r="M30" t="s">
+        <v>30</v>
+      </c>
+      <c r="N30" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>146</v>
+      </c>
+      <c r="B31" t="s">
+        <v>99</v>
+      </c>
+      <c r="C31" t="s">
+        <v>135</v>
+      </c>
+      <c r="D31" t="s">
+        <v>101</v>
+      </c>
+      <c r="E31" t="s">
+        <v>102</v>
+      </c>
+      <c r="F31" t="s">
+        <v>111</v>
+      </c>
+      <c r="G31" t="s">
+        <v>112</v>
+      </c>
+      <c r="H31" t="s">
+        <v>113</v>
+      </c>
+      <c r="I31">
+        <v>543170</v>
+      </c>
+      <c r="J31">
+        <v>4</v>
+      </c>
+      <c r="K31">
+        <v>6</v>
+      </c>
+      <c r="L31">
+        <v>5</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>146</v>
+      </c>
+      <c r="B32" t="s">
+        <v>99</v>
+      </c>
+      <c r="C32" t="s">
+        <v>135</v>
+      </c>
+      <c r="D32" t="s">
+        <v>101</v>
+      </c>
+      <c r="E32" t="s">
+        <v>102</v>
+      </c>
+      <c r="F32" t="s">
+        <v>107</v>
+      </c>
+      <c r="G32" t="s">
+        <v>108</v>
+      </c>
+      <c r="H32" t="s">
+        <v>109</v>
+      </c>
+      <c r="I32">
+        <v>543171</v>
+      </c>
+      <c r="J32">
+        <v>2</v>
+      </c>
+      <c r="K32">
+        <v>7</v>
+      </c>
+      <c r="L32">
+        <v>4</v>
+      </c>
+      <c r="M32" t="s">
+        <v>30</v>
+      </c>
+      <c r="N32" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>99</v>
+      </c>
+      <c r="C33" t="s">
+        <v>135</v>
+      </c>
+      <c r="D33" t="s">
+        <v>101</v>
+      </c>
+      <c r="E33" t="s">
+        <v>102</v>
+      </c>
+      <c r="F33" t="s">
+        <v>127</v>
+      </c>
+      <c r="G33" t="s">
+        <v>128</v>
+      </c>
+      <c r="H33" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33">
+        <v>543190</v>
+      </c>
+      <c r="J33">
+        <v>3</v>
+      </c>
+      <c r="K33">
+        <v>8</v>
+      </c>
+      <c r="L33">
+        <v>3</v>
+      </c>
+      <c r="M33" t="s">
+        <v>30</v>
+      </c>
+      <c r="N33" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>147</v>
+      </c>
+      <c r="B34" t="s">
+        <v>99</v>
+      </c>
+      <c r="C34" t="s">
+        <v>135</v>
+      </c>
+      <c r="D34" t="s">
+        <v>101</v>
+      </c>
+      <c r="E34" t="s">
+        <v>102</v>
+      </c>
+      <c r="F34" t="s">
+        <v>123</v>
+      </c>
+      <c r="G34" t="s">
+        <v>124</v>
+      </c>
+      <c r="H34" t="s">
+        <v>125</v>
+      </c>
+      <c r="I34">
+        <v>543172</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>8.5</v>
+      </c>
+      <c r="M34" t="s">
+        <v>30</v>
+      </c>
+      <c r="N34" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>147</v>
+      </c>
+      <c r="B35" t="s">
+        <v>99</v>
+      </c>
+      <c r="C35" t="s">
+        <v>135</v>
+      </c>
+      <c r="D35" t="s">
+        <v>101</v>
+      </c>
+      <c r="E35" t="s">
+        <v>102</v>
+      </c>
+      <c r="F35" t="s">
+        <v>131</v>
+      </c>
+      <c r="G35" t="s">
+        <v>132</v>
+      </c>
+      <c r="H35" t="s">
+        <v>133</v>
+      </c>
+      <c r="I35">
+        <v>543168</v>
+      </c>
+      <c r="J35">
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>8</v>
+      </c>
+      <c r="M35" t="s">
+        <v>30</v>
+      </c>
+      <c r="N35" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B36" t="s">
+        <v>99</v>
+      </c>
+      <c r="C36" t="s">
+        <v>135</v>
+      </c>
+      <c r="D36" t="s">
+        <v>101</v>
+      </c>
+      <c r="E36" t="s">
+        <v>102</v>
+      </c>
+      <c r="F36" t="s">
+        <v>119</v>
+      </c>
+      <c r="G36" t="s">
+        <v>120</v>
+      </c>
+      <c r="H36" t="s">
+        <v>121</v>
+      </c>
+      <c r="I36">
+        <v>543188</v>
+      </c>
+      <c r="J36">
+        <v>6</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>7</v>
+      </c>
+      <c r="M36" t="s">
+        <v>30</v>
+      </c>
+      <c r="N36" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>147</v>
+      </c>
+      <c r="B37" t="s">
+        <v>99</v>
+      </c>
+      <c r="C37" t="s">
+        <v>135</v>
+      </c>
+      <c r="D37" t="s">
+        <v>101</v>
+      </c>
+      <c r="E37" t="s">
+        <v>102</v>
+      </c>
+      <c r="F37" t="s">
+        <v>115</v>
+      </c>
+      <c r="G37" t="s">
+        <v>116</v>
+      </c>
+      <c r="H37" t="s">
+        <v>117</v>
+      </c>
+      <c r="I37">
+        <v>543169</v>
+      </c>
+      <c r="J37">
+        <v>7</v>
+      </c>
+      <c r="K37">
+        <v>3</v>
+      </c>
+      <c r="L37">
+        <v>7</v>
+      </c>
+      <c r="M37" t="s">
+        <v>30</v>
+      </c>
+      <c r="N37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" t="s">
+        <v>99</v>
+      </c>
+      <c r="C38" t="s">
+        <v>135</v>
+      </c>
+      <c r="D38" t="s">
+        <v>101</v>
+      </c>
+      <c r="E38" t="s">
+        <v>102</v>
+      </c>
+      <c r="F38" t="s">
+        <v>103</v>
+      </c>
+      <c r="G38" t="s">
+        <v>104</v>
+      </c>
+      <c r="H38" t="s">
+        <v>105</v>
+      </c>
+      <c r="I38">
+        <v>543189</v>
+      </c>
+      <c r="J38">
+        <v>5</v>
+      </c>
+      <c r="K38">
+        <v>5</v>
+      </c>
+      <c r="L38">
+        <v>6</v>
+      </c>
+      <c r="M38" t="s">
+        <v>30</v>
+      </c>
+      <c r="N38" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>147</v>
+      </c>
+      <c r="B39" t="s">
+        <v>99</v>
+      </c>
+      <c r="C39" t="s">
+        <v>135</v>
+      </c>
+      <c r="D39" t="s">
+        <v>101</v>
+      </c>
+      <c r="E39" t="s">
+        <v>102</v>
+      </c>
+      <c r="F39" t="s">
+        <v>111</v>
+      </c>
+      <c r="G39" t="s">
+        <v>112</v>
+      </c>
+      <c r="H39" t="s">
+        <v>113</v>
+      </c>
+      <c r="I39">
+        <v>543170</v>
+      </c>
+      <c r="J39">
+        <v>4</v>
+      </c>
+      <c r="K39">
+        <v>6</v>
+      </c>
+      <c r="L39">
+        <v>5</v>
+      </c>
+      <c r="M39" t="s">
+        <v>30</v>
+      </c>
+      <c r="N39" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>147</v>
+      </c>
+      <c r="B40" t="s">
+        <v>99</v>
+      </c>
+      <c r="C40" t="s">
+        <v>135</v>
+      </c>
+      <c r="D40" t="s">
+        <v>101</v>
+      </c>
+      <c r="E40" t="s">
+        <v>102</v>
+      </c>
+      <c r="F40" t="s">
+        <v>107</v>
+      </c>
+      <c r="G40" t="s">
+        <v>108</v>
+      </c>
+      <c r="H40" t="s">
+        <v>109</v>
+      </c>
+      <c r="I40">
+        <v>543171</v>
+      </c>
+      <c r="J40">
+        <v>2</v>
+      </c>
+      <c r="K40">
+        <v>7</v>
+      </c>
+      <c r="L40">
+        <v>4</v>
+      </c>
+      <c r="M40" t="s">
+        <v>30</v>
+      </c>
+      <c r="N40" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>147</v>
+      </c>
+      <c r="B41" t="s">
+        <v>99</v>
+      </c>
+      <c r="C41" t="s">
+        <v>135</v>
+      </c>
+      <c r="D41" t="s">
+        <v>101</v>
+      </c>
+      <c r="E41" t="s">
+        <v>102</v>
+      </c>
+      <c r="F41" t="s">
+        <v>127</v>
+      </c>
+      <c r="G41" t="s">
+        <v>128</v>
+      </c>
+      <c r="H41" t="s">
+        <v>129</v>
+      </c>
+      <c r="I41">
+        <v>543190</v>
+      </c>
+      <c r="J41">
+        <v>3</v>
+      </c>
+      <c r="K41">
+        <v>8</v>
+      </c>
+      <c r="L41">
+        <v>3</v>
+      </c>
+      <c r="M41" t="s">
+        <v>30</v>
+      </c>
+      <c r="N41" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>149</v>
+      </c>
+      <c r="B42" t="s">
+        <v>99</v>
+      </c>
+      <c r="C42" t="s">
+        <v>135</v>
+      </c>
+      <c r="D42" t="s">
+        <v>101</v>
+      </c>
+      <c r="E42" t="s">
+        <v>102</v>
+      </c>
+      <c r="F42" t="s">
+        <v>123</v>
+      </c>
+      <c r="G42" t="s">
+        <v>124</v>
+      </c>
+      <c r="H42" t="s">
+        <v>125</v>
+      </c>
+      <c r="I42">
+        <v>543172</v>
+      </c>
+      <c r="J42">
+        <v>1</v>
+      </c>
+      <c r="K42">
+        <v>1</v>
+      </c>
+      <c r="L42">
+        <v>8.3</v>
+      </c>
+      <c r="M42" t="s">
+        <v>30</v>
+      </c>
+      <c r="N42" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>149</v>
+      </c>
+      <c r="B43" t="s">
+        <v>99</v>
+      </c>
+      <c r="C43" t="s">
+        <v>135</v>
+      </c>
+      <c r="D43" t="s">
+        <v>101</v>
+      </c>
+      <c r="E43" t="s">
+        <v>102</v>
+      </c>
+      <c r="F43" t="s">
+        <v>131</v>
+      </c>
+      <c r="G43" t="s">
+        <v>132</v>
+      </c>
+      <c r="H43" t="s">
+        <v>133</v>
+      </c>
+      <c r="I43">
+        <v>543168</v>
+      </c>
+      <c r="J43">
+        <v>8</v>
+      </c>
+      <c r="K43">
+        <v>2</v>
+      </c>
+      <c r="L43">
+        <v>8</v>
+      </c>
+      <c r="M43" t="s">
+        <v>30</v>
+      </c>
+      <c r="N43" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>149</v>
+      </c>
+      <c r="B44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C44" t="s">
+        <v>135</v>
+      </c>
+      <c r="D44" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" t="s">
+        <v>102</v>
+      </c>
+      <c r="F44" t="s">
+        <v>115</v>
+      </c>
+      <c r="G44" t="s">
+        <v>116</v>
+      </c>
+      <c r="H44" t="s">
+        <v>117</v>
+      </c>
+      <c r="I44">
+        <v>543169</v>
+      </c>
+      <c r="J44">
+        <v>7</v>
+      </c>
+      <c r="K44">
+        <v>3</v>
+      </c>
+      <c r="L44">
+        <v>7</v>
+      </c>
+      <c r="M44" t="s">
+        <v>30</v>
+      </c>
+      <c r="N44" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>149</v>
+      </c>
+      <c r="B45" t="s">
+        <v>99</v>
+      </c>
+      <c r="C45" t="s">
+        <v>135</v>
+      </c>
+      <c r="D45" t="s">
+        <v>101</v>
+      </c>
+      <c r="E45" t="s">
+        <v>102</v>
+      </c>
+      <c r="F45" t="s">
+        <v>119</v>
+      </c>
+      <c r="G45" t="s">
+        <v>120</v>
+      </c>
+      <c r="H45" t="s">
+        <v>121</v>
+      </c>
+      <c r="I45">
+        <v>543188</v>
+      </c>
+      <c r="J45">
+        <v>6</v>
+      </c>
+      <c r="K45">
+        <v>3</v>
+      </c>
+      <c r="L45">
+        <v>7</v>
+      </c>
+      <c r="M45" t="s">
+        <v>30</v>
+      </c>
+      <c r="N45" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>149</v>
+      </c>
+      <c r="B46" t="s">
+        <v>99</v>
+      </c>
+      <c r="C46" t="s">
+        <v>135</v>
+      </c>
+      <c r="D46" t="s">
+        <v>101</v>
+      </c>
+      <c r="E46" t="s">
+        <v>102</v>
+      </c>
+      <c r="F46" t="s">
+        <v>103</v>
+      </c>
+      <c r="G46" t="s">
+        <v>104</v>
+      </c>
+      <c r="H46" t="s">
+        <v>105</v>
+      </c>
+      <c r="I46">
+        <v>543189</v>
+      </c>
+      <c r="J46">
+        <v>5</v>
+      </c>
+      <c r="K46">
+        <v>5</v>
+      </c>
+      <c r="L46">
+        <v>6</v>
+      </c>
+      <c r="M46" t="s">
+        <v>30</v>
+      </c>
+      <c r="N46" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>149</v>
+      </c>
+      <c r="B47" t="s">
+        <v>99</v>
+      </c>
+      <c r="C47" t="s">
+        <v>135</v>
+      </c>
+      <c r="D47" t="s">
+        <v>101</v>
+      </c>
+      <c r="E47" t="s">
+        <v>102</v>
+      </c>
+      <c r="F47" t="s">
+        <v>111</v>
+      </c>
+      <c r="G47" t="s">
+        <v>112</v>
+      </c>
+      <c r="H47" t="s">
+        <v>113</v>
+      </c>
+      <c r="I47">
+        <v>543170</v>
+      </c>
+      <c r="J47">
+        <v>4</v>
+      </c>
+      <c r="K47">
+        <v>6</v>
+      </c>
+      <c r="L47">
+        <v>5</v>
+      </c>
+      <c r="M47" t="s">
+        <v>30</v>
+      </c>
+      <c r="N47" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>149</v>
+      </c>
+      <c r="B48" t="s">
+        <v>99</v>
+      </c>
+      <c r="C48" t="s">
+        <v>135</v>
+      </c>
+      <c r="D48" t="s">
+        <v>101</v>
+      </c>
+      <c r="E48" t="s">
+        <v>102</v>
+      </c>
+      <c r="F48" t="s">
+        <v>107</v>
+      </c>
+      <c r="G48" t="s">
+        <v>108</v>
+      </c>
+      <c r="H48" t="s">
+        <v>109</v>
+      </c>
+      <c r="I48">
+        <v>543171</v>
+      </c>
+      <c r="J48">
+        <v>2</v>
+      </c>
+      <c r="K48">
+        <v>7</v>
+      </c>
+      <c r="L48">
+        <v>4</v>
+      </c>
+      <c r="M48" t="s">
+        <v>30</v>
+      </c>
+      <c r="N48" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>149</v>
+      </c>
+      <c r="B49" t="s">
+        <v>99</v>
+      </c>
+      <c r="C49" t="s">
+        <v>135</v>
+      </c>
+      <c r="D49" t="s">
+        <v>101</v>
+      </c>
+      <c r="E49" t="s">
+        <v>102</v>
+      </c>
+      <c r="F49" t="s">
+        <v>127</v>
+      </c>
+      <c r="G49" t="s">
+        <v>128</v>
+      </c>
+      <c r="H49" t="s">
+        <v>129</v>
+      </c>
+      <c r="I49">
+        <v>543190</v>
+      </c>
+      <c r="J49">
+        <v>3</v>
+      </c>
+      <c r="K49">
+        <v>8</v>
+      </c>
+      <c r="L49">
+        <v>3</v>
+      </c>
+      <c r="M49" t="s">
+        <v>30</v>
+      </c>
+      <c r="N49" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>151</v>
+      </c>
+      <c r="B50" t="s">
+        <v>99</v>
+      </c>
+      <c r="C50" t="s">
+        <v>135</v>
+      </c>
+      <c r="D50" t="s">
+        <v>101</v>
+      </c>
+      <c r="E50" t="s">
+        <v>102</v>
+      </c>
+      <c r="F50" t="s">
+        <v>131</v>
+      </c>
+      <c r="G50" t="s">
+        <v>132</v>
+      </c>
+      <c r="H50" t="s">
+        <v>133</v>
+      </c>
+      <c r="I50">
+        <v>543168</v>
+      </c>
+      <c r="J50">
+        <v>8</v>
+      </c>
+      <c r="K50">
+        <v>1</v>
+      </c>
+      <c r="L50">
+        <v>8</v>
+      </c>
+      <c r="M50" t="s">
+        <v>30</v>
+      </c>
+      <c r="N50" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>151</v>
+      </c>
+      <c r="B51" t="s">
+        <v>99</v>
+      </c>
+      <c r="C51" t="s">
+        <v>135</v>
+      </c>
+      <c r="D51" t="s">
+        <v>101</v>
+      </c>
+      <c r="E51" t="s">
+        <v>102</v>
+      </c>
+      <c r="F51" t="s">
+        <v>123</v>
+      </c>
+      <c r="G51" t="s">
+        <v>124</v>
+      </c>
+      <c r="H51" t="s">
+        <v>125</v>
+      </c>
+      <c r="I51">
+        <v>543172</v>
+      </c>
+      <c r="J51">
+        <v>1</v>
+      </c>
+      <c r="K51">
+        <v>1</v>
+      </c>
+      <c r="L51">
+        <v>8</v>
+      </c>
+      <c r="M51" t="s">
+        <v>30</v>
+      </c>
+      <c r="N51" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>151</v>
+      </c>
+      <c r="B52" t="s">
+        <v>99</v>
+      </c>
+      <c r="C52" t="s">
+        <v>135</v>
+      </c>
+      <c r="D52" t="s">
+        <v>101</v>
+      </c>
+      <c r="E52" t="s">
+        <v>102</v>
+      </c>
+      <c r="F52" t="s">
+        <v>119</v>
+      </c>
+      <c r="G52" t="s">
+        <v>120</v>
+      </c>
+      <c r="H52" t="s">
+        <v>121</v>
+      </c>
+      <c r="I52">
+        <v>543188</v>
+      </c>
+      <c r="J52">
+        <v>6</v>
+      </c>
+      <c r="K52">
+        <v>3</v>
+      </c>
+      <c r="L52">
+        <v>7</v>
+      </c>
+      <c r="M52" t="s">
+        <v>30</v>
+      </c>
+      <c r="N52" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>151</v>
+      </c>
+      <c r="B53" t="s">
+        <v>99</v>
+      </c>
+      <c r="C53" t="s">
+        <v>135</v>
+      </c>
+      <c r="D53" t="s">
+        <v>101</v>
+      </c>
+      <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
+        <v>115</v>
+      </c>
+      <c r="G53" t="s">
+        <v>116</v>
+      </c>
+      <c r="H53" t="s">
+        <v>117</v>
+      </c>
+      <c r="I53">
+        <v>543169</v>
+      </c>
+      <c r="J53">
+        <v>7</v>
+      </c>
+      <c r="K53">
+        <v>3</v>
+      </c>
+      <c r="L53">
+        <v>7</v>
+      </c>
+      <c r="M53" t="s">
+        <v>30</v>
+      </c>
+      <c r="N53" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>151</v>
+      </c>
+      <c r="B54" t="s">
+        <v>99</v>
+      </c>
+      <c r="C54" t="s">
+        <v>135</v>
+      </c>
+      <c r="D54" t="s">
+        <v>101</v>
+      </c>
+      <c r="E54" t="s">
+        <v>102</v>
+      </c>
+      <c r="F54" t="s">
+        <v>103</v>
+      </c>
+      <c r="G54" t="s">
+        <v>104</v>
+      </c>
+      <c r="H54" t="s">
+        <v>105</v>
+      </c>
+      <c r="I54">
+        <v>543189</v>
+      </c>
+      <c r="J54">
+        <v>5</v>
+      </c>
+      <c r="K54">
+        <v>5</v>
+      </c>
+      <c r="L54">
+        <v>6</v>
+      </c>
+      <c r="M54" t="s">
+        <v>30</v>
+      </c>
+      <c r="N54" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>151</v>
+      </c>
+      <c r="B55" t="s">
+        <v>99</v>
+      </c>
+      <c r="C55" t="s">
+        <v>135</v>
+      </c>
+      <c r="D55" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" t="s">
+        <v>102</v>
+      </c>
+      <c r="F55" t="s">
+        <v>111</v>
+      </c>
+      <c r="G55" t="s">
+        <v>112</v>
+      </c>
+      <c r="H55" t="s">
+        <v>113</v>
+      </c>
+      <c r="I55">
+        <v>543170</v>
+      </c>
+      <c r="J55">
+        <v>4</v>
+      </c>
+      <c r="K55">
+        <v>6</v>
+      </c>
+      <c r="L55">
+        <v>5</v>
+      </c>
+      <c r="M55" t="s">
+        <v>30</v>
+      </c>
+      <c r="N55" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>151</v>
+      </c>
+      <c r="B56" t="s">
+        <v>99</v>
+      </c>
+      <c r="C56" t="s">
+        <v>135</v>
+      </c>
+      <c r="D56" t="s">
+        <v>101</v>
+      </c>
+      <c r="E56" t="s">
+        <v>102</v>
+      </c>
+      <c r="F56" t="s">
+        <v>107</v>
+      </c>
+      <c r="G56" t="s">
+        <v>108</v>
+      </c>
+      <c r="H56" t="s">
+        <v>109</v>
+      </c>
+      <c r="I56">
+        <v>543171</v>
+      </c>
+      <c r="J56">
+        <v>2</v>
+      </c>
+      <c r="K56">
+        <v>7</v>
+      </c>
+      <c r="L56">
+        <v>4</v>
+      </c>
+      <c r="M56" t="s">
+        <v>30</v>
+      </c>
+      <c r="N56" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>151</v>
+      </c>
+      <c r="B57" t="s">
+        <v>99</v>
+      </c>
+      <c r="C57" t="s">
+        <v>135</v>
+      </c>
+      <c r="D57" t="s">
+        <v>101</v>
+      </c>
+      <c r="E57" t="s">
+        <v>102</v>
+      </c>
+      <c r="F57" t="s">
+        <v>127</v>
+      </c>
+      <c r="G57" t="s">
+        <v>128</v>
+      </c>
+      <c r="H57" t="s">
+        <v>129</v>
+      </c>
+      <c r="I57">
+        <v>543190</v>
+      </c>
+      <c r="J57">
+        <v>3</v>
+      </c>
+      <c r="K57">
+        <v>8</v>
+      </c>
+      <c r="L57">
+        <v>3</v>
+      </c>
+      <c r="M57" t="s">
+        <v>30</v>
+      </c>
+      <c r="N57" t="s">
+        <v>143</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
 </file>
--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="58">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
   <si>
     <t>timestamp</t>
   </si>
@@ -44,6 +44,21 @@
     <t>{"classId":103060,"eventId":70617,"competitionId":3,"published":1}</t>
   </si>
   <si>
+    <t>2026-02-06T16:13:51.313Z</t>
+  </si>
+  <si>
+    <t>event_keppendalisti_breyta</t>
+  </si>
+  <si>
+    <t>71174</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"eventId":"71174"}</t>
+  </si>
+  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -99,9 +114,6 @@
   </si>
   <si>
     <t>E6</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>V</t>
@@ -582,103 +594,102 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>10</v>
+        <v>15</v>
       </c>
       <c r="B1" t="s">
-        <v>11</v>
+        <v>16</v>
       </c>
       <c r="C1" t="s">
-        <v>12</v>
+        <v>17</v>
       </c>
       <c r="D1" t="s">
-        <v>13</v>
+        <v>18</v>
       </c>
       <c r="E1" t="s">
-        <v>14</v>
+        <v>19</v>
       </c>
       <c r="F1" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="H1" t="s">
-        <v>17</v>
+        <v>22</v>
       </c>
       <c r="I1" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="J1" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="K1" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="L1" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="M1" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="N1" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="O1" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="P1" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="Q1" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="R1" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="S1" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.25"/>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E3" t="s">
-        <v>31</v>
+        <v>35</v>
       </c>
       <c r="F3" t="s">
-        <v>32</v>
+        <v>36</v>
       </c>
       <c r="G3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H3" t="s">
-        <v>34</v>
+        <v>38</v>
       </c>
       <c r="I3" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L3" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>36</v>
+        <v>40</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -686,40 +697,40 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E4" t="s">
-        <v>37</v>
+        <v>41</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>42</v>
       </c>
       <c r="G4" t="s">
+        <v>43</v>
+      </c>
+      <c r="H4" t="s">
+        <v>44</v>
+      </c>
+      <c r="I4" t="s">
         <v>39</v>
-      </c>
-      <c r="H4" t="s">
-        <v>40</v>
-      </c>
-      <c r="I4" t="s">
-        <v>35</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>41</v>
+        <v>45</v>
       </c>
       <c r="L4" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -727,40 +738,40 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E5" t="s">
+        <v>47</v>
+      </c>
+      <c r="F5" t="s">
+        <v>48</v>
+      </c>
+      <c r="G5" t="s">
         <v>43</v>
       </c>
-      <c r="F5" t="s">
-        <v>44</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="H5" t="s">
+        <v>49</v>
+      </c>
+      <c r="I5" t="s">
         <v>39</v>
-      </c>
-      <c r="H5" t="s">
-        <v>45</v>
-      </c>
-      <c r="I5" t="s">
-        <v>35</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>39</v>
+        <v>43</v>
       </c>
       <c r="L5" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>46</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -768,40 +779,40 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E6" t="s">
-        <v>47</v>
+        <v>51</v>
       </c>
       <c r="F6" t="s">
-        <v>48</v>
+        <v>52</v>
       </c>
       <c r="G6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="H6" t="s">
-        <v>49</v>
+        <v>53</v>
       </c>
       <c r="I6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>33</v>
+        <v>37</v>
       </c>
       <c r="L6" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>51</v>
+        <v>55</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -809,51 +820,51 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="C7">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>30</v>
+        <v>34</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="F7" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="G7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="H7" t="s">
-        <v>55</v>
+        <v>59</v>
       </c>
       <c r="I7" t="s">
-        <v>56</v>
+        <v>60</v>
       </c>
       <c r="J7">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>54</v>
+        <v>58</v>
       </c>
       <c r="L7" t="s">
-        <v>29</v>
+        <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>57</v>
+        <v>61</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G2"/>
+  <dimension ref="A1:G3"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -910,6 +921,29 @@
         <v>9</v>
       </c>
     </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B3" t="s">
+        <v>11</v>
+      </c>
+      <c r="C3" t="s">
+        <v>12</v>
+      </c>
+      <c r="D3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>13</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -4,15 +4,16 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="2" name="Webhooks" state="visible" r:id="rId4"/>
+    <sheet sheetId="3" name="Webhooks" state="visible" r:id="rId4"/>
     <sheet sheetId="1" name="B-úrslit" state="visible" r:id="rId5"/>
+    <sheet sheetId="2" name="keppendalisti" state="visible" r:id="rId6"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="358" uniqueCount="188">
   <si>
     <t>timestamp</t>
   </si>
@@ -59,6 +60,9 @@
     <t>{"eventId":"71174"}</t>
   </si>
   <si>
+    <t>2026-02-06T16:19:56.727Z</t>
+  </si>
+  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -198,6 +202,381 @@
   </si>
   <si>
     <t>HELGA UNA BJÖRNSDÓTTIR</t>
+  </si>
+  <si>
+    <t>keppandi_numer</t>
+  </si>
+  <si>
+    <t>knapi_nafn</t>
+  </si>
+  <si>
+    <t>hross_nafn</t>
+  </si>
+  <si>
+    <t>hross_fulltnafn</t>
+  </si>
+  <si>
+    <t>faedingarnumer</t>
+  </si>
+  <si>
+    <t>knapi_adildarfelag</t>
+  </si>
+  <si>
+    <t>eigandi_adildarfelag</t>
+  </si>
+  <si>
+    <t>litur</t>
+  </si>
+  <si>
+    <t>varaknapi_nafn</t>
+  </si>
+  <si>
+    <t>varapar</t>
+  </si>
+  <si>
+    <t>keppnisgreinar</t>
+  </si>
+  <si>
+    <t>2026-02-06T16:19:56.841Z</t>
+  </si>
+  <si>
+    <t>Anna Sigríður Erlendsdóttir</t>
+  </si>
+  <si>
+    <t>Hlynur</t>
+  </si>
+  <si>
+    <t>Hlynur frá Árbæjarhjáleigu II</t>
+  </si>
+  <si>
+    <t>IS2018186756</t>
+  </si>
+  <si>
+    <t>Geysir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/dökk/sv. einlitt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 1","hond":"H","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-unglingaflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Arney Brynja Sveinbjörnsdóttir</t>
+  </si>
+  <si>
+    <t>Gammur</t>
+  </si>
+  <si>
+    <t>Gammur frá Hvolsvelli</t>
+  </si>
+  <si>
+    <t>IS2003184977</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauður/milli- stjörnótt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Pollaflokkur","hond":"V","keppni":"1. sprettur","keppnisgrein":"Fimikeppni A","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Aron Dyröy Guðmundsson</t>
+  </si>
+  <si>
+    <t>Ísafold</t>
+  </si>
+  <si>
+    <t>Ísafold frá Kirkjubæ</t>
+  </si>
+  <si>
+    <t>IS2006286105</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauður/milli- blesótt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 1","hond":"V","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-unglingaflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Arthúr Nói Guðmundsson</t>
+  </si>
+  <si>
+    <t>Húmfaxi</t>
+  </si>
+  <si>
+    <t>Húmfaxi frá Skálakoti</t>
+  </si>
+  <si>
+    <t>IS2016184160</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grár/rauður einlitt  </t>
+  </si>
+  <si>
+    <t>Benedikt Leví Sveinbjörnsson</t>
+  </si>
+  <si>
+    <t>Eldur</t>
+  </si>
+  <si>
+    <t>Eldur frá Hvolsvelli</t>
+  </si>
+  <si>
+    <t>IS2017184978</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauður/milli- einlitt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 2","hond":"H","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-barnaflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Bjartey Stefnisdóttir</t>
+  </si>
+  <si>
+    <t>Kappi</t>
+  </si>
+  <si>
+    <t>Kappi frá Skíðbakka I</t>
+  </si>
+  <si>
+    <t>IS2005184367</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Moldóttur/gul-/m- einlitt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Pollaflokkur","hond":"H","keppni":"Forkeppni","keppnisgrein":"Pollatölt","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Dagur Stefnisson</t>
+  </si>
+  <si>
+    <t>Emilía</t>
+  </si>
+  <si>
+    <t>Emilía frá Feti</t>
+  </si>
+  <si>
+    <t>IS2008286918</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarpur/milli- einlitt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 1","hond":"V","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-barnaflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Edda Sigurðardóttir</t>
+  </si>
+  <si>
+    <t>Brúða</t>
+  </si>
+  <si>
+    <t>Brúða frá Reykjavík</t>
+  </si>
+  <si>
+    <t>IS2018225484</t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 2","hond":"V","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-fullorðinsflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Eldey Yrsa Sveinbjörnsdóttir</t>
+  </si>
+  <si>
+    <t>Frosti</t>
+  </si>
+  <si>
+    <t>Frosti frá Hvolsvelli</t>
+  </si>
+  <si>
+    <t>IS2018184976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/milli- einlitt  </t>
+  </si>
+  <si>
+    <t>Emilía Ösp Hjálmarsdóttir</t>
+  </si>
+  <si>
+    <t>Djörf</t>
+  </si>
+  <si>
+    <t>Djörf frá Búlandi</t>
+  </si>
+  <si>
+    <t>IS2016284320</t>
+  </si>
+  <si>
+    <t>Eva Hrönn Ásmundsdóttir</t>
+  </si>
+  <si>
+    <t>Theódór</t>
+  </si>
+  <si>
+    <t>Theódór frá Dalsholti</t>
+  </si>
+  <si>
+    <t>IS2005101185</t>
+  </si>
+  <si>
+    <t>Fríða Hansen</t>
+  </si>
+  <si>
+    <t>Vargur</t>
+  </si>
+  <si>
+    <t>Vargur frá Leirubakka</t>
+  </si>
+  <si>
+    <t>IS2012186704</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/milli- leistar(eingöngu)  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 1","hond":"H","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-fullorðinsflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Hulda Vaka Gísladóttir</t>
+  </si>
+  <si>
+    <t>Garún</t>
+  </si>
+  <si>
+    <t>Garún frá Brúnum</t>
+  </si>
+  <si>
+    <t>IS2009265299</t>
+  </si>
+  <si>
+    <t>Háfeti</t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 1","hond":"H","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-ungmennaflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Lina Sofie Peter</t>
+  </si>
+  <si>
+    <t>Aría</t>
+  </si>
+  <si>
+    <t>Aría frá Leirubakka</t>
+  </si>
+  <si>
+    <t>IS2019286705</t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 2","hond":"H","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-fullorðinsflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Lóa Dagmar Smáradóttir</t>
+  </si>
+  <si>
+    <t>Mandala</t>
+  </si>
+  <si>
+    <t>Mandala frá Breiðabólsstað</t>
+  </si>
+  <si>
+    <t>IS2019235726</t>
+  </si>
+  <si>
+    <t>Margrét Aþena Þorbjörnsdóttir</t>
+  </si>
+  <si>
+    <t>Fröken</t>
+  </si>
+  <si>
+    <t>Fröken frá Ásmúla</t>
+  </si>
+  <si>
+    <t>IS2019286303</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Pollaflokkur","hond":"V","keppni":"Forkeppni","keppnisgrein":"Pollatölt","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Margrét Sóley Guðbergsdóttir</t>
+  </si>
+  <si>
+    <t>Læna</t>
+  </si>
+  <si>
+    <t>Læna frá Fitjarmýri</t>
+  </si>
+  <si>
+    <t>IS2019284140</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarpur/milli- blesa auk leista eða sokka  </t>
+  </si>
+  <si>
+    <t>Orri Arnarson</t>
+  </si>
+  <si>
+    <t>Stallari</t>
+  </si>
+  <si>
+    <t>Stallari frá Leirubakka</t>
+  </si>
+  <si>
+    <t>IS2019186700</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/mó- einlitt  </t>
+  </si>
+  <si>
+    <t>Pia Rumpf</t>
+  </si>
+  <si>
+    <t>Maístjarna</t>
+  </si>
+  <si>
+    <t>Maístjarna frá Arnarhóli</t>
+  </si>
+  <si>
+    <t>IS2019280582</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarpur/milli- stjörnótt  </t>
+  </si>
+  <si>
+    <t>Salka Sigríður Sigurðardóttir</t>
+  </si>
+  <si>
+    <t>Bjarmi</t>
+  </si>
+  <si>
+    <t>Bjarmi frá Hrólfsstaðahelli</t>
+  </si>
+  <si>
+    <t>IS2018186801</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Grár/óþekktur einlitt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 2","hond":"V","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-barnaflokkur","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Sigursteinn Ingi Jóhannsson</t>
+  </si>
+  <si>
+    <t>Hrynjandi</t>
+  </si>
+  <si>
+    <t>Hrynjandi frá Geysisholti</t>
+  </si>
+  <si>
+    <t>IS2018101499</t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Gæðingaflokkur 1","hond":"H","keppni":"Forkeppni","keppnisgrein":"Gæðingatölt-barnaflokkur","raslisti_birtur":0}]</t>
   </si>
 </sst>
 </file>
@@ -594,61 +973,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="B1" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="C1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="E1" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="H1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="I1" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="J1" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="K1" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="L1" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="M1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="N1" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="O1" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="P1" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Q1" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
       <c r="R1" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
       <c r="S1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
@@ -662,34 +1041,34 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="F3" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="G3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H3" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="I3" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L3" t="s">
         <v>13</v>
       </c>
       <c r="M3" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
@@ -703,34 +1082,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E4" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="F4" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="G4" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H4" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="I4" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="L4" t="s">
         <v>13</v>
       </c>
       <c r="M4" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
@@ -744,34 +1123,34 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E5" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="G5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="H5" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="I5" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="J5">
         <v>11</v>
       </c>
       <c r="K5" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="L5" t="s">
         <v>13</v>
       </c>
       <c r="M5" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
@@ -785,34 +1164,34 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="F6" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="G6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="H6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="I6" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="L6" t="s">
         <v>13</v>
       </c>
       <c r="M6" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
@@ -826,34 +1205,34 @@
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="E7" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="F7" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="G7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="H7" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="I7" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="J7">
         <v>7</v>
       </c>
       <c r="K7" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="L7" t="s">
         <v>13</v>
       </c>
       <c r="M7" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
     </row>
   </sheetData>
@@ -864,7 +1243,920 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G3"/>
+  <dimension ref="A1:M22"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E1" t="s">
+        <v>65</v>
+      </c>
+      <c r="F1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="s">
+        <v>67</v>
+      </c>
+      <c r="H1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I1" t="s">
+        <v>69</v>
+      </c>
+      <c r="J1" t="s">
+        <v>70</v>
+      </c>
+      <c r="K1" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" t="s">
+        <v>72</v>
+      </c>
+      <c r="M1" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>74</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+      <c r="C2">
+        <v>543709</v>
+      </c>
+      <c r="D2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E2" t="s">
+        <v>76</v>
+      </c>
+      <c r="F2" t="s">
+        <v>77</v>
+      </c>
+      <c r="G2" t="s">
+        <v>78</v>
+      </c>
+      <c r="H2" t="s">
+        <v>79</v>
+      </c>
+      <c r="I2" t="s">
+        <v>79</v>
+      </c>
+      <c r="J2" t="s">
+        <v>80</v>
+      </c>
+      <c r="K2" t="s">
+        <v>13</v>
+      </c>
+      <c r="L2" t="s">
+        <v>13</v>
+      </c>
+      <c r="M2" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>543830</v>
+      </c>
+      <c r="D3" t="s">
+        <v>82</v>
+      </c>
+      <c r="E3" t="s">
+        <v>83</v>
+      </c>
+      <c r="F3" t="s">
+        <v>84</v>
+      </c>
+      <c r="G3" t="s">
+        <v>85</v>
+      </c>
+      <c r="H3" t="s">
+        <v>79</v>
+      </c>
+      <c r="I3" t="s">
+        <v>79</v>
+      </c>
+      <c r="J3" t="s">
+        <v>86</v>
+      </c>
+      <c r="K3" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" t="s">
+        <v>13</v>
+      </c>
+      <c r="M3" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>74</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4">
+        <v>543838</v>
+      </c>
+      <c r="D4" t="s">
+        <v>88</v>
+      </c>
+      <c r="E4" t="s">
+        <v>89</v>
+      </c>
+      <c r="F4" t="s">
+        <v>90</v>
+      </c>
+      <c r="G4" t="s">
+        <v>91</v>
+      </c>
+      <c r="H4" t="s">
+        <v>79</v>
+      </c>
+      <c r="I4" t="s">
+        <v>79</v>
+      </c>
+      <c r="J4" t="s">
+        <v>92</v>
+      </c>
+      <c r="K4" t="s">
+        <v>13</v>
+      </c>
+      <c r="L4" t="s">
+        <v>13</v>
+      </c>
+      <c r="M4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>74</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+      <c r="C5">
+        <v>543889</v>
+      </c>
+      <c r="D5" t="s">
+        <v>94</v>
+      </c>
+      <c r="E5" t="s">
+        <v>95</v>
+      </c>
+      <c r="F5" t="s">
+        <v>96</v>
+      </c>
+      <c r="G5" t="s">
+        <v>97</v>
+      </c>
+      <c r="H5" t="s">
+        <v>79</v>
+      </c>
+      <c r="I5" t="s">
+        <v>79</v>
+      </c>
+      <c r="J5" t="s">
+        <v>98</v>
+      </c>
+      <c r="K5" t="s">
+        <v>13</v>
+      </c>
+      <c r="L5" t="s">
+        <v>13</v>
+      </c>
+      <c r="M5" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>74</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+      <c r="C6">
+        <v>543829</v>
+      </c>
+      <c r="D6" t="s">
+        <v>99</v>
+      </c>
+      <c r="E6" t="s">
+        <v>100</v>
+      </c>
+      <c r="F6" t="s">
+        <v>101</v>
+      </c>
+      <c r="G6" t="s">
+        <v>102</v>
+      </c>
+      <c r="H6" t="s">
+        <v>79</v>
+      </c>
+      <c r="I6" t="s">
+        <v>79</v>
+      </c>
+      <c r="J6" t="s">
+        <v>103</v>
+      </c>
+      <c r="K6" t="s">
+        <v>13</v>
+      </c>
+      <c r="L6" t="s">
+        <v>13</v>
+      </c>
+      <c r="M6" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>74</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>543629</v>
+      </c>
+      <c r="D7" t="s">
+        <v>105</v>
+      </c>
+      <c r="E7" t="s">
+        <v>106</v>
+      </c>
+      <c r="F7" t="s">
+        <v>107</v>
+      </c>
+      <c r="G7" t="s">
+        <v>108</v>
+      </c>
+      <c r="H7" t="s">
+        <v>79</v>
+      </c>
+      <c r="I7" t="s">
+        <v>79</v>
+      </c>
+      <c r="J7" t="s">
+        <v>109</v>
+      </c>
+      <c r="K7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L7" t="s">
+        <v>13</v>
+      </c>
+      <c r="M7" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+      <c r="C8">
+        <v>543630</v>
+      </c>
+      <c r="D8" t="s">
+        <v>111</v>
+      </c>
+      <c r="E8" t="s">
+        <v>112</v>
+      </c>
+      <c r="F8" t="s">
+        <v>113</v>
+      </c>
+      <c r="G8" t="s">
+        <v>114</v>
+      </c>
+      <c r="H8" t="s">
+        <v>79</v>
+      </c>
+      <c r="I8" t="s">
+        <v>79</v>
+      </c>
+      <c r="J8" t="s">
+        <v>115</v>
+      </c>
+      <c r="K8" t="s">
+        <v>13</v>
+      </c>
+      <c r="L8" t="s">
+        <v>13</v>
+      </c>
+      <c r="M8" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>74</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9">
+        <v>543888</v>
+      </c>
+      <c r="D9" t="s">
+        <v>117</v>
+      </c>
+      <c r="E9" t="s">
+        <v>118</v>
+      </c>
+      <c r="F9" t="s">
+        <v>119</v>
+      </c>
+      <c r="G9" t="s">
+        <v>120</v>
+      </c>
+      <c r="H9" t="s">
+        <v>79</v>
+      </c>
+      <c r="I9" t="s">
+        <v>79</v>
+      </c>
+      <c r="J9" t="s">
+        <v>115</v>
+      </c>
+      <c r="K9" t="s">
+        <v>13</v>
+      </c>
+      <c r="L9" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>74</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10">
+        <v>543831</v>
+      </c>
+      <c r="D10" t="s">
+        <v>122</v>
+      </c>
+      <c r="E10" t="s">
+        <v>123</v>
+      </c>
+      <c r="F10" t="s">
+        <v>124</v>
+      </c>
+      <c r="G10" t="s">
+        <v>125</v>
+      </c>
+      <c r="H10" t="s">
+        <v>79</v>
+      </c>
+      <c r="I10" t="s">
+        <v>79</v>
+      </c>
+      <c r="J10" t="s">
+        <v>126</v>
+      </c>
+      <c r="K10" t="s">
+        <v>13</v>
+      </c>
+      <c r="L10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+      <c r="C11">
+        <v>543836</v>
+      </c>
+      <c r="D11" t="s">
+        <v>127</v>
+      </c>
+      <c r="E11" t="s">
+        <v>128</v>
+      </c>
+      <c r="F11" t="s">
+        <v>129</v>
+      </c>
+      <c r="G11" t="s">
+        <v>130</v>
+      </c>
+      <c r="H11" t="s">
+        <v>79</v>
+      </c>
+      <c r="I11" t="s">
+        <v>79</v>
+      </c>
+      <c r="J11" t="s">
+        <v>115</v>
+      </c>
+      <c r="K11" t="s">
+        <v>13</v>
+      </c>
+      <c r="L11" t="s">
+        <v>13</v>
+      </c>
+      <c r="M11" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>74</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>543790</v>
+      </c>
+      <c r="D12" t="s">
+        <v>131</v>
+      </c>
+      <c r="E12" t="s">
+        <v>132</v>
+      </c>
+      <c r="F12" t="s">
+        <v>133</v>
+      </c>
+      <c r="G12" t="s">
+        <v>134</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>79</v>
+      </c>
+      <c r="J12" t="s">
+        <v>92</v>
+      </c>
+      <c r="K12" t="s">
+        <v>13</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+      <c r="M12" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>74</v>
+      </c>
+      <c r="B13" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13">
+        <v>543934</v>
+      </c>
+      <c r="D13" t="s">
+        <v>135</v>
+      </c>
+      <c r="E13" t="s">
+        <v>136</v>
+      </c>
+      <c r="F13" t="s">
+        <v>137</v>
+      </c>
+      <c r="G13" t="s">
+        <v>138</v>
+      </c>
+      <c r="H13" t="s">
+        <v>79</v>
+      </c>
+      <c r="I13" t="s">
+        <v>79</v>
+      </c>
+      <c r="J13" t="s">
+        <v>139</v>
+      </c>
+      <c r="K13" t="s">
+        <v>13</v>
+      </c>
+      <c r="L13" t="s">
+        <v>13</v>
+      </c>
+      <c r="M13" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+      <c r="B14" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14">
+        <v>543840</v>
+      </c>
+      <c r="D14" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" t="s">
+        <v>143</v>
+      </c>
+      <c r="G14" t="s">
+        <v>144</v>
+      </c>
+      <c r="H14" t="s">
+        <v>145</v>
+      </c>
+      <c r="I14" t="s">
+        <v>145</v>
+      </c>
+      <c r="J14" t="s">
+        <v>126</v>
+      </c>
+      <c r="K14" t="s">
+        <v>13</v>
+      </c>
+      <c r="L14" t="s">
+        <v>13</v>
+      </c>
+      <c r="M14" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15">
+        <v>543932</v>
+      </c>
+      <c r="D15" t="s">
+        <v>147</v>
+      </c>
+      <c r="E15" t="s">
+        <v>148</v>
+      </c>
+      <c r="F15" t="s">
+        <v>149</v>
+      </c>
+      <c r="G15" t="s">
+        <v>150</v>
+      </c>
+      <c r="H15" t="s">
+        <v>79</v>
+      </c>
+      <c r="I15" t="s">
+        <v>79</v>
+      </c>
+      <c r="J15" t="s">
+        <v>126</v>
+      </c>
+      <c r="K15" t="s">
+        <v>13</v>
+      </c>
+      <c r="L15" t="s">
+        <v>13</v>
+      </c>
+      <c r="M15" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B16" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>543935</v>
+      </c>
+      <c r="D16" t="s">
+        <v>152</v>
+      </c>
+      <c r="E16" t="s">
+        <v>153</v>
+      </c>
+      <c r="F16" t="s">
+        <v>154</v>
+      </c>
+      <c r="G16" t="s">
+        <v>155</v>
+      </c>
+      <c r="H16" t="s">
+        <v>79</v>
+      </c>
+      <c r="I16" t="s">
+        <v>79</v>
+      </c>
+      <c r="J16" t="s">
+        <v>126</v>
+      </c>
+      <c r="K16" t="s">
+        <v>13</v>
+      </c>
+      <c r="L16" t="s">
+        <v>13</v>
+      </c>
+      <c r="M16" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>74</v>
+      </c>
+      <c r="B17" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17">
+        <v>543771</v>
+      </c>
+      <c r="D17" t="s">
+        <v>156</v>
+      </c>
+      <c r="E17" t="s">
+        <v>157</v>
+      </c>
+      <c r="F17" t="s">
+        <v>158</v>
+      </c>
+      <c r="G17" t="s">
+        <v>159</v>
+      </c>
+      <c r="H17" t="s">
+        <v>79</v>
+      </c>
+      <c r="I17" t="s">
+        <v>79</v>
+      </c>
+      <c r="J17" t="s">
+        <v>160</v>
+      </c>
+      <c r="K17" t="s">
+        <v>13</v>
+      </c>
+      <c r="L17" t="s">
+        <v>13</v>
+      </c>
+      <c r="M17" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>74</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>543832</v>
+      </c>
+      <c r="D18" t="s">
+        <v>162</v>
+      </c>
+      <c r="E18" t="s">
+        <v>163</v>
+      </c>
+      <c r="F18" t="s">
+        <v>164</v>
+      </c>
+      <c r="G18" t="s">
+        <v>165</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>79</v>
+      </c>
+      <c r="J18" t="s">
+        <v>166</v>
+      </c>
+      <c r="K18" t="s">
+        <v>13</v>
+      </c>
+      <c r="L18" t="s">
+        <v>13</v>
+      </c>
+      <c r="M18" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>74</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>543933</v>
+      </c>
+      <c r="D19" t="s">
+        <v>167</v>
+      </c>
+      <c r="E19" t="s">
+        <v>168</v>
+      </c>
+      <c r="F19" t="s">
+        <v>169</v>
+      </c>
+      <c r="G19" t="s">
+        <v>170</v>
+      </c>
+      <c r="H19" t="s">
+        <v>79</v>
+      </c>
+      <c r="I19" t="s">
+        <v>79</v>
+      </c>
+      <c r="J19" t="s">
+        <v>171</v>
+      </c>
+      <c r="K19" t="s">
+        <v>13</v>
+      </c>
+      <c r="L19" t="s">
+        <v>13</v>
+      </c>
+      <c r="M19" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>74</v>
+      </c>
+      <c r="B20" t="s">
+        <v>12</v>
+      </c>
+      <c r="C20">
+        <v>543927</v>
+      </c>
+      <c r="D20" t="s">
+        <v>172</v>
+      </c>
+      <c r="E20" t="s">
+        <v>173</v>
+      </c>
+      <c r="F20" t="s">
+        <v>174</v>
+      </c>
+      <c r="G20" t="s">
+        <v>175</v>
+      </c>
+      <c r="H20" t="s">
+        <v>79</v>
+      </c>
+      <c r="I20" t="s">
+        <v>79</v>
+      </c>
+      <c r="J20" t="s">
+        <v>176</v>
+      </c>
+      <c r="K20" t="s">
+        <v>13</v>
+      </c>
+      <c r="L20" t="s">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>74</v>
+      </c>
+      <c r="B21" t="s">
+        <v>12</v>
+      </c>
+      <c r="C21">
+        <v>543595</v>
+      </c>
+      <c r="D21" t="s">
+        <v>177</v>
+      </c>
+      <c r="E21" t="s">
+        <v>178</v>
+      </c>
+      <c r="F21" t="s">
+        <v>179</v>
+      </c>
+      <c r="G21" t="s">
+        <v>180</v>
+      </c>
+      <c r="H21" t="s">
+        <v>79</v>
+      </c>
+      <c r="I21" t="s">
+        <v>79</v>
+      </c>
+      <c r="J21" t="s">
+        <v>181</v>
+      </c>
+      <c r="K21" t="s">
+        <v>13</v>
+      </c>
+      <c r="L21" t="s">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>74</v>
+      </c>
+      <c r="B22" t="s">
+        <v>12</v>
+      </c>
+      <c r="C22">
+        <v>543936</v>
+      </c>
+      <c r="D22" t="s">
+        <v>183</v>
+      </c>
+      <c r="E22" t="s">
+        <v>184</v>
+      </c>
+      <c r="F22" t="s">
+        <v>185</v>
+      </c>
+      <c r="G22" t="s">
+        <v>186</v>
+      </c>
+      <c r="H22" t="s">
+        <v>46</v>
+      </c>
+      <c r="I22" t="s">
+        <v>46</v>
+      </c>
+      <c r="J22" t="s">
+        <v>86</v>
+      </c>
+      <c r="K22" t="s">
+        <v>13</v>
+      </c>
+      <c r="L22" t="s">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>187</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G4"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -944,6 +2236,29 @@
         <v>14</v>
       </c>
     </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D4" t="s">
+        <v>13</v>
+      </c>
+      <c r="E4" t="s">
+        <v>13</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
   <si>
     <t>timestamp</t>
   </si>
@@ -65,6 +65,63 @@
   </si>
   <si>
     <t>2026-02-06T21:15:33.795Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:01:21.562Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:02:08.841Z</t>
+  </si>
+  <si>
+    <t>{"classId":70674,"eventId":70674,"competitionId":1,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:02:52.439Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:03:53.610Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:12:32.161Z</t>
+  </si>
+  <si>
+    <t>{"classId":70674,"eventId":70674,"competitionId":2,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:12:36.440Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:14:06.748Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:14:26.229Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:14:36.775Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:16:11.742Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:16:27.774Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:19:12.265Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:19:23.415Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:19:57.101Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:20:09.228Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:20:30.863Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:21:29.875Z</t>
   </si>
 </sst>
 </file>
@@ -441,7 +498,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G7"/>
+  <dimension ref="A1:G24"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -613,6 +670,397 @@
         <v>16</v>
       </c>
     </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>70617</v>
+      </c>
+      <c r="D8">
+        <v>103060</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>70674</v>
+      </c>
+      <c r="D9">
+        <v>70674</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>1</v>
+      </c>
+      <c r="G9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C10">
+        <v>70674</v>
+      </c>
+      <c r="D10">
+        <v>70674</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>22</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>70674</v>
+      </c>
+      <c r="D11">
+        <v>70674</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>1</v>
+      </c>
+      <c r="G11" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>23</v>
+      </c>
+      <c r="B12" t="s">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>70674</v>
+      </c>
+      <c r="D12">
+        <v>70674</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>1</v>
+      </c>
+      <c r="G12" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" t="s">
+        <v>11</v>
+      </c>
+      <c r="C13">
+        <v>70674</v>
+      </c>
+      <c r="D13">
+        <v>70674</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>26</v>
+      </c>
+      <c r="B14" t="s">
+        <v>8</v>
+      </c>
+      <c r="C14">
+        <v>70674</v>
+      </c>
+      <c r="D14">
+        <v>70674</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>70674</v>
+      </c>
+      <c r="D15">
+        <v>70674</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>28</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>70674</v>
+      </c>
+      <c r="D16">
+        <v>70674</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>70674</v>
+      </c>
+      <c r="D17">
+        <v>70674</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>30</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>70674</v>
+      </c>
+      <c r="D18">
+        <v>70674</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>70674</v>
+      </c>
+      <c r="D19">
+        <v>70674</v>
+      </c>
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>70674</v>
+      </c>
+      <c r="D20">
+        <v>70674</v>
+      </c>
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>33</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>70674</v>
+      </c>
+      <c r="D21">
+        <v>70674</v>
+      </c>
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>34</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>70674</v>
+      </c>
+      <c r="D22">
+        <v>70674</v>
+      </c>
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>35</v>
+      </c>
+      <c r="B23" t="s">
+        <v>8</v>
+      </c>
+      <c r="C23">
+        <v>70674</v>
+      </c>
+      <c r="D23">
+        <v>70674</v>
+      </c>
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B24" t="s">
+        <v>8</v>
+      </c>
+      <c r="C24">
+        <v>70674</v>
+      </c>
+      <c r="D24">
+        <v>70674</v>
+      </c>
+      <c r="E24">
+        <v>1</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>20</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -4,14 +4,17 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="1" name="Webhooks" state="visible" r:id="rId4"/>
+    <sheet sheetId="4" name="Webhooks" state="visible" r:id="rId4"/>
+    <sheet sheetId="1" name="Forkeppni" state="visible" r:id="rId5"/>
+    <sheet sheetId="3" name="A-úrslit" state="visible" r:id="rId6"/>
+    <sheet sheetId="2" name="B-úrslit" state="visible" r:id="rId7"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="146">
   <si>
     <t>timestamp</t>
   </si>
@@ -34,94 +37,421 @@
     <t>payload</t>
   </si>
   <si>
-    <t>2026-02-06T21:14:43.902Z</t>
+    <t>2026-02-06T22:27:32.570Z</t>
   </si>
   <si>
     <t>event_raslisti_birtur</t>
   </si>
   <si>
+    <t>{"classId":70674,"eventId":70674,"competitionId":1,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:27:49.093Z</t>
+  </si>
+  <si>
+    <t>{"classId":70674,"eventId":70674,"competitionId":2,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:27:51.482Z</t>
+  </si>
+  <si>
+    <t>{"classId":70674,"eventId":70674,"competitionId":3,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:27:55.474Z</t>
+  </si>
+  <si>
+    <t>event_einkunn_saeti</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:27:57.871Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:28:00.377Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:28:25.679Z</t>
+  </si>
+  <si>
+    <t>{"classId":103060,"eventId":70617,"competitionId":1,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:28:32.665Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:28:35.355Z</t>
+  </si>
+  <si>
     <t>{"classId":103060,"eventId":70617,"competitionId":2,"published":1}</t>
   </si>
   <si>
-    <t>2026-02-06T21:15:03.585Z</t>
-  </si>
-  <si>
-    <t>event_einkunn_saeti</t>
-  </si>
-  <si>
-    <t>2026-02-06T21:15:23.228Z</t>
-  </si>
-  <si>
-    <t>{"classId":103060,"eventId":70617,"competitionId":1,"published":1}</t>
-  </si>
-  <si>
-    <t>2026-02-06T21:15:27.080Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T21:15:32.329Z</t>
+    <t>2026-02-06T22:28:37.617Z</t>
   </si>
   <si>
     <t>{"classId":103060,"eventId":70617,"competitionId":3,"published":1}</t>
   </si>
   <si>
-    <t>2026-02-06T21:15:33.795Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:01:21.562Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:02:08.841Z</t>
-  </si>
-  <si>
-    <t>{"classId":70674,"eventId":70674,"competitionId":1,"published":1}</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:02:52.439Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:03:53.610Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:12:32.161Z</t>
-  </si>
-  <si>
-    <t>{"classId":70674,"eventId":70674,"competitionId":2,"published":1}</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:12:36.440Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:14:06.748Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:14:26.229Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:14:36.775Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:16:11.742Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:16:27.774Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:19:12.265Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:19:23.415Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:19:57.101Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:20:09.228Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:20:30.863Z</t>
-  </si>
-  <si>
-    <t>2026-02-06T22:21:29.875Z</t>
+    <t>2026-02-06T22:28:41.458Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:28:43.752Z</t>
+  </si>
+  <si>
+    <t>2026-02-06T22:28:46.110Z</t>
+  </si>
+  <si>
+    <t>Nr.</t>
+  </si>
+  <si>
+    <t>Sæti</t>
+  </si>
+  <si>
+    <t>Holl</t>
+  </si>
+  <si>
+    <t>Hönd</t>
+  </si>
+  <si>
+    <t>Knapi</t>
+  </si>
+  <si>
+    <t>LiturRas</t>
+  </si>
+  <si>
+    <t>Félag knapa</t>
+  </si>
+  <si>
+    <t>Hestur</t>
+  </si>
+  <si>
+    <t>Litur</t>
+  </si>
+  <si>
+    <t>Aldur</t>
+  </si>
+  <si>
+    <t>Félag eiganda</t>
+  </si>
+  <si>
+    <t>Lið</t>
+  </si>
+  <si>
+    <t>NafnBIG</t>
+  </si>
+  <si>
+    <t>E1</t>
+  </si>
+  <si>
+    <t>E2</t>
+  </si>
+  <si>
+    <t>E3</t>
+  </si>
+  <si>
+    <t>E4</t>
+  </si>
+  <si>
+    <t>E5</t>
+  </si>
+  <si>
+    <t>E6</t>
+  </si>
+  <si>
+    <t>V</t>
+  </si>
+  <si>
+    <t>Helga Una Björnsdóttir</t>
+  </si>
+  <si>
+    <t>1 - Rauður</t>
+  </si>
+  <si>
+    <t>Þytur</t>
+  </si>
+  <si>
+    <t>Björt frá Kráku</t>
+  </si>
+  <si>
+    <t>Bleikur/álóttureinlitt</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>HELGA UNA BJÖRNSDÓTTIR</t>
+  </si>
+  <si>
+    <t>Védís Huld Sigurðardóttir</t>
+  </si>
+  <si>
+    <t>Sleipnir</t>
+  </si>
+  <si>
+    <t>Ötull frá Narfastöðum</t>
+  </si>
+  <si>
+    <t>Brúnn/mó-stjörnótt</t>
+  </si>
+  <si>
+    <t>VÉDÍS HULD SIGURÐARDÓTTIR</t>
+  </si>
+  <si>
+    <t>Jón Ársæll Bergmann</t>
+  </si>
+  <si>
+    <t>Geysir</t>
+  </si>
+  <si>
+    <t>Díana frá Bakkakoti</t>
+  </si>
+  <si>
+    <t>Brúnn/mó-einlitt</t>
+  </si>
+  <si>
+    <t>JÓN ÁRSÆLL BERGMANN</t>
+  </si>
+  <si>
+    <t>Teitur Árnason</t>
+  </si>
+  <si>
+    <t>Fákur</t>
+  </si>
+  <si>
+    <t>Hrafnar frá Hvoli</t>
+  </si>
+  <si>
+    <t>Brúnn/milli-einlitt</t>
+  </si>
+  <si>
+    <t>TEITUR ÁRNASON</t>
+  </si>
+  <si>
+    <t>Hinrik Bragason</t>
+  </si>
+  <si>
+    <t>Hugur frá Hólabaki</t>
+  </si>
+  <si>
+    <t>Rauður/dökk/dr.einlitt</t>
+  </si>
+  <si>
+    <t>HINRIK BRAGASON</t>
+  </si>
+  <si>
+    <t>Viðar Ingólfsson</t>
+  </si>
+  <si>
+    <t>Bylur frá Kvíarhóli</t>
+  </si>
+  <si>
+    <t>VIÐAR INGÓLFSSON</t>
+  </si>
+  <si>
+    <t>Glódís Rún Sigurðardóttir</t>
+  </si>
+  <si>
+    <t>Ottesen frá Ljósafossi</t>
+  </si>
+  <si>
+    <t>Sprettur</t>
+  </si>
+  <si>
+    <t>GLÓDÍS RÚN SIGURÐARDÓTTIR</t>
+  </si>
+  <si>
+    <t>Aðalheiður Anna Guðjónsdóttir</t>
+  </si>
+  <si>
+    <t>Hörður</t>
+  </si>
+  <si>
+    <t>Flóvent frá Breiðstöðum</t>
+  </si>
+  <si>
+    <t>Rauður/milli-blesóttvagl í auga</t>
+  </si>
+  <si>
+    <t>AÐALHEIÐUR ANNA GUÐJÓNSDÓTTIR</t>
+  </si>
+  <si>
+    <t>Hanne Oustad Smidesang</t>
+  </si>
+  <si>
+    <t>Tónn frá Hjarðartúni</t>
+  </si>
+  <si>
+    <t>HANNE OUSTAD SMIDESANG</t>
+  </si>
+  <si>
+    <t>Arnhildur Helgadóttir</t>
+  </si>
+  <si>
+    <t>Frosti frá Hjarðartúni</t>
+  </si>
+  <si>
+    <t>Rauður/milli-stjörnótt</t>
+  </si>
+  <si>
+    <t>ARNHILDUR HELGADÓTTIR</t>
+  </si>
+  <si>
+    <t>Brynja Kristinsdóttir</t>
+  </si>
+  <si>
+    <t>Sörli</t>
+  </si>
+  <si>
+    <t>Snorri frá Litla-Dal</t>
+  </si>
+  <si>
+    <t>BRYNJA KRISTINSDÓTTIR</t>
+  </si>
+  <si>
+    <t>Guðmunda Ellen Sigurðardóttir</t>
+  </si>
+  <si>
+    <t>Flaumur frá Fákshólum</t>
+  </si>
+  <si>
+    <t>GUÐMUNDA ELLEN SIGURÐARDÓTTIR</t>
+  </si>
+  <si>
+    <t>Benjamín Sandur Ingólfsson</t>
+  </si>
+  <si>
+    <t>Goði frá Oddgeirshólum 4</t>
+  </si>
+  <si>
+    <t>Rauður/milli-blesótt</t>
+  </si>
+  <si>
+    <t>BENJAMÍN SANDUR INGÓLFSSON</t>
+  </si>
+  <si>
+    <t>Gústaf Ásgeir Hinriksson</t>
+  </si>
+  <si>
+    <t>Gýmir frá Skúfslæk</t>
+  </si>
+  <si>
+    <t>Brúnn/milli-stjarna,nös eða tvístj. auk leista eða sokka</t>
+  </si>
+  <si>
+    <t>GÚSTAF ÁSGEIR HINRIKSSON</t>
+  </si>
+  <si>
+    <t>Ásmundur Ernir Snorrason</t>
+  </si>
+  <si>
+    <t>Hlökk frá Strandarhöfði</t>
+  </si>
+  <si>
+    <t>Fakur</t>
+  </si>
+  <si>
+    <t>ÁSMUNDUR ERNIR SNORRASON</t>
+  </si>
+  <si>
+    <t>Eyrún Ýr Pálsdóttir</t>
+  </si>
+  <si>
+    <t>Drangur frá Steinnesi</t>
+  </si>
+  <si>
+    <t>Rauður/sót-stjörnóttvindhært (grásprengt) í fax eða tagl</t>
+  </si>
+  <si>
+    <t>EYRÚN ÝR PÁLSDÓTTIR</t>
+  </si>
+  <si>
+    <t>Jakob Svavar Sigurðsson</t>
+  </si>
+  <si>
+    <t>Dreyri</t>
+  </si>
+  <si>
+    <t>Hrefna frá Fákshólum</t>
+  </si>
+  <si>
+    <t>JAKOB SVAVAR SIGURÐSSON</t>
+  </si>
+  <si>
+    <t>Sigurður Vignir Matthíasson</t>
+  </si>
+  <si>
+    <t>Víkingur frá Hlemmiskeiði 2</t>
+  </si>
+  <si>
+    <t>SIGURÐUR VIGNIR MATTHÍASSON</t>
+  </si>
+  <si>
+    <t>Þorgeir Ólafsson</t>
+  </si>
+  <si>
+    <t>Gígjar frá Bakkakoti</t>
+  </si>
+  <si>
+    <t>Jarpur/milli-einlitt</t>
+  </si>
+  <si>
+    <t>ÞORGEIR ÓLAFSSON</t>
+  </si>
+  <si>
+    <t>E1_TFH</t>
+  </si>
+  <si>
+    <t>E2_TFH</t>
+  </si>
+  <si>
+    <t>E3_TFH</t>
+  </si>
+  <si>
+    <t>E4_TFH</t>
+  </si>
+  <si>
+    <t>E5_TFH</t>
+  </si>
+  <si>
+    <t>E1_HT</t>
+  </si>
+  <si>
+    <t>E2_HT</t>
+  </si>
+  <si>
+    <t>E3_HT</t>
+  </si>
+  <si>
+    <t>E4_HT</t>
+  </si>
+  <si>
+    <t>E5_HT</t>
+  </si>
+  <si>
+    <t>E1_TST</t>
+  </si>
+  <si>
+    <t>E2_TST</t>
+  </si>
+  <si>
+    <t>E3_TST</t>
+  </si>
+  <si>
+    <t>E4_TST</t>
+  </si>
+  <si>
+    <t>E5_TST</t>
+  </si>
+  <si>
+    <t>2 - Gulur</t>
+  </si>
+  <si>
+    <t>3 - Grænn</t>
+  </si>
+  <si>
+    <t>4 - Blár</t>
+  </si>
+  <si>
+    <t>5 - Hvítur</t>
   </si>
 </sst>
 </file>
@@ -498,7 +828,2513 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:S20"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="14" max="19" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>48</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>50</v>
+      </c>
+      <c r="H2" t="s">
+        <v>51</v>
+      </c>
+      <c r="I2" t="s">
+        <v>52</v>
+      </c>
+      <c r="J2">
+        <v>7</v>
+      </c>
+      <c r="K2" t="s">
+        <v>50</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>54</v>
+      </c>
+      <c r="N2">
+        <v>7.5</v>
+      </c>
+      <c r="O2">
+        <v>7.8</v>
+      </c>
+      <c r="P2">
+        <v>7.6</v>
+      </c>
+      <c r="Q2">
+        <v>7.5</v>
+      </c>
+      <c r="R2">
+        <v>7.3</v>
+      </c>
+      <c r="S2">
+        <v>7.53</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>12</v>
+      </c>
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>55</v>
+      </c>
+      <c r="F3" t="s">
+        <v>49</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>57</v>
+      </c>
+      <c r="I3" t="s">
+        <v>58</v>
+      </c>
+      <c r="J3">
+        <v>19</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>59</v>
+      </c>
+      <c r="N3">
+        <v>7.6</v>
+      </c>
+      <c r="O3">
+        <v>7.3</v>
+      </c>
+      <c r="P3">
+        <v>7.4</v>
+      </c>
+      <c r="Q3">
+        <v>7.4</v>
+      </c>
+      <c r="R3">
+        <v>7.3</v>
+      </c>
+      <c r="S3">
+        <v>7.37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>1</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>60</v>
+      </c>
+      <c r="F4" t="s">
+        <v>49</v>
+      </c>
+      <c r="G4" t="s">
+        <v>61</v>
+      </c>
+      <c r="H4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I4" t="s">
+        <v>63</v>
+      </c>
+      <c r="J4">
+        <v>8</v>
+      </c>
+      <c r="K4" t="s">
+        <v>61</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>8.6</v>
+      </c>
+      <c r="O4">
+        <v>8.4</v>
+      </c>
+      <c r="P4">
+        <v>8.3</v>
+      </c>
+      <c r="Q4">
+        <v>8.5</v>
+      </c>
+      <c r="R4">
+        <v>8.3</v>
+      </c>
+      <c r="S4">
+        <v>8.4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>11</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>65</v>
+      </c>
+      <c r="F5" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>67</v>
+      </c>
+      <c r="I5" t="s">
+        <v>68</v>
+      </c>
+      <c r="J5">
+        <v>8</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>69</v>
+      </c>
+      <c r="N5">
+        <v>7.4</v>
+      </c>
+      <c r="O5">
+        <v>7.8</v>
+      </c>
+      <c r="P5">
+        <v>7.4</v>
+      </c>
+      <c r="Q5">
+        <v>7.5</v>
+      </c>
+      <c r="R5">
+        <v>7.4</v>
+      </c>
+      <c r="S5">
+        <v>7.43</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>19</v>
+      </c>
+      <c r="C6">
+        <v>5</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>70</v>
+      </c>
+      <c r="F6" t="s">
+        <v>49</v>
+      </c>
+      <c r="G6" t="s">
+        <v>66</v>
+      </c>
+      <c r="H6" t="s">
+        <v>71</v>
+      </c>
+      <c r="I6" t="s">
+        <v>72</v>
+      </c>
+      <c r="J6">
+        <v>9</v>
+      </c>
+      <c r="K6" t="s">
+        <v>66</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>73</v>
+      </c>
+      <c r="N6">
+        <v>6.4</v>
+      </c>
+      <c r="O6">
+        <v>6.4</v>
+      </c>
+      <c r="P6">
+        <v>6.6</v>
+      </c>
+      <c r="Q6">
+        <v>5.8</v>
+      </c>
+      <c r="R6">
+        <v>5.8</v>
+      </c>
+      <c r="S6">
+        <v>6.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>16</v>
+      </c>
+      <c r="C7">
+        <v>6</v>
+      </c>
+      <c r="D7" t="s">
+        <v>47</v>
+      </c>
+      <c r="E7" t="s">
+        <v>74</v>
+      </c>
+      <c r="F7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G7" t="s">
+        <v>66</v>
+      </c>
+      <c r="H7" t="s">
+        <v>75</v>
+      </c>
+      <c r="I7" t="s">
+        <v>68</v>
+      </c>
+      <c r="J7">
+        <v>8</v>
+      </c>
+      <c r="K7" t="s">
+        <v>66</v>
+      </c>
+      <c r="L7" t="s">
+        <v>53</v>
+      </c>
+      <c r="M7" t="s">
+        <v>76</v>
+      </c>
+      <c r="N7">
+        <v>6.8</v>
+      </c>
+      <c r="O7">
+        <v>6.8</v>
+      </c>
+      <c r="P7">
+        <v>6.9</v>
+      </c>
+      <c r="Q7">
+        <v>6.5</v>
+      </c>
+      <c r="R7">
+        <v>7</v>
+      </c>
+      <c r="S7">
+        <v>6.83</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>9</v>
+      </c>
+      <c r="C8">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>47</v>
+      </c>
+      <c r="E8" t="s">
+        <v>77</v>
+      </c>
+      <c r="F8" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" t="s">
+        <v>56</v>
+      </c>
+      <c r="H8" t="s">
+        <v>78</v>
+      </c>
+      <c r="I8" t="s">
+        <v>68</v>
+      </c>
+      <c r="J8">
+        <v>9</v>
+      </c>
+      <c r="K8" t="s">
+        <v>79</v>
+      </c>
+      <c r="L8" t="s">
+        <v>53</v>
+      </c>
+      <c r="M8" t="s">
+        <v>80</v>
+      </c>
+      <c r="N8">
+        <v>7</v>
+      </c>
+      <c r="O8">
+        <v>7.8</v>
+      </c>
+      <c r="P8">
+        <v>7.3</v>
+      </c>
+      <c r="Q8">
+        <v>7.3</v>
+      </c>
+      <c r="R8">
+        <v>7.8</v>
+      </c>
+      <c r="S8">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>4</v>
+      </c>
+      <c r="C9">
+        <v>8</v>
+      </c>
+      <c r="D9" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" t="s">
+        <v>81</v>
+      </c>
+      <c r="F9" t="s">
+        <v>49</v>
+      </c>
+      <c r="G9" t="s">
+        <v>82</v>
+      </c>
+      <c r="H9" t="s">
+        <v>83</v>
+      </c>
+      <c r="I9" t="s">
+        <v>84</v>
+      </c>
+      <c r="J9">
+        <v>12</v>
+      </c>
+      <c r="K9" t="s">
+        <v>82</v>
+      </c>
+      <c r="L9" t="s">
+        <v>53</v>
+      </c>
+      <c r="M9" t="s">
+        <v>85</v>
+      </c>
+      <c r="N9">
+        <v>7.9</v>
+      </c>
+      <c r="O9">
+        <v>8.1</v>
+      </c>
+      <c r="P9">
+        <v>8</v>
+      </c>
+      <c r="Q9">
+        <v>8.1</v>
+      </c>
+      <c r="R9">
+        <v>7.8</v>
+      </c>
+      <c r="S9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>9</v>
+      </c>
+      <c r="D10" t="s">
+        <v>47</v>
+      </c>
+      <c r="E10" t="s">
+        <v>86</v>
+      </c>
+      <c r="F10" t="s">
+        <v>49</v>
+      </c>
+      <c r="G10" t="s">
+        <v>56</v>
+      </c>
+      <c r="H10" t="s">
+        <v>87</v>
+      </c>
+      <c r="I10" t="s">
+        <v>68</v>
+      </c>
+      <c r="J10">
+        <v>11</v>
+      </c>
+      <c r="K10" t="s">
+        <v>56</v>
+      </c>
+      <c r="L10" t="s">
+        <v>53</v>
+      </c>
+      <c r="M10" t="s">
+        <v>88</v>
+      </c>
+      <c r="N10">
+        <v>7.5</v>
+      </c>
+      <c r="O10">
+        <v>7.6</v>
+      </c>
+      <c r="P10">
+        <v>7.4</v>
+      </c>
+      <c r="Q10">
+        <v>7.4</v>
+      </c>
+      <c r="R10">
+        <v>7.6</v>
+      </c>
+      <c r="S10">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>2</v>
+      </c>
+      <c r="C11">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>47</v>
+      </c>
+      <c r="E11" t="s">
+        <v>89</v>
+      </c>
+      <c r="F11" t="s">
+        <v>49</v>
+      </c>
+      <c r="G11" t="s">
+        <v>61</v>
+      </c>
+      <c r="H11" t="s">
+        <v>90</v>
+      </c>
+      <c r="I11" t="s">
+        <v>91</v>
+      </c>
+      <c r="J11">
+        <v>10</v>
+      </c>
+      <c r="K11" t="s">
+        <v>61</v>
+      </c>
+      <c r="L11" t="s">
+        <v>53</v>
+      </c>
+      <c r="M11" t="s">
+        <v>92</v>
+      </c>
+      <c r="N11">
+        <v>8.4</v>
+      </c>
+      <c r="O11">
+        <v>7.9</v>
+      </c>
+      <c r="P11">
+        <v>8</v>
+      </c>
+      <c r="Q11">
+        <v>7.9</v>
+      </c>
+      <c r="R11">
+        <v>8.4</v>
+      </c>
+      <c r="S11">
+        <v>8.1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>18</v>
+      </c>
+      <c r="C12">
+        <v>11</v>
+      </c>
+      <c r="D12" t="s">
+        <v>47</v>
+      </c>
+      <c r="E12" t="s">
+        <v>93</v>
+      </c>
+      <c r="F12" t="s">
+        <v>49</v>
+      </c>
+      <c r="G12" t="s">
+        <v>94</v>
+      </c>
+      <c r="H12" t="s">
+        <v>95</v>
+      </c>
+      <c r="I12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J12">
+        <v>9</v>
+      </c>
+      <c r="K12" t="s">
+        <v>94</v>
+      </c>
+      <c r="L12" t="s">
+        <v>53</v>
+      </c>
+      <c r="M12" t="s">
+        <v>96</v>
+      </c>
+      <c r="N12">
+        <v>6.9</v>
+      </c>
+      <c r="O12">
+        <v>7.1</v>
+      </c>
+      <c r="P12">
+        <v>6.3</v>
+      </c>
+      <c r="Q12">
+        <v>6.3</v>
+      </c>
+      <c r="R12">
+        <v>6.6</v>
+      </c>
+      <c r="S12">
+        <v>6.6</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>12</v>
+      </c>
+      <c r="D13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E13" t="s">
+        <v>97</v>
+      </c>
+      <c r="F13" t="s">
+        <v>49</v>
+      </c>
+      <c r="G13" t="s">
+        <v>56</v>
+      </c>
+      <c r="H13" t="s">
+        <v>98</v>
+      </c>
+      <c r="I13" t="s">
+        <v>68</v>
+      </c>
+      <c r="J13">
+        <v>12</v>
+      </c>
+      <c r="K13" t="s">
+        <v>56</v>
+      </c>
+      <c r="L13" t="s">
+        <v>53</v>
+      </c>
+      <c r="M13" t="s">
+        <v>99</v>
+      </c>
+      <c r="N13">
+        <v>6.6</v>
+      </c>
+      <c r="O13">
+        <v>7.4</v>
+      </c>
+      <c r="P13">
+        <v>7.5</v>
+      </c>
+      <c r="Q13">
+        <v>7.9</v>
+      </c>
+      <c r="R13">
+        <v>7</v>
+      </c>
+      <c r="S13">
+        <v>7.3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>15</v>
+      </c>
+      <c r="C14">
+        <v>13</v>
+      </c>
+      <c r="D14" t="s">
+        <v>47</v>
+      </c>
+      <c r="E14" t="s">
+        <v>100</v>
+      </c>
+      <c r="F14" t="s">
+        <v>49</v>
+      </c>
+      <c r="G14" t="s">
+        <v>61</v>
+      </c>
+      <c r="H14" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" t="s">
+        <v>102</v>
+      </c>
+      <c r="J14">
+        <v>10</v>
+      </c>
+      <c r="K14" t="s">
+        <v>56</v>
+      </c>
+      <c r="L14" t="s">
+        <v>53</v>
+      </c>
+      <c r="M14" t="s">
+        <v>103</v>
+      </c>
+      <c r="N14">
+        <v>7.3</v>
+      </c>
+      <c r="O14">
+        <v>7.1</v>
+      </c>
+      <c r="P14">
+        <v>7</v>
+      </c>
+      <c r="Q14">
+        <v>6.6</v>
+      </c>
+      <c r="R14">
+        <v>7</v>
+      </c>
+      <c r="S14">
+        <v>7.03</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+      <c r="C15">
+        <v>14</v>
+      </c>
+      <c r="D15" t="s">
+        <v>47</v>
+      </c>
+      <c r="E15" t="s">
+        <v>104</v>
+      </c>
+      <c r="F15" t="s">
+        <v>49</v>
+      </c>
+      <c r="G15" t="s">
+        <v>61</v>
+      </c>
+      <c r="H15" t="s">
+        <v>105</v>
+      </c>
+      <c r="I15" t="s">
+        <v>106</v>
+      </c>
+      <c r="J15">
+        <v>9</v>
+      </c>
+      <c r="K15" t="s">
+        <v>61</v>
+      </c>
+      <c r="L15" t="s">
+        <v>53</v>
+      </c>
+      <c r="M15" t="s">
+        <v>107</v>
+      </c>
+      <c r="N15">
+        <v>7.5</v>
+      </c>
+      <c r="O15">
+        <v>7.4</v>
+      </c>
+      <c r="P15">
+        <v>7.4</v>
+      </c>
+      <c r="Q15">
+        <v>6.4</v>
+      </c>
+      <c r="R15">
+        <v>6.8</v>
+      </c>
+      <c r="S15">
+        <v>7.2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>5</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+      <c r="D16" t="s">
+        <v>47</v>
+      </c>
+      <c r="E16" t="s">
+        <v>108</v>
+      </c>
+      <c r="F16" t="s">
+        <v>49</v>
+      </c>
+      <c r="G16" t="s">
+        <v>61</v>
+      </c>
+      <c r="H16" t="s">
+        <v>109</v>
+      </c>
+      <c r="I16" t="s">
+        <v>63</v>
+      </c>
+      <c r="J16">
+        <v>11</v>
+      </c>
+      <c r="K16" t="s">
+        <v>110</v>
+      </c>
+      <c r="L16" t="s">
+        <v>53</v>
+      </c>
+      <c r="M16" t="s">
+        <v>111</v>
+      </c>
+      <c r="N16">
+        <v>8.1</v>
+      </c>
+      <c r="O16">
+        <v>8</v>
+      </c>
+      <c r="P16">
+        <v>8.3</v>
+      </c>
+      <c r="Q16">
+        <v>7.1</v>
+      </c>
+      <c r="R16">
+        <v>7.8</v>
+      </c>
+      <c r="S16">
+        <v>7.97</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>7</v>
+      </c>
+      <c r="C17">
+        <v>16</v>
+      </c>
+      <c r="D17" t="s">
+        <v>47</v>
+      </c>
+      <c r="E17" t="s">
+        <v>112</v>
+      </c>
+      <c r="F17" t="s">
+        <v>49</v>
+      </c>
+      <c r="G17" t="s">
+        <v>66</v>
+      </c>
+      <c r="H17" t="s">
+        <v>113</v>
+      </c>
+      <c r="I17" t="s">
+        <v>114</v>
+      </c>
+      <c r="J17">
+        <v>9</v>
+      </c>
+      <c r="K17" t="s">
+        <v>66</v>
+      </c>
+      <c r="L17" t="s">
+        <v>53</v>
+      </c>
+      <c r="M17" t="s">
+        <v>115</v>
+      </c>
+      <c r="N17">
+        <v>7.4</v>
+      </c>
+      <c r="O17">
+        <v>7.6</v>
+      </c>
+      <c r="P17">
+        <v>7.5</v>
+      </c>
+      <c r="Q17">
+        <v>7.5</v>
+      </c>
+      <c r="R17">
+        <v>7.5</v>
+      </c>
+      <c r="S17">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>3</v>
+      </c>
+      <c r="C18">
+        <v>17</v>
+      </c>
+      <c r="D18" t="s">
+        <v>47</v>
+      </c>
+      <c r="E18" t="s">
+        <v>116</v>
+      </c>
+      <c r="F18" t="s">
+        <v>49</v>
+      </c>
+      <c r="G18" t="s">
+        <v>117</v>
+      </c>
+      <c r="H18" t="s">
+        <v>118</v>
+      </c>
+      <c r="I18" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18">
+        <v>9</v>
+      </c>
+      <c r="K18" t="s">
+        <v>117</v>
+      </c>
+      <c r="L18" t="s">
+        <v>53</v>
+      </c>
+      <c r="M18" t="s">
+        <v>119</v>
+      </c>
+      <c r="N18">
+        <v>7.9</v>
+      </c>
+      <c r="O18">
+        <v>8.4</v>
+      </c>
+      <c r="P18">
+        <v>7.8</v>
+      </c>
+      <c r="Q18">
+        <v>7.8</v>
+      </c>
+      <c r="R18">
+        <v>8.4</v>
+      </c>
+      <c r="S18">
+        <v>8.03</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>10</v>
+      </c>
+      <c r="C19">
+        <v>18</v>
+      </c>
+      <c r="D19" t="s">
+        <v>47</v>
+      </c>
+      <c r="E19" t="s">
+        <v>120</v>
+      </c>
+      <c r="F19" t="s">
+        <v>49</v>
+      </c>
+      <c r="G19" t="s">
+        <v>66</v>
+      </c>
+      <c r="H19" t="s">
+        <v>121</v>
+      </c>
+      <c r="I19" t="s">
+        <v>68</v>
+      </c>
+      <c r="J19">
+        <v>9</v>
+      </c>
+      <c r="K19" t="s">
+        <v>66</v>
+      </c>
+      <c r="L19" t="s">
+        <v>53</v>
+      </c>
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19">
+        <v>7.3</v>
+      </c>
+      <c r="O19">
+        <v>7.8</v>
+      </c>
+      <c r="P19">
+        <v>6.9</v>
+      </c>
+      <c r="Q19">
+        <v>7.6</v>
+      </c>
+      <c r="R19">
+        <v>7.5</v>
+      </c>
+      <c r="S19">
+        <v>7.47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>17</v>
+      </c>
+      <c r="C20">
+        <v>19</v>
+      </c>
+      <c r="D20" t="s">
+        <v>47</v>
+      </c>
+      <c r="E20" t="s">
+        <v>123</v>
+      </c>
+      <c r="F20" t="s">
+        <v>49</v>
+      </c>
+      <c r="G20" t="s">
+        <v>61</v>
+      </c>
+      <c r="H20" t="s">
+        <v>124</v>
+      </c>
+      <c r="I20" t="s">
+        <v>125</v>
+      </c>
+      <c r="J20">
+        <v>10</v>
+      </c>
+      <c r="K20" t="s">
+        <v>79</v>
+      </c>
+      <c r="L20" t="s">
+        <v>53</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20">
+        <v>6.9</v>
+      </c>
+      <c r="O20">
+        <v>7</v>
+      </c>
+      <c r="P20">
+        <v>7.3</v>
+      </c>
+      <c r="Q20">
+        <v>6.5</v>
+      </c>
+      <c r="R20">
+        <v>6.4</v>
+      </c>
+      <c r="S20">
+        <v>6.8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="14" max="34" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>10</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>120</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>66</v>
+      </c>
+      <c r="H2" t="s">
+        <v>121</v>
+      </c>
+      <c r="I2" t="s">
+        <v>68</v>
+      </c>
+      <c r="J2">
+        <v>9</v>
+      </c>
+      <c r="K2" t="s">
+        <v>66</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>122</v>
+      </c>
+      <c r="N2">
+        <v>7.5</v>
+      </c>
+      <c r="O2">
+        <v>7.9</v>
+      </c>
+      <c r="P2">
+        <v>7.3</v>
+      </c>
+      <c r="Q2">
+        <v>7.1</v>
+      </c>
+      <c r="R2">
+        <v>6.8</v>
+      </c>
+      <c r="S2">
+        <v>7.25</v>
+      </c>
+      <c r="T2">
+        <v>8</v>
+      </c>
+      <c r="U2">
+        <v>8</v>
+      </c>
+      <c r="V2">
+        <v>7.5</v>
+      </c>
+      <c r="W2">
+        <v>8</v>
+      </c>
+      <c r="X2">
+        <v>7.5</v>
+      </c>
+      <c r="Y2">
+        <v>8</v>
+      </c>
+      <c r="Z2">
+        <v>7.5</v>
+      </c>
+      <c r="AA2">
+        <v>7.5</v>
+      </c>
+      <c r="AB2">
+        <v>7.5</v>
+      </c>
+      <c r="AC2">
+        <v>7.5</v>
+      </c>
+      <c r="AD2">
+        <v>7</v>
+      </c>
+      <c r="AE2">
+        <v>8</v>
+      </c>
+      <c r="AF2">
+        <v>7</v>
+      </c>
+      <c r="AG2">
+        <v>6.5</v>
+      </c>
+      <c r="AH2">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>9</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+      <c r="H3" t="s">
+        <v>78</v>
+      </c>
+      <c r="I3" t="s">
+        <v>68</v>
+      </c>
+      <c r="J3">
+        <v>9</v>
+      </c>
+      <c r="K3" t="s">
+        <v>79</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>80</v>
+      </c>
+      <c r="N3">
+        <v>7.5</v>
+      </c>
+      <c r="O3">
+        <v>6.8</v>
+      </c>
+      <c r="P3">
+        <v>7.3</v>
+      </c>
+      <c r="Q3">
+        <v>6.9</v>
+      </c>
+      <c r="R3">
+        <v>7.4</v>
+      </c>
+      <c r="S3">
+        <v>7.29</v>
+      </c>
+      <c r="T3">
+        <v>8.5</v>
+      </c>
+      <c r="U3">
+        <v>8.5</v>
+      </c>
+      <c r="V3">
+        <v>8</v>
+      </c>
+      <c r="W3">
+        <v>7.5</v>
+      </c>
+      <c r="X3">
+        <v>8</v>
+      </c>
+      <c r="Y3">
+        <v>8.5</v>
+      </c>
+      <c r="Z3">
+        <v>8.5</v>
+      </c>
+      <c r="AA3">
+        <v>8</v>
+      </c>
+      <c r="AB3">
+        <v>8</v>
+      </c>
+      <c r="AC3">
+        <v>8.5</v>
+      </c>
+      <c r="AD3">
+        <v>6.5</v>
+      </c>
+      <c r="AE3">
+        <v>5</v>
+      </c>
+      <c r="AF3">
+        <v>6.5</v>
+      </c>
+      <c r="AG3">
+        <v>6</v>
+      </c>
+      <c r="AH3">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>8</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>86</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>56</v>
+      </c>
+      <c r="H4" t="s">
+        <v>87</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>11</v>
+      </c>
+      <c r="K4" t="s">
+        <v>56</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>88</v>
+      </c>
+      <c r="N4">
+        <v>7.5</v>
+      </c>
+      <c r="O4">
+        <v>7.5</v>
+      </c>
+      <c r="P4">
+        <v>7.6</v>
+      </c>
+      <c r="Q4">
+        <v>7.8</v>
+      </c>
+      <c r="R4">
+        <v>7.8</v>
+      </c>
+      <c r="S4">
+        <v>7.58</v>
+      </c>
+      <c r="T4">
+        <v>8</v>
+      </c>
+      <c r="U4">
+        <v>7.5</v>
+      </c>
+      <c r="V4">
+        <v>7.5</v>
+      </c>
+      <c r="W4">
+        <v>7</v>
+      </c>
+      <c r="X4">
+        <v>7.5</v>
+      </c>
+      <c r="Y4">
+        <v>7</v>
+      </c>
+      <c r="Z4">
+        <v>7.5</v>
+      </c>
+      <c r="AA4">
+        <v>7</v>
+      </c>
+      <c r="AB4">
+        <v>7</v>
+      </c>
+      <c r="AC4">
+        <v>7.5</v>
+      </c>
+      <c r="AD4">
+        <v>7.5</v>
+      </c>
+      <c r="AE4">
+        <v>7.5</v>
+      </c>
+      <c r="AF4">
+        <v>8</v>
+      </c>
+      <c r="AG4">
+        <v>8.5</v>
+      </c>
+      <c r="AH4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>112</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>66</v>
+      </c>
+      <c r="H5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I5" t="s">
+        <v>114</v>
+      </c>
+      <c r="J5">
+        <v>9</v>
+      </c>
+      <c r="K5" t="s">
+        <v>66</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>115</v>
+      </c>
+      <c r="N5">
+        <v>7.4</v>
+      </c>
+      <c r="O5">
+        <v>8.1</v>
+      </c>
+      <c r="P5">
+        <v>7.4</v>
+      </c>
+      <c r="Q5">
+        <v>7.8</v>
+      </c>
+      <c r="R5">
+        <v>7.8</v>
+      </c>
+      <c r="S5">
+        <v>7.67</v>
+      </c>
+      <c r="T5">
+        <v>8</v>
+      </c>
+      <c r="U5">
+        <v>8.5</v>
+      </c>
+      <c r="V5">
+        <v>8</v>
+      </c>
+      <c r="W5">
+        <v>8</v>
+      </c>
+      <c r="X5">
+        <v>8</v>
+      </c>
+      <c r="Y5">
+        <v>7.5</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>7.5</v>
+      </c>
+      <c r="AB5">
+        <v>7</v>
+      </c>
+      <c r="AC5">
+        <v>8</v>
+      </c>
+      <c r="AD5">
+        <v>7</v>
+      </c>
+      <c r="AE5">
+        <v>8</v>
+      </c>
+      <c r="AF5">
+        <v>7</v>
+      </c>
+      <c r="AG5">
+        <v>8</v>
+      </c>
+      <c r="AH5">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>7</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>48</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>50</v>
+      </c>
+      <c r="H6" t="s">
+        <v>51</v>
+      </c>
+      <c r="I6" t="s">
+        <v>52</v>
+      </c>
+      <c r="J6">
+        <v>7</v>
+      </c>
+      <c r="K6" t="s">
+        <v>50</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>54</v>
+      </c>
+      <c r="N6">
+        <v>7.6</v>
+      </c>
+      <c r="O6">
+        <v>7.8</v>
+      </c>
+      <c r="P6">
+        <v>7.6</v>
+      </c>
+      <c r="Q6">
+        <v>7.5</v>
+      </c>
+      <c r="R6">
+        <v>7.9</v>
+      </c>
+      <c r="S6">
+        <v>7.63</v>
+      </c>
+      <c r="T6">
+        <v>8</v>
+      </c>
+      <c r="U6">
+        <v>8</v>
+      </c>
+      <c r="V6">
+        <v>8</v>
+      </c>
+      <c r="W6">
+        <v>7.5</v>
+      </c>
+      <c r="X6">
+        <v>8</v>
+      </c>
+      <c r="Y6">
+        <v>7.5</v>
+      </c>
+      <c r="Z6">
+        <v>8</v>
+      </c>
+      <c r="AA6">
+        <v>7.5</v>
+      </c>
+      <c r="AB6">
+        <v>7.5</v>
+      </c>
+      <c r="AC6">
+        <v>7.5</v>
+      </c>
+      <c r="AD6">
+        <v>7.5</v>
+      </c>
+      <c r="AE6">
+        <v>7.5</v>
+      </c>
+      <c r="AF6">
+        <v>7.5</v>
+      </c>
+      <c r="AG6">
+        <v>7.5</v>
+      </c>
+      <c r="AH6">
+        <v>8</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:AH6"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <cols>
+    <col min="1" max="1" width="6" customWidth="1"/>
+    <col min="2" max="2" width="8" customWidth="1"/>
+    <col min="3" max="4" width="6" customWidth="1"/>
+    <col min="5" max="5" width="24" customWidth="1"/>
+    <col min="6" max="6" width="14" customWidth="1"/>
+    <col min="7" max="7" width="18" customWidth="1"/>
+    <col min="8" max="8" width="28" customWidth="1"/>
+    <col min="9" max="9" width="20" customWidth="1"/>
+    <col min="10" max="10" width="6" customWidth="1"/>
+    <col min="11" max="11" width="18" customWidth="1"/>
+    <col min="12" max="12" width="10" customWidth="1"/>
+    <col min="13" max="13" width="28" customWidth="1"/>
+    <col min="14" max="34" width="8" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>28</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="C1" t="s">
+        <v>30</v>
+      </c>
+      <c r="D1" t="s">
+        <v>31</v>
+      </c>
+      <c r="E1" t="s">
+        <v>32</v>
+      </c>
+      <c r="F1" t="s">
+        <v>33</v>
+      </c>
+      <c r="G1" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" t="s">
+        <v>35</v>
+      </c>
+      <c r="I1" t="s">
+        <v>36</v>
+      </c>
+      <c r="J1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K1" t="s">
+        <v>38</v>
+      </c>
+      <c r="L1" t="s">
+        <v>39</v>
+      </c>
+      <c r="M1" t="s">
+        <v>40</v>
+      </c>
+      <c r="N1" t="s">
+        <v>41</v>
+      </c>
+      <c r="O1" t="s">
+        <v>42</v>
+      </c>
+      <c r="P1" t="s">
+        <v>43</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>44</v>
+      </c>
+      <c r="R1" t="s">
+        <v>45</v>
+      </c>
+      <c r="S1" t="s">
+        <v>46</v>
+      </c>
+      <c r="T1" t="s">
+        <v>127</v>
+      </c>
+      <c r="U1" t="s">
+        <v>128</v>
+      </c>
+      <c r="V1" t="s">
+        <v>129</v>
+      </c>
+      <c r="W1" t="s">
+        <v>130</v>
+      </c>
+      <c r="X1" t="s">
+        <v>131</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>132</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>133</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>134</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>135</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>136</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>137</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>138</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>139</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>140</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>3</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>47</v>
+      </c>
+      <c r="E2" t="s">
+        <v>108</v>
+      </c>
+      <c r="F2" t="s">
+        <v>49</v>
+      </c>
+      <c r="G2" t="s">
+        <v>61</v>
+      </c>
+      <c r="H2" t="s">
+        <v>109</v>
+      </c>
+      <c r="I2" t="s">
+        <v>63</v>
+      </c>
+      <c r="J2">
+        <v>11</v>
+      </c>
+      <c r="K2" t="s">
+        <v>110</v>
+      </c>
+      <c r="L2" t="s">
+        <v>53</v>
+      </c>
+      <c r="M2" t="s">
+        <v>111</v>
+      </c>
+      <c r="N2">
+        <v>8.5</v>
+      </c>
+      <c r="O2">
+        <v>8.3</v>
+      </c>
+      <c r="P2">
+        <v>8</v>
+      </c>
+      <c r="Q2">
+        <v>7.4</v>
+      </c>
+      <c r="R2">
+        <v>8.4</v>
+      </c>
+      <c r="S2">
+        <v>8.25</v>
+      </c>
+      <c r="T2">
+        <v>9</v>
+      </c>
+      <c r="U2">
+        <v>9</v>
+      </c>
+      <c r="V2">
+        <v>9.5</v>
+      </c>
+      <c r="W2">
+        <v>9.5</v>
+      </c>
+      <c r="X2">
+        <v>9.5</v>
+      </c>
+      <c r="Y2">
+        <v>9</v>
+      </c>
+      <c r="Z2">
+        <v>9</v>
+      </c>
+      <c r="AA2">
+        <v>8.5</v>
+      </c>
+      <c r="AB2">
+        <v>9</v>
+      </c>
+      <c r="AC2">
+        <v>9</v>
+      </c>
+      <c r="AD2">
+        <v>8</v>
+      </c>
+      <c r="AE2">
+        <v>7.5</v>
+      </c>
+      <c r="AF2">
+        <v>7</v>
+      </c>
+      <c r="AG2">
+        <v>5.5</v>
+      </c>
+      <c r="AH2">
+        <v>7.5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E3" t="s">
+        <v>81</v>
+      </c>
+      <c r="F3" t="s">
+        <v>142</v>
+      </c>
+      <c r="G3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" t="s">
+        <v>83</v>
+      </c>
+      <c r="I3" t="s">
+        <v>84</v>
+      </c>
+      <c r="J3">
+        <v>12</v>
+      </c>
+      <c r="K3" t="s">
+        <v>82</v>
+      </c>
+      <c r="L3" t="s">
+        <v>53</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3">
+        <v>7.8</v>
+      </c>
+      <c r="O3">
+        <v>7.8</v>
+      </c>
+      <c r="P3">
+        <v>7.8</v>
+      </c>
+      <c r="Q3">
+        <v>7.4</v>
+      </c>
+      <c r="R3">
+        <v>7.6</v>
+      </c>
+      <c r="S3">
+        <v>7.67</v>
+      </c>
+      <c r="T3">
+        <v>8.5</v>
+      </c>
+      <c r="U3">
+        <v>8.5</v>
+      </c>
+      <c r="V3">
+        <v>8.5</v>
+      </c>
+      <c r="W3">
+        <v>8.5</v>
+      </c>
+      <c r="X3">
+        <v>8.5</v>
+      </c>
+      <c r="Y3">
+        <v>8.5</v>
+      </c>
+      <c r="Z3">
+        <v>8.5</v>
+      </c>
+      <c r="AA3">
+        <v>7.5</v>
+      </c>
+      <c r="AB3">
+        <v>8</v>
+      </c>
+      <c r="AC3">
+        <v>8</v>
+      </c>
+      <c r="AD3">
+        <v>7</v>
+      </c>
+      <c r="AE3">
+        <v>7</v>
+      </c>
+      <c r="AF3">
+        <v>7.5</v>
+      </c>
+      <c r="AG3">
+        <v>6.5</v>
+      </c>
+      <c r="AH3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>1</v>
+      </c>
+      <c r="D4" t="s">
+        <v>47</v>
+      </c>
+      <c r="E4" t="s">
+        <v>116</v>
+      </c>
+      <c r="F4" t="s">
+        <v>143</v>
+      </c>
+      <c r="G4" t="s">
+        <v>117</v>
+      </c>
+      <c r="H4" t="s">
+        <v>118</v>
+      </c>
+      <c r="I4" t="s">
+        <v>68</v>
+      </c>
+      <c r="J4">
+        <v>9</v>
+      </c>
+      <c r="K4" t="s">
+        <v>117</v>
+      </c>
+      <c r="L4" t="s">
+        <v>53</v>
+      </c>
+      <c r="M4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4">
+        <v>7.8</v>
+      </c>
+      <c r="O4">
+        <v>7.8</v>
+      </c>
+      <c r="P4">
+        <v>7.8</v>
+      </c>
+      <c r="Q4">
+        <v>7.6</v>
+      </c>
+      <c r="R4">
+        <v>8.4</v>
+      </c>
+      <c r="S4">
+        <v>7.83</v>
+      </c>
+      <c r="T4">
+        <v>8.5</v>
+      </c>
+      <c r="U4">
+        <v>8.5</v>
+      </c>
+      <c r="V4">
+        <v>9</v>
+      </c>
+      <c r="W4">
+        <v>9</v>
+      </c>
+      <c r="X4">
+        <v>9</v>
+      </c>
+      <c r="Y4">
+        <v>8.5</v>
+      </c>
+      <c r="Z4">
+        <v>8.5</v>
+      </c>
+      <c r="AA4">
+        <v>8</v>
+      </c>
+      <c r="AB4">
+        <v>8.5</v>
+      </c>
+      <c r="AC4">
+        <v>8.5</v>
+      </c>
+      <c r="AD4">
+        <v>7</v>
+      </c>
+      <c r="AE4">
+        <v>7</v>
+      </c>
+      <c r="AF4">
+        <v>7</v>
+      </c>
+      <c r="AG4">
+        <v>6.5</v>
+      </c>
+      <c r="AH4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>2</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+      <c r="D5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E5" t="s">
+        <v>89</v>
+      </c>
+      <c r="F5" t="s">
+        <v>144</v>
+      </c>
+      <c r="G5" t="s">
+        <v>61</v>
+      </c>
+      <c r="H5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I5" t="s">
+        <v>91</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5" t="s">
+        <v>61</v>
+      </c>
+      <c r="L5" t="s">
+        <v>53</v>
+      </c>
+      <c r="M5" t="s">
+        <v>92</v>
+      </c>
+      <c r="N5">
+        <v>8.3</v>
+      </c>
+      <c r="O5">
+        <v>8.4</v>
+      </c>
+      <c r="P5">
+        <v>8.3</v>
+      </c>
+      <c r="Q5">
+        <v>8.3</v>
+      </c>
+      <c r="R5">
+        <v>8.5</v>
+      </c>
+      <c r="S5">
+        <v>8.38</v>
+      </c>
+      <c r="T5">
+        <v>8.5</v>
+      </c>
+      <c r="U5">
+        <v>8.5</v>
+      </c>
+      <c r="V5">
+        <v>8.5</v>
+      </c>
+      <c r="W5">
+        <v>8.5</v>
+      </c>
+      <c r="X5">
+        <v>8.5</v>
+      </c>
+      <c r="Y5">
+        <v>8.5</v>
+      </c>
+      <c r="Z5">
+        <v>8</v>
+      </c>
+      <c r="AA5">
+        <v>7.5</v>
+      </c>
+      <c r="AB5">
+        <v>7.5</v>
+      </c>
+      <c r="AC5">
+        <v>8.5</v>
+      </c>
+      <c r="AD5">
+        <v>8</v>
+      </c>
+      <c r="AE5">
+        <v>8.5</v>
+      </c>
+      <c r="AF5">
+        <v>8.5</v>
+      </c>
+      <c r="AG5">
+        <v>8.5</v>
+      </c>
+      <c r="AH5">
+        <v>8.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" t="s">
+        <v>60</v>
+      </c>
+      <c r="F6" t="s">
+        <v>145</v>
+      </c>
+      <c r="G6" t="s">
+        <v>61</v>
+      </c>
+      <c r="H6" t="s">
+        <v>62</v>
+      </c>
+      <c r="I6" t="s">
+        <v>63</v>
+      </c>
+      <c r="J6">
+        <v>8</v>
+      </c>
+      <c r="K6" t="s">
+        <v>61</v>
+      </c>
+      <c r="L6" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>8.6</v>
+      </c>
+      <c r="O6">
+        <v>8.8</v>
+      </c>
+      <c r="P6">
+        <v>8.6</v>
+      </c>
+      <c r="Q6">
+        <v>8.3</v>
+      </c>
+      <c r="R6">
+        <v>8.9</v>
+      </c>
+      <c r="S6">
+        <v>8.71</v>
+      </c>
+      <c r="T6">
+        <v>9</v>
+      </c>
+      <c r="U6">
+        <v>9</v>
+      </c>
+      <c r="V6">
+        <v>8.5</v>
+      </c>
+      <c r="W6">
+        <v>8.5</v>
+      </c>
+      <c r="X6">
+        <v>9</v>
+      </c>
+      <c r="Y6">
+        <v>9.5</v>
+      </c>
+      <c r="Z6">
+        <v>9</v>
+      </c>
+      <c r="AA6">
+        <v>9</v>
+      </c>
+      <c r="AB6">
+        <v>9.5</v>
+      </c>
+      <c r="AC6">
+        <v>9.5</v>
+      </c>
+      <c r="AD6">
+        <v>8</v>
+      </c>
+      <c r="AE6">
+        <v>8.5</v>
+      </c>
+      <c r="AF6">
+        <v>8.5</v>
+      </c>
+      <c r="AG6">
+        <v>7.5</v>
+      </c>
+      <c r="AH6">
+        <v>8.5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G14"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -540,13 +3376,13 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>70617</v>
+        <v>70674</v>
       </c>
       <c r="D2">
-        <v>103060</v>
+        <v>70674</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
         <v>1</v>
@@ -560,13 +3396,13 @@
         <v>10</v>
       </c>
       <c r="B3" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C3">
-        <v>70617</v>
+        <v>70674</v>
       </c>
       <c r="D3">
-        <v>103060</v>
+        <v>70674</v>
       </c>
       <c r="E3">
         <v>2</v>
@@ -575,7 +3411,7 @@
         <v>1</v>
       </c>
       <c r="G3" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -586,13 +3422,13 @@
         <v>8</v>
       </c>
       <c r="C4">
-        <v>70617</v>
+        <v>70674</v>
       </c>
       <c r="D4">
-        <v>103060</v>
+        <v>70674</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
@@ -606,13 +3442,13 @@
         <v>14</v>
       </c>
       <c r="B5" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C5">
-        <v>70617</v>
+        <v>70674</v>
       </c>
       <c r="D5">
-        <v>103060</v>
+        <v>70674</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -621,30 +3457,30 @@
         <v>1</v>
       </c>
       <c r="G5" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
       <c r="C6">
-        <v>70617</v>
+        <v>70674</v>
       </c>
       <c r="D6">
-        <v>103060</v>
+        <v>70674</v>
       </c>
       <c r="E6">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6" t="s">
-        <v>16</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
@@ -652,13 +3488,13 @@
         <v>17</v>
       </c>
       <c r="B7" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C7">
-        <v>70617</v>
+        <v>70674</v>
       </c>
       <c r="D7">
-        <v>103060</v>
+        <v>70674</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -667,7 +3503,7 @@
         <v>1</v>
       </c>
       <c r="G7" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
@@ -675,7 +3511,7 @@
         <v>18</v>
       </c>
       <c r="B8" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C8">
         <v>70617</v>
@@ -690,21 +3526,21 @@
         <v>1</v>
       </c>
       <c r="G8" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="B9" t="s">
         <v>8</v>
       </c>
       <c r="C9">
-        <v>70674</v>
+        <v>70617</v>
       </c>
       <c r="D9">
-        <v>70674</v>
+        <v>103060</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -713,7 +3549,7 @@
         <v>1</v>
       </c>
       <c r="G9" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
@@ -721,82 +3557,82 @@
         <v>21</v>
       </c>
       <c r="B10" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C10">
-        <v>70674</v>
+        <v>70617</v>
       </c>
       <c r="D10">
-        <v>70674</v>
+        <v>103060</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>8</v>
       </c>
       <c r="C11">
-        <v>70674</v>
+        <v>70617</v>
       </c>
       <c r="D11">
-        <v>70674</v>
+        <v>103060</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B12" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C12">
-        <v>70674</v>
+        <v>70617</v>
       </c>
       <c r="D12">
-        <v>70674</v>
+        <v>103060</v>
       </c>
       <c r="E12">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12" t="s">
-        <v>24</v>
+        <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="B13" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
       <c r="C13">
-        <v>70674</v>
+        <v>70617</v>
       </c>
       <c r="D13">
-        <v>70674</v>
+        <v>103060</v>
       </c>
       <c r="E13">
         <v>2</v>
@@ -805,260 +3641,30 @@
         <v>1</v>
       </c>
       <c r="G13" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="B14" t="s">
-        <v>8</v>
+        <v>15</v>
       </c>
       <c r="C14">
-        <v>70674</v>
+        <v>70617</v>
       </c>
       <c r="D14">
-        <v>70674</v>
+        <v>103060</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>27</v>
-      </c>
-      <c r="B15" t="s">
-        <v>8</v>
-      </c>
-      <c r="C15">
-        <v>70674</v>
-      </c>
-      <c r="D15">
-        <v>70674</v>
-      </c>
-      <c r="E15">
-        <v>1</v>
-      </c>
-      <c r="F15">
-        <v>1</v>
-      </c>
-      <c r="G15" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>28</v>
-      </c>
-      <c r="B16" t="s">
-        <v>8</v>
-      </c>
-      <c r="C16">
-        <v>70674</v>
-      </c>
-      <c r="D16">
-        <v>70674</v>
-      </c>
-      <c r="E16">
-        <v>1</v>
-      </c>
-      <c r="F16">
-        <v>1</v>
-      </c>
-      <c r="G16" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>29</v>
-      </c>
-      <c r="B17" t="s">
-        <v>8</v>
-      </c>
-      <c r="C17">
-        <v>70674</v>
-      </c>
-      <c r="D17">
-        <v>70674</v>
-      </c>
-      <c r="E17">
-        <v>1</v>
-      </c>
-      <c r="F17">
-        <v>1</v>
-      </c>
-      <c r="G17" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" t="s">
-        <v>8</v>
-      </c>
-      <c r="C18">
-        <v>70674</v>
-      </c>
-      <c r="D18">
-        <v>70674</v>
-      </c>
-      <c r="E18">
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <v>1</v>
-      </c>
-      <c r="G18" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-      <c r="C19">
-        <v>70674</v>
-      </c>
-      <c r="D19">
-        <v>70674</v>
-      </c>
-      <c r="E19">
-        <v>1</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C20">
-        <v>70674</v>
-      </c>
-      <c r="D20">
-        <v>70674</v>
-      </c>
-      <c r="E20">
-        <v>1</v>
-      </c>
-      <c r="F20">
-        <v>1</v>
-      </c>
-      <c r="G20" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>33</v>
-      </c>
-      <c r="B21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C21">
-        <v>70674</v>
-      </c>
-      <c r="D21">
-        <v>70674</v>
-      </c>
-      <c r="E21">
-        <v>1</v>
-      </c>
-      <c r="F21">
-        <v>1</v>
-      </c>
-      <c r="G21" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>34</v>
-      </c>
-      <c r="B22" t="s">
-        <v>8</v>
-      </c>
-      <c r="C22">
-        <v>70674</v>
-      </c>
-      <c r="D22">
-        <v>70674</v>
-      </c>
-      <c r="E22">
-        <v>1</v>
-      </c>
-      <c r="F22">
-        <v>1</v>
-      </c>
-      <c r="G22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>35</v>
-      </c>
-      <c r="B23" t="s">
-        <v>8</v>
-      </c>
-      <c r="C23">
-        <v>70674</v>
-      </c>
-      <c r="D23">
-        <v>70674</v>
-      </c>
-      <c r="E23">
-        <v>1</v>
-      </c>
-      <c r="F23">
-        <v>1</v>
-      </c>
-      <c r="G23" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>36</v>
-      </c>
-      <c r="B24" t="s">
-        <v>8</v>
-      </c>
-      <c r="C24">
-        <v>70674</v>
-      </c>
-      <c r="D24">
-        <v>70674</v>
-      </c>
-      <c r="E24">
-        <v>1</v>
-      </c>
-      <c r="F24">
-        <v>1</v>
-      </c>
-      <c r="G24" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
     </row>
   </sheetData>

--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="4" name="Webhooks" state="visible" r:id="rId4"/>
+    <sheet sheetId="5" name="Webhooks" state="visible" r:id="rId4"/>
     <sheet sheetId="1" name="Forkeppni" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="A-úrslit" state="visible" r:id="rId6"/>
     <sheet sheetId="2" name="B-úrslit" state="visible" r:id="rId7"/>
+    <sheet sheetId="4" name="keppendalisti" state="visible" r:id="rId8"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="394" uniqueCount="146">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="345">
   <si>
     <t>timestamp</t>
   </si>
@@ -100,6 +101,210 @@
     <t>2026-02-06T22:28:46.110Z</t>
   </si>
   <si>
+    <t>2026-02-16T11:37:55.737Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:41:23.127Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:41:40.338Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:42:47.247Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:43:57.698Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:45:00.524Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:46:39.983Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:48:59.027Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:49:29.250Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:50:27.616Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:51:14.211Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:51:54.630Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:52:00.178Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:55:25.382Z</t>
+  </si>
+  <si>
+    <t>event_keppendalisti_breyta</t>
+  </si>
+  <si>
+    <t>71254</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>{"eventId":"71254"}</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:00:33.024Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:03:28.822Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:04:13.250Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:08:52.735Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:09:20.498Z</t>
+  </si>
+  <si>
+    <t>71334</t>
+  </si>
+  <si>
+    <t>{"eventId":"71334"}</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:09:39.954Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:10:14.360Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:10:36.956Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:14:04.031Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:14:17.686Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:14:36.414Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:15:02.640Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:15:20.559Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:19:49.658Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:32:22.345Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:32:38.795Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:33:01.048Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:40:12.312Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:45:53.434Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:50:33.107Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:17:19.821Z</t>
+  </si>
+  <si>
+    <t>71554</t>
+  </si>
+  <si>
+    <t>{"eventId":"71554"}</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:40:25.873Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:45:50.723Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:48:46.517Z</t>
+  </si>
+  <si>
+    <t>{"classId":103059,"eventId":71274,"competitionId":1,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:49:17.791Z</t>
+  </si>
+  <si>
+    <t>{"classId":103059,"eventId":71274,"competitionId":2,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:49:56.447Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:50:34.063Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:50:51.803Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:52:33.056Z</t>
+  </si>
+  <si>
+    <t>{"classId":103060,"eventId":70617,"competitionId":4,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:52:58.604Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:53:06.976Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:53:16.604Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:04:48.425Z</t>
+  </si>
+  <si>
+    <t>{"classId":103060,"eventId":71274,"competitionId":1,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:05:10.466Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:06:06.573Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:07:58.499Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:11:26.554Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:28:41.633Z</t>
+  </si>
+  <si>
+    <t>{"classId":103380,"eventId":70617,"competitionId":3,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:28:58.133Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:30:51.134Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:31:35.558Z</t>
+  </si>
+  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -175,9 +380,6 @@
     <t>Bleikur/álóttureinlitt</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
     <t>HELGA UNA BJÖRNSDÓTTIR</t>
   </si>
   <si>
@@ -442,6 +644,66 @@
     <t>E5_TST</t>
   </si>
   <si>
+    <t>E1_BR</t>
+  </si>
+  <si>
+    <t>E2_BR</t>
+  </si>
+  <si>
+    <t>E3_BR</t>
+  </si>
+  <si>
+    <t>E4_BR</t>
+  </si>
+  <si>
+    <t>E5_BR</t>
+  </si>
+  <si>
+    <t>E1_FE</t>
+  </si>
+  <si>
+    <t>E2_FE</t>
+  </si>
+  <si>
+    <t>E3_FE</t>
+  </si>
+  <si>
+    <t>E4_FE</t>
+  </si>
+  <si>
+    <t>E5_FE</t>
+  </si>
+  <si>
+    <t>E1_ST</t>
+  </si>
+  <si>
+    <t>E2_ST</t>
+  </si>
+  <si>
+    <t>E3_ST</t>
+  </si>
+  <si>
+    <t>E4_ST</t>
+  </si>
+  <si>
+    <t>E5_ST</t>
+  </si>
+  <si>
+    <t>E1_GR</t>
+  </si>
+  <si>
+    <t>E2_GR</t>
+  </si>
+  <si>
+    <t>E3_GR</t>
+  </si>
+  <si>
+    <t>E4_GR</t>
+  </si>
+  <si>
+    <t>E5_GR</t>
+  </si>
+  <si>
     <t>2 - Gulur</t>
   </si>
   <si>
@@ -452,6 +714,342 @@
   </si>
   <si>
     <t>5 - Hvítur</t>
+  </si>
+  <si>
+    <t>keppandi_numer</t>
+  </si>
+  <si>
+    <t>knapi_nafn</t>
+  </si>
+  <si>
+    <t>hross_nafn</t>
+  </si>
+  <si>
+    <t>hross_fulltnafn</t>
+  </si>
+  <si>
+    <t>faedingarnumer</t>
+  </si>
+  <si>
+    <t>knapi_adildarfelag</t>
+  </si>
+  <si>
+    <t>eigandi_adildarfelag</t>
+  </si>
+  <si>
+    <t>litur</t>
+  </si>
+  <si>
+    <t>varaknapi_nafn</t>
+  </si>
+  <si>
+    <t>varapar</t>
+  </si>
+  <si>
+    <t>keppnisgreinar</t>
+  </si>
+  <si>
+    <t>2026-02-16T11:55:25.455Z</t>
+  </si>
+  <si>
+    <t>Arna Hrönn Ámundadóttir</t>
+  </si>
+  <si>
+    <t>Aspar</t>
+  </si>
+  <si>
+    <t>Aspar frá Miklagarði</t>
+  </si>
+  <si>
+    <t>IS2016138779</t>
+  </si>
+  <si>
+    <t>Borgfirðingur</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarpur/milli- stjörnótt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Fullorðinsflokkur - 2. flokkur","hond":"V","keppni":"Forkeppni","keppnisgrein":"Fjórgangur V2","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Ámundi Sigurðsson</t>
+  </si>
+  <si>
+    <t>Embla</t>
+  </si>
+  <si>
+    <t>Embla frá Miklagarði</t>
+  </si>
+  <si>
+    <t>IS2013238779</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/milli- einlitt  </t>
+  </si>
+  <si>
+    <t>Darri Gunnarsson</t>
+  </si>
+  <si>
+    <t>Draumur</t>
+  </si>
+  <si>
+    <t>Draumur frá Breiðstöðum</t>
+  </si>
+  <si>
+    <t>IS2015157298</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/gló- einlitt  </t>
+  </si>
+  <si>
+    <t>Elín Hrönn Sigurðardóttir</t>
+  </si>
+  <si>
+    <t>Tíbrá</t>
+  </si>
+  <si>
+    <t>Tíbrá frá Brúnastöðum 2</t>
+  </si>
+  <si>
+    <t>IS2016287371</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/milli- stjörnótt  </t>
+  </si>
+  <si>
+    <t>Eyrún Jónasdóttir</t>
+  </si>
+  <si>
+    <t>Baldur</t>
+  </si>
+  <si>
+    <t>Baldur frá Kálfholti</t>
+  </si>
+  <si>
+    <t>IS2015186561</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/mó- einlitt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Fullorðinsflokkur - 2. flokkur","hond":"H","keppni":"Forkeppni","keppnisgrein":"Fjórgangur V2","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Kolbrún Kristín Birgisdóttir</t>
+  </si>
+  <si>
+    <t>Mídas</t>
+  </si>
+  <si>
+    <t>Mídas frá Lækjarbakka 2</t>
+  </si>
+  <si>
+    <t>IS2016182773</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarpur/milli- einlitt  </t>
+  </si>
+  <si>
+    <t>Sarah Maagaard Nielsen</t>
+  </si>
+  <si>
+    <t>Gjálp</t>
+  </si>
+  <si>
+    <t>Gjálp frá Miðkoti</t>
+  </si>
+  <si>
+    <t>IS2017284621</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/dökk/sv. einlitt  </t>
+  </si>
+  <si>
+    <t>Sigurrós Lilja Ragnarsdóttir</t>
+  </si>
+  <si>
+    <t>Glæðir</t>
+  </si>
+  <si>
+    <t>Glæðir frá Langholti</t>
+  </si>
+  <si>
+    <t>IS2013181140</t>
+  </si>
+  <si>
+    <t>Ljúfur</t>
+  </si>
+  <si>
+    <t>Aðrir</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jarpur/milli- skjótt  </t>
+  </si>
+  <si>
+    <t>Svanbjörg  Vilbergsdótti</t>
+  </si>
+  <si>
+    <t>Silfurtoppur</t>
+  </si>
+  <si>
+    <t>Silfurtoppur frá Kópavogi</t>
+  </si>
+  <si>
+    <t>IS2014125613</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Vindóttur/mó einlitt  </t>
+  </si>
+  <si>
+    <t>Veronika Osterhammer</t>
+  </si>
+  <si>
+    <t>Blakkur</t>
+  </si>
+  <si>
+    <t>Blakkur frá Brimilsvöllum</t>
+  </si>
+  <si>
+    <t>IS2013137400</t>
+  </si>
+  <si>
+    <t>Snæfellingur</t>
+  </si>
+  <si>
+    <t>2026-02-16T12:00:33.134Z</t>
+  </si>
+  <si>
+    <t>Harpa Kristjánsdóttir</t>
+  </si>
+  <si>
+    <t>Sóley</t>
+  </si>
+  <si>
+    <t>Sóley frá Heiði</t>
+  </si>
+  <si>
+    <t>IS2011286263</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauður/milli- stjörnótt  </t>
+  </si>
+  <si>
+    <t>2026-02-16T13:17:19.919Z</t>
+  </si>
+  <si>
+    <t>Elva Dís Elínardóttir</t>
+  </si>
+  <si>
+    <t>Kristberg</t>
+  </si>
+  <si>
+    <t>Kristberg frá Hellu</t>
+  </si>
+  <si>
+    <t>IS2012186350</t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Barnaflokkur","hond":"V","keppni":"Forkeppni","keppnisgrein":"Tölt T8","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Heiða María Guðjónsdóttir</t>
+  </si>
+  <si>
+    <t>Rún</t>
+  </si>
+  <si>
+    <t>Rún frá Vatnsholti</t>
+  </si>
+  <si>
+    <t>IS2017287524</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bleikur/fífil- stjörnótt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Unglingaflokkur","hond":"V","keppni":"Forkeppni","keppnisgrein":"Tölt T8","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>Lilja Dagmar Hjaltadóttir</t>
+  </si>
+  <si>
+    <t>Vængur</t>
+  </si>
+  <si>
+    <t>Vængur frá Hofi</t>
+  </si>
+  <si>
+    <t>IS2005156111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brúnn/milli- skjótt  </t>
+  </si>
+  <si>
+    <t>[{"flokksteg":"Pollaflokkur","hond":"V","keppni":"Forkeppni","keppnisgrein":"Pollatölt","raslisti_birtur":0}]</t>
+  </si>
+  <si>
+    <t>2026-02-16T13:49:56.538Z</t>
+  </si>
+  <si>
+    <t>Þorgerður Gyða Ásmundsdóttir</t>
+  </si>
+  <si>
+    <t>Hnokki</t>
+  </si>
+  <si>
+    <t>Hnokki frá Áslandi</t>
+  </si>
+  <si>
+    <t>IS2013155652</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:06:06.639Z</t>
+  </si>
+  <si>
+    <t>Gunnar Eyjólfsson</t>
+  </si>
+  <si>
+    <t>Rökkvi</t>
+  </si>
+  <si>
+    <t>Rökkvi frá Litlalandi Ásahreppi</t>
+  </si>
+  <si>
+    <t>IS2018181455</t>
+  </si>
+  <si>
+    <t>Máni</t>
+  </si>
+  <si>
+    <t>Patricia Ladina Hobi</t>
+  </si>
+  <si>
+    <t>Dofri</t>
+  </si>
+  <si>
+    <t>Dofri frá Þjóðólfshaga 1</t>
+  </si>
+  <si>
+    <t>IS2018181811</t>
+  </si>
+  <si>
+    <t>Brimfaxi</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rauður/milli- einlitt  </t>
+  </si>
+  <si>
+    <t>Páll Jóhann Pálsson</t>
+  </si>
+  <si>
+    <t>Dalur</t>
+  </si>
+  <si>
+    <t>Dalur frá Efri-Brúnavöllum I</t>
+  </si>
+  <si>
+    <t>IS2019187976</t>
   </si>
 </sst>
 </file>
@@ -848,61 +1446,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="S1" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -916,34 +1514,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="H2" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="I2" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="N2">
         <v>7.5</v>
@@ -975,34 +1573,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>55</v>
+        <v>122</v>
       </c>
       <c r="F3" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>57</v>
+        <v>124</v>
       </c>
       <c r="I3" t="s">
-        <v>58</v>
+        <v>125</v>
       </c>
       <c r="J3">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>59</v>
+        <v>126</v>
       </c>
       <c r="N3">
         <v>7.6</v>
@@ -1034,34 +1632,34 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F4" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G4" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H4" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="I4" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="N4">
         <v>8.6</v>
@@ -1093,34 +1691,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="F5" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>67</v>
+        <v>134</v>
       </c>
       <c r="I5" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J5">
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>69</v>
+        <v>136</v>
       </c>
       <c r="N5">
         <v>7.4</v>
@@ -1152,34 +1750,34 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>70</v>
+        <v>137</v>
       </c>
       <c r="F6" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G6" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H6" t="s">
-        <v>71</v>
+        <v>138</v>
       </c>
       <c r="I6" t="s">
-        <v>72</v>
+        <v>139</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>73</v>
+        <v>140</v>
       </c>
       <c r="N6">
         <v>6.4</v>
@@ -1211,34 +1809,34 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E7" t="s">
-        <v>74</v>
+        <v>141</v>
       </c>
       <c r="F7" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G7" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H7" t="s">
-        <v>75</v>
+        <v>142</v>
       </c>
       <c r="I7" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J7">
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L7" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>76</v>
+        <v>143</v>
       </c>
       <c r="N7">
         <v>6.8</v>
@@ -1270,34 +1868,34 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E8" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="F8" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G8" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H8" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="I8" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J8">
         <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="L8" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1329,34 +1927,34 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E9" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F9" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G9" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="H9" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="I9" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="L9" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="N9">
         <v>7.9</v>
@@ -1388,34 +1986,34 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E10" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="F10" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G10" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H10" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="I10" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J10">
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="L10" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="N10">
         <v>7.5</v>
@@ -1447,34 +2045,34 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E11" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F11" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G11" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H11" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="I11" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="L11" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="N11">
         <v>8.4</v>
@@ -1506,34 +2104,34 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E12" t="s">
-        <v>93</v>
+        <v>160</v>
       </c>
       <c r="F12" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G12" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="H12" t="s">
-        <v>95</v>
+        <v>162</v>
       </c>
       <c r="I12" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>94</v>
+        <v>161</v>
       </c>
       <c r="L12" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>96</v>
+        <v>163</v>
       </c>
       <c r="N12">
         <v>6.9</v>
@@ -1565,34 +2163,34 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E13" t="s">
-        <v>97</v>
+        <v>164</v>
       </c>
       <c r="F13" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G13" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H13" t="s">
-        <v>98</v>
+        <v>165</v>
       </c>
       <c r="I13" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="L13" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>99</v>
+        <v>166</v>
       </c>
       <c r="N13">
         <v>6.6</v>
@@ -1624,34 +2222,34 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E14" t="s">
-        <v>100</v>
+        <v>167</v>
       </c>
       <c r="F14" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G14" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H14" t="s">
-        <v>101</v>
+        <v>168</v>
       </c>
       <c r="I14" t="s">
-        <v>102</v>
+        <v>169</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="L14" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>103</v>
+        <v>170</v>
       </c>
       <c r="N14">
         <v>7.3</v>
@@ -1683,34 +2281,34 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E15" t="s">
-        <v>104</v>
+        <v>171</v>
       </c>
       <c r="F15" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G15" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H15" t="s">
-        <v>105</v>
+        <v>172</v>
       </c>
       <c r="I15" t="s">
-        <v>106</v>
+        <v>173</v>
       </c>
       <c r="J15">
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="L15" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>107</v>
+        <v>174</v>
       </c>
       <c r="N15">
         <v>7.5</v>
@@ -1742,34 +2340,34 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E16" t="s">
-        <v>108</v>
+        <v>175</v>
       </c>
       <c r="F16" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G16" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H16" t="s">
-        <v>109</v>
+        <v>176</v>
       </c>
       <c r="I16" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="L16" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="N16">
         <v>8.1</v>
@@ -1801,34 +2399,34 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E17" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="F17" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G17" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H17" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="I17" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="J17">
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L17" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="N17">
         <v>7.4</v>
@@ -1860,34 +2458,34 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E18" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="F18" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G18" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="H18" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="I18" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J18">
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="L18" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="N18">
         <v>7.9</v>
@@ -1919,34 +2517,34 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E19" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="F19" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G19" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H19" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="I19" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J19">
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L19" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="N19">
         <v>7.3</v>
@@ -1978,34 +2576,34 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E20" t="s">
-        <v>123</v>
+        <v>190</v>
       </c>
       <c r="F20" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G20" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H20" t="s">
-        <v>124</v>
+        <v>191</v>
       </c>
       <c r="I20" t="s">
-        <v>125</v>
+        <v>192</v>
       </c>
       <c r="J20">
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="L20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>126</v>
+        <v>193</v>
       </c>
       <c r="N20">
         <v>6.9</v>
@@ -2054,106 +2652,106 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="S1" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="T1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="U1" t="s">
-        <v>128</v>
+        <v>195</v>
       </c>
       <c r="V1" t="s">
-        <v>129</v>
+        <v>196</v>
       </c>
       <c r="W1" t="s">
-        <v>130</v>
+        <v>197</v>
       </c>
       <c r="X1" t="s">
-        <v>131</v>
+        <v>198</v>
       </c>
       <c r="Y1" t="s">
-        <v>132</v>
+        <v>199</v>
       </c>
       <c r="Z1" t="s">
-        <v>133</v>
+        <v>200</v>
       </c>
       <c r="AA1" t="s">
-        <v>134</v>
+        <v>201</v>
       </c>
       <c r="AB1" t="s">
-        <v>135</v>
+        <v>202</v>
       </c>
       <c r="AC1" t="s">
-        <v>136</v>
+        <v>203</v>
       </c>
       <c r="AD1" t="s">
-        <v>137</v>
+        <v>204</v>
       </c>
       <c r="AE1" t="s">
-        <v>138</v>
+        <v>205</v>
       </c>
       <c r="AF1" t="s">
-        <v>139</v>
+        <v>206</v>
       </c>
       <c r="AG1" t="s">
-        <v>140</v>
+        <v>207</v>
       </c>
       <c r="AH1" t="s">
-        <v>141</v>
+        <v>208</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -2167,34 +2765,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E2" t="s">
-        <v>120</v>
+        <v>187</v>
       </c>
       <c r="F2" t="s">
-        <v>49</v>
+        <v>117</v>
       </c>
       <c r="G2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H2" t="s">
-        <v>121</v>
+        <v>188</v>
       </c>
       <c r="I2" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J2">
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>122</v>
+        <v>189</v>
       </c>
       <c r="N2">
         <v>7.5</v>
@@ -2271,34 +2869,34 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>77</v>
+        <v>144</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H3" t="s">
-        <v>78</v>
+        <v>145</v>
       </c>
       <c r="I3" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>79</v>
+        <v>146</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>80</v>
+        <v>147</v>
       </c>
       <c r="N3">
         <v>7.5</v>
@@ -2375,34 +2973,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>86</v>
+        <v>153</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="H4" t="s">
-        <v>87</v>
+        <v>154</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J4">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>56</v>
+        <v>123</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>88</v>
+        <v>155</v>
       </c>
       <c r="N4">
         <v>7.5</v>
@@ -2479,34 +3077,34 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>112</v>
+        <v>179</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="G5" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="H5" t="s">
-        <v>113</v>
+        <v>180</v>
       </c>
       <c r="I5" t="s">
-        <v>114</v>
+        <v>181</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>66</v>
+        <v>133</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>115</v>
+        <v>182</v>
       </c>
       <c r="N5">
         <v>7.4</v>
@@ -2583,34 +3181,34 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>48</v>
+        <v>116</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="H6" t="s">
-        <v>51</v>
+        <v>119</v>
       </c>
       <c r="I6" t="s">
-        <v>52</v>
+        <v>120</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>50</v>
+        <v>118</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>54</v>
+        <v>121</v>
       </c>
       <c r="N6">
         <v>7.6</v>
@@ -2684,7 +3282,7 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AH6"/>
+  <dimension ref="A1:BB6"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="6" customWidth="1"/>
@@ -2699,170 +3297,230 @@
     <col min="11" max="11" width="18" customWidth="1"/>
     <col min="12" max="12" width="10" customWidth="1"/>
     <col min="13" max="13" width="28" customWidth="1"/>
-    <col min="14" max="34" width="8" customWidth="1"/>
+    <col min="14" max="54" width="8" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:34" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>28</v>
+        <v>96</v>
       </c>
       <c r="B1" t="s">
-        <v>29</v>
+        <v>97</v>
       </c>
       <c r="C1" t="s">
-        <v>30</v>
+        <v>98</v>
       </c>
       <c r="D1" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="E1" t="s">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="F1" t="s">
-        <v>33</v>
+        <v>101</v>
       </c>
       <c r="G1" t="s">
-        <v>34</v>
+        <v>102</v>
       </c>
       <c r="H1" t="s">
-        <v>35</v>
+        <v>103</v>
       </c>
       <c r="I1" t="s">
-        <v>36</v>
+        <v>104</v>
       </c>
       <c r="J1" t="s">
-        <v>37</v>
+        <v>105</v>
       </c>
       <c r="K1" t="s">
-        <v>38</v>
+        <v>106</v>
       </c>
       <c r="L1" t="s">
-        <v>39</v>
+        <v>107</v>
       </c>
       <c r="M1" t="s">
-        <v>40</v>
+        <v>108</v>
       </c>
       <c r="N1" t="s">
-        <v>41</v>
+        <v>109</v>
       </c>
       <c r="O1" t="s">
-        <v>42</v>
+        <v>110</v>
       </c>
       <c r="P1" t="s">
-        <v>43</v>
+        <v>111</v>
       </c>
       <c r="Q1" t="s">
-        <v>44</v>
+        <v>112</v>
       </c>
       <c r="R1" t="s">
-        <v>45</v>
+        <v>113</v>
       </c>
       <c r="S1" t="s">
-        <v>46</v>
+        <v>114</v>
       </c>
       <c r="T1" t="s">
-        <v>127</v>
+        <v>194</v>
       </c>
       <c r="U1" t="s">
+        <v>195</v>
+      </c>
+      <c r="V1" t="s">
+        <v>196</v>
+      </c>
+      <c r="W1" t="s">
+        <v>197</v>
+      </c>
+      <c r="X1" t="s">
+        <v>198</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>199</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>200</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>201</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>202</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>203</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>204</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>205</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>206</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>207</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>208</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>209</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>210</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>211</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>212</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>213</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>214</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>215</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>216</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>217</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>218</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>219</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>220</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>221</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>222</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>223</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>224</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>225</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>226</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>227</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="2" spans="1:54" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6</v>
+      </c>
+      <c r="C2">
+        <v>1</v>
+      </c>
+      <c r="D2" t="s">
+        <v>115</v>
+      </c>
+      <c r="E2" t="s">
+        <v>175</v>
+      </c>
+      <c r="F2" t="s">
+        <v>117</v>
+      </c>
+      <c r="G2" t="s">
         <v>128</v>
       </c>
-      <c r="V1" t="s">
-        <v>129</v>
-      </c>
-      <c r="W1" t="s">
+      <c r="H2" t="s">
+        <v>176</v>
+      </c>
+      <c r="I2" t="s">
         <v>130</v>
-      </c>
-      <c r="X1" t="s">
-        <v>131</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>132</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>136</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>137</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>138</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>139</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>140</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>141</v>
-      </c>
-    </row>
-    <row r="2" spans="1:34" x14ac:dyDescent="0.25">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>3</v>
-      </c>
-      <c r="C2">
-        <v>1</v>
-      </c>
-      <c r="D2" t="s">
-        <v>47</v>
-      </c>
-      <c r="E2" t="s">
-        <v>108</v>
-      </c>
-      <c r="F2" t="s">
-        <v>49</v>
-      </c>
-      <c r="G2" t="s">
-        <v>61</v>
-      </c>
-      <c r="H2" t="s">
-        <v>109</v>
-      </c>
-      <c r="I2" t="s">
-        <v>63</v>
       </c>
       <c r="J2">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>110</v>
+        <v>177</v>
       </c>
       <c r="L2" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>111</v>
+        <v>178</v>
       </c>
       <c r="N2">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="O2">
-        <v>8.3</v>
+        <v>0</v>
       </c>
       <c r="P2">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="Q2">
-        <v>7.4</v>
+        <v>0</v>
       </c>
       <c r="R2">
-        <v>8.4</v>
+        <v>0</v>
       </c>
       <c r="S2">
-        <v>8.25</v>
+        <v>0</v>
       </c>
       <c r="T2">
         <v>9</v>
@@ -2880,19 +3538,19 @@
         <v>9.5</v>
       </c>
       <c r="Y2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="Z2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AA2">
-        <v>8.5</v>
+        <v>0</v>
       </c>
       <c r="AB2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AC2">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="AD2">
         <v>8</v>
@@ -2909,64 +3567,124 @@
       <c r="AH2">
         <v>7.5</v>
       </c>
-    </row>
-    <row r="3" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI2">
+        <v>0</v>
+      </c>
+      <c r="AJ2">
+        <v>0</v>
+      </c>
+      <c r="AK2">
+        <v>0</v>
+      </c>
+      <c r="AL2">
+        <v>0</v>
+      </c>
+      <c r="AM2">
+        <v>0</v>
+      </c>
+      <c r="AN2">
+        <v>0</v>
+      </c>
+      <c r="AO2">
+        <v>0</v>
+      </c>
+      <c r="AP2">
+        <v>0</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>0</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>0</v>
+      </c>
+      <c r="AY2">
+        <v>0</v>
+      </c>
+      <c r="AZ2">
+        <v>0</v>
+      </c>
+      <c r="BA2">
+        <v>0</v>
+      </c>
+      <c r="BB2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E3" t="s">
-        <v>81</v>
+        <v>148</v>
       </c>
       <c r="F3" t="s">
-        <v>142</v>
+        <v>229</v>
       </c>
       <c r="G3" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="H3" t="s">
-        <v>83</v>
+        <v>150</v>
       </c>
       <c r="I3" t="s">
-        <v>84</v>
+        <v>151</v>
       </c>
       <c r="J3">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>82</v>
+        <v>149</v>
       </c>
       <c r="L3" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>85</v>
+        <v>152</v>
       </c>
       <c r="N3">
-        <v>7.8</v>
+        <v>7</v>
       </c>
       <c r="O3">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="P3">
-        <v>7.8</v>
+        <v>6.7</v>
       </c>
       <c r="Q3">
-        <v>7.4</v>
+        <v>7</v>
       </c>
       <c r="R3">
-        <v>7.6</v>
+        <v>7.2</v>
       </c>
       <c r="S3">
-        <v>7.67</v>
+        <v>6.87</v>
       </c>
       <c r="T3">
         <v>8.5</v>
@@ -2984,19 +3702,19 @@
         <v>8.5</v>
       </c>
       <c r="Y3">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z3">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AA3">
-        <v>7.5</v>
+        <v>6.5</v>
       </c>
       <c r="AB3">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AC3">
-        <v>8</v>
+        <v>6.5</v>
       </c>
       <c r="AD3">
         <v>7</v>
@@ -3013,64 +3731,124 @@
       <c r="AH3">
         <v>7</v>
       </c>
-    </row>
-    <row r="4" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI3">
+        <v>7.5</v>
+      </c>
+      <c r="AJ3">
+        <v>7</v>
+      </c>
+      <c r="AK3">
+        <v>7</v>
+      </c>
+      <c r="AL3">
+        <v>7</v>
+      </c>
+      <c r="AM3">
+        <v>7.5</v>
+      </c>
+      <c r="AN3">
+        <v>7</v>
+      </c>
+      <c r="AO3">
+        <v>7</v>
+      </c>
+      <c r="AP3">
+        <v>7</v>
+      </c>
+      <c r="AQ3">
+        <v>7</v>
+      </c>
+      <c r="AR3">
+        <v>7.5</v>
+      </c>
+      <c r="AS3">
+        <v>6.5</v>
+      </c>
+      <c r="AT3">
+        <v>6.5</v>
+      </c>
+      <c r="AU3">
+        <v>6.5</v>
+      </c>
+      <c r="AV3">
+        <v>7</v>
+      </c>
+      <c r="AW3">
+        <v>7.5</v>
+      </c>
+      <c r="AX3">
+        <v>7</v>
+      </c>
+      <c r="AY3">
+        <v>6.5</v>
+      </c>
+      <c r="AZ3">
+        <v>6.5</v>
+      </c>
+      <c r="BA3">
+        <v>7</v>
+      </c>
+      <c r="BB3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>116</v>
+        <v>183</v>
       </c>
       <c r="F4" t="s">
-        <v>143</v>
+        <v>230</v>
       </c>
       <c r="G4" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="H4" t="s">
-        <v>118</v>
+        <v>185</v>
       </c>
       <c r="I4" t="s">
-        <v>68</v>
+        <v>135</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>117</v>
+        <v>184</v>
       </c>
       <c r="L4" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>119</v>
+        <v>186</v>
       </c>
       <c r="N4">
-        <v>7.8</v>
+        <v>6.6</v>
       </c>
       <c r="O4">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="P4">
-        <v>7.8</v>
+        <v>6.9</v>
       </c>
       <c r="Q4">
-        <v>7.6</v>
+        <v>6.9</v>
       </c>
       <c r="R4">
-        <v>8.4</v>
+        <v>7.1</v>
       </c>
       <c r="S4">
-        <v>7.83</v>
+        <v>6.83</v>
       </c>
       <c r="T4">
         <v>8.5</v>
@@ -3088,19 +3866,19 @@
         <v>9</v>
       </c>
       <c r="Y4">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="Z4">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AA4">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AB4">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AC4">
-        <v>8.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD4">
         <v>7</v>
@@ -3117,64 +3895,124 @@
       <c r="AH4">
         <v>8</v>
       </c>
-    </row>
-    <row r="5" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI4">
+        <v>6.5</v>
+      </c>
+      <c r="AJ4">
+        <v>6.5</v>
+      </c>
+      <c r="AK4">
+        <v>6.5</v>
+      </c>
+      <c r="AL4">
+        <v>6.5</v>
+      </c>
+      <c r="AM4">
+        <v>7</v>
+      </c>
+      <c r="AN4">
+        <v>6.5</v>
+      </c>
+      <c r="AO4">
+        <v>7.5</v>
+      </c>
+      <c r="AP4">
+        <v>7.5</v>
+      </c>
+      <c r="AQ4">
+        <v>7</v>
+      </c>
+      <c r="AR4">
+        <v>8</v>
+      </c>
+      <c r="AS4">
+        <v>6.5</v>
+      </c>
+      <c r="AT4">
+        <v>6.5</v>
+      </c>
+      <c r="AU4">
+        <v>6.5</v>
+      </c>
+      <c r="AV4">
+        <v>7.5</v>
+      </c>
+      <c r="AW4">
+        <v>7</v>
+      </c>
+      <c r="AX4">
+        <v>7</v>
+      </c>
+      <c r="AY4">
+        <v>7</v>
+      </c>
+      <c r="AZ4">
+        <v>7</v>
+      </c>
+      <c r="BA4">
+        <v>7</v>
+      </c>
+      <c r="BB4">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="5" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E5" t="s">
-        <v>89</v>
+        <v>156</v>
       </c>
       <c r="F5" t="s">
-        <v>144</v>
+        <v>231</v>
       </c>
       <c r="G5" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H5" t="s">
-        <v>90</v>
+        <v>157</v>
       </c>
       <c r="I5" t="s">
-        <v>91</v>
+        <v>158</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="L5" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>92</v>
+        <v>159</v>
       </c>
       <c r="N5">
-        <v>8.3</v>
+        <v>5.4</v>
       </c>
       <c r="O5">
-        <v>8.4</v>
+        <v>5.5</v>
       </c>
       <c r="P5">
-        <v>8.3</v>
+        <v>5.8</v>
       </c>
       <c r="Q5">
-        <v>8.3</v>
+        <v>5.5</v>
       </c>
       <c r="R5">
-        <v>8.5</v>
+        <v>5.3</v>
       </c>
       <c r="S5">
-        <v>8.38</v>
+        <v>5.47</v>
       </c>
       <c r="T5">
         <v>8.5</v>
@@ -3192,19 +4030,19 @@
         <v>8.5</v>
       </c>
       <c r="Y5">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="Z5">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AA5">
         <v>7.5</v>
       </c>
       <c r="AB5">
-        <v>7.5</v>
+        <v>7</v>
       </c>
       <c r="AC5">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="AD5">
         <v>8</v>
@@ -3221,64 +4059,124 @@
       <c r="AH5">
         <v>8.5</v>
       </c>
-    </row>
-    <row r="6" spans="1:34" x14ac:dyDescent="0.25">
+      <c r="AI5">
+        <v>6.5</v>
+      </c>
+      <c r="AJ5">
+        <v>6.5</v>
+      </c>
+      <c r="AK5">
+        <v>7.5</v>
+      </c>
+      <c r="AL5">
+        <v>6.5</v>
+      </c>
+      <c r="AM5">
+        <v>6</v>
+      </c>
+      <c r="AN5">
+        <v>7</v>
+      </c>
+      <c r="AO5">
+        <v>6.5</v>
+      </c>
+      <c r="AP5">
+        <v>7</v>
+      </c>
+      <c r="AQ5">
+        <v>6.5</v>
+      </c>
+      <c r="AR5">
+        <v>7</v>
+      </c>
+      <c r="AS5">
+        <v>0</v>
+      </c>
+      <c r="AT5">
+        <v>0</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>6.5</v>
+      </c>
+      <c r="AY5">
+        <v>7.5</v>
+      </c>
+      <c r="AZ5">
+        <v>7</v>
+      </c>
+      <c r="BA5">
+        <v>7.5</v>
+      </c>
+      <c r="BB5">
+        <v>6.5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>47</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>60</v>
+        <v>127</v>
       </c>
       <c r="F6" t="s">
-        <v>145</v>
+        <v>232</v>
       </c>
       <c r="G6" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="H6" t="s">
-        <v>62</v>
+        <v>129</v>
       </c>
       <c r="I6" t="s">
-        <v>63</v>
+        <v>130</v>
       </c>
       <c r="J6">
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>61</v>
+        <v>128</v>
       </c>
       <c r="L6" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>64</v>
+        <v>131</v>
       </c>
       <c r="N6">
-        <v>8.6</v>
+        <v>6.9</v>
       </c>
       <c r="O6">
-        <v>8.8</v>
+        <v>6.8</v>
       </c>
       <c r="P6">
-        <v>8.6</v>
+        <v>6.8</v>
       </c>
       <c r="Q6">
-        <v>8.3</v>
+        <v>6.9</v>
       </c>
       <c r="R6">
-        <v>8.9</v>
+        <v>6.7</v>
       </c>
       <c r="S6">
-        <v>8.71</v>
+        <v>6.83</v>
       </c>
       <c r="T6">
         <v>9</v>
@@ -3296,19 +4194,19 @@
         <v>9</v>
       </c>
       <c r="Y6">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="Z6">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AA6">
-        <v>9</v>
+        <v>7.5</v>
       </c>
       <c r="AB6">
-        <v>9.5</v>
+        <v>7</v>
       </c>
       <c r="AC6">
-        <v>9.5</v>
+        <v>6.5</v>
       </c>
       <c r="AD6">
         <v>8</v>
@@ -3324,6 +4222,66 @@
       </c>
       <c r="AH6">
         <v>8.5</v>
+      </c>
+      <c r="AI6">
+        <v>7</v>
+      </c>
+      <c r="AJ6">
+        <v>6.5</v>
+      </c>
+      <c r="AK6">
+        <v>7</v>
+      </c>
+      <c r="AL6">
+        <v>6.5</v>
+      </c>
+      <c r="AM6">
+        <v>6.5</v>
+      </c>
+      <c r="AN6">
+        <v>6.5</v>
+      </c>
+      <c r="AO6">
+        <v>6.5</v>
+      </c>
+      <c r="AP6">
+        <v>7</v>
+      </c>
+      <c r="AQ6">
+        <v>7</v>
+      </c>
+      <c r="AR6">
+        <v>6.5</v>
+      </c>
+      <c r="AS6">
+        <v>6.5</v>
+      </c>
+      <c r="AT6">
+        <v>7</v>
+      </c>
+      <c r="AU6">
+        <v>6.5</v>
+      </c>
+      <c r="AV6">
+        <v>6.5</v>
+      </c>
+      <c r="AW6">
+        <v>6.5</v>
+      </c>
+      <c r="AX6">
+        <v>7.5</v>
+      </c>
+      <c r="AY6">
+        <v>7</v>
+      </c>
+      <c r="AZ6">
+        <v>6</v>
+      </c>
+      <c r="BA6">
+        <v>7.5</v>
+      </c>
+      <c r="BB6">
+        <v>7.5</v>
       </c>
     </row>
   </sheetData>
@@ -3334,7 +4292,2150 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G14"/>
+  <dimension ref="A1:M52"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>233</v>
+      </c>
+      <c r="D1" t="s">
+        <v>234</v>
+      </c>
+      <c r="E1" t="s">
+        <v>235</v>
+      </c>
+      <c r="F1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G1" t="s">
+        <v>237</v>
+      </c>
+      <c r="H1" t="s">
+        <v>238</v>
+      </c>
+      <c r="I1" t="s">
+        <v>239</v>
+      </c>
+      <c r="J1" t="s">
+        <v>240</v>
+      </c>
+      <c r="K1" t="s">
+        <v>241</v>
+      </c>
+      <c r="L1" t="s">
+        <v>242</v>
+      </c>
+      <c r="M1" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>244</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+      <c r="C2">
+        <v>545551</v>
+      </c>
+      <c r="D2" t="s">
+        <v>245</v>
+      </c>
+      <c r="E2" t="s">
+        <v>246</v>
+      </c>
+      <c r="F2" t="s">
+        <v>247</v>
+      </c>
+      <c r="G2" t="s">
+        <v>248</v>
+      </c>
+      <c r="H2" t="s">
+        <v>249</v>
+      </c>
+      <c r="I2" t="s">
+        <v>249</v>
+      </c>
+      <c r="J2" t="s">
+        <v>250</v>
+      </c>
+      <c r="K2" t="s">
+        <v>44</v>
+      </c>
+      <c r="L2" t="s">
+        <v>44</v>
+      </c>
+      <c r="M2" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>244</v>
+      </c>
+      <c r="B3" t="s">
+        <v>43</v>
+      </c>
+      <c r="C3">
+        <v>545550</v>
+      </c>
+      <c r="D3" t="s">
+        <v>252</v>
+      </c>
+      <c r="E3" t="s">
+        <v>253</v>
+      </c>
+      <c r="F3" t="s">
+        <v>254</v>
+      </c>
+      <c r="G3" t="s">
+        <v>255</v>
+      </c>
+      <c r="H3" t="s">
+        <v>249</v>
+      </c>
+      <c r="I3" t="s">
+        <v>249</v>
+      </c>
+      <c r="J3" t="s">
+        <v>256</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>244</v>
+      </c>
+      <c r="B4" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4">
+        <v>545640</v>
+      </c>
+      <c r="D4" t="s">
+        <v>257</v>
+      </c>
+      <c r="E4" t="s">
+        <v>258</v>
+      </c>
+      <c r="F4" t="s">
+        <v>259</v>
+      </c>
+      <c r="G4" t="s">
+        <v>260</v>
+      </c>
+      <c r="H4" t="s">
+        <v>161</v>
+      </c>
+      <c r="I4" t="s">
+        <v>161</v>
+      </c>
+      <c r="J4" t="s">
+        <v>261</v>
+      </c>
+      <c r="K4" t="s">
+        <v>44</v>
+      </c>
+      <c r="L4" t="s">
+        <v>44</v>
+      </c>
+      <c r="M4" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>244</v>
+      </c>
+      <c r="B5" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5">
+        <v>545572</v>
+      </c>
+      <c r="D5" t="s">
+        <v>262</v>
+      </c>
+      <c r="E5" t="s">
+        <v>263</v>
+      </c>
+      <c r="F5" t="s">
+        <v>264</v>
+      </c>
+      <c r="G5" t="s">
+        <v>265</v>
+      </c>
+      <c r="H5" t="s">
+        <v>128</v>
+      </c>
+      <c r="I5" t="s">
+        <v>128</v>
+      </c>
+      <c r="J5" t="s">
+        <v>266</v>
+      </c>
+      <c r="K5" t="s">
+        <v>44</v>
+      </c>
+      <c r="L5" t="s">
+        <v>44</v>
+      </c>
+      <c r="M5" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>244</v>
+      </c>
+      <c r="B6" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6">
+        <v>545571</v>
+      </c>
+      <c r="D6" t="s">
+        <v>267</v>
+      </c>
+      <c r="E6" t="s">
+        <v>268</v>
+      </c>
+      <c r="F6" t="s">
+        <v>269</v>
+      </c>
+      <c r="G6" t="s">
+        <v>270</v>
+      </c>
+      <c r="H6" t="s">
+        <v>128</v>
+      </c>
+      <c r="I6" t="s">
+        <v>128</v>
+      </c>
+      <c r="J6" t="s">
+        <v>271</v>
+      </c>
+      <c r="K6" t="s">
+        <v>44</v>
+      </c>
+      <c r="L6" t="s">
+        <v>44</v>
+      </c>
+      <c r="M6" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>244</v>
+      </c>
+      <c r="B7" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7">
+        <v>545618</v>
+      </c>
+      <c r="D7" t="s">
+        <v>273</v>
+      </c>
+      <c r="E7" t="s">
+        <v>274</v>
+      </c>
+      <c r="F7" t="s">
+        <v>275</v>
+      </c>
+      <c r="G7" t="s">
+        <v>276</v>
+      </c>
+      <c r="H7" t="s">
+        <v>133</v>
+      </c>
+      <c r="I7" t="s">
+        <v>133</v>
+      </c>
+      <c r="J7" t="s">
+        <v>277</v>
+      </c>
+      <c r="K7" t="s">
+        <v>44</v>
+      </c>
+      <c r="L7" t="s">
+        <v>44</v>
+      </c>
+      <c r="M7" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>244</v>
+      </c>
+      <c r="B8" t="s">
+        <v>43</v>
+      </c>
+      <c r="C8">
+        <v>545573</v>
+      </c>
+      <c r="D8" t="s">
+        <v>278</v>
+      </c>
+      <c r="E8" t="s">
+        <v>279</v>
+      </c>
+      <c r="F8" t="s">
+        <v>280</v>
+      </c>
+      <c r="G8" t="s">
+        <v>281</v>
+      </c>
+      <c r="H8" t="s">
+        <v>128</v>
+      </c>
+      <c r="I8" t="s">
+        <v>128</v>
+      </c>
+      <c r="J8" t="s">
+        <v>282</v>
+      </c>
+      <c r="K8" t="s">
+        <v>44</v>
+      </c>
+      <c r="L8" t="s">
+        <v>44</v>
+      </c>
+      <c r="M8" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>244</v>
+      </c>
+      <c r="B9" t="s">
+        <v>43</v>
+      </c>
+      <c r="C9">
+        <v>545433</v>
+      </c>
+      <c r="D9" t="s">
+        <v>283</v>
+      </c>
+      <c r="E9" t="s">
+        <v>284</v>
+      </c>
+      <c r="F9" t="s">
+        <v>285</v>
+      </c>
+      <c r="G9" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" t="s">
+        <v>287</v>
+      </c>
+      <c r="I9" t="s">
+        <v>288</v>
+      </c>
+      <c r="J9" t="s">
+        <v>289</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>244</v>
+      </c>
+      <c r="B10" t="s">
+        <v>43</v>
+      </c>
+      <c r="C10">
+        <v>545603</v>
+      </c>
+      <c r="D10" t="s">
+        <v>290</v>
+      </c>
+      <c r="E10" t="s">
+        <v>291</v>
+      </c>
+      <c r="F10" t="s">
+        <v>292</v>
+      </c>
+      <c r="G10" t="s">
+        <v>293</v>
+      </c>
+      <c r="H10" t="s">
+        <v>123</v>
+      </c>
+      <c r="I10" t="s">
+        <v>123</v>
+      </c>
+      <c r="J10" t="s">
+        <v>294</v>
+      </c>
+      <c r="K10" t="s">
+        <v>44</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>244</v>
+      </c>
+      <c r="B11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C11">
+        <v>545548</v>
+      </c>
+      <c r="D11" t="s">
+        <v>295</v>
+      </c>
+      <c r="E11" t="s">
+        <v>296</v>
+      </c>
+      <c r="F11" t="s">
+        <v>297</v>
+      </c>
+      <c r="G11" t="s">
+        <v>298</v>
+      </c>
+      <c r="H11" t="s">
+        <v>299</v>
+      </c>
+      <c r="I11" t="s">
+        <v>299</v>
+      </c>
+      <c r="J11" t="s">
+        <v>282</v>
+      </c>
+      <c r="K11" t="s">
+        <v>44</v>
+      </c>
+      <c r="L11" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>300</v>
+      </c>
+      <c r="B12" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12">
+        <v>545551</v>
+      </c>
+      <c r="D12" t="s">
+        <v>245</v>
+      </c>
+      <c r="E12" t="s">
+        <v>246</v>
+      </c>
+      <c r="F12" t="s">
+        <v>247</v>
+      </c>
+      <c r="G12" t="s">
+        <v>248</v>
+      </c>
+      <c r="H12" t="s">
+        <v>249</v>
+      </c>
+      <c r="I12" t="s">
+        <v>249</v>
+      </c>
+      <c r="J12" t="s">
+        <v>250</v>
+      </c>
+      <c r="K12" t="s">
+        <v>44</v>
+      </c>
+      <c r="L12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>300</v>
+      </c>
+      <c r="B13" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13">
+        <v>545550</v>
+      </c>
+      <c r="D13" t="s">
+        <v>252</v>
+      </c>
+      <c r="E13" t="s">
+        <v>253</v>
+      </c>
+      <c r="F13" t="s">
+        <v>254</v>
+      </c>
+      <c r="G13" t="s">
+        <v>255</v>
+      </c>
+      <c r="H13" t="s">
+        <v>249</v>
+      </c>
+      <c r="I13" t="s">
+        <v>249</v>
+      </c>
+      <c r="J13" t="s">
+        <v>256</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>300</v>
+      </c>
+      <c r="B14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C14">
+        <v>545640</v>
+      </c>
+      <c r="D14" t="s">
+        <v>257</v>
+      </c>
+      <c r="E14" t="s">
+        <v>258</v>
+      </c>
+      <c r="F14" t="s">
+        <v>259</v>
+      </c>
+      <c r="G14" t="s">
+        <v>260</v>
+      </c>
+      <c r="H14" t="s">
+        <v>161</v>
+      </c>
+      <c r="I14" t="s">
+        <v>161</v>
+      </c>
+      <c r="J14" t="s">
+        <v>261</v>
+      </c>
+      <c r="K14" t="s">
+        <v>44</v>
+      </c>
+      <c r="L14" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>300</v>
+      </c>
+      <c r="B15" t="s">
+        <v>43</v>
+      </c>
+      <c r="C15">
+        <v>545572</v>
+      </c>
+      <c r="D15" t="s">
+        <v>262</v>
+      </c>
+      <c r="E15" t="s">
+        <v>263</v>
+      </c>
+      <c r="F15" t="s">
+        <v>264</v>
+      </c>
+      <c r="G15" t="s">
+        <v>265</v>
+      </c>
+      <c r="H15" t="s">
+        <v>128</v>
+      </c>
+      <c r="I15" t="s">
+        <v>128</v>
+      </c>
+      <c r="J15" t="s">
+        <v>266</v>
+      </c>
+      <c r="K15" t="s">
+        <v>44</v>
+      </c>
+      <c r="L15" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>300</v>
+      </c>
+      <c r="B16" t="s">
+        <v>43</v>
+      </c>
+      <c r="C16">
+        <v>545571</v>
+      </c>
+      <c r="D16" t="s">
+        <v>267</v>
+      </c>
+      <c r="E16" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" t="s">
+        <v>269</v>
+      </c>
+      <c r="G16" t="s">
+        <v>270</v>
+      </c>
+      <c r="H16" t="s">
+        <v>128</v>
+      </c>
+      <c r="I16" t="s">
+        <v>128</v>
+      </c>
+      <c r="J16" t="s">
+        <v>271</v>
+      </c>
+      <c r="K16" t="s">
+        <v>44</v>
+      </c>
+      <c r="L16" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>300</v>
+      </c>
+      <c r="B17" t="s">
+        <v>43</v>
+      </c>
+      <c r="C17">
+        <v>545619</v>
+      </c>
+      <c r="D17" t="s">
+        <v>301</v>
+      </c>
+      <c r="E17" t="s">
+        <v>302</v>
+      </c>
+      <c r="F17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G17" t="s">
+        <v>304</v>
+      </c>
+      <c r="H17" t="s">
+        <v>146</v>
+      </c>
+      <c r="I17" t="s">
+        <v>146</v>
+      </c>
+      <c r="J17" t="s">
+        <v>305</v>
+      </c>
+      <c r="K17" t="s">
+        <v>44</v>
+      </c>
+      <c r="L17" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>300</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18">
+        <v>545618</v>
+      </c>
+      <c r="D18" t="s">
+        <v>273</v>
+      </c>
+      <c r="E18" t="s">
+        <v>274</v>
+      </c>
+      <c r="F18" t="s">
+        <v>275</v>
+      </c>
+      <c r="G18" t="s">
+        <v>276</v>
+      </c>
+      <c r="H18" t="s">
+        <v>133</v>
+      </c>
+      <c r="I18" t="s">
+        <v>133</v>
+      </c>
+      <c r="J18" t="s">
+        <v>277</v>
+      </c>
+      <c r="K18" t="s">
+        <v>44</v>
+      </c>
+      <c r="L18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>300</v>
+      </c>
+      <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19">
+        <v>545573</v>
+      </c>
+      <c r="D19" t="s">
+        <v>278</v>
+      </c>
+      <c r="E19" t="s">
+        <v>279</v>
+      </c>
+      <c r="F19" t="s">
+        <v>280</v>
+      </c>
+      <c r="G19" t="s">
+        <v>281</v>
+      </c>
+      <c r="H19" t="s">
+        <v>128</v>
+      </c>
+      <c r="I19" t="s">
+        <v>128</v>
+      </c>
+      <c r="J19" t="s">
+        <v>282</v>
+      </c>
+      <c r="K19" t="s">
+        <v>44</v>
+      </c>
+      <c r="L19" t="s">
+        <v>44</v>
+      </c>
+      <c r="M19" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>300</v>
+      </c>
+      <c r="B20" t="s">
+        <v>43</v>
+      </c>
+      <c r="C20">
+        <v>545433</v>
+      </c>
+      <c r="D20" t="s">
+        <v>283</v>
+      </c>
+      <c r="E20" t="s">
+        <v>284</v>
+      </c>
+      <c r="F20" t="s">
+        <v>285</v>
+      </c>
+      <c r="G20" t="s">
+        <v>286</v>
+      </c>
+      <c r="H20" t="s">
+        <v>287</v>
+      </c>
+      <c r="I20" t="s">
+        <v>288</v>
+      </c>
+      <c r="J20" t="s">
+        <v>289</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>300</v>
+      </c>
+      <c r="B21" t="s">
+        <v>43</v>
+      </c>
+      <c r="C21">
+        <v>545603</v>
+      </c>
+      <c r="D21" t="s">
+        <v>290</v>
+      </c>
+      <c r="E21" t="s">
+        <v>291</v>
+      </c>
+      <c r="F21" t="s">
+        <v>292</v>
+      </c>
+      <c r="G21" t="s">
+        <v>293</v>
+      </c>
+      <c r="H21" t="s">
+        <v>123</v>
+      </c>
+      <c r="I21" t="s">
+        <v>123</v>
+      </c>
+      <c r="J21" t="s">
+        <v>294</v>
+      </c>
+      <c r="K21" t="s">
+        <v>44</v>
+      </c>
+      <c r="L21" t="s">
+        <v>44</v>
+      </c>
+      <c r="M21" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>300</v>
+      </c>
+      <c r="B22" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22">
+        <v>545548</v>
+      </c>
+      <c r="D22" t="s">
+        <v>295</v>
+      </c>
+      <c r="E22" t="s">
+        <v>296</v>
+      </c>
+      <c r="F22" t="s">
+        <v>297</v>
+      </c>
+      <c r="G22" t="s">
+        <v>298</v>
+      </c>
+      <c r="H22" t="s">
+        <v>299</v>
+      </c>
+      <c r="I22" t="s">
+        <v>299</v>
+      </c>
+      <c r="J22" t="s">
+        <v>282</v>
+      </c>
+      <c r="K22" t="s">
+        <v>44</v>
+      </c>
+      <c r="L22" t="s">
+        <v>44</v>
+      </c>
+      <c r="M22" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>306</v>
+      </c>
+      <c r="B23" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23">
+        <v>545410</v>
+      </c>
+      <c r="D23" t="s">
+        <v>307</v>
+      </c>
+      <c r="E23" t="s">
+        <v>308</v>
+      </c>
+      <c r="F23" t="s">
+        <v>309</v>
+      </c>
+      <c r="G23" t="s">
+        <v>310</v>
+      </c>
+      <c r="H23" t="s">
+        <v>123</v>
+      </c>
+      <c r="I23" t="s">
+        <v>123</v>
+      </c>
+      <c r="J23" t="s">
+        <v>277</v>
+      </c>
+      <c r="K23" t="s">
+        <v>44</v>
+      </c>
+      <c r="L23" t="s">
+        <v>44</v>
+      </c>
+      <c r="M23" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>306</v>
+      </c>
+      <c r="B24" t="s">
+        <v>69</v>
+      </c>
+      <c r="C24">
+        <v>545642</v>
+      </c>
+      <c r="D24" t="s">
+        <v>312</v>
+      </c>
+      <c r="E24" t="s">
+        <v>313</v>
+      </c>
+      <c r="F24" t="s">
+        <v>314</v>
+      </c>
+      <c r="G24" t="s">
+        <v>315</v>
+      </c>
+      <c r="H24" t="s">
+        <v>287</v>
+      </c>
+      <c r="I24" t="s">
+        <v>123</v>
+      </c>
+      <c r="J24" t="s">
+        <v>316</v>
+      </c>
+      <c r="K24" t="s">
+        <v>44</v>
+      </c>
+      <c r="L24" t="s">
+        <v>44</v>
+      </c>
+      <c r="M24" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>306</v>
+      </c>
+      <c r="B25" t="s">
+        <v>69</v>
+      </c>
+      <c r="C25">
+        <v>545549</v>
+      </c>
+      <c r="D25" t="s">
+        <v>318</v>
+      </c>
+      <c r="E25" t="s">
+        <v>319</v>
+      </c>
+      <c r="F25" t="s">
+        <v>320</v>
+      </c>
+      <c r="G25" t="s">
+        <v>321</v>
+      </c>
+      <c r="H25" t="s">
+        <v>123</v>
+      </c>
+      <c r="I25" t="s">
+        <v>123</v>
+      </c>
+      <c r="J25" t="s">
+        <v>322</v>
+      </c>
+      <c r="K25" t="s">
+        <v>44</v>
+      </c>
+      <c r="L25" t="s">
+        <v>44</v>
+      </c>
+      <c r="M25" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>324</v>
+      </c>
+      <c r="B26" t="s">
+        <v>43</v>
+      </c>
+      <c r="C26">
+        <v>545551</v>
+      </c>
+      <c r="D26" t="s">
+        <v>245</v>
+      </c>
+      <c r="E26" t="s">
+        <v>246</v>
+      </c>
+      <c r="F26" t="s">
+        <v>247</v>
+      </c>
+      <c r="G26" t="s">
+        <v>248</v>
+      </c>
+      <c r="H26" t="s">
+        <v>249</v>
+      </c>
+      <c r="I26" t="s">
+        <v>249</v>
+      </c>
+      <c r="J26" t="s">
+        <v>250</v>
+      </c>
+      <c r="K26" t="s">
+        <v>44</v>
+      </c>
+      <c r="L26" t="s">
+        <v>44</v>
+      </c>
+      <c r="M26" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>324</v>
+      </c>
+      <c r="B27" t="s">
+        <v>43</v>
+      </c>
+      <c r="C27">
+        <v>545550</v>
+      </c>
+      <c r="D27" t="s">
+        <v>252</v>
+      </c>
+      <c r="E27" t="s">
+        <v>253</v>
+      </c>
+      <c r="F27" t="s">
+        <v>254</v>
+      </c>
+      <c r="G27" t="s">
+        <v>255</v>
+      </c>
+      <c r="H27" t="s">
+        <v>249</v>
+      </c>
+      <c r="I27" t="s">
+        <v>249</v>
+      </c>
+      <c r="J27" t="s">
+        <v>256</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>324</v>
+      </c>
+      <c r="B28" t="s">
+        <v>43</v>
+      </c>
+      <c r="C28">
+        <v>545640</v>
+      </c>
+      <c r="D28" t="s">
+        <v>257</v>
+      </c>
+      <c r="E28" t="s">
+        <v>258</v>
+      </c>
+      <c r="F28" t="s">
+        <v>259</v>
+      </c>
+      <c r="G28" t="s">
+        <v>260</v>
+      </c>
+      <c r="H28" t="s">
+        <v>161</v>
+      </c>
+      <c r="I28" t="s">
+        <v>161</v>
+      </c>
+      <c r="J28" t="s">
+        <v>261</v>
+      </c>
+      <c r="K28" t="s">
+        <v>44</v>
+      </c>
+      <c r="L28" t="s">
+        <v>44</v>
+      </c>
+      <c r="M28" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>324</v>
+      </c>
+      <c r="B29" t="s">
+        <v>43</v>
+      </c>
+      <c r="C29">
+        <v>545572</v>
+      </c>
+      <c r="D29" t="s">
+        <v>262</v>
+      </c>
+      <c r="E29" t="s">
+        <v>263</v>
+      </c>
+      <c r="F29" t="s">
+        <v>264</v>
+      </c>
+      <c r="G29" t="s">
+        <v>265</v>
+      </c>
+      <c r="H29" t="s">
+        <v>128</v>
+      </c>
+      <c r="I29" t="s">
+        <v>128</v>
+      </c>
+      <c r="J29" t="s">
+        <v>266</v>
+      </c>
+      <c r="K29" t="s">
+        <v>44</v>
+      </c>
+      <c r="L29" t="s">
+        <v>44</v>
+      </c>
+      <c r="M29" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>324</v>
+      </c>
+      <c r="B30" t="s">
+        <v>43</v>
+      </c>
+      <c r="C30">
+        <v>545571</v>
+      </c>
+      <c r="D30" t="s">
+        <v>267</v>
+      </c>
+      <c r="E30" t="s">
+        <v>268</v>
+      </c>
+      <c r="F30" t="s">
+        <v>269</v>
+      </c>
+      <c r="G30" t="s">
+        <v>270</v>
+      </c>
+      <c r="H30" t="s">
+        <v>128</v>
+      </c>
+      <c r="I30" t="s">
+        <v>128</v>
+      </c>
+      <c r="J30" t="s">
+        <v>271</v>
+      </c>
+      <c r="K30" t="s">
+        <v>44</v>
+      </c>
+      <c r="L30" t="s">
+        <v>44</v>
+      </c>
+      <c r="M30" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>324</v>
+      </c>
+      <c r="B31" t="s">
+        <v>43</v>
+      </c>
+      <c r="C31">
+        <v>545619</v>
+      </c>
+      <c r="D31" t="s">
+        <v>301</v>
+      </c>
+      <c r="E31" t="s">
+        <v>302</v>
+      </c>
+      <c r="F31" t="s">
+        <v>303</v>
+      </c>
+      <c r="G31" t="s">
+        <v>304</v>
+      </c>
+      <c r="H31" t="s">
+        <v>146</v>
+      </c>
+      <c r="I31" t="s">
+        <v>146</v>
+      </c>
+      <c r="J31" t="s">
+        <v>305</v>
+      </c>
+      <c r="K31" t="s">
+        <v>44</v>
+      </c>
+      <c r="L31" t="s">
+        <v>44</v>
+      </c>
+      <c r="M31" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>324</v>
+      </c>
+      <c r="B32" t="s">
+        <v>43</v>
+      </c>
+      <c r="C32">
+        <v>545618</v>
+      </c>
+      <c r="D32" t="s">
+        <v>273</v>
+      </c>
+      <c r="E32" t="s">
+        <v>274</v>
+      </c>
+      <c r="F32" t="s">
+        <v>275</v>
+      </c>
+      <c r="G32" t="s">
+        <v>276</v>
+      </c>
+      <c r="H32" t="s">
+        <v>133</v>
+      </c>
+      <c r="I32" t="s">
+        <v>133</v>
+      </c>
+      <c r="J32" t="s">
+        <v>277</v>
+      </c>
+      <c r="K32" t="s">
+        <v>44</v>
+      </c>
+      <c r="L32" t="s">
+        <v>44</v>
+      </c>
+      <c r="M32" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>324</v>
+      </c>
+      <c r="B33" t="s">
+        <v>43</v>
+      </c>
+      <c r="C33">
+        <v>545573</v>
+      </c>
+      <c r="D33" t="s">
+        <v>278</v>
+      </c>
+      <c r="E33" t="s">
+        <v>279</v>
+      </c>
+      <c r="F33" t="s">
+        <v>280</v>
+      </c>
+      <c r="G33" t="s">
+        <v>281</v>
+      </c>
+      <c r="H33" t="s">
+        <v>128</v>
+      </c>
+      <c r="I33" t="s">
+        <v>128</v>
+      </c>
+      <c r="J33" t="s">
+        <v>282</v>
+      </c>
+      <c r="K33" t="s">
+        <v>44</v>
+      </c>
+      <c r="L33" t="s">
+        <v>44</v>
+      </c>
+      <c r="M33" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>324</v>
+      </c>
+      <c r="B34" t="s">
+        <v>43</v>
+      </c>
+      <c r="C34">
+        <v>545433</v>
+      </c>
+      <c r="D34" t="s">
+        <v>283</v>
+      </c>
+      <c r="E34" t="s">
+        <v>284</v>
+      </c>
+      <c r="F34" t="s">
+        <v>285</v>
+      </c>
+      <c r="G34" t="s">
+        <v>286</v>
+      </c>
+      <c r="H34" t="s">
+        <v>287</v>
+      </c>
+      <c r="I34" t="s">
+        <v>288</v>
+      </c>
+      <c r="J34" t="s">
+        <v>289</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>324</v>
+      </c>
+      <c r="B35" t="s">
+        <v>43</v>
+      </c>
+      <c r="C35">
+        <v>545603</v>
+      </c>
+      <c r="D35" t="s">
+        <v>290</v>
+      </c>
+      <c r="E35" t="s">
+        <v>291</v>
+      </c>
+      <c r="F35" t="s">
+        <v>292</v>
+      </c>
+      <c r="G35" t="s">
+        <v>293</v>
+      </c>
+      <c r="H35" t="s">
+        <v>123</v>
+      </c>
+      <c r="I35" t="s">
+        <v>123</v>
+      </c>
+      <c r="J35" t="s">
+        <v>294</v>
+      </c>
+      <c r="K35" t="s">
+        <v>44</v>
+      </c>
+      <c r="L35" t="s">
+        <v>44</v>
+      </c>
+      <c r="M35" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>324</v>
+      </c>
+      <c r="B36" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36">
+        <v>545548</v>
+      </c>
+      <c r="D36" t="s">
+        <v>295</v>
+      </c>
+      <c r="E36" t="s">
+        <v>296</v>
+      </c>
+      <c r="F36" t="s">
+        <v>297</v>
+      </c>
+      <c r="G36" t="s">
+        <v>298</v>
+      </c>
+      <c r="H36" t="s">
+        <v>299</v>
+      </c>
+      <c r="I36" t="s">
+        <v>299</v>
+      </c>
+      <c r="J36" t="s">
+        <v>282</v>
+      </c>
+      <c r="K36" t="s">
+        <v>44</v>
+      </c>
+      <c r="L36" t="s">
+        <v>44</v>
+      </c>
+      <c r="M36" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>324</v>
+      </c>
+      <c r="B37" t="s">
+        <v>43</v>
+      </c>
+      <c r="C37">
+        <v>545648</v>
+      </c>
+      <c r="D37" t="s">
+        <v>325</v>
+      </c>
+      <c r="E37" t="s">
+        <v>326</v>
+      </c>
+      <c r="F37" t="s">
+        <v>327</v>
+      </c>
+      <c r="G37" t="s">
+        <v>328</v>
+      </c>
+      <c r="H37" t="s">
+        <v>161</v>
+      </c>
+      <c r="I37" t="s">
+        <v>161</v>
+      </c>
+      <c r="J37" t="s">
+        <v>277</v>
+      </c>
+      <c r="K37" t="s">
+        <v>44</v>
+      </c>
+      <c r="L37" t="s">
+        <v>44</v>
+      </c>
+      <c r="M37" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="38" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>329</v>
+      </c>
+      <c r="B38" t="s">
+        <v>43</v>
+      </c>
+      <c r="C38">
+        <v>545551</v>
+      </c>
+      <c r="D38" t="s">
+        <v>245</v>
+      </c>
+      <c r="E38" t="s">
+        <v>246</v>
+      </c>
+      <c r="F38" t="s">
+        <v>247</v>
+      </c>
+      <c r="G38" t="s">
+        <v>248</v>
+      </c>
+      <c r="H38" t="s">
+        <v>249</v>
+      </c>
+      <c r="I38" t="s">
+        <v>249</v>
+      </c>
+      <c r="J38" t="s">
+        <v>250</v>
+      </c>
+      <c r="K38" t="s">
+        <v>44</v>
+      </c>
+      <c r="L38" t="s">
+        <v>44</v>
+      </c>
+      <c r="M38" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="39" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>329</v>
+      </c>
+      <c r="B39" t="s">
+        <v>43</v>
+      </c>
+      <c r="C39">
+        <v>545550</v>
+      </c>
+      <c r="D39" t="s">
+        <v>252</v>
+      </c>
+      <c r="E39" t="s">
+        <v>253</v>
+      </c>
+      <c r="F39" t="s">
+        <v>254</v>
+      </c>
+      <c r="G39" t="s">
+        <v>255</v>
+      </c>
+      <c r="H39" t="s">
+        <v>249</v>
+      </c>
+      <c r="I39" t="s">
+        <v>249</v>
+      </c>
+      <c r="J39" t="s">
+        <v>256</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="40" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>329</v>
+      </c>
+      <c r="B40" t="s">
+        <v>43</v>
+      </c>
+      <c r="C40">
+        <v>545640</v>
+      </c>
+      <c r="D40" t="s">
+        <v>257</v>
+      </c>
+      <c r="E40" t="s">
+        <v>258</v>
+      </c>
+      <c r="F40" t="s">
+        <v>259</v>
+      </c>
+      <c r="G40" t="s">
+        <v>260</v>
+      </c>
+      <c r="H40" t="s">
+        <v>161</v>
+      </c>
+      <c r="I40" t="s">
+        <v>161</v>
+      </c>
+      <c r="J40" t="s">
+        <v>261</v>
+      </c>
+      <c r="K40" t="s">
+        <v>44</v>
+      </c>
+      <c r="L40" t="s">
+        <v>44</v>
+      </c>
+      <c r="M40" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>329</v>
+      </c>
+      <c r="B41" t="s">
+        <v>43</v>
+      </c>
+      <c r="C41">
+        <v>545572</v>
+      </c>
+      <c r="D41" t="s">
+        <v>262</v>
+      </c>
+      <c r="E41" t="s">
+        <v>263</v>
+      </c>
+      <c r="F41" t="s">
+        <v>264</v>
+      </c>
+      <c r="G41" t="s">
+        <v>265</v>
+      </c>
+      <c r="H41" t="s">
+        <v>128</v>
+      </c>
+      <c r="I41" t="s">
+        <v>128</v>
+      </c>
+      <c r="J41" t="s">
+        <v>266</v>
+      </c>
+      <c r="K41" t="s">
+        <v>44</v>
+      </c>
+      <c r="L41" t="s">
+        <v>44</v>
+      </c>
+      <c r="M41" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="42" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>329</v>
+      </c>
+      <c r="B42" t="s">
+        <v>43</v>
+      </c>
+      <c r="C42">
+        <v>545571</v>
+      </c>
+      <c r="D42" t="s">
+        <v>267</v>
+      </c>
+      <c r="E42" t="s">
+        <v>268</v>
+      </c>
+      <c r="F42" t="s">
+        <v>269</v>
+      </c>
+      <c r="G42" t="s">
+        <v>270</v>
+      </c>
+      <c r="H42" t="s">
+        <v>128</v>
+      </c>
+      <c r="I42" t="s">
+        <v>128</v>
+      </c>
+      <c r="J42" t="s">
+        <v>271</v>
+      </c>
+      <c r="K42" t="s">
+        <v>44</v>
+      </c>
+      <c r="L42" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>329</v>
+      </c>
+      <c r="B43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C43">
+        <v>545643</v>
+      </c>
+      <c r="D43" t="s">
+        <v>330</v>
+      </c>
+      <c r="E43" t="s">
+        <v>331</v>
+      </c>
+      <c r="F43" t="s">
+        <v>332</v>
+      </c>
+      <c r="G43" t="s">
+        <v>333</v>
+      </c>
+      <c r="H43" t="s">
+        <v>334</v>
+      </c>
+      <c r="I43" t="s">
+        <v>334</v>
+      </c>
+      <c r="J43" t="s">
+        <v>282</v>
+      </c>
+      <c r="K43" t="s">
+        <v>44</v>
+      </c>
+      <c r="L43" t="s">
+        <v>44</v>
+      </c>
+      <c r="M43" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>329</v>
+      </c>
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+      <c r="C44">
+        <v>545619</v>
+      </c>
+      <c r="D44" t="s">
+        <v>301</v>
+      </c>
+      <c r="E44" t="s">
+        <v>302</v>
+      </c>
+      <c r="F44" t="s">
+        <v>303</v>
+      </c>
+      <c r="G44" t="s">
+        <v>304</v>
+      </c>
+      <c r="H44" t="s">
+        <v>146</v>
+      </c>
+      <c r="I44" t="s">
+        <v>146</v>
+      </c>
+      <c r="J44" t="s">
+        <v>305</v>
+      </c>
+      <c r="K44" t="s">
+        <v>44</v>
+      </c>
+      <c r="L44" t="s">
+        <v>44</v>
+      </c>
+      <c r="M44" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>329</v>
+      </c>
+      <c r="B45" t="s">
+        <v>43</v>
+      </c>
+      <c r="C45">
+        <v>545618</v>
+      </c>
+      <c r="D45" t="s">
+        <v>273</v>
+      </c>
+      <c r="E45" t="s">
+        <v>274</v>
+      </c>
+      <c r="F45" t="s">
+        <v>275</v>
+      </c>
+      <c r="G45" t="s">
+        <v>276</v>
+      </c>
+      <c r="H45" t="s">
+        <v>133</v>
+      </c>
+      <c r="I45" t="s">
+        <v>133</v>
+      </c>
+      <c r="J45" t="s">
+        <v>277</v>
+      </c>
+      <c r="K45" t="s">
+        <v>44</v>
+      </c>
+      <c r="L45" t="s">
+        <v>44</v>
+      </c>
+      <c r="M45" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>329</v>
+      </c>
+      <c r="B46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C46">
+        <v>545645</v>
+      </c>
+      <c r="D46" t="s">
+        <v>335</v>
+      </c>
+      <c r="E46" t="s">
+        <v>336</v>
+      </c>
+      <c r="F46" t="s">
+        <v>337</v>
+      </c>
+      <c r="G46" t="s">
+        <v>338</v>
+      </c>
+      <c r="H46" t="s">
+        <v>339</v>
+      </c>
+      <c r="I46" t="s">
+        <v>339</v>
+      </c>
+      <c r="J46" t="s">
+        <v>340</v>
+      </c>
+      <c r="K46" t="s">
+        <v>44</v>
+      </c>
+      <c r="L46" t="s">
+        <v>44</v>
+      </c>
+      <c r="M46" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>329</v>
+      </c>
+      <c r="B47" t="s">
+        <v>43</v>
+      </c>
+      <c r="C47">
+        <v>545644</v>
+      </c>
+      <c r="D47" t="s">
+        <v>341</v>
+      </c>
+      <c r="E47" t="s">
+        <v>342</v>
+      </c>
+      <c r="F47" t="s">
+        <v>343</v>
+      </c>
+      <c r="G47" t="s">
+        <v>344</v>
+      </c>
+      <c r="H47" t="s">
+        <v>339</v>
+      </c>
+      <c r="I47" t="s">
+        <v>339</v>
+      </c>
+      <c r="J47" t="s">
+        <v>305</v>
+      </c>
+      <c r="K47" t="s">
+        <v>44</v>
+      </c>
+      <c r="L47" t="s">
+        <v>44</v>
+      </c>
+      <c r="M47" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>329</v>
+      </c>
+      <c r="B48" t="s">
+        <v>43</v>
+      </c>
+      <c r="C48">
+        <v>545573</v>
+      </c>
+      <c r="D48" t="s">
+        <v>278</v>
+      </c>
+      <c r="E48" t="s">
+        <v>279</v>
+      </c>
+      <c r="F48" t="s">
+        <v>280</v>
+      </c>
+      <c r="G48" t="s">
+        <v>281</v>
+      </c>
+      <c r="H48" t="s">
+        <v>128</v>
+      </c>
+      <c r="I48" t="s">
+        <v>128</v>
+      </c>
+      <c r="J48" t="s">
+        <v>282</v>
+      </c>
+      <c r="K48" t="s">
+        <v>44</v>
+      </c>
+      <c r="L48" t="s">
+        <v>44</v>
+      </c>
+      <c r="M48" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="49" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>329</v>
+      </c>
+      <c r="B49" t="s">
+        <v>43</v>
+      </c>
+      <c r="C49">
+        <v>545433</v>
+      </c>
+      <c r="D49" t="s">
+        <v>283</v>
+      </c>
+      <c r="E49" t="s">
+        <v>284</v>
+      </c>
+      <c r="F49" t="s">
+        <v>285</v>
+      </c>
+      <c r="G49" t="s">
+        <v>286</v>
+      </c>
+      <c r="H49" t="s">
+        <v>287</v>
+      </c>
+      <c r="I49" t="s">
+        <v>288</v>
+      </c>
+      <c r="J49" t="s">
+        <v>289</v>
+      </c>
+      <c r="K49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="50" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>329</v>
+      </c>
+      <c r="B50" t="s">
+        <v>43</v>
+      </c>
+      <c r="C50">
+        <v>545603</v>
+      </c>
+      <c r="D50" t="s">
+        <v>290</v>
+      </c>
+      <c r="E50" t="s">
+        <v>291</v>
+      </c>
+      <c r="F50" t="s">
+        <v>292</v>
+      </c>
+      <c r="G50" t="s">
+        <v>293</v>
+      </c>
+      <c r="H50" t="s">
+        <v>123</v>
+      </c>
+      <c r="I50" t="s">
+        <v>123</v>
+      </c>
+      <c r="J50" t="s">
+        <v>294</v>
+      </c>
+      <c r="K50" t="s">
+        <v>44</v>
+      </c>
+      <c r="L50" t="s">
+        <v>44</v>
+      </c>
+      <c r="M50" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="51" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>329</v>
+      </c>
+      <c r="B51" t="s">
+        <v>43</v>
+      </c>
+      <c r="C51">
+        <v>545548</v>
+      </c>
+      <c r="D51" t="s">
+        <v>295</v>
+      </c>
+      <c r="E51" t="s">
+        <v>296</v>
+      </c>
+      <c r="F51" t="s">
+        <v>297</v>
+      </c>
+      <c r="G51" t="s">
+        <v>298</v>
+      </c>
+      <c r="H51" t="s">
+        <v>299</v>
+      </c>
+      <c r="I51" t="s">
+        <v>299</v>
+      </c>
+      <c r="J51" t="s">
+        <v>282</v>
+      </c>
+      <c r="K51" t="s">
+        <v>44</v>
+      </c>
+      <c r="L51" t="s">
+        <v>44</v>
+      </c>
+      <c r="M51" t="s">
+        <v>251</v>
+      </c>
+    </row>
+    <row r="52" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>329</v>
+      </c>
+      <c r="B52" t="s">
+        <v>43</v>
+      </c>
+      <c r="C52">
+        <v>545648</v>
+      </c>
+      <c r="D52" t="s">
+        <v>325</v>
+      </c>
+      <c r="E52" t="s">
+        <v>326</v>
+      </c>
+      <c r="F52" t="s">
+        <v>327</v>
+      </c>
+      <c r="G52" t="s">
+        <v>328</v>
+      </c>
+      <c r="H52" t="s">
+        <v>161</v>
+      </c>
+      <c r="I52" t="s">
+        <v>161</v>
+      </c>
+      <c r="J52" t="s">
+        <v>277</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" t="s">
+        <v>251</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G69"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -3667,6 +6768,1271 @@
         <v>24</v>
       </c>
     </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>28</v>
+      </c>
+      <c r="B15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C15">
+        <v>70617</v>
+      </c>
+      <c r="D15">
+        <v>103060</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>29</v>
+      </c>
+      <c r="B16" t="s">
+        <v>8</v>
+      </c>
+      <c r="C16">
+        <v>70617</v>
+      </c>
+      <c r="D16">
+        <v>103060</v>
+      </c>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B17" t="s">
+        <v>8</v>
+      </c>
+      <c r="C17">
+        <v>70617</v>
+      </c>
+      <c r="D17">
+        <v>103060</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" t="s">
+        <v>8</v>
+      </c>
+      <c r="C18">
+        <v>70617</v>
+      </c>
+      <c r="D18">
+        <v>103060</v>
+      </c>
+      <c r="E18">
+        <v>3</v>
+      </c>
+      <c r="F18">
+        <v>1</v>
+      </c>
+      <c r="G18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>8</v>
+      </c>
+      <c r="C19">
+        <v>70617</v>
+      </c>
+      <c r="D19">
+        <v>103060</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>33</v>
+      </c>
+      <c r="B20" t="s">
+        <v>8</v>
+      </c>
+      <c r="C20">
+        <v>70617</v>
+      </c>
+      <c r="D20">
+        <v>103060</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C21">
+        <v>70617</v>
+      </c>
+      <c r="D21">
+        <v>103060</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" t="s">
+        <v>8</v>
+      </c>
+      <c r="C22">
+        <v>70617</v>
+      </c>
+      <c r="D22">
+        <v>103060</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>36</v>
+      </c>
+      <c r="B23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C23">
+        <v>70617</v>
+      </c>
+      <c r="D23">
+        <v>103060</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>37</v>
+      </c>
+      <c r="B24" t="s">
+        <v>15</v>
+      </c>
+      <c r="C24">
+        <v>70617</v>
+      </c>
+      <c r="D24">
+        <v>103060</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>38</v>
+      </c>
+      <c r="B25" t="s">
+        <v>15</v>
+      </c>
+      <c r="C25">
+        <v>70617</v>
+      </c>
+      <c r="D25">
+        <v>103060</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B26" t="s">
+        <v>8</v>
+      </c>
+      <c r="C26">
+        <v>70617</v>
+      </c>
+      <c r="D26">
+        <v>103060</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27">
+        <v>70617</v>
+      </c>
+      <c r="D27">
+        <v>103060</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>41</v>
+      </c>
+      <c r="B28" t="s">
+        <v>42</v>
+      </c>
+      <c r="C28" t="s">
+        <v>43</v>
+      </c>
+      <c r="D28" t="s">
+        <v>44</v>
+      </c>
+      <c r="E28" t="s">
+        <v>44</v>
+      </c>
+      <c r="F28" t="s">
+        <v>44</v>
+      </c>
+      <c r="G28" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>46</v>
+      </c>
+      <c r="B29" t="s">
+        <v>42</v>
+      </c>
+      <c r="C29" t="s">
+        <v>43</v>
+      </c>
+      <c r="D29" t="s">
+        <v>44</v>
+      </c>
+      <c r="E29" t="s">
+        <v>44</v>
+      </c>
+      <c r="F29" t="s">
+        <v>44</v>
+      </c>
+      <c r="G29" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>47</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30">
+        <v>70617</v>
+      </c>
+      <c r="D30">
+        <v>103060</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>48</v>
+      </c>
+      <c r="B31" t="s">
+        <v>15</v>
+      </c>
+      <c r="C31">
+        <v>70617</v>
+      </c>
+      <c r="D31">
+        <v>103060</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>49</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
+      </c>
+      <c r="C32">
+        <v>70617</v>
+      </c>
+      <c r="D32">
+        <v>103060</v>
+      </c>
+      <c r="E32">
+        <v>3</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>50</v>
+      </c>
+      <c r="B33" t="s">
+        <v>42</v>
+      </c>
+      <c r="C33" t="s">
+        <v>51</v>
+      </c>
+      <c r="D33" t="s">
+        <v>44</v>
+      </c>
+      <c r="E33" t="s">
+        <v>44</v>
+      </c>
+      <c r="F33" t="s">
+        <v>44</v>
+      </c>
+      <c r="G33" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>53</v>
+      </c>
+      <c r="B34" t="s">
+        <v>8</v>
+      </c>
+      <c r="C34">
+        <v>70617</v>
+      </c>
+      <c r="D34">
+        <v>103060</v>
+      </c>
+      <c r="E34">
+        <v>3</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>54</v>
+      </c>
+      <c r="B35" t="s">
+        <v>15</v>
+      </c>
+      <c r="C35">
+        <v>70617</v>
+      </c>
+      <c r="D35">
+        <v>103060</v>
+      </c>
+      <c r="E35">
+        <v>3</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>55</v>
+      </c>
+      <c r="B36" t="s">
+        <v>8</v>
+      </c>
+      <c r="C36">
+        <v>70617</v>
+      </c>
+      <c r="D36">
+        <v>103060</v>
+      </c>
+      <c r="E36">
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>56</v>
+      </c>
+      <c r="B37" t="s">
+        <v>15</v>
+      </c>
+      <c r="C37">
+        <v>70617</v>
+      </c>
+      <c r="D37">
+        <v>103060</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>57</v>
+      </c>
+      <c r="B38" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38">
+        <v>70617</v>
+      </c>
+      <c r="D38">
+        <v>103060</v>
+      </c>
+      <c r="E38">
+        <v>2</v>
+      </c>
+      <c r="F38">
+        <v>1</v>
+      </c>
+      <c r="G38" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>58</v>
+      </c>
+      <c r="B39" t="s">
+        <v>15</v>
+      </c>
+      <c r="C39">
+        <v>70617</v>
+      </c>
+      <c r="D39">
+        <v>103060</v>
+      </c>
+      <c r="E39">
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <v>1</v>
+      </c>
+      <c r="G39" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>59</v>
+      </c>
+      <c r="B40" t="s">
+        <v>8</v>
+      </c>
+      <c r="C40">
+        <v>70617</v>
+      </c>
+      <c r="D40">
+        <v>103060</v>
+      </c>
+      <c r="E40">
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <v>1</v>
+      </c>
+      <c r="G40" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>60</v>
+      </c>
+      <c r="B41" t="s">
+        <v>15</v>
+      </c>
+      <c r="C41">
+        <v>70617</v>
+      </c>
+      <c r="D41">
+        <v>103060</v>
+      </c>
+      <c r="E41">
+        <v>2</v>
+      </c>
+      <c r="F41">
+        <v>1</v>
+      </c>
+      <c r="G41" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>61</v>
+      </c>
+      <c r="B42" t="s">
+        <v>15</v>
+      </c>
+      <c r="C42">
+        <v>70617</v>
+      </c>
+      <c r="D42">
+        <v>103060</v>
+      </c>
+      <c r="E42">
+        <v>2</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>62</v>
+      </c>
+      <c r="B43" t="s">
+        <v>8</v>
+      </c>
+      <c r="C43">
+        <v>70617</v>
+      </c>
+      <c r="D43">
+        <v>103060</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43">
+        <v>1</v>
+      </c>
+      <c r="G43" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>63</v>
+      </c>
+      <c r="B44" t="s">
+        <v>8</v>
+      </c>
+      <c r="C44">
+        <v>70617</v>
+      </c>
+      <c r="D44">
+        <v>103060</v>
+      </c>
+      <c r="E44">
+        <v>2</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>64</v>
+      </c>
+      <c r="B45" t="s">
+        <v>15</v>
+      </c>
+      <c r="C45">
+        <v>70617</v>
+      </c>
+      <c r="D45">
+        <v>103060</v>
+      </c>
+      <c r="E45">
+        <v>2</v>
+      </c>
+      <c r="F45">
+        <v>1</v>
+      </c>
+      <c r="G45" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>65</v>
+      </c>
+      <c r="B46" t="s">
+        <v>8</v>
+      </c>
+      <c r="C46">
+        <v>70617</v>
+      </c>
+      <c r="D46">
+        <v>103060</v>
+      </c>
+      <c r="E46">
+        <v>2</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>66</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47">
+        <v>70617</v>
+      </c>
+      <c r="D47">
+        <v>103060</v>
+      </c>
+      <c r="E47">
+        <v>2</v>
+      </c>
+      <c r="F47">
+        <v>1</v>
+      </c>
+      <c r="G47" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>67</v>
+      </c>
+      <c r="B48" t="s">
+        <v>8</v>
+      </c>
+      <c r="C48">
+        <v>70617</v>
+      </c>
+      <c r="D48">
+        <v>103060</v>
+      </c>
+      <c r="E48">
+        <v>2</v>
+      </c>
+      <c r="F48">
+        <v>1</v>
+      </c>
+      <c r="G48" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>68</v>
+      </c>
+      <c r="B49" t="s">
+        <v>42</v>
+      </c>
+      <c r="C49" t="s">
+        <v>69</v>
+      </c>
+      <c r="D49" t="s">
+        <v>44</v>
+      </c>
+      <c r="E49" t="s">
+        <v>44</v>
+      </c>
+      <c r="F49" t="s">
+        <v>44</v>
+      </c>
+      <c r="G49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>71</v>
+      </c>
+      <c r="B50" t="s">
+        <v>15</v>
+      </c>
+      <c r="C50">
+        <v>70617</v>
+      </c>
+      <c r="D50">
+        <v>103060</v>
+      </c>
+      <c r="E50">
+        <v>2</v>
+      </c>
+      <c r="F50">
+        <v>1</v>
+      </c>
+      <c r="G50" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>72</v>
+      </c>
+      <c r="B51" t="s">
+        <v>15</v>
+      </c>
+      <c r="C51">
+        <v>70617</v>
+      </c>
+      <c r="D51">
+        <v>103060</v>
+      </c>
+      <c r="E51">
+        <v>2</v>
+      </c>
+      <c r="F51">
+        <v>1</v>
+      </c>
+      <c r="G51" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>73</v>
+      </c>
+      <c r="B52" t="s">
+        <v>15</v>
+      </c>
+      <c r="C52">
+        <v>71274</v>
+      </c>
+      <c r="D52">
+        <v>103059</v>
+      </c>
+      <c r="E52">
+        <v>1</v>
+      </c>
+      <c r="F52">
+        <v>1</v>
+      </c>
+      <c r="G52" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B53" t="s">
+        <v>15</v>
+      </c>
+      <c r="C53">
+        <v>71274</v>
+      </c>
+      <c r="D53">
+        <v>103059</v>
+      </c>
+      <c r="E53">
+        <v>2</v>
+      </c>
+      <c r="F53">
+        <v>1</v>
+      </c>
+      <c r="G53" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>77</v>
+      </c>
+      <c r="B54" t="s">
+        <v>42</v>
+      </c>
+      <c r="C54" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" t="s">
+        <v>44</v>
+      </c>
+      <c r="E54" t="s">
+        <v>44</v>
+      </c>
+      <c r="F54" t="s">
+        <v>44</v>
+      </c>
+      <c r="G54" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>78</v>
+      </c>
+      <c r="B55" t="s">
+        <v>15</v>
+      </c>
+      <c r="C55">
+        <v>70617</v>
+      </c>
+      <c r="D55">
+        <v>103060</v>
+      </c>
+      <c r="E55">
+        <v>1</v>
+      </c>
+      <c r="F55">
+        <v>1</v>
+      </c>
+      <c r="G55" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>79</v>
+      </c>
+      <c r="B56" t="s">
+        <v>15</v>
+      </c>
+      <c r="C56">
+        <v>70617</v>
+      </c>
+      <c r="D56">
+        <v>103060</v>
+      </c>
+      <c r="E56">
+        <v>3</v>
+      </c>
+      <c r="F56">
+        <v>1</v>
+      </c>
+      <c r="G56" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>80</v>
+      </c>
+      <c r="B57" t="s">
+        <v>15</v>
+      </c>
+      <c r="C57">
+        <v>70617</v>
+      </c>
+      <c r="D57">
+        <v>103060</v>
+      </c>
+      <c r="E57">
+        <v>4</v>
+      </c>
+      <c r="F57">
+        <v>1</v>
+      </c>
+      <c r="G57" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>82</v>
+      </c>
+      <c r="B58" t="s">
+        <v>15</v>
+      </c>
+      <c r="C58">
+        <v>70617</v>
+      </c>
+      <c r="D58">
+        <v>103060</v>
+      </c>
+      <c r="E58">
+        <v>1</v>
+      </c>
+      <c r="F58">
+        <v>1</v>
+      </c>
+      <c r="G58" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" t="s">
+        <v>15</v>
+      </c>
+      <c r="C59">
+        <v>71274</v>
+      </c>
+      <c r="D59">
+        <v>103059</v>
+      </c>
+      <c r="E59">
+        <v>1</v>
+      </c>
+      <c r="F59">
+        <v>1</v>
+      </c>
+      <c r="G59" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>84</v>
+      </c>
+      <c r="B60" t="s">
+        <v>15</v>
+      </c>
+      <c r="C60">
+        <v>70617</v>
+      </c>
+      <c r="D60">
+        <v>103060</v>
+      </c>
+      <c r="E60">
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <v>1</v>
+      </c>
+      <c r="G60" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>85</v>
+      </c>
+      <c r="B61" t="s">
+        <v>15</v>
+      </c>
+      <c r="C61">
+        <v>71274</v>
+      </c>
+      <c r="D61">
+        <v>103060</v>
+      </c>
+      <c r="E61">
+        <v>1</v>
+      </c>
+      <c r="F61">
+        <v>1</v>
+      </c>
+      <c r="G61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>87</v>
+      </c>
+      <c r="B62" t="s">
+        <v>15</v>
+      </c>
+      <c r="C62">
+        <v>70617</v>
+      </c>
+      <c r="D62">
+        <v>103060</v>
+      </c>
+      <c r="E62">
+        <v>1</v>
+      </c>
+      <c r="F62">
+        <v>1</v>
+      </c>
+      <c r="G62" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>88</v>
+      </c>
+      <c r="B63" t="s">
+        <v>42</v>
+      </c>
+      <c r="C63" t="s">
+        <v>43</v>
+      </c>
+      <c r="D63" t="s">
+        <v>44</v>
+      </c>
+      <c r="E63" t="s">
+        <v>44</v>
+      </c>
+      <c r="F63" t="s">
+        <v>44</v>
+      </c>
+      <c r="G63" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>89</v>
+      </c>
+      <c r="B64" t="s">
+        <v>15</v>
+      </c>
+      <c r="C64">
+        <v>70617</v>
+      </c>
+      <c r="D64">
+        <v>103060</v>
+      </c>
+      <c r="E64">
+        <v>1</v>
+      </c>
+      <c r="F64">
+        <v>1</v>
+      </c>
+      <c r="G64" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>90</v>
+      </c>
+      <c r="B65" t="s">
+        <v>15</v>
+      </c>
+      <c r="C65">
+        <v>70617</v>
+      </c>
+      <c r="D65">
+        <v>103060</v>
+      </c>
+      <c r="E65">
+        <v>3</v>
+      </c>
+      <c r="F65">
+        <v>1</v>
+      </c>
+      <c r="G65" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>91</v>
+      </c>
+      <c r="B66" t="s">
+        <v>15</v>
+      </c>
+      <c r="C66">
+        <v>70617</v>
+      </c>
+      <c r="D66">
+        <v>103380</v>
+      </c>
+      <c r="E66">
+        <v>3</v>
+      </c>
+      <c r="F66">
+        <v>1</v>
+      </c>
+      <c r="G66" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>93</v>
+      </c>
+      <c r="B67" t="s">
+        <v>15</v>
+      </c>
+      <c r="C67">
+        <v>70617</v>
+      </c>
+      <c r="D67">
+        <v>103060</v>
+      </c>
+      <c r="E67">
+        <v>3</v>
+      </c>
+      <c r="F67">
+        <v>1</v>
+      </c>
+      <c r="G67" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>94</v>
+      </c>
+      <c r="B68" t="s">
+        <v>15</v>
+      </c>
+      <c r="C68">
+        <v>70617</v>
+      </c>
+      <c r="D68">
+        <v>103060</v>
+      </c>
+      <c r="E68">
+        <v>3</v>
+      </c>
+      <c r="F68">
+        <v>1</v>
+      </c>
+      <c r="G68" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>95</v>
+      </c>
+      <c r="B69" t="s">
+        <v>15</v>
+      </c>
+      <c r="C69">
+        <v>70617</v>
+      </c>
+      <c r="D69">
+        <v>103060</v>
+      </c>
+      <c r="E69">
+        <v>3</v>
+      </c>
+      <c r="F69">
+        <v>1</v>
+      </c>
+      <c r="G69" t="s">
+        <v>24</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -4,18 +4,19 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="164011" filterPrivacy="1"/>
   <sheets>
-    <sheet sheetId="5" name="Webhooks" state="visible" r:id="rId4"/>
+    <sheet sheetId="6" name="Webhooks" state="visible" r:id="rId4"/>
     <sheet sheetId="1" name="Forkeppni" state="visible" r:id="rId5"/>
     <sheet sheetId="3" name="A-úrslit" state="visible" r:id="rId6"/>
     <sheet sheetId="2" name="B-úrslit" state="visible" r:id="rId7"/>
     <sheet sheetId="4" name="keppendalisti" state="visible" r:id="rId8"/>
+    <sheet sheetId="5" name="keppnisgreinar" state="visible" r:id="rId9"/>
   </sheets>
   <calcPr calcId="171027"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1228" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="412">
   <si>
     <t>timestamp</t>
   </si>
@@ -305,6 +306,114 @@
     <t>2026-02-16T14:31:35.558Z</t>
   </si>
   <si>
+    <t>2026-02-16T14:36:40.591Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:39:01.654Z</t>
+  </si>
+  <si>
+    <t>{"classId":103360,"eventId":71454,"competitionId":3,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:39:26.335Z</t>
+  </si>
+  <si>
+    <t>{"classId":103360,"eventId":71454,"competitionId":2,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:40:13.375Z</t>
+  </si>
+  <si>
+    <t>event_keppnisgreinar</t>
+  </si>
+  <si>
+    <t>71175</t>
+  </si>
+  <si>
+    <t>{"eventId":"71175"}</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:40:22.370Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:41:48.978Z</t>
+  </si>
+  <si>
+    <t>{"classId":102564,"eventId":70834,"competitionId":2,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:43:18.467Z</t>
+  </si>
+  <si>
+    <t>event_motadagskra_breytist</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:43:21.372Z</t>
+  </si>
+  <si>
+    <t>{"classId":103136,"eventId":71174,"competitionId":2,"published":1}</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:43:29.523Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:44:44.337Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:45:10.383Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:45:21.117Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:45:27.639Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:47:45.087Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:02:42.804Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:19:11.403Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:23:18.255Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:25:00.949Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:27:48.199Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:28:40.019Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:40:03.143Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:46:00.322Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:46:16.848Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:46:25.651Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:47:39.265Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:49:18.082Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:51:11.090Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T15:52:11.019Z</t>
+  </si>
+  <si>
     <t>Nr.</t>
   </si>
   <si>
@@ -1050,6 +1159,99 @@
   </si>
   <si>
     <t>IS2019187976</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:36:40.718Z</t>
+  </si>
+  <si>
+    <t>Kristín Birna Óskarsdóttir</t>
+  </si>
+  <si>
+    <t>Frami</t>
+  </si>
+  <si>
+    <t>Frami frá Hjarðarholti</t>
+  </si>
+  <si>
+    <t>IS2016158976</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Bleikur/álóttur einlitt  </t>
+  </si>
+  <si>
+    <t>mot_numer</t>
+  </si>
+  <si>
+    <t>flokkur_nafn</t>
+  </si>
+  <si>
+    <t>flokkar_numer</t>
+  </si>
+  <si>
+    <t>keppnisgrein</t>
+  </si>
+  <si>
+    <t>keppni</t>
+  </si>
+  <si>
+    <t>keppni_numer</t>
+  </si>
+  <si>
+    <t>keppni_rod</t>
+  </si>
+  <si>
+    <t>rod</t>
+  </si>
+  <si>
+    <t>raslisti_birtur</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:40:13.447Z</t>
+  </si>
+  <si>
+    <t>Fullorðinsflokkur - 1. flokkur</t>
+  </si>
+  <si>
+    <t>Tölt T3</t>
+  </si>
+  <si>
+    <t>Forkeppni</t>
+  </si>
+  <si>
+    <t>A úrslit</t>
+  </si>
+  <si>
+    <t>Fullorðinsflokkur - 2. flokkur</t>
+  </si>
+  <si>
+    <t>B úrslit</t>
+  </si>
+  <si>
+    <t>Barnaflokkur</t>
+  </si>
+  <si>
+    <t>Tölt T7</t>
+  </si>
+  <si>
+    <t>Fullorðinsflokkur - 3. flokkur</t>
+  </si>
+  <si>
+    <t>Unglingaflokkur</t>
+  </si>
+  <si>
+    <t>2026-02-16T14:40:13.448Z</t>
+  </si>
+  <si>
+    <t>Fimmgangur F2</t>
+  </si>
+  <si>
+    <t>Gæðingaflokkur 1</t>
+  </si>
+  <si>
+    <t>Pollagæðingakeppni</t>
+  </si>
+  <si>
+    <t>Gæðingaflokkur 2</t>
   </si>
 </sst>
 </file>
@@ -1446,102 +1648,102 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="H2" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="I2" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="N2">
         <v>7.5</v>
@@ -1566,41 +1768,41 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>12</v>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3">
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>122</v>
+        <v>158</v>
       </c>
       <c r="F3" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>124</v>
+        <v>160</v>
       </c>
       <c r="I3" t="s">
-        <v>125</v>
+        <v>161</v>
       </c>
       <c r="J3">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>126</v>
+        <v>162</v>
       </c>
       <c r="N3">
         <v>7.6</v>
@@ -1625,41 +1827,41 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>1</v>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4">
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H4" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="I4" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="N4">
         <v>8.6</v>
@@ -1684,41 +1886,41 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>11</v>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5">
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>132</v>
+        <v>168</v>
       </c>
       <c r="F5" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>134</v>
+        <v>170</v>
       </c>
       <c r="I5" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J5">
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>136</v>
+        <v>172</v>
       </c>
       <c r="N5">
         <v>7.4</v>
@@ -1743,41 +1945,41 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>19</v>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6">
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>137</v>
+        <v>173</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G6" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H6" t="s">
-        <v>138</v>
+        <v>174</v>
       </c>
       <c r="I6" t="s">
-        <v>139</v>
+        <v>175</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>140</v>
+        <v>176</v>
       </c>
       <c r="N6">
         <v>6.4</v>
@@ -1802,41 +2004,41 @@
       <c r="A7">
         <v>6</v>
       </c>
-      <c r="B7">
-        <v>16</v>
+      <c r="B7" t="s">
+        <v>44</v>
       </c>
       <c r="C7">
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E7" t="s">
-        <v>141</v>
+        <v>177</v>
       </c>
       <c r="F7" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G7" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H7" t="s">
-        <v>142</v>
+        <v>178</v>
       </c>
       <c r="I7" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J7">
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>143</v>
+        <v>179</v>
       </c>
       <c r="N7">
         <v>6.8</v>
@@ -1861,41 +2063,41 @@
       <c r="A8">
         <v>7</v>
       </c>
-      <c r="B8">
-        <v>9</v>
+      <c r="B8" t="s">
+        <v>44</v>
       </c>
       <c r="C8">
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E8" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F8" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G8" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="H8" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="I8" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J8">
         <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -1920,41 +2122,41 @@
       <c r="A9">
         <v>8</v>
       </c>
-      <c r="B9">
-        <v>4</v>
+      <c r="B9" t="s">
+        <v>44</v>
       </c>
       <c r="C9">
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E9" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="F9" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G9" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H9" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="I9" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="N9">
         <v>7.9</v>
@@ -1979,41 +2181,41 @@
       <c r="A10">
         <v>9</v>
       </c>
-      <c r="B10">
-        <v>7</v>
+      <c r="B10" t="s">
+        <v>44</v>
       </c>
       <c r="C10">
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E10" t="s">
+        <v>189</v>
+      </c>
+      <c r="F10" t="s">
         <v>153</v>
       </c>
-      <c r="F10" t="s">
-        <v>117</v>
-      </c>
       <c r="G10" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="H10" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="I10" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J10">
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="L10" t="s">
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="N10">
         <v>7.5</v>
@@ -2038,41 +2240,41 @@
       <c r="A11">
         <v>10</v>
       </c>
-      <c r="B11">
-        <v>2</v>
+      <c r="B11" t="s">
+        <v>44</v>
       </c>
       <c r="C11">
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E11" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="F11" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G11" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H11" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="I11" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="L11" t="s">
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="N11">
         <v>8.4</v>
@@ -2097,41 +2299,41 @@
       <c r="A12">
         <v>11</v>
       </c>
-      <c r="B12">
-        <v>18</v>
+      <c r="B12" t="s">
+        <v>44</v>
       </c>
       <c r="C12">
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E12" t="s">
-        <v>160</v>
+        <v>196</v>
       </c>
       <c r="F12" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G12" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="H12" t="s">
-        <v>162</v>
+        <v>198</v>
       </c>
       <c r="I12" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>163</v>
+        <v>199</v>
       </c>
       <c r="N12">
         <v>6.9</v>
@@ -2156,41 +2358,41 @@
       <c r="A13">
         <v>12</v>
       </c>
-      <c r="B13">
-        <v>13</v>
+      <c r="B13" t="s">
+        <v>44</v>
       </c>
       <c r="C13">
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E13" t="s">
-        <v>164</v>
+        <v>200</v>
       </c>
       <c r="F13" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G13" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="H13" t="s">
-        <v>165</v>
+        <v>201</v>
       </c>
       <c r="I13" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="L13" t="s">
         <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>166</v>
+        <v>202</v>
       </c>
       <c r="N13">
         <v>6.6</v>
@@ -2215,41 +2417,41 @@
       <c r="A14">
         <v>13</v>
       </c>
-      <c r="B14">
-        <v>15</v>
+      <c r="B14" t="s">
+        <v>44</v>
       </c>
       <c r="C14">
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E14" t="s">
-        <v>167</v>
+        <v>203</v>
       </c>
       <c r="F14" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G14" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H14" t="s">
-        <v>168</v>
+        <v>204</v>
       </c>
       <c r="I14" t="s">
-        <v>169</v>
+        <v>205</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>170</v>
+        <v>206</v>
       </c>
       <c r="N14">
         <v>7.3</v>
@@ -2274,41 +2476,41 @@
       <c r="A15">
         <v>14</v>
       </c>
-      <c r="B15">
-        <v>14</v>
+      <c r="B15" t="s">
+        <v>44</v>
       </c>
       <c r="C15">
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E15" t="s">
-        <v>171</v>
+        <v>207</v>
       </c>
       <c r="F15" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G15" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H15" t="s">
-        <v>172</v>
+        <v>208</v>
       </c>
       <c r="I15" t="s">
-        <v>173</v>
+        <v>209</v>
       </c>
       <c r="J15">
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>174</v>
+        <v>210</v>
       </c>
       <c r="N15">
         <v>7.5</v>
@@ -2333,41 +2535,41 @@
       <c r="A16">
         <v>15</v>
       </c>
-      <c r="B16">
-        <v>5</v>
+      <c r="B16" t="s">
+        <v>44</v>
       </c>
       <c r="C16">
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E16" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="F16" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G16" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H16" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="I16" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="N16">
         <v>8.1</v>
@@ -2392,41 +2594,41 @@
       <c r="A17">
         <v>16</v>
       </c>
-      <c r="B17">
-        <v>7</v>
+      <c r="B17" t="s">
+        <v>44</v>
       </c>
       <c r="C17">
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E17" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F17" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G17" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H17" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="I17" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="J17">
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="N17">
         <v>7.4</v>
@@ -2451,41 +2653,41 @@
       <c r="A18">
         <v>17</v>
       </c>
-      <c r="B18">
-        <v>3</v>
+      <c r="B18" t="s">
+        <v>44</v>
       </c>
       <c r="C18">
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E18" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="F18" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G18" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="H18" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I18" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J18">
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="N18">
         <v>7.9</v>
@@ -2510,41 +2712,41 @@
       <c r="A19">
         <v>18</v>
       </c>
-      <c r="B19">
-        <v>10</v>
+      <c r="B19" t="s">
+        <v>44</v>
       </c>
       <c r="C19">
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E19" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="F19" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G19" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H19" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="I19" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J19">
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="N19">
         <v>7.3</v>
@@ -2569,41 +2771,41 @@
       <c r="A20">
         <v>19</v>
       </c>
-      <c r="B20">
-        <v>17</v>
+      <c r="B20" t="s">
+        <v>44</v>
       </c>
       <c r="C20">
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E20" t="s">
-        <v>190</v>
+        <v>226</v>
       </c>
       <c r="F20" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G20" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H20" t="s">
-        <v>191</v>
+        <v>227</v>
       </c>
       <c r="I20" t="s">
-        <v>192</v>
+        <v>228</v>
       </c>
       <c r="J20">
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>193</v>
+        <v>229</v>
       </c>
       <c r="N20">
         <v>6.9</v>
@@ -2652,106 +2854,106 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="U1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="V1" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="W1" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="X1" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="Y1" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="Z1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="AA1" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="AB1" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="AC1" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="AD1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="AE1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="AF1" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="AG1" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="AH1" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -2765,34 +2967,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>187</v>
+        <v>223</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H2" t="s">
-        <v>188</v>
+        <v>224</v>
       </c>
       <c r="I2" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J2">
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>189</v>
+        <v>225</v>
       </c>
       <c r="N2">
         <v>7.5</v>
@@ -2869,34 +3071,34 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>144</v>
+        <v>180</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="H3" t="s">
-        <v>145</v>
+        <v>181</v>
       </c>
       <c r="I3" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>147</v>
+        <v>183</v>
       </c>
       <c r="N3">
         <v>7.5</v>
@@ -2973,34 +3175,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>189</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="H4" t="s">
-        <v>154</v>
+        <v>190</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J4">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>155</v>
+        <v>191</v>
       </c>
       <c r="N4">
         <v>7.5</v>
@@ -3077,34 +3279,34 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>179</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="H5" t="s">
-        <v>180</v>
+        <v>216</v>
       </c>
       <c r="I5" t="s">
-        <v>181</v>
+        <v>217</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>182</v>
+        <v>218</v>
       </c>
       <c r="N5">
         <v>7.4</v>
@@ -3181,34 +3383,34 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="H6" t="s">
-        <v>119</v>
+        <v>155</v>
       </c>
       <c r="I6" t="s">
-        <v>120</v>
+        <v>156</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>121</v>
+        <v>157</v>
       </c>
       <c r="N6">
         <v>7.6</v>
@@ -3302,228 +3504,228 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>96</v>
+        <v>132</v>
       </c>
       <c r="B1" t="s">
-        <v>97</v>
+        <v>133</v>
       </c>
       <c r="C1" t="s">
-        <v>98</v>
+        <v>134</v>
       </c>
       <c r="D1" t="s">
-        <v>99</v>
+        <v>135</v>
       </c>
       <c r="E1" t="s">
-        <v>100</v>
+        <v>136</v>
       </c>
       <c r="F1" t="s">
-        <v>101</v>
+        <v>137</v>
       </c>
       <c r="G1" t="s">
-        <v>102</v>
+        <v>138</v>
       </c>
       <c r="H1" t="s">
-        <v>103</v>
+        <v>139</v>
       </c>
       <c r="I1" t="s">
-        <v>104</v>
+        <v>140</v>
       </c>
       <c r="J1" t="s">
-        <v>105</v>
+        <v>141</v>
       </c>
       <c r="K1" t="s">
-        <v>106</v>
+        <v>142</v>
       </c>
       <c r="L1" t="s">
-        <v>107</v>
+        <v>143</v>
       </c>
       <c r="M1" t="s">
-        <v>108</v>
+        <v>144</v>
       </c>
       <c r="N1" t="s">
-        <v>109</v>
+        <v>145</v>
       </c>
       <c r="O1" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="P1" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="Q1" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="R1" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
       <c r="S1" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="T1" t="s">
-        <v>194</v>
+        <v>230</v>
       </c>
       <c r="U1" t="s">
-        <v>195</v>
+        <v>231</v>
       </c>
       <c r="V1" t="s">
-        <v>196</v>
+        <v>232</v>
       </c>
       <c r="W1" t="s">
-        <v>197</v>
+        <v>233</v>
       </c>
       <c r="X1" t="s">
-        <v>198</v>
+        <v>234</v>
       </c>
       <c r="Y1" t="s">
-        <v>199</v>
+        <v>235</v>
       </c>
       <c r="Z1" t="s">
-        <v>200</v>
+        <v>236</v>
       </c>
       <c r="AA1" t="s">
-        <v>201</v>
+        <v>237</v>
       </c>
       <c r="AB1" t="s">
-        <v>202</v>
+        <v>238</v>
       </c>
       <c r="AC1" t="s">
-        <v>203</v>
+        <v>239</v>
       </c>
       <c r="AD1" t="s">
-        <v>204</v>
+        <v>240</v>
       </c>
       <c r="AE1" t="s">
-        <v>205</v>
+        <v>241</v>
       </c>
       <c r="AF1" t="s">
-        <v>206</v>
+        <v>242</v>
       </c>
       <c r="AG1" t="s">
-        <v>207</v>
+        <v>243</v>
       </c>
       <c r="AH1" t="s">
-        <v>208</v>
+        <v>244</v>
       </c>
       <c r="AI1" t="s">
-        <v>209</v>
+        <v>245</v>
       </c>
       <c r="AJ1" t="s">
-        <v>210</v>
+        <v>246</v>
       </c>
       <c r="AK1" t="s">
-        <v>211</v>
+        <v>247</v>
       </c>
       <c r="AL1" t="s">
-        <v>212</v>
+        <v>248</v>
       </c>
       <c r="AM1" t="s">
-        <v>213</v>
+        <v>249</v>
       </c>
       <c r="AN1" t="s">
-        <v>214</v>
+        <v>250</v>
       </c>
       <c r="AO1" t="s">
-        <v>215</v>
+        <v>251</v>
       </c>
       <c r="AP1" t="s">
-        <v>216</v>
+        <v>252</v>
       </c>
       <c r="AQ1" t="s">
-        <v>217</v>
+        <v>253</v>
       </c>
       <c r="AR1" t="s">
-        <v>218</v>
+        <v>254</v>
       </c>
       <c r="AS1" t="s">
-        <v>219</v>
+        <v>255</v>
       </c>
       <c r="AT1" t="s">
-        <v>220</v>
+        <v>256</v>
       </c>
       <c r="AU1" t="s">
-        <v>221</v>
+        <v>257</v>
       </c>
       <c r="AV1" t="s">
-        <v>222</v>
+        <v>258</v>
       </c>
       <c r="AW1" t="s">
-        <v>223</v>
+        <v>259</v>
       </c>
       <c r="AX1" t="s">
-        <v>224</v>
+        <v>260</v>
       </c>
       <c r="AY1" t="s">
-        <v>225</v>
+        <v>261</v>
       </c>
       <c r="AZ1" t="s">
-        <v>226</v>
+        <v>262</v>
       </c>
       <c r="BA1" t="s">
-        <v>227</v>
+        <v>263</v>
       </c>
       <c r="BB1" t="s">
-        <v>228</v>
+        <v>264</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>6</v>
+      <c r="B2" t="s">
+        <v>44</v>
       </c>
       <c r="C2">
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E2" t="s">
-        <v>175</v>
+        <v>211</v>
       </c>
       <c r="F2" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
       <c r="G2" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H2" t="s">
-        <v>176</v>
+        <v>212</v>
       </c>
       <c r="I2" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="J2">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>177</v>
+        <v>213</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>178</v>
+        <v>214</v>
       </c>
       <c r="N2">
-        <v>0</v>
+        <v>5.5</v>
       </c>
       <c r="O2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="P2">
-        <v>0</v>
-      </c>
-      <c r="Q2">
-        <v>0</v>
-      </c>
-      <c r="R2">
-        <v>0</v>
+        <v>5.8</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>44</v>
+      </c>
+      <c r="R2" t="s">
+        <v>44</v>
       </c>
       <c r="S2">
-        <v>0</v>
+        <v>5.75</v>
       </c>
       <c r="T2">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="U2">
         <v>9</v>
@@ -3538,7 +3740,7 @@
         <v>9.5</v>
       </c>
       <c r="Y2">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="Z2">
         <v>0</v>
@@ -3632,62 +3834,62 @@
       <c r="A3">
         <v>2</v>
       </c>
-      <c r="B3">
-        <v>2</v>
+      <c r="B3" t="s">
+        <v>44</v>
       </c>
       <c r="C3">
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E3" t="s">
-        <v>148</v>
+        <v>184</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>265</v>
       </c>
       <c r="G3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="H3" t="s">
-        <v>150</v>
+        <v>186</v>
       </c>
       <c r="I3" t="s">
-        <v>151</v>
+        <v>187</v>
       </c>
       <c r="J3">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>149</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>152</v>
+        <v>188</v>
       </c>
       <c r="N3">
-        <v>7</v>
+        <v>5.5</v>
       </c>
       <c r="O3">
-        <v>6.7</v>
+        <v>5.5</v>
       </c>
       <c r="P3">
-        <v>6.7</v>
-      </c>
-      <c r="Q3">
-        <v>7</v>
-      </c>
-      <c r="R3">
-        <v>7.2</v>
+        <v>5.5</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>44</v>
+      </c>
+      <c r="R3" t="s">
+        <v>44</v>
       </c>
       <c r="S3">
-        <v>6.87</v>
+        <v>5.5</v>
       </c>
       <c r="T3">
-        <v>8.5</v>
+        <v>7.5</v>
       </c>
       <c r="U3">
         <v>8.5</v>
@@ -3702,7 +3904,7 @@
         <v>8.5</v>
       </c>
       <c r="Y3">
-        <v>7</v>
+        <v>6.5</v>
       </c>
       <c r="Z3">
         <v>6.5</v>
@@ -3796,62 +3998,62 @@
       <c r="A4">
         <v>3</v>
       </c>
-      <c r="B4">
-        <v>3</v>
+      <c r="B4" t="s">
+        <v>44</v>
       </c>
       <c r="C4">
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E4" t="s">
-        <v>183</v>
+        <v>219</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>266</v>
       </c>
       <c r="G4" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="H4" t="s">
-        <v>185</v>
+        <v>221</v>
       </c>
       <c r="I4" t="s">
-        <v>135</v>
+        <v>171</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>184</v>
+        <v>220</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>186</v>
+        <v>222</v>
       </c>
       <c r="N4">
-        <v>6.6</v>
+        <v>5</v>
       </c>
       <c r="O4">
-        <v>6.9</v>
+        <v>5.5</v>
       </c>
       <c r="P4">
-        <v>6.9</v>
-      </c>
-      <c r="Q4">
-        <v>6.9</v>
-      </c>
-      <c r="R4">
-        <v>7.1</v>
+        <v>5.5</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>44</v>
+      </c>
+      <c r="R4" t="s">
+        <v>44</v>
       </c>
       <c r="S4">
-        <v>6.83</v>
+        <v>5.33</v>
       </c>
       <c r="T4">
-        <v>8.5</v>
+        <v>7</v>
       </c>
       <c r="U4">
         <v>8.5</v>
@@ -3960,44 +4162,44 @@
       <c r="A5">
         <v>4</v>
       </c>
-      <c r="B5">
-        <v>5</v>
+      <c r="B5" t="s">
+        <v>44</v>
       </c>
       <c r="C5">
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E5" t="s">
-        <v>156</v>
+        <v>192</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>267</v>
       </c>
       <c r="G5" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H5" t="s">
-        <v>157</v>
+        <v>193</v>
       </c>
       <c r="I5" t="s">
-        <v>158</v>
+        <v>194</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>159</v>
+        <v>195</v>
       </c>
       <c r="N5">
-        <v>5.4</v>
+        <v>6</v>
       </c>
       <c r="O5">
         <v>5.5</v>
@@ -4005,14 +4207,14 @@
       <c r="P5">
         <v>5.8</v>
       </c>
-      <c r="Q5">
-        <v>5.5</v>
-      </c>
-      <c r="R5">
-        <v>5.3</v>
+      <c r="Q5" t="s">
+        <v>44</v>
+      </c>
+      <c r="R5" t="s">
+        <v>44</v>
       </c>
       <c r="S5">
-        <v>5.47</v>
+        <v>5.75</v>
       </c>
       <c r="T5">
         <v>8.5</v>
@@ -4030,7 +4232,7 @@
         <v>8.5</v>
       </c>
       <c r="Y5">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z5">
         <v>7</v>
@@ -4124,62 +4326,62 @@
       <c r="A6">
         <v>5</v>
       </c>
-      <c r="B6">
-        <v>3</v>
+      <c r="B6" t="s">
+        <v>44</v>
       </c>
       <c r="C6">
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
       <c r="E6" t="s">
-        <v>127</v>
+        <v>163</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>268</v>
       </c>
       <c r="G6" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="H6" t="s">
-        <v>129</v>
+        <v>165</v>
       </c>
       <c r="I6" t="s">
-        <v>130</v>
+        <v>166</v>
       </c>
       <c r="J6">
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>131</v>
+        <v>167</v>
       </c>
       <c r="N6">
-        <v>6.9</v>
+        <v>5.3</v>
       </c>
       <c r="O6">
-        <v>6.8</v>
+        <v>5.8</v>
       </c>
       <c r="P6">
-        <v>6.8</v>
-      </c>
-      <c r="Q6">
-        <v>6.9</v>
-      </c>
-      <c r="R6">
-        <v>6.7</v>
+        <v>5.8</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>44</v>
+      </c>
+      <c r="R6" t="s">
+        <v>44</v>
       </c>
       <c r="S6">
-        <v>6.83</v>
+        <v>5.58</v>
       </c>
       <c r="T6">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="U6">
         <v>9</v>
@@ -4194,7 +4396,7 @@
         <v>9</v>
       </c>
       <c r="Y6">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="Z6">
         <v>7</v>
@@ -4292,7 +4494,7 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M68"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <sheetData>
     <row r="1" spans="1:13" x14ac:dyDescent="0.25">
@@ -4303,42 +4505,42 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>233</v>
+        <v>269</v>
       </c>
       <c r="D1" t="s">
-        <v>234</v>
+        <v>270</v>
       </c>
       <c r="E1" t="s">
-        <v>235</v>
+        <v>271</v>
       </c>
       <c r="F1" t="s">
-        <v>236</v>
+        <v>272</v>
       </c>
       <c r="G1" t="s">
-        <v>237</v>
+        <v>273</v>
       </c>
       <c r="H1" t="s">
-        <v>238</v>
+        <v>274</v>
       </c>
       <c r="I1" t="s">
-        <v>239</v>
+        <v>275</v>
       </c>
       <c r="J1" t="s">
-        <v>240</v>
+        <v>276</v>
       </c>
       <c r="K1" t="s">
-        <v>241</v>
+        <v>277</v>
       </c>
       <c r="L1" t="s">
-        <v>242</v>
+        <v>278</v>
       </c>
       <c r="M1" t="s">
-        <v>243</v>
+        <v>279</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -4347,25 +4549,25 @@
         <v>545551</v>
       </c>
       <c r="D2" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="E2" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F2" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="G2" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="H2" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I2" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J2" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -4374,12 +4576,12 @@
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -4388,25 +4590,25 @@
         <v>545550</v>
       </c>
       <c r="D3" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="E3" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="F3" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G3" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="H3" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I3" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J3" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K3" t="s">
         <v>44</v>
@@ -4415,12 +4617,12 @@
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -4429,25 +4631,25 @@
         <v>545640</v>
       </c>
       <c r="D4" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="E4" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F4" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G4" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="H4" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="I4" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="J4" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
@@ -4456,12 +4658,12 @@
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -4470,25 +4672,25 @@
         <v>545572</v>
       </c>
       <c r="D5" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="E5" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F5" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="G5" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="H5" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I5" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J5" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="K5" t="s">
         <v>44</v>
@@ -4497,12 +4699,12 @@
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -4511,25 +4713,25 @@
         <v>545571</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="E6" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="F6" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G6" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="H6" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I6" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J6" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -4538,12 +4740,12 @@
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -4552,25 +4754,25 @@
         <v>545618</v>
       </c>
       <c r="D7" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="E7" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F7" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G7" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="H7" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="I7" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="J7" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -4579,12 +4781,12 @@
         <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -4593,25 +4795,25 @@
         <v>545573</v>
       </c>
       <c r="D8" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E8" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="F8" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G8" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="H8" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I8" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J8" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K8" t="s">
         <v>44</v>
@@ -4620,12 +4822,12 @@
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -4634,39 +4836,39 @@
         <v>545433</v>
       </c>
       <c r="D9" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E9" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="F9" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G9" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="H9" t="s">
+        <v>323</v>
+      </c>
+      <c r="I9" t="s">
+        <v>324</v>
+      </c>
+      <c r="J9" t="s">
+        <v>325</v>
+      </c>
+      <c r="K9" t="s">
+        <v>44</v>
+      </c>
+      <c r="L9" t="s">
+        <v>44</v>
+      </c>
+      <c r="M9" t="s">
         <v>287</v>
-      </c>
-      <c r="I9" t="s">
-        <v>288</v>
-      </c>
-      <c r="J9" t="s">
-        <v>289</v>
-      </c>
-      <c r="K9" t="s">
-        <v>44</v>
-      </c>
-      <c r="L9" t="s">
-        <v>44</v>
-      </c>
-      <c r="M9" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -4675,25 +4877,25 @@
         <v>545603</v>
       </c>
       <c r="D10" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="E10" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="F10" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G10" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="H10" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="I10" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J10" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K10" t="s">
         <v>44</v>
@@ -4702,12 +4904,12 @@
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>280</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -4716,25 +4918,25 @@
         <v>545548</v>
       </c>
       <c r="D11" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="E11" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="F11" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G11" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="H11" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="I11" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="J11" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -4743,12 +4945,12 @@
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -4757,25 +4959,25 @@
         <v>545551</v>
       </c>
       <c r="D12" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="E12" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F12" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="G12" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="H12" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I12" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J12" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
@@ -4784,12 +4986,12 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -4798,25 +5000,25 @@
         <v>545550</v>
       </c>
       <c r="D13" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="E13" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="F13" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G13" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="H13" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I13" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J13" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K13" t="s">
         <v>44</v>
@@ -4825,12 +5027,12 @@
         <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -4839,25 +5041,25 @@
         <v>545640</v>
       </c>
       <c r="D14" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="E14" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F14" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G14" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="H14" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="I14" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="J14" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K14" t="s">
         <v>44</v>
@@ -4866,12 +5068,12 @@
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -4880,25 +5082,25 @@
         <v>545572</v>
       </c>
       <c r="D15" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="E15" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F15" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="G15" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="H15" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I15" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J15" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="K15" t="s">
         <v>44</v>
@@ -4907,12 +5109,12 @@
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -4921,25 +5123,25 @@
         <v>545571</v>
       </c>
       <c r="D16" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="E16" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="F16" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G16" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="H16" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I16" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J16" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K16" t="s">
         <v>44</v>
@@ -4948,12 +5150,12 @@
         <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -4962,25 +5164,25 @@
         <v>545619</v>
       </c>
       <c r="D17" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E17" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="F17" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G17" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="H17" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="I17" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J17" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K17" t="s">
         <v>44</v>
@@ -4989,12 +5191,12 @@
         <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -5003,25 +5205,25 @@
         <v>545618</v>
       </c>
       <c r="D18" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="E18" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F18" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G18" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="H18" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="I18" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="J18" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
@@ -5030,12 +5232,12 @@
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -5044,25 +5246,25 @@
         <v>545573</v>
       </c>
       <c r="D19" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E19" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="F19" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G19" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="H19" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I19" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J19" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K19" t="s">
         <v>44</v>
@@ -5071,12 +5273,12 @@
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -5085,39 +5287,39 @@
         <v>545433</v>
       </c>
       <c r="D20" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E20" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="F20" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G20" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="H20" t="s">
+        <v>323</v>
+      </c>
+      <c r="I20" t="s">
+        <v>324</v>
+      </c>
+      <c r="J20" t="s">
+        <v>325</v>
+      </c>
+      <c r="K20" t="s">
+        <v>44</v>
+      </c>
+      <c r="L20" t="s">
+        <v>44</v>
+      </c>
+      <c r="M20" t="s">
         <v>287</v>
-      </c>
-      <c r="I20" t="s">
-        <v>288</v>
-      </c>
-      <c r="J20" t="s">
-        <v>289</v>
-      </c>
-      <c r="K20" t="s">
-        <v>44</v>
-      </c>
-      <c r="L20" t="s">
-        <v>44</v>
-      </c>
-      <c r="M20" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -5126,25 +5328,25 @@
         <v>545603</v>
       </c>
       <c r="D21" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="E21" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="F21" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G21" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="H21" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="I21" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J21" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K21" t="s">
         <v>44</v>
@@ -5153,12 +5355,12 @@
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>300</v>
+        <v>336</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -5167,25 +5369,25 @@
         <v>545548</v>
       </c>
       <c r="D22" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="E22" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="F22" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G22" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="H22" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="I22" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="J22" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K22" t="s">
         <v>44</v>
@@ -5194,12 +5396,12 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -5208,25 +5410,25 @@
         <v>545410</v>
       </c>
       <c r="D23" t="s">
-        <v>307</v>
+        <v>343</v>
       </c>
       <c r="E23" t="s">
-        <v>308</v>
+        <v>344</v>
       </c>
       <c r="F23" t="s">
-        <v>309</v>
+        <v>345</v>
       </c>
       <c r="G23" t="s">
-        <v>310</v>
+        <v>346</v>
       </c>
       <c r="H23" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="I23" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J23" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -5235,12 +5437,12 @@
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>311</v>
+        <v>347</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -5249,25 +5451,25 @@
         <v>545642</v>
       </c>
       <c r="D24" t="s">
-        <v>312</v>
+        <v>348</v>
       </c>
       <c r="E24" t="s">
-        <v>313</v>
+        <v>349</v>
       </c>
       <c r="F24" t="s">
-        <v>314</v>
+        <v>350</v>
       </c>
       <c r="G24" t="s">
-        <v>315</v>
+        <v>351</v>
       </c>
       <c r="H24" t="s">
-        <v>287</v>
+        <v>323</v>
       </c>
       <c r="I24" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J24" t="s">
-        <v>316</v>
+        <v>352</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
@@ -5276,12 +5478,12 @@
         <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>317</v>
+        <v>353</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>306</v>
+        <v>342</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -5290,25 +5492,25 @@
         <v>545549</v>
       </c>
       <c r="D25" t="s">
-        <v>318</v>
+        <v>354</v>
       </c>
       <c r="E25" t="s">
-        <v>319</v>
+        <v>355</v>
       </c>
       <c r="F25" t="s">
-        <v>320</v>
+        <v>356</v>
       </c>
       <c r="G25" t="s">
-        <v>321</v>
+        <v>357</v>
       </c>
       <c r="H25" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="I25" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J25" t="s">
-        <v>322</v>
+        <v>358</v>
       </c>
       <c r="K25" t="s">
         <v>44</v>
@@ -5317,12 +5519,12 @@
         <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>323</v>
+        <v>359</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -5331,25 +5533,25 @@
         <v>545551</v>
       </c>
       <c r="D26" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="E26" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F26" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="G26" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="H26" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I26" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J26" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="K26" t="s">
         <v>44</v>
@@ -5358,12 +5560,12 @@
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -5372,25 +5574,25 @@
         <v>545550</v>
       </c>
       <c r="D27" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="E27" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="F27" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G27" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="H27" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I27" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J27" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K27" t="s">
         <v>44</v>
@@ -5399,12 +5601,12 @@
         <v>44</v>
       </c>
       <c r="M27" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -5413,25 +5615,25 @@
         <v>545640</v>
       </c>
       <c r="D28" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="E28" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F28" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G28" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="H28" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="I28" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="J28" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -5440,12 +5642,12 @@
         <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -5454,25 +5656,25 @@
         <v>545572</v>
       </c>
       <c r="D29" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="E29" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F29" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="G29" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="H29" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I29" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J29" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="K29" t="s">
         <v>44</v>
@@ -5481,12 +5683,12 @@
         <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -5495,25 +5697,25 @@
         <v>545571</v>
       </c>
       <c r="D30" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="E30" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="F30" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G30" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="H30" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I30" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J30" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K30" t="s">
         <v>44</v>
@@ -5522,12 +5724,12 @@
         <v>44</v>
       </c>
       <c r="M30" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -5536,25 +5738,25 @@
         <v>545619</v>
       </c>
       <c r="D31" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E31" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="F31" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G31" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="H31" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="I31" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J31" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K31" t="s">
         <v>44</v>
@@ -5563,12 +5765,12 @@
         <v>44</v>
       </c>
       <c r="M31" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -5577,25 +5779,25 @@
         <v>545618</v>
       </c>
       <c r="D32" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="E32" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F32" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G32" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="H32" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="I32" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="J32" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K32" t="s">
         <v>44</v>
@@ -5604,12 +5806,12 @@
         <v>44</v>
       </c>
       <c r="M32" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
@@ -5618,25 +5820,25 @@
         <v>545573</v>
       </c>
       <c r="D33" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E33" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="F33" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G33" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="H33" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I33" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J33" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K33" t="s">
         <v>44</v>
@@ -5645,12 +5847,12 @@
         <v>44</v>
       </c>
       <c r="M33" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -5659,39 +5861,39 @@
         <v>545433</v>
       </c>
       <c r="D34" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E34" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="F34" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G34" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="H34" t="s">
+        <v>323</v>
+      </c>
+      <c r="I34" t="s">
+        <v>324</v>
+      </c>
+      <c r="J34" t="s">
+        <v>325</v>
+      </c>
+      <c r="K34" t="s">
+        <v>44</v>
+      </c>
+      <c r="L34" t="s">
+        <v>44</v>
+      </c>
+      <c r="M34" t="s">
         <v>287</v>
-      </c>
-      <c r="I34" t="s">
-        <v>288</v>
-      </c>
-      <c r="J34" t="s">
-        <v>289</v>
-      </c>
-      <c r="K34" t="s">
-        <v>44</v>
-      </c>
-      <c r="L34" t="s">
-        <v>44</v>
-      </c>
-      <c r="M34" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -5700,25 +5902,25 @@
         <v>545603</v>
       </c>
       <c r="D35" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="E35" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="F35" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G35" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="H35" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="I35" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J35" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K35" t="s">
         <v>44</v>
@@ -5727,12 +5929,12 @@
         <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -5741,25 +5943,25 @@
         <v>545548</v>
       </c>
       <c r="D36" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="E36" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="F36" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G36" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="H36" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="I36" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="J36" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K36" t="s">
         <v>44</v>
@@ -5768,12 +5970,12 @@
         <v>44</v>
       </c>
       <c r="M36" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>324</v>
+        <v>360</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -5782,25 +5984,25 @@
         <v>545648</v>
       </c>
       <c r="D37" t="s">
-        <v>325</v>
+        <v>361</v>
       </c>
       <c r="E37" t="s">
-        <v>326</v>
+        <v>362</v>
       </c>
       <c r="F37" t="s">
-        <v>327</v>
+        <v>363</v>
       </c>
       <c r="G37" t="s">
-        <v>328</v>
+        <v>364</v>
       </c>
       <c r="H37" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="I37" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="J37" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K37" t="s">
         <v>44</v>
@@ -5809,12 +6011,12 @@
         <v>44</v>
       </c>
       <c r="M37" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -5823,25 +6025,25 @@
         <v>545551</v>
       </c>
       <c r="D38" t="s">
-        <v>245</v>
+        <v>281</v>
       </c>
       <c r="E38" t="s">
-        <v>246</v>
+        <v>282</v>
       </c>
       <c r="F38" t="s">
-        <v>247</v>
+        <v>283</v>
       </c>
       <c r="G38" t="s">
-        <v>248</v>
+        <v>284</v>
       </c>
       <c r="H38" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I38" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J38" t="s">
-        <v>250</v>
+        <v>286</v>
       </c>
       <c r="K38" t="s">
         <v>44</v>
@@ -5850,12 +6052,12 @@
         <v>44</v>
       </c>
       <c r="M38" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -5864,25 +6066,25 @@
         <v>545550</v>
       </c>
       <c r="D39" t="s">
-        <v>252</v>
+        <v>288</v>
       </c>
       <c r="E39" t="s">
-        <v>253</v>
+        <v>289</v>
       </c>
       <c r="F39" t="s">
-        <v>254</v>
+        <v>290</v>
       </c>
       <c r="G39" t="s">
-        <v>255</v>
+        <v>291</v>
       </c>
       <c r="H39" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="I39" t="s">
-        <v>249</v>
+        <v>285</v>
       </c>
       <c r="J39" t="s">
-        <v>256</v>
+        <v>292</v>
       </c>
       <c r="K39" t="s">
         <v>44</v>
@@ -5891,12 +6093,12 @@
         <v>44</v>
       </c>
       <c r="M39" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -5905,25 +6107,25 @@
         <v>545640</v>
       </c>
       <c r="D40" t="s">
-        <v>257</v>
+        <v>293</v>
       </c>
       <c r="E40" t="s">
-        <v>258</v>
+        <v>294</v>
       </c>
       <c r="F40" t="s">
-        <v>259</v>
+        <v>295</v>
       </c>
       <c r="G40" t="s">
-        <v>260</v>
+        <v>296</v>
       </c>
       <c r="H40" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="I40" t="s">
-        <v>161</v>
+        <v>197</v>
       </c>
       <c r="J40" t="s">
-        <v>261</v>
+        <v>297</v>
       </c>
       <c r="K40" t="s">
         <v>44</v>
@@ -5932,12 +6134,12 @@
         <v>44</v>
       </c>
       <c r="M40" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -5946,25 +6148,25 @@
         <v>545572</v>
       </c>
       <c r="D41" t="s">
-        <v>262</v>
+        <v>298</v>
       </c>
       <c r="E41" t="s">
-        <v>263</v>
+        <v>299</v>
       </c>
       <c r="F41" t="s">
-        <v>264</v>
+        <v>300</v>
       </c>
       <c r="G41" t="s">
-        <v>265</v>
+        <v>301</v>
       </c>
       <c r="H41" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I41" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J41" t="s">
-        <v>266</v>
+        <v>302</v>
       </c>
       <c r="K41" t="s">
         <v>44</v>
@@ -5973,12 +6175,12 @@
         <v>44</v>
       </c>
       <c r="M41" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -5987,25 +6189,25 @@
         <v>545571</v>
       </c>
       <c r="D42" t="s">
-        <v>267</v>
+        <v>303</v>
       </c>
       <c r="E42" t="s">
-        <v>268</v>
+        <v>304</v>
       </c>
       <c r="F42" t="s">
-        <v>269</v>
+        <v>305</v>
       </c>
       <c r="G42" t="s">
-        <v>270</v>
+        <v>306</v>
       </c>
       <c r="H42" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I42" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J42" t="s">
-        <v>271</v>
+        <v>307</v>
       </c>
       <c r="K42" t="s">
         <v>44</v>
@@ -6014,12 +6216,12 @@
         <v>44</v>
       </c>
       <c r="M42" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -6028,25 +6230,25 @@
         <v>545643</v>
       </c>
       <c r="D43" t="s">
-        <v>330</v>
+        <v>366</v>
       </c>
       <c r="E43" t="s">
-        <v>331</v>
+        <v>367</v>
       </c>
       <c r="F43" t="s">
-        <v>332</v>
+        <v>368</v>
       </c>
       <c r="G43" t="s">
-        <v>333</v>
+        <v>369</v>
       </c>
       <c r="H43" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="I43" t="s">
-        <v>334</v>
+        <v>370</v>
       </c>
       <c r="J43" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K43" t="s">
         <v>44</v>
@@ -6055,12 +6257,12 @@
         <v>44</v>
       </c>
       <c r="M43" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -6069,25 +6271,25 @@
         <v>545619</v>
       </c>
       <c r="D44" t="s">
-        <v>301</v>
+        <v>337</v>
       </c>
       <c r="E44" t="s">
-        <v>302</v>
+        <v>338</v>
       </c>
       <c r="F44" t="s">
-        <v>303</v>
+        <v>339</v>
       </c>
       <c r="G44" t="s">
-        <v>304</v>
+        <v>340</v>
       </c>
       <c r="H44" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="I44" t="s">
-        <v>146</v>
+        <v>182</v>
       </c>
       <c r="J44" t="s">
-        <v>305</v>
+        <v>341</v>
       </c>
       <c r="K44" t="s">
         <v>44</v>
@@ -6096,12 +6298,12 @@
         <v>44</v>
       </c>
       <c r="M44" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -6110,25 +6312,25 @@
         <v>545618</v>
       </c>
       <c r="D45" t="s">
-        <v>273</v>
+        <v>309</v>
       </c>
       <c r="E45" t="s">
-        <v>274</v>
+        <v>310</v>
       </c>
       <c r="F45" t="s">
-        <v>275</v>
+        <v>311</v>
       </c>
       <c r="G45" t="s">
-        <v>276</v>
+        <v>312</v>
       </c>
       <c r="H45" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="I45" t="s">
-        <v>133</v>
+        <v>169</v>
       </c>
       <c r="J45" t="s">
-        <v>277</v>
+        <v>313</v>
       </c>
       <c r="K45" t="s">
         <v>44</v>
@@ -6137,12 +6339,12 @@
         <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -6151,25 +6353,25 @@
         <v>545645</v>
       </c>
       <c r="D46" t="s">
-        <v>335</v>
+        <v>371</v>
       </c>
       <c r="E46" t="s">
-        <v>336</v>
+        <v>372</v>
       </c>
       <c r="F46" t="s">
-        <v>337</v>
+        <v>373</v>
       </c>
       <c r="G46" t="s">
-        <v>338</v>
+        <v>374</v>
       </c>
       <c r="H46" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="I46" t="s">
-        <v>339</v>
+        <v>375</v>
       </c>
       <c r="J46" t="s">
-        <v>340</v>
+        <v>376</v>
       </c>
       <c r="K46" t="s">
         <v>44</v>
@@ -6178,12 +6380,12 @@
         <v>44</v>
       </c>
       <c r="M46" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
@@ -6192,26 +6394,26 @@
         <v>545644</v>
       </c>
       <c r="D47" t="s">
+        <v>377</v>
+      </c>
+      <c r="E47" t="s">
+        <v>378</v>
+      </c>
+      <c r="F47" t="s">
+        <v>379</v>
+      </c>
+      <c r="G47" t="s">
+        <v>380</v>
+      </c>
+      <c r="H47" t="s">
+        <v>375</v>
+      </c>
+      <c r="I47" t="s">
+        <v>375</v>
+      </c>
+      <c r="J47" t="s">
         <v>341</v>
       </c>
-      <c r="E47" t="s">
-        <v>342</v>
-      </c>
-      <c r="F47" t="s">
-        <v>343</v>
-      </c>
-      <c r="G47" t="s">
-        <v>344</v>
-      </c>
-      <c r="H47" t="s">
-        <v>339</v>
-      </c>
-      <c r="I47" t="s">
-        <v>339</v>
-      </c>
-      <c r="J47" t="s">
-        <v>305</v>
-      </c>
       <c r="K47" t="s">
         <v>44</v>
       </c>
@@ -6219,12 +6421,12 @@
         <v>44</v>
       </c>
       <c r="M47" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
@@ -6233,25 +6435,25 @@
         <v>545573</v>
       </c>
       <c r="D48" t="s">
-        <v>278</v>
+        <v>314</v>
       </c>
       <c r="E48" t="s">
-        <v>279</v>
+        <v>315</v>
       </c>
       <c r="F48" t="s">
-        <v>280</v>
+        <v>316</v>
       </c>
       <c r="G48" t="s">
-        <v>281</v>
+        <v>317</v>
       </c>
       <c r="H48" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="I48" t="s">
-        <v>128</v>
+        <v>164</v>
       </c>
       <c r="J48" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K48" t="s">
         <v>44</v>
@@ -6260,12 +6462,12 @@
         <v>44</v>
       </c>
       <c r="M48" t="s">
-        <v>272</v>
+        <v>308</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -6274,39 +6476,39 @@
         <v>545433</v>
       </c>
       <c r="D49" t="s">
-        <v>283</v>
+        <v>319</v>
       </c>
       <c r="E49" t="s">
-        <v>284</v>
+        <v>320</v>
       </c>
       <c r="F49" t="s">
-        <v>285</v>
+        <v>321</v>
       </c>
       <c r="G49" t="s">
-        <v>286</v>
+        <v>322</v>
       </c>
       <c r="H49" t="s">
+        <v>323</v>
+      </c>
+      <c r="I49" t="s">
+        <v>324</v>
+      </c>
+      <c r="J49" t="s">
+        <v>325</v>
+      </c>
+      <c r="K49" t="s">
+        <v>44</v>
+      </c>
+      <c r="L49" t="s">
+        <v>44</v>
+      </c>
+      <c r="M49" t="s">
         <v>287</v>
-      </c>
-      <c r="I49" t="s">
-        <v>288</v>
-      </c>
-      <c r="J49" t="s">
-        <v>289</v>
-      </c>
-      <c r="K49" t="s">
-        <v>44</v>
-      </c>
-      <c r="L49" t="s">
-        <v>44</v>
-      </c>
-      <c r="M49" t="s">
-        <v>251</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -6315,25 +6517,25 @@
         <v>545603</v>
       </c>
       <c r="D50" t="s">
-        <v>290</v>
+        <v>326</v>
       </c>
       <c r="E50" t="s">
-        <v>291</v>
+        <v>327</v>
       </c>
       <c r="F50" t="s">
-        <v>292</v>
+        <v>328</v>
       </c>
       <c r="G50" t="s">
-        <v>293</v>
+        <v>329</v>
       </c>
       <c r="H50" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="I50" t="s">
-        <v>123</v>
+        <v>159</v>
       </c>
       <c r="J50" t="s">
-        <v>294</v>
+        <v>330</v>
       </c>
       <c r="K50" t="s">
         <v>44</v>
@@ -6342,12 +6544,12 @@
         <v>44</v>
       </c>
       <c r="M50" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
@@ -6356,25 +6558,25 @@
         <v>545548</v>
       </c>
       <c r="D51" t="s">
-        <v>295</v>
+        <v>331</v>
       </c>
       <c r="E51" t="s">
-        <v>296</v>
+        <v>332</v>
       </c>
       <c r="F51" t="s">
-        <v>297</v>
+        <v>333</v>
       </c>
       <c r="G51" t="s">
-        <v>298</v>
+        <v>334</v>
       </c>
       <c r="H51" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="I51" t="s">
-        <v>299</v>
+        <v>335</v>
       </c>
       <c r="J51" t="s">
-        <v>282</v>
+        <v>318</v>
       </c>
       <c r="K51" t="s">
         <v>44</v>
@@ -6383,12 +6585,12 @@
         <v>44</v>
       </c>
       <c r="M51" t="s">
-        <v>251</v>
+        <v>287</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>329</v>
+        <v>365</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
@@ -6397,34 +6599,690 @@
         <v>545648</v>
       </c>
       <c r="D52" t="s">
+        <v>361</v>
+      </c>
+      <c r="E52" t="s">
+        <v>362</v>
+      </c>
+      <c r="F52" t="s">
+        <v>363</v>
+      </c>
+      <c r="G52" t="s">
+        <v>364</v>
+      </c>
+      <c r="H52" t="s">
+        <v>197</v>
+      </c>
+      <c r="I52" t="s">
+        <v>197</v>
+      </c>
+      <c r="J52" t="s">
+        <v>313</v>
+      </c>
+      <c r="K52" t="s">
+        <v>44</v>
+      </c>
+      <c r="L52" t="s">
+        <v>44</v>
+      </c>
+      <c r="M52" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="53" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>381</v>
+      </c>
+      <c r="B53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C53">
+        <v>545551</v>
+      </c>
+      <c r="D53" t="s">
+        <v>281</v>
+      </c>
+      <c r="E53" t="s">
+        <v>282</v>
+      </c>
+      <c r="F53" t="s">
+        <v>283</v>
+      </c>
+      <c r="G53" t="s">
+        <v>284</v>
+      </c>
+      <c r="H53" t="s">
+        <v>285</v>
+      </c>
+      <c r="I53" t="s">
+        <v>285</v>
+      </c>
+      <c r="J53" t="s">
+        <v>286</v>
+      </c>
+      <c r="K53" t="s">
+        <v>44</v>
+      </c>
+      <c r="L53" t="s">
+        <v>44</v>
+      </c>
+      <c r="M53" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="54" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>381</v>
+      </c>
+      <c r="B54" t="s">
+        <v>43</v>
+      </c>
+      <c r="C54">
+        <v>545550</v>
+      </c>
+      <c r="D54" t="s">
+        <v>288</v>
+      </c>
+      <c r="E54" t="s">
+        <v>289</v>
+      </c>
+      <c r="F54" t="s">
+        <v>290</v>
+      </c>
+      <c r="G54" t="s">
+        <v>291</v>
+      </c>
+      <c r="H54" t="s">
+        <v>285</v>
+      </c>
+      <c r="I54" t="s">
+        <v>285</v>
+      </c>
+      <c r="J54" t="s">
+        <v>292</v>
+      </c>
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="55" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>381</v>
+      </c>
+      <c r="B55" t="s">
+        <v>43</v>
+      </c>
+      <c r="C55">
+        <v>545640</v>
+      </c>
+      <c r="D55" t="s">
+        <v>293</v>
+      </c>
+      <c r="E55" t="s">
+        <v>294</v>
+      </c>
+      <c r="F55" t="s">
+        <v>295</v>
+      </c>
+      <c r="G55" t="s">
+        <v>296</v>
+      </c>
+      <c r="H55" t="s">
+        <v>197</v>
+      </c>
+      <c r="I55" t="s">
+        <v>197</v>
+      </c>
+      <c r="J55" t="s">
+        <v>297</v>
+      </c>
+      <c r="K55" t="s">
+        <v>44</v>
+      </c>
+      <c r="L55" t="s">
+        <v>44</v>
+      </c>
+      <c r="M55" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="56" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>381</v>
+      </c>
+      <c r="B56" t="s">
+        <v>43</v>
+      </c>
+      <c r="C56">
+        <v>545572</v>
+      </c>
+      <c r="D56" t="s">
+        <v>298</v>
+      </c>
+      <c r="E56" t="s">
+        <v>299</v>
+      </c>
+      <c r="F56" t="s">
+        <v>300</v>
+      </c>
+      <c r="G56" t="s">
+        <v>301</v>
+      </c>
+      <c r="H56" t="s">
+        <v>164</v>
+      </c>
+      <c r="I56" t="s">
+        <v>164</v>
+      </c>
+      <c r="J56" t="s">
+        <v>302</v>
+      </c>
+      <c r="K56" t="s">
+        <v>44</v>
+      </c>
+      <c r="L56" t="s">
+        <v>44</v>
+      </c>
+      <c r="M56" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="57" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>381</v>
+      </c>
+      <c r="B57" t="s">
+        <v>43</v>
+      </c>
+      <c r="C57">
+        <v>545571</v>
+      </c>
+      <c r="D57" t="s">
+        <v>303</v>
+      </c>
+      <c r="E57" t="s">
+        <v>304</v>
+      </c>
+      <c r="F57" t="s">
+        <v>305</v>
+      </c>
+      <c r="G57" t="s">
+        <v>306</v>
+      </c>
+      <c r="H57" t="s">
+        <v>164</v>
+      </c>
+      <c r="I57" t="s">
+        <v>164</v>
+      </c>
+      <c r="J57" t="s">
+        <v>307</v>
+      </c>
+      <c r="K57" t="s">
+        <v>44</v>
+      </c>
+      <c r="L57" t="s">
+        <v>44</v>
+      </c>
+      <c r="M57" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="58" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>381</v>
+      </c>
+      <c r="B58" t="s">
+        <v>43</v>
+      </c>
+      <c r="C58">
+        <v>545643</v>
+      </c>
+      <c r="D58" t="s">
+        <v>366</v>
+      </c>
+      <c r="E58" t="s">
+        <v>367</v>
+      </c>
+      <c r="F58" t="s">
+        <v>368</v>
+      </c>
+      <c r="G58" t="s">
+        <v>369</v>
+      </c>
+      <c r="H58" t="s">
+        <v>370</v>
+      </c>
+      <c r="I58" t="s">
+        <v>370</v>
+      </c>
+      <c r="J58" t="s">
+        <v>318</v>
+      </c>
+      <c r="K58" t="s">
+        <v>44</v>
+      </c>
+      <c r="L58" t="s">
+        <v>44</v>
+      </c>
+      <c r="M58" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="59" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>381</v>
+      </c>
+      <c r="B59" t="s">
+        <v>43</v>
+      </c>
+      <c r="C59">
+        <v>545619</v>
+      </c>
+      <c r="D59" t="s">
+        <v>337</v>
+      </c>
+      <c r="E59" t="s">
+        <v>338</v>
+      </c>
+      <c r="F59" t="s">
+        <v>339</v>
+      </c>
+      <c r="G59" t="s">
+        <v>340</v>
+      </c>
+      <c r="H59" t="s">
+        <v>182</v>
+      </c>
+      <c r="I59" t="s">
+        <v>182</v>
+      </c>
+      <c r="J59" t="s">
+        <v>341</v>
+      </c>
+      <c r="K59" t="s">
+        <v>44</v>
+      </c>
+      <c r="L59" t="s">
+        <v>44</v>
+      </c>
+      <c r="M59" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="60" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>381</v>
+      </c>
+      <c r="B60" t="s">
+        <v>43</v>
+      </c>
+      <c r="C60">
+        <v>545618</v>
+      </c>
+      <c r="D60" t="s">
+        <v>309</v>
+      </c>
+      <c r="E60" t="s">
+        <v>310</v>
+      </c>
+      <c r="F60" t="s">
+        <v>311</v>
+      </c>
+      <c r="G60" t="s">
+        <v>312</v>
+      </c>
+      <c r="H60" t="s">
+        <v>169</v>
+      </c>
+      <c r="I60" t="s">
+        <v>169</v>
+      </c>
+      <c r="J60" t="s">
+        <v>313</v>
+      </c>
+      <c r="K60" t="s">
+        <v>44</v>
+      </c>
+      <c r="L60" t="s">
+        <v>44</v>
+      </c>
+      <c r="M60" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="61" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>381</v>
+      </c>
+      <c r="B61" t="s">
+        <v>43</v>
+      </c>
+      <c r="C61">
+        <v>545646</v>
+      </c>
+      <c r="D61" t="s">
+        <v>382</v>
+      </c>
+      <c r="E61" t="s">
+        <v>383</v>
+      </c>
+      <c r="F61" t="s">
+        <v>384</v>
+      </c>
+      <c r="G61" t="s">
+        <v>385</v>
+      </c>
+      <c r="H61" t="s">
+        <v>169</v>
+      </c>
+      <c r="I61" t="s">
+        <v>169</v>
+      </c>
+      <c r="J61" t="s">
+        <v>386</v>
+      </c>
+      <c r="K61" t="s">
+        <v>44</v>
+      </c>
+      <c r="L61" t="s">
+        <v>44</v>
+      </c>
+      <c r="M61" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="62" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>381</v>
+      </c>
+      <c r="B62" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62">
+        <v>545645</v>
+      </c>
+      <c r="D62" t="s">
+        <v>371</v>
+      </c>
+      <c r="E62" t="s">
+        <v>372</v>
+      </c>
+      <c r="F62" t="s">
+        <v>373</v>
+      </c>
+      <c r="G62" t="s">
+        <v>374</v>
+      </c>
+      <c r="H62" t="s">
+        <v>375</v>
+      </c>
+      <c r="I62" t="s">
+        <v>375</v>
+      </c>
+      <c r="J62" t="s">
+        <v>376</v>
+      </c>
+      <c r="K62" t="s">
+        <v>44</v>
+      </c>
+      <c r="L62" t="s">
+        <v>44</v>
+      </c>
+      <c r="M62" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="63" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>381</v>
+      </c>
+      <c r="B63" t="s">
+        <v>43</v>
+      </c>
+      <c r="C63">
+        <v>545644</v>
+      </c>
+      <c r="D63" t="s">
+        <v>377</v>
+      </c>
+      <c r="E63" t="s">
+        <v>378</v>
+      </c>
+      <c r="F63" t="s">
+        <v>379</v>
+      </c>
+      <c r="G63" t="s">
+        <v>380</v>
+      </c>
+      <c r="H63" t="s">
+        <v>375</v>
+      </c>
+      <c r="I63" t="s">
+        <v>375</v>
+      </c>
+      <c r="J63" t="s">
+        <v>341</v>
+      </c>
+      <c r="K63" t="s">
+        <v>44</v>
+      </c>
+      <c r="L63" t="s">
+        <v>44</v>
+      </c>
+      <c r="M63" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="64" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>381</v>
+      </c>
+      <c r="B64" t="s">
+        <v>43</v>
+      </c>
+      <c r="C64">
+        <v>545573</v>
+      </c>
+      <c r="D64" t="s">
+        <v>314</v>
+      </c>
+      <c r="E64" t="s">
+        <v>315</v>
+      </c>
+      <c r="F64" t="s">
+        <v>316</v>
+      </c>
+      <c r="G64" t="s">
+        <v>317</v>
+      </c>
+      <c r="H64" t="s">
+        <v>164</v>
+      </c>
+      <c r="I64" t="s">
+        <v>164</v>
+      </c>
+      <c r="J64" t="s">
+        <v>318</v>
+      </c>
+      <c r="K64" t="s">
+        <v>44</v>
+      </c>
+      <c r="L64" t="s">
+        <v>44</v>
+      </c>
+      <c r="M64" t="s">
+        <v>308</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>381</v>
+      </c>
+      <c r="B65" t="s">
+        <v>43</v>
+      </c>
+      <c r="C65">
+        <v>545433</v>
+      </c>
+      <c r="D65" t="s">
+        <v>319</v>
+      </c>
+      <c r="E65" t="s">
+        <v>320</v>
+      </c>
+      <c r="F65" t="s">
+        <v>321</v>
+      </c>
+      <c r="G65" t="s">
+        <v>322</v>
+      </c>
+      <c r="H65" t="s">
+        <v>323</v>
+      </c>
+      <c r="I65" t="s">
+        <v>324</v>
+      </c>
+      <c r="J65" t="s">
         <v>325</v>
       </c>
-      <c r="E52" t="s">
+      <c r="K65" t="s">
+        <v>44</v>
+      </c>
+      <c r="L65" t="s">
+        <v>44</v>
+      </c>
+      <c r="M65" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>381</v>
+      </c>
+      <c r="B66" t="s">
+        <v>43</v>
+      </c>
+      <c r="C66">
+        <v>545603</v>
+      </c>
+      <c r="D66" t="s">
         <v>326</v>
       </c>
-      <c r="F52" t="s">
+      <c r="E66" t="s">
         <v>327</v>
       </c>
-      <c r="G52" t="s">
+      <c r="F66" t="s">
         <v>328</v>
       </c>
-      <c r="H52" t="s">
-        <v>161</v>
-      </c>
-      <c r="I52" t="s">
-        <v>161</v>
-      </c>
-      <c r="J52" t="s">
-        <v>277</v>
-      </c>
-      <c r="K52" t="s">
-        <v>44</v>
-      </c>
-      <c r="L52" t="s">
-        <v>44</v>
-      </c>
-      <c r="M52" t="s">
-        <v>251</v>
+      <c r="G66" t="s">
+        <v>329</v>
+      </c>
+      <c r="H66" t="s">
+        <v>159</v>
+      </c>
+      <c r="I66" t="s">
+        <v>159</v>
+      </c>
+      <c r="J66" t="s">
+        <v>330</v>
+      </c>
+      <c r="K66" t="s">
+        <v>44</v>
+      </c>
+      <c r="L66" t="s">
+        <v>44</v>
+      </c>
+      <c r="M66" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>381</v>
+      </c>
+      <c r="B67" t="s">
+        <v>43</v>
+      </c>
+      <c r="C67">
+        <v>545548</v>
+      </c>
+      <c r="D67" t="s">
+        <v>331</v>
+      </c>
+      <c r="E67" t="s">
+        <v>332</v>
+      </c>
+      <c r="F67" t="s">
+        <v>333</v>
+      </c>
+      <c r="G67" t="s">
+        <v>334</v>
+      </c>
+      <c r="H67" t="s">
+        <v>335</v>
+      </c>
+      <c r="I67" t="s">
+        <v>335</v>
+      </c>
+      <c r="J67" t="s">
+        <v>318</v>
+      </c>
+      <c r="K67" t="s">
+        <v>44</v>
+      </c>
+      <c r="L67" t="s">
+        <v>44</v>
+      </c>
+      <c r="M67" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>381</v>
+      </c>
+      <c r="B68" t="s">
+        <v>43</v>
+      </c>
+      <c r="C68">
+        <v>545648</v>
+      </c>
+      <c r="D68" t="s">
+        <v>361</v>
+      </c>
+      <c r="E68" t="s">
+        <v>362</v>
+      </c>
+      <c r="F68" t="s">
+        <v>363</v>
+      </c>
+      <c r="G68" t="s">
+        <v>364</v>
+      </c>
+      <c r="H68" t="s">
+        <v>197</v>
+      </c>
+      <c r="I68" t="s">
+        <v>197</v>
+      </c>
+      <c r="J68" t="s">
+        <v>313</v>
+      </c>
+      <c r="K68" t="s">
+        <v>44</v>
+      </c>
+      <c r="L68" t="s">
+        <v>44</v>
+      </c>
+      <c r="M68" t="s">
+        <v>287</v>
       </c>
     </row>
   </sheetData>
@@ -6435,7 +7293,648 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G69"/>
+  <dimension ref="A1:K18"/>
+  <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
+  <sheetData>
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>387</v>
+      </c>
+      <c r="D1" t="s">
+        <v>388</v>
+      </c>
+      <c r="E1" t="s">
+        <v>389</v>
+      </c>
+      <c r="F1" t="s">
+        <v>390</v>
+      </c>
+      <c r="G1" t="s">
+        <v>391</v>
+      </c>
+      <c r="H1" t="s">
+        <v>392</v>
+      </c>
+      <c r="I1" t="s">
+        <v>393</v>
+      </c>
+      <c r="J1" t="s">
+        <v>394</v>
+      </c>
+      <c r="K1" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>396</v>
+      </c>
+      <c r="B2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C2">
+        <v>71175</v>
+      </c>
+      <c r="D2" t="s">
+        <v>397</v>
+      </c>
+      <c r="E2">
+        <v>103560</v>
+      </c>
+      <c r="F2" t="s">
+        <v>398</v>
+      </c>
+      <c r="G2" t="s">
+        <v>399</v>
+      </c>
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>43</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>396</v>
+      </c>
+      <c r="B3" t="s">
+        <v>103</v>
+      </c>
+      <c r="C3">
+        <v>71175</v>
+      </c>
+      <c r="D3" t="s">
+        <v>397</v>
+      </c>
+      <c r="E3">
+        <v>103560</v>
+      </c>
+      <c r="F3" t="s">
+        <v>398</v>
+      </c>
+      <c r="G3" t="s">
+        <v>400</v>
+      </c>
+      <c r="H3">
+        <v>2</v>
+      </c>
+      <c r="I3">
+        <v>4</v>
+      </c>
+      <c r="J3">
+        <v>43</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>396</v>
+      </c>
+      <c r="B4" t="s">
+        <v>103</v>
+      </c>
+      <c r="C4">
+        <v>71175</v>
+      </c>
+      <c r="D4" t="s">
+        <v>401</v>
+      </c>
+      <c r="E4">
+        <v>103561</v>
+      </c>
+      <c r="F4" t="s">
+        <v>398</v>
+      </c>
+      <c r="G4" t="s">
+        <v>402</v>
+      </c>
+      <c r="H4">
+        <v>3</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>43</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>396</v>
+      </c>
+      <c r="B5" t="s">
+        <v>103</v>
+      </c>
+      <c r="C5">
+        <v>71175</v>
+      </c>
+      <c r="D5" t="s">
+        <v>401</v>
+      </c>
+      <c r="E5">
+        <v>103561</v>
+      </c>
+      <c r="F5" t="s">
+        <v>398</v>
+      </c>
+      <c r="G5" t="s">
+        <v>400</v>
+      </c>
+      <c r="H5">
+        <v>2</v>
+      </c>
+      <c r="I5">
+        <v>4</v>
+      </c>
+      <c r="J5">
+        <v>43</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>396</v>
+      </c>
+      <c r="B6" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6">
+        <v>71175</v>
+      </c>
+      <c r="D6" t="s">
+        <v>401</v>
+      </c>
+      <c r="E6">
+        <v>103561</v>
+      </c>
+      <c r="F6" t="s">
+        <v>398</v>
+      </c>
+      <c r="G6" t="s">
+        <v>399</v>
+      </c>
+      <c r="H6">
+        <v>1</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>396</v>
+      </c>
+      <c r="B7" t="s">
+        <v>103</v>
+      </c>
+      <c r="C7">
+        <v>71175</v>
+      </c>
+      <c r="D7" t="s">
+        <v>403</v>
+      </c>
+      <c r="E7">
+        <v>103562</v>
+      </c>
+      <c r="F7" t="s">
+        <v>404</v>
+      </c>
+      <c r="G7" t="s">
+        <v>399</v>
+      </c>
+      <c r="H7">
+        <v>1</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>47</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>396</v>
+      </c>
+      <c r="B8" t="s">
+        <v>103</v>
+      </c>
+      <c r="C8">
+        <v>71175</v>
+      </c>
+      <c r="D8" t="s">
+        <v>403</v>
+      </c>
+      <c r="E8">
+        <v>103562</v>
+      </c>
+      <c r="F8" t="s">
+        <v>404</v>
+      </c>
+      <c r="G8" t="s">
+        <v>400</v>
+      </c>
+      <c r="H8">
+        <v>2</v>
+      </c>
+      <c r="I8">
+        <v>4</v>
+      </c>
+      <c r="J8">
+        <v>47</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>396</v>
+      </c>
+      <c r="B9" t="s">
+        <v>103</v>
+      </c>
+      <c r="C9">
+        <v>71175</v>
+      </c>
+      <c r="D9" t="s">
+        <v>405</v>
+      </c>
+      <c r="E9">
+        <v>103580</v>
+      </c>
+      <c r="F9" t="s">
+        <v>404</v>
+      </c>
+      <c r="G9" t="s">
+        <v>400</v>
+      </c>
+      <c r="H9">
+        <v>2</v>
+      </c>
+      <c r="I9">
+        <v>4</v>
+      </c>
+      <c r="J9">
+        <v>47</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>396</v>
+      </c>
+      <c r="B10" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10">
+        <v>71175</v>
+      </c>
+      <c r="D10" t="s">
+        <v>405</v>
+      </c>
+      <c r="E10">
+        <v>103580</v>
+      </c>
+      <c r="F10" t="s">
+        <v>404</v>
+      </c>
+      <c r="G10" t="s">
+        <v>399</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>47</v>
+      </c>
+      <c r="K10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>396</v>
+      </c>
+      <c r="B11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C11">
+        <v>71175</v>
+      </c>
+      <c r="D11" t="s">
+        <v>406</v>
+      </c>
+      <c r="E11">
+        <v>103581</v>
+      </c>
+      <c r="F11" t="s">
+        <v>398</v>
+      </c>
+      <c r="G11" t="s">
+        <v>399</v>
+      </c>
+      <c r="H11">
+        <v>1</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>43</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>407</v>
+      </c>
+      <c r="B12" t="s">
+        <v>103</v>
+      </c>
+      <c r="C12">
+        <v>71175</v>
+      </c>
+      <c r="D12" t="s">
+        <v>406</v>
+      </c>
+      <c r="E12">
+        <v>103581</v>
+      </c>
+      <c r="F12" t="s">
+        <v>398</v>
+      </c>
+      <c r="G12" t="s">
+        <v>400</v>
+      </c>
+      <c r="H12">
+        <v>2</v>
+      </c>
+      <c r="I12">
+        <v>4</v>
+      </c>
+      <c r="J12">
+        <v>43</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>407</v>
+      </c>
+      <c r="B13" t="s">
+        <v>103</v>
+      </c>
+      <c r="C13">
+        <v>71175</v>
+      </c>
+      <c r="D13" t="s">
+        <v>397</v>
+      </c>
+      <c r="E13">
+        <v>103582</v>
+      </c>
+      <c r="F13" t="s">
+        <v>408</v>
+      </c>
+      <c r="G13" t="s">
+        <v>400</v>
+      </c>
+      <c r="H13">
+        <v>2</v>
+      </c>
+      <c r="I13">
+        <v>4</v>
+      </c>
+      <c r="J13">
+        <v>62</v>
+      </c>
+      <c r="K13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>407</v>
+      </c>
+      <c r="B14" t="s">
+        <v>103</v>
+      </c>
+      <c r="C14">
+        <v>71175</v>
+      </c>
+      <c r="D14" t="s">
+        <v>397</v>
+      </c>
+      <c r="E14">
+        <v>103582</v>
+      </c>
+      <c r="F14" t="s">
+        <v>408</v>
+      </c>
+      <c r="G14" t="s">
+        <v>399</v>
+      </c>
+      <c r="H14">
+        <v>1</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>62</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>407</v>
+      </c>
+      <c r="B15" t="s">
+        <v>103</v>
+      </c>
+      <c r="C15">
+        <v>71175</v>
+      </c>
+      <c r="D15" t="s">
+        <v>401</v>
+      </c>
+      <c r="E15">
+        <v>103583</v>
+      </c>
+      <c r="F15" t="s">
+        <v>408</v>
+      </c>
+      <c r="G15" t="s">
+        <v>399</v>
+      </c>
+      <c r="H15">
+        <v>1</v>
+      </c>
+      <c r="I15">
+        <v>1</v>
+      </c>
+      <c r="J15">
+        <v>62</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>407</v>
+      </c>
+      <c r="B16" t="s">
+        <v>103</v>
+      </c>
+      <c r="C16">
+        <v>71175</v>
+      </c>
+      <c r="D16" t="s">
+        <v>401</v>
+      </c>
+      <c r="E16">
+        <v>103583</v>
+      </c>
+      <c r="F16" t="s">
+        <v>408</v>
+      </c>
+      <c r="G16" t="s">
+        <v>400</v>
+      </c>
+      <c r="H16">
+        <v>2</v>
+      </c>
+      <c r="I16">
+        <v>4</v>
+      </c>
+      <c r="J16">
+        <v>62</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>407</v>
+      </c>
+      <c r="B17" t="s">
+        <v>103</v>
+      </c>
+      <c r="C17">
+        <v>71175</v>
+      </c>
+      <c r="D17" t="s">
+        <v>409</v>
+      </c>
+      <c r="E17">
+        <v>103584</v>
+      </c>
+      <c r="F17" t="s">
+        <v>410</v>
+      </c>
+      <c r="G17" t="s">
+        <v>399</v>
+      </c>
+      <c r="H17">
+        <v>1</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>5</v>
+      </c>
+      <c r="K17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>407</v>
+      </c>
+      <c r="B18" t="s">
+        <v>103</v>
+      </c>
+      <c r="C18">
+        <v>71175</v>
+      </c>
+      <c r="D18" t="s">
+        <v>411</v>
+      </c>
+      <c r="E18">
+        <v>103585</v>
+      </c>
+      <c r="F18" t="s">
+        <v>410</v>
+      </c>
+      <c r="G18" t="s">
+        <v>399</v>
+      </c>
+      <c r="H18">
+        <v>1</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>5</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:G97"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -8033,6 +9532,650 @@
         <v>24</v>
       </c>
     </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>96</v>
+      </c>
+      <c r="B70" t="s">
+        <v>42</v>
+      </c>
+      <c r="C70" t="s">
+        <v>43</v>
+      </c>
+      <c r="D70" t="s">
+        <v>44</v>
+      </c>
+      <c r="E70" t="s">
+        <v>44</v>
+      </c>
+      <c r="F70" t="s">
+        <v>44</v>
+      </c>
+      <c r="G70" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" t="s">
+        <v>15</v>
+      </c>
+      <c r="C71">
+        <v>71454</v>
+      </c>
+      <c r="D71">
+        <v>103360</v>
+      </c>
+      <c r="E71">
+        <v>3</v>
+      </c>
+      <c r="F71">
+        <v>1</v>
+      </c>
+      <c r="G71" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>99</v>
+      </c>
+      <c r="B72" t="s">
+        <v>15</v>
+      </c>
+      <c r="C72">
+        <v>71454</v>
+      </c>
+      <c r="D72">
+        <v>103360</v>
+      </c>
+      <c r="E72">
+        <v>2</v>
+      </c>
+      <c r="F72">
+        <v>1</v>
+      </c>
+      <c r="G72" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>101</v>
+      </c>
+      <c r="B73" t="s">
+        <v>102</v>
+      </c>
+      <c r="C73" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" t="s">
+        <v>44</v>
+      </c>
+      <c r="E73" t="s">
+        <v>44</v>
+      </c>
+      <c r="F73" t="s">
+        <v>44</v>
+      </c>
+      <c r="G73" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>105</v>
+      </c>
+      <c r="B74" t="s">
+        <v>15</v>
+      </c>
+      <c r="C74">
+        <v>71454</v>
+      </c>
+      <c r="D74">
+        <v>103360</v>
+      </c>
+      <c r="E74">
+        <v>2</v>
+      </c>
+      <c r="F74">
+        <v>1</v>
+      </c>
+      <c r="G74" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>106</v>
+      </c>
+      <c r="B75" t="s">
+        <v>15</v>
+      </c>
+      <c r="C75">
+        <v>70834</v>
+      </c>
+      <c r="D75">
+        <v>102564</v>
+      </c>
+      <c r="E75">
+        <v>2</v>
+      </c>
+      <c r="F75">
+        <v>1</v>
+      </c>
+      <c r="G75" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>108</v>
+      </c>
+      <c r="B76" t="s">
+        <v>109</v>
+      </c>
+      <c r="C76" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" t="s">
+        <v>44</v>
+      </c>
+      <c r="E76" t="s">
+        <v>44</v>
+      </c>
+      <c r="F76" t="s">
+        <v>44</v>
+      </c>
+      <c r="G76" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>110</v>
+      </c>
+      <c r="B77" t="s">
+        <v>15</v>
+      </c>
+      <c r="C77">
+        <v>71174</v>
+      </c>
+      <c r="D77">
+        <v>103136</v>
+      </c>
+      <c r="E77">
+        <v>2</v>
+      </c>
+      <c r="F77">
+        <v>1</v>
+      </c>
+      <c r="G77" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>112</v>
+      </c>
+      <c r="B78" t="s">
+        <v>109</v>
+      </c>
+      <c r="C78" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" t="s">
+        <v>44</v>
+      </c>
+      <c r="E78" t="s">
+        <v>44</v>
+      </c>
+      <c r="F78" t="s">
+        <v>44</v>
+      </c>
+      <c r="G78" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>113</v>
+      </c>
+      <c r="B79" t="s">
+        <v>15</v>
+      </c>
+      <c r="C79">
+        <v>70617</v>
+      </c>
+      <c r="D79">
+        <v>103060</v>
+      </c>
+      <c r="E79">
+        <v>3</v>
+      </c>
+      <c r="F79">
+        <v>1</v>
+      </c>
+      <c r="G79" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>114</v>
+      </c>
+      <c r="B80" t="s">
+        <v>15</v>
+      </c>
+      <c r="C80">
+        <v>71174</v>
+      </c>
+      <c r="D80">
+        <v>103136</v>
+      </c>
+      <c r="E80">
+        <v>2</v>
+      </c>
+      <c r="F80">
+        <v>1</v>
+      </c>
+      <c r="G80" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>115</v>
+      </c>
+      <c r="B81" t="s">
+        <v>15</v>
+      </c>
+      <c r="C81">
+        <v>70617</v>
+      </c>
+      <c r="D81">
+        <v>103060</v>
+      </c>
+      <c r="E81">
+        <v>3</v>
+      </c>
+      <c r="F81">
+        <v>1</v>
+      </c>
+      <c r="G81" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>116</v>
+      </c>
+      <c r="B82" t="s">
+        <v>15</v>
+      </c>
+      <c r="C82">
+        <v>70617</v>
+      </c>
+      <c r="D82">
+        <v>103060</v>
+      </c>
+      <c r="E82">
+        <v>1</v>
+      </c>
+      <c r="F82">
+        <v>1</v>
+      </c>
+      <c r="G82" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>117</v>
+      </c>
+      <c r="B83" t="s">
+        <v>15</v>
+      </c>
+      <c r="C83">
+        <v>70617</v>
+      </c>
+      <c r="D83">
+        <v>103060</v>
+      </c>
+      <c r="E83">
+        <v>1</v>
+      </c>
+      <c r="F83">
+        <v>1</v>
+      </c>
+      <c r="G83" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>118</v>
+      </c>
+      <c r="B84" t="s">
+        <v>15</v>
+      </c>
+      <c r="C84">
+        <v>70617</v>
+      </c>
+      <c r="D84">
+        <v>103060</v>
+      </c>
+      <c r="E84">
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <v>1</v>
+      </c>
+      <c r="G84" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>119</v>
+      </c>
+      <c r="B85" t="s">
+        <v>8</v>
+      </c>
+      <c r="C85">
+        <v>70617</v>
+      </c>
+      <c r="D85">
+        <v>103060</v>
+      </c>
+      <c r="E85">
+        <v>1</v>
+      </c>
+      <c r="F85">
+        <v>1</v>
+      </c>
+      <c r="G85" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>120</v>
+      </c>
+      <c r="B86" t="s">
+        <v>8</v>
+      </c>
+      <c r="C86">
+        <v>70617</v>
+      </c>
+      <c r="D86">
+        <v>103060</v>
+      </c>
+      <c r="E86">
+        <v>1</v>
+      </c>
+      <c r="F86">
+        <v>1</v>
+      </c>
+      <c r="G86" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>121</v>
+      </c>
+      <c r="B87" t="s">
+        <v>8</v>
+      </c>
+      <c r="C87">
+        <v>70617</v>
+      </c>
+      <c r="D87">
+        <v>103060</v>
+      </c>
+      <c r="E87">
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <v>1</v>
+      </c>
+      <c r="G87" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>122</v>
+      </c>
+      <c r="B88" t="s">
+        <v>8</v>
+      </c>
+      <c r="C88">
+        <v>70617</v>
+      </c>
+      <c r="D88">
+        <v>103060</v>
+      </c>
+      <c r="E88">
+        <v>1</v>
+      </c>
+      <c r="F88">
+        <v>1</v>
+      </c>
+      <c r="G88" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="89" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>123</v>
+      </c>
+      <c r="B89" t="s">
+        <v>8</v>
+      </c>
+      <c r="C89">
+        <v>70617</v>
+      </c>
+      <c r="D89">
+        <v>103060</v>
+      </c>
+      <c r="E89">
+        <v>1</v>
+      </c>
+      <c r="F89">
+        <v>1</v>
+      </c>
+      <c r="G89" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="90" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>124</v>
+      </c>
+      <c r="B90" t="s">
+        <v>8</v>
+      </c>
+      <c r="C90">
+        <v>70617</v>
+      </c>
+      <c r="D90">
+        <v>103060</v>
+      </c>
+      <c r="E90">
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <v>1</v>
+      </c>
+      <c r="G90" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="91" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>125</v>
+      </c>
+      <c r="B91" t="s">
+        <v>8</v>
+      </c>
+      <c r="C91">
+        <v>70617</v>
+      </c>
+      <c r="D91">
+        <v>103060</v>
+      </c>
+      <c r="E91">
+        <v>1</v>
+      </c>
+      <c r="F91">
+        <v>1</v>
+      </c>
+      <c r="G91" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="92" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>126</v>
+      </c>
+      <c r="B92" t="s">
+        <v>8</v>
+      </c>
+      <c r="C92">
+        <v>70617</v>
+      </c>
+      <c r="D92">
+        <v>103060</v>
+      </c>
+      <c r="E92">
+        <v>1</v>
+      </c>
+      <c r="F92">
+        <v>1</v>
+      </c>
+      <c r="G92" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="93" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A93" t="s">
+        <v>127</v>
+      </c>
+      <c r="B93" t="s">
+        <v>8</v>
+      </c>
+      <c r="C93">
+        <v>70617</v>
+      </c>
+      <c r="D93">
+        <v>103060</v>
+      </c>
+      <c r="E93">
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <v>1</v>
+      </c>
+      <c r="G93" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="94" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A94" t="s">
+        <v>128</v>
+      </c>
+      <c r="B94" t="s">
+        <v>8</v>
+      </c>
+      <c r="C94">
+        <v>70617</v>
+      </c>
+      <c r="D94">
+        <v>103060</v>
+      </c>
+      <c r="E94">
+        <v>1</v>
+      </c>
+      <c r="F94">
+        <v>1</v>
+      </c>
+      <c r="G94" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="95" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A95" t="s">
+        <v>129</v>
+      </c>
+      <c r="B95" t="s">
+        <v>8</v>
+      </c>
+      <c r="C95">
+        <v>70617</v>
+      </c>
+      <c r="D95">
+        <v>103060</v>
+      </c>
+      <c r="E95">
+        <v>1</v>
+      </c>
+      <c r="F95">
+        <v>1</v>
+      </c>
+      <c r="G95" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="96" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>130</v>
+      </c>
+      <c r="B96" t="s">
+        <v>8</v>
+      </c>
+      <c r="C96">
+        <v>70617</v>
+      </c>
+      <c r="D96">
+        <v>103060</v>
+      </c>
+      <c r="E96">
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <v>1</v>
+      </c>
+      <c r="G96" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>131</v>
+      </c>
+      <c r="B97" t="s">
+        <v>8</v>
+      </c>
+      <c r="C97">
+        <v>70617</v>
+      </c>
+      <c r="D97">
+        <v>103060</v>
+      </c>
+      <c r="E97">
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <v>1</v>
+      </c>
+      <c r="G97" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>

--- a/data/raslistar_live.xlsx
+++ b/data/raslistar_live.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1650" uniqueCount="412">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1659" uniqueCount="415">
   <si>
     <t>timestamp</t>
   </si>
@@ -412,6 +412,15 @@
   </si>
   <si>
     <t>2026-02-16T15:52:11.019Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T16:26:23.895Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T16:27:21.212Z</t>
+  </si>
+  <si>
+    <t>2026-02-16T16:33:38.887Z</t>
   </si>
   <si>
     <t>Nr.</t>
@@ -1648,61 +1657,61 @@
   <sheetData>
     <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
     </row>
     <row r="2" spans="1:19" x14ac:dyDescent="0.25">
@@ -1716,34 +1725,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H2" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I2" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J2">
         <v>7</v>
       </c>
       <c r="K2" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N2">
         <v>7.5</v>
@@ -1775,34 +1784,34 @@
         <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="F3" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="I3" t="s">
-        <v>161</v>
+        <v>164</v>
       </c>
       <c r="J3">
         <v>19</v>
       </c>
       <c r="K3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>162</v>
+        <v>165</v>
       </c>
       <c r="N3">
         <v>7.6</v>
@@ -1834,34 +1843,34 @@
         <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F4" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H4" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I4" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J4">
         <v>8</v>
       </c>
       <c r="K4" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N4">
         <v>8.6</v>
@@ -1893,34 +1902,34 @@
         <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
       <c r="I5" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J5">
         <v>8</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>172</v>
+        <v>175</v>
       </c>
       <c r="N5">
         <v>7.4</v>
@@ -1952,34 +1961,34 @@
         <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>173</v>
+        <v>176</v>
       </c>
       <c r="F6" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H6" t="s">
-        <v>174</v>
+        <v>177</v>
       </c>
       <c r="I6" t="s">
-        <v>175</v>
+        <v>178</v>
       </c>
       <c r="J6">
         <v>9</v>
       </c>
       <c r="K6" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>176</v>
+        <v>179</v>
       </c>
       <c r="N6">
         <v>6.4</v>
@@ -2011,34 +2020,34 @@
         <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E7" t="s">
-        <v>177</v>
+        <v>180</v>
       </c>
       <c r="F7" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H7" t="s">
-        <v>178</v>
+        <v>181</v>
       </c>
       <c r="I7" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J7">
         <v>8</v>
       </c>
       <c r="K7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L7" t="s">
         <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>179</v>
+        <v>182</v>
       </c>
       <c r="N7">
         <v>6.8</v>
@@ -2070,34 +2079,34 @@
         <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E8" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F8" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G8" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H8" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I8" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J8">
         <v>9</v>
       </c>
       <c r="K8" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L8" t="s">
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N8">
         <v>7</v>
@@ -2129,34 +2138,34 @@
         <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E9" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F9" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H9" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I9" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J9">
         <v>12</v>
       </c>
       <c r="K9" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L9" t="s">
         <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N9">
         <v>7.9</v>
@@ -2188,34 +2197,34 @@
         <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E10" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F10" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H10" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I10" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J10">
         <v>11</v>
       </c>
       <c r="K10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L10" t="s">
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N10">
         <v>7.5</v>
@@ -2247,34 +2256,34 @@
         <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E11" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F11" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H11" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I11" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J11">
         <v>10</v>
       </c>
       <c r="K11" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L11" t="s">
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N11">
         <v>8.4</v>
@@ -2306,34 +2315,34 @@
         <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E12" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
       <c r="F12" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="H12" t="s">
-        <v>198</v>
+        <v>201</v>
       </c>
       <c r="I12" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J12">
         <v>9</v>
       </c>
       <c r="K12" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="L12" t="s">
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>199</v>
+        <v>202</v>
       </c>
       <c r="N12">
         <v>6.9</v>
@@ -2365,34 +2374,34 @@
         <v>12</v>
       </c>
       <c r="D13" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E13" t="s">
-        <v>200</v>
+        <v>203</v>
       </c>
       <c r="F13" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H13" t="s">
-        <v>201</v>
+        <v>204</v>
       </c>
       <c r="I13" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J13">
         <v>12</v>
       </c>
       <c r="K13" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L13" t="s">
         <v>44</v>
       </c>
       <c r="M13" t="s">
-        <v>202</v>
+        <v>205</v>
       </c>
       <c r="N13">
         <v>6.6</v>
@@ -2424,34 +2433,34 @@
         <v>13</v>
       </c>
       <c r="D14" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E14" t="s">
-        <v>203</v>
+        <v>206</v>
       </c>
       <c r="F14" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G14" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H14" t="s">
-        <v>204</v>
+        <v>207</v>
       </c>
       <c r="I14" t="s">
-        <v>205</v>
+        <v>208</v>
       </c>
       <c r="J14">
         <v>10</v>
       </c>
       <c r="K14" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L14" t="s">
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>206</v>
+        <v>209</v>
       </c>
       <c r="N14">
         <v>7.3</v>
@@ -2483,34 +2492,34 @@
         <v>14</v>
       </c>
       <c r="D15" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E15" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
       <c r="F15" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H15" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="I15" t="s">
-        <v>209</v>
+        <v>212</v>
       </c>
       <c r="J15">
         <v>9</v>
       </c>
       <c r="K15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L15" t="s">
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>210</v>
+        <v>213</v>
       </c>
       <c r="N15">
         <v>7.5</v>
@@ -2542,34 +2551,34 @@
         <v>15</v>
       </c>
       <c r="D16" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E16" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F16" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H16" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I16" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J16">
         <v>11</v>
       </c>
       <c r="K16" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L16" t="s">
         <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N16">
         <v>8.1</v>
@@ -2601,34 +2610,34 @@
         <v>16</v>
       </c>
       <c r="D17" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E17" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F17" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H17" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I17" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J17">
         <v>9</v>
       </c>
       <c r="K17" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L17" t="s">
         <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N17">
         <v>7.4</v>
@@ -2660,34 +2669,34 @@
         <v>17</v>
       </c>
       <c r="D18" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E18" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F18" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H18" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I18" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J18">
         <v>9</v>
       </c>
       <c r="K18" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L18" t="s">
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N18">
         <v>7.9</v>
@@ -2719,34 +2728,34 @@
         <v>18</v>
       </c>
       <c r="D19" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E19" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F19" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H19" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I19" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J19">
         <v>9</v>
       </c>
       <c r="K19" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L19" t="s">
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N19">
         <v>7.3</v>
@@ -2778,34 +2787,34 @@
         <v>19</v>
       </c>
       <c r="D20" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E20" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="F20" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G20" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H20" t="s">
-        <v>227</v>
+        <v>230</v>
       </c>
       <c r="I20" t="s">
-        <v>228</v>
+        <v>231</v>
       </c>
       <c r="J20">
         <v>10</v>
       </c>
       <c r="K20" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L20" t="s">
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>229</v>
+        <v>232</v>
       </c>
       <c r="N20">
         <v>6.9</v>
@@ -2854,106 +2863,106 @@
   <sheetData>
     <row r="1" spans="1:34" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="V1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="W1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="X1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Z1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AA1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AB1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AC1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AD1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AE1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AH1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
     </row>
     <row r="2" spans="1:34" x14ac:dyDescent="0.25">
@@ -2967,34 +2976,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>223</v>
+        <v>226</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H2" t="s">
-        <v>224</v>
+        <v>227</v>
       </c>
       <c r="I2" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J2">
         <v>9</v>
       </c>
       <c r="K2" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
       <c r="N2">
         <v>7.5</v>
@@ -3071,34 +3080,34 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>180</v>
+        <v>183</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H3" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="I3" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J3">
         <v>9</v>
       </c>
       <c r="K3" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
       <c r="N3">
         <v>7.5</v>
@@ -3175,34 +3184,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="H4" t="s">
-        <v>190</v>
+        <v>193</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J4">
         <v>11</v>
       </c>
       <c r="K4" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>191</v>
+        <v>194</v>
       </c>
       <c r="N4">
         <v>7.5</v>
@@ -3279,34 +3288,34 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>218</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="H5" t="s">
-        <v>216</v>
+        <v>219</v>
       </c>
       <c r="I5" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
       <c r="J5">
         <v>9</v>
       </c>
       <c r="K5" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="N5">
         <v>7.4</v>
@@ -3383,34 +3392,34 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>152</v>
+        <v>155</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="H6" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="I6" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="J6">
         <v>7</v>
       </c>
       <c r="K6" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="N6">
         <v>7.6</v>
@@ -3504,166 +3513,166 @@
   <sheetData>
     <row r="1" spans="1:54" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>132</v>
+        <v>135</v>
       </c>
       <c r="B1" t="s">
-        <v>133</v>
+        <v>136</v>
       </c>
       <c r="C1" t="s">
-        <v>134</v>
+        <v>137</v>
       </c>
       <c r="D1" t="s">
-        <v>135</v>
+        <v>138</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
       <c r="F1" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
       <c r="G1" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="H1" t="s">
-        <v>139</v>
+        <v>142</v>
       </c>
       <c r="I1" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="J1" t="s">
-        <v>141</v>
+        <v>144</v>
       </c>
       <c r="K1" t="s">
-        <v>142</v>
+        <v>145</v>
       </c>
       <c r="L1" t="s">
-        <v>143</v>
+        <v>146</v>
       </c>
       <c r="M1" t="s">
-        <v>144</v>
+        <v>147</v>
       </c>
       <c r="N1" t="s">
-        <v>145</v>
+        <v>148</v>
       </c>
       <c r="O1" t="s">
-        <v>146</v>
+        <v>149</v>
       </c>
       <c r="P1" t="s">
-        <v>147</v>
+        <v>150</v>
       </c>
       <c r="Q1" t="s">
-        <v>148</v>
+        <v>151</v>
       </c>
       <c r="R1" t="s">
-        <v>149</v>
+        <v>152</v>
       </c>
       <c r="S1" t="s">
-        <v>150</v>
+        <v>153</v>
       </c>
       <c r="T1" t="s">
-        <v>230</v>
+        <v>233</v>
       </c>
       <c r="U1" t="s">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="V1" t="s">
-        <v>232</v>
+        <v>235</v>
       </c>
       <c r="W1" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
       <c r="X1" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="Y1" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
       <c r="Z1" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="AA1" t="s">
-        <v>237</v>
+        <v>240</v>
       </c>
       <c r="AB1" t="s">
-        <v>238</v>
+        <v>241</v>
       </c>
       <c r="AC1" t="s">
-        <v>239</v>
+        <v>242</v>
       </c>
       <c r="AD1" t="s">
-        <v>240</v>
+        <v>243</v>
       </c>
       <c r="AE1" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
       <c r="AF1" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="AG1" t="s">
-        <v>243</v>
+        <v>246</v>
       </c>
       <c r="AH1" t="s">
-        <v>244</v>
+        <v>247</v>
       </c>
       <c r="AI1" t="s">
-        <v>245</v>
+        <v>248</v>
       </c>
       <c r="AJ1" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
       <c r="AK1" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="AL1" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
       <c r="AM1" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="AN1" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
       <c r="AO1" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="AP1" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
       <c r="AQ1" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="AR1" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
       <c r="AS1" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="AT1" t="s">
-        <v>256</v>
+        <v>259</v>
       </c>
       <c r="AU1" t="s">
-        <v>257</v>
+        <v>260</v>
       </c>
       <c r="AV1" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="AW1" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="AX1" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="AY1" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
       <c r="AZ1" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="BA1" t="s">
-        <v>263</v>
+        <v>266</v>
       </c>
       <c r="BB1" t="s">
-        <v>264</v>
+        <v>267</v>
       </c>
     </row>
     <row r="2" spans="1:54" x14ac:dyDescent="0.25">
@@ -3677,34 +3686,34 @@
         <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E2" t="s">
-        <v>211</v>
+        <v>214</v>
       </c>
       <c r="F2" t="s">
-        <v>153</v>
+        <v>156</v>
       </c>
       <c r="G2" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H2" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
       <c r="I2" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J2">
         <v>11</v>
       </c>
       <c r="K2" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="L2" t="s">
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>214</v>
+        <v>217</v>
       </c>
       <c r="N2">
         <v>5.5</v>
@@ -3841,34 +3850,34 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E3" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="F3" t="s">
-        <v>265</v>
+        <v>268</v>
       </c>
       <c r="G3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="H3" t="s">
-        <v>186</v>
+        <v>189</v>
       </c>
       <c r="I3" t="s">
-        <v>187</v>
+        <v>190</v>
       </c>
       <c r="J3">
         <v>12</v>
       </c>
       <c r="K3" t="s">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="L3" t="s">
         <v>44</v>
       </c>
       <c r="M3" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
       <c r="N3">
         <v>5.5</v>
@@ -4005,34 +4014,34 @@
         <v>1</v>
       </c>
       <c r="D4" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>222</v>
       </c>
       <c r="F4" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
       <c r="G4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="H4" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="I4" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="J4">
         <v>9</v>
       </c>
       <c r="K4" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
       <c r="L4" t="s">
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>222</v>
+        <v>225</v>
       </c>
       <c r="N4">
         <v>5</v>
@@ -4169,34 +4178,34 @@
         <v>1</v>
       </c>
       <c r="D5" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E5" t="s">
-        <v>192</v>
+        <v>195</v>
       </c>
       <c r="F5" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="G5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H5" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
       <c r="I5" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="J5">
         <v>10</v>
       </c>
       <c r="K5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L5" t="s">
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>195</v>
+        <v>198</v>
       </c>
       <c r="N5">
         <v>6</v>
@@ -4333,34 +4342,34 @@
         <v>1</v>
       </c>
       <c r="D6" t="s">
-        <v>151</v>
+        <v>154</v>
       </c>
       <c r="E6" t="s">
-        <v>163</v>
+        <v>166</v>
       </c>
       <c r="F6" t="s">
-        <v>268</v>
+        <v>271</v>
       </c>
       <c r="G6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="H6" t="s">
-        <v>165</v>
+        <v>168</v>
       </c>
       <c r="I6" t="s">
-        <v>166</v>
+        <v>169</v>
       </c>
       <c r="J6">
         <v>8</v>
       </c>
       <c r="K6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="L6" t="s">
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="N6">
         <v>5.3</v>
@@ -4505,42 +4514,42 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>269</v>
+        <v>272</v>
       </c>
       <c r="D1" t="s">
-        <v>270</v>
+        <v>273</v>
       </c>
       <c r="E1" t="s">
-        <v>271</v>
+        <v>274</v>
       </c>
       <c r="F1" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
       <c r="G1" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="H1" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
       <c r="I1" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="J1" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
       <c r="K1" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="L1" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
       <c r="M1" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
     </row>
     <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B2" t="s">
         <v>43</v>
@@ -4549,25 +4558,25 @@
         <v>545551</v>
       </c>
       <c r="D2" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E2" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G2" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I2" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J2" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K2" t="s">
         <v>44</v>
@@ -4576,12 +4585,12 @@
         <v>44</v>
       </c>
       <c r="M2" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B3" t="s">
         <v>43</v>
@@ -4590,39 +4599,39 @@
         <v>545550</v>
       </c>
       <c r="D3" t="s">
+        <v>291</v>
+      </c>
+      <c r="E3" t="s">
+        <v>292</v>
+      </c>
+      <c r="F3" t="s">
+        <v>293</v>
+      </c>
+      <c r="G3" t="s">
+        <v>294</v>
+      </c>
+      <c r="H3" t="s">
         <v>288</v>
       </c>
-      <c r="E3" t="s">
-        <v>289</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="I3" t="s">
+        <v>288</v>
+      </c>
+      <c r="J3" t="s">
+        <v>295</v>
+      </c>
+      <c r="K3" t="s">
+        <v>44</v>
+      </c>
+      <c r="L3" t="s">
+        <v>44</v>
+      </c>
+      <c r="M3" t="s">
         <v>290</v>
-      </c>
-      <c r="G3" t="s">
-        <v>291</v>
-      </c>
-      <c r="H3" t="s">
-        <v>285</v>
-      </c>
-      <c r="I3" t="s">
-        <v>285</v>
-      </c>
-      <c r="J3" t="s">
-        <v>292</v>
-      </c>
-      <c r="K3" t="s">
-        <v>44</v>
-      </c>
-      <c r="L3" t="s">
-        <v>44</v>
-      </c>
-      <c r="M3" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="4" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B4" t="s">
         <v>43</v>
@@ -4631,25 +4640,25 @@
         <v>545640</v>
       </c>
       <c r="D4" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E4" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F4" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G4" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I4" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J4" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K4" t="s">
         <v>44</v>
@@ -4658,12 +4667,12 @@
         <v>44</v>
       </c>
       <c r="M4" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="5" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B5" t="s">
         <v>43</v>
@@ -4672,25 +4681,25 @@
         <v>545572</v>
       </c>
       <c r="D5" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E5" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F5" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G5" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I5" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J5" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K5" t="s">
         <v>44</v>
@@ -4699,12 +4708,12 @@
         <v>44</v>
       </c>
       <c r="M5" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="6" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B6" t="s">
         <v>43</v>
@@ -4713,25 +4722,25 @@
         <v>545571</v>
       </c>
       <c r="D6" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E6" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F6" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G6" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I6" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J6" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K6" t="s">
         <v>44</v>
@@ -4740,12 +4749,12 @@
         <v>44</v>
       </c>
       <c r="M6" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="7" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B7" t="s">
         <v>43</v>
@@ -4754,25 +4763,25 @@
         <v>545618</v>
       </c>
       <c r="D7" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E7" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F7" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G7" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J7" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K7" t="s">
         <v>44</v>
@@ -4781,12 +4790,12 @@
         <v>44</v>
       </c>
       <c r="M7" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="8" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B8" t="s">
         <v>43</v>
@@ -4795,25 +4804,25 @@
         <v>545573</v>
       </c>
       <c r="D8" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E8" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F8" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G8" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I8" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J8" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K8" t="s">
         <v>44</v>
@@ -4822,12 +4831,12 @@
         <v>44</v>
       </c>
       <c r="M8" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="9" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B9" t="s">
         <v>43</v>
@@ -4836,25 +4845,25 @@
         <v>545433</v>
       </c>
       <c r="D9" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E9" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F9" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G9" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H9" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I9" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J9" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K9" t="s">
         <v>44</v>
@@ -4863,12 +4872,12 @@
         <v>44</v>
       </c>
       <c r="M9" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="10" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B10" t="s">
         <v>43</v>
@@ -4877,25 +4886,25 @@
         <v>545603</v>
       </c>
       <c r="D10" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E10" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F10" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G10" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I10" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J10" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K10" t="s">
         <v>44</v>
@@ -4904,12 +4913,12 @@
         <v>44</v>
       </c>
       <c r="M10" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="11" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>280</v>
+        <v>283</v>
       </c>
       <c r="B11" t="s">
         <v>43</v>
@@ -4918,25 +4927,25 @@
         <v>545548</v>
       </c>
       <c r="D11" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E11" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F11" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G11" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I11" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J11" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K11" t="s">
         <v>44</v>
@@ -4945,12 +4954,12 @@
         <v>44</v>
       </c>
       <c r="M11" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="12" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B12" t="s">
         <v>43</v>
@@ -4959,25 +4968,25 @@
         <v>545551</v>
       </c>
       <c r="D12" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G12" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I12" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J12" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K12" t="s">
         <v>44</v>
@@ -4986,12 +4995,12 @@
         <v>44</v>
       </c>
       <c r="M12" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="13" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B13" t="s">
         <v>43</v>
@@ -5000,39 +5009,39 @@
         <v>545550</v>
       </c>
       <c r="D13" t="s">
+        <v>291</v>
+      </c>
+      <c r="E13" t="s">
+        <v>292</v>
+      </c>
+      <c r="F13" t="s">
+        <v>293</v>
+      </c>
+      <c r="G13" t="s">
+        <v>294</v>
+      </c>
+      <c r="H13" t="s">
         <v>288</v>
       </c>
-      <c r="E13" t="s">
-        <v>289</v>
-      </c>
-      <c r="F13" t="s">
+      <c r="I13" t="s">
+        <v>288</v>
+      </c>
+      <c r="J13" t="s">
+        <v>295</v>
+      </c>
+      <c r="K13" t="s">
+        <v>44</v>
+      </c>
+      <c r="L13" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" t="s">
         <v>290</v>
-      </c>
-      <c r="G13" t="s">
-        <v>291</v>
-      </c>
-      <c r="H13" t="s">
-        <v>285</v>
-      </c>
-      <c r="I13" t="s">
-        <v>285</v>
-      </c>
-      <c r="J13" t="s">
-        <v>292</v>
-      </c>
-      <c r="K13" t="s">
-        <v>44</v>
-      </c>
-      <c r="L13" t="s">
-        <v>44</v>
-      </c>
-      <c r="M13" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="14" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B14" t="s">
         <v>43</v>
@@ -5041,25 +5050,25 @@
         <v>545640</v>
       </c>
       <c r="D14" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E14" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F14" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G14" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I14" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J14" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K14" t="s">
         <v>44</v>
@@ -5068,12 +5077,12 @@
         <v>44</v>
       </c>
       <c r="M14" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="15" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B15" t="s">
         <v>43</v>
@@ -5082,25 +5091,25 @@
         <v>545572</v>
       </c>
       <c r="D15" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E15" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F15" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G15" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I15" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J15" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K15" t="s">
         <v>44</v>
@@ -5109,12 +5118,12 @@
         <v>44</v>
       </c>
       <c r="M15" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="16" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B16" t="s">
         <v>43</v>
@@ -5123,25 +5132,25 @@
         <v>545571</v>
       </c>
       <c r="D16" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E16" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F16" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G16" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I16" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J16" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K16" t="s">
         <v>44</v>
@@ -5150,12 +5159,12 @@
         <v>44</v>
       </c>
       <c r="M16" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="17" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B17" t="s">
         <v>43</v>
@@ -5164,25 +5173,25 @@
         <v>545619</v>
       </c>
       <c r="D17" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E17" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F17" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G17" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I17" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J17" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K17" t="s">
         <v>44</v>
@@ -5191,12 +5200,12 @@
         <v>44</v>
       </c>
       <c r="M17" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="18" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B18" t="s">
         <v>43</v>
@@ -5205,25 +5214,25 @@
         <v>545618</v>
       </c>
       <c r="D18" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E18" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F18" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G18" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I18" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J18" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K18" t="s">
         <v>44</v>
@@ -5232,12 +5241,12 @@
         <v>44</v>
       </c>
       <c r="M18" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="19" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B19" t="s">
         <v>43</v>
@@ -5246,25 +5255,25 @@
         <v>545573</v>
       </c>
       <c r="D19" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E19" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F19" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G19" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I19" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J19" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K19" t="s">
         <v>44</v>
@@ -5273,12 +5282,12 @@
         <v>44</v>
       </c>
       <c r="M19" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="20" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B20" t="s">
         <v>43</v>
@@ -5287,25 +5296,25 @@
         <v>545433</v>
       </c>
       <c r="D20" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E20" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F20" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G20" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H20" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I20" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J20" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K20" t="s">
         <v>44</v>
@@ -5314,12 +5323,12 @@
         <v>44</v>
       </c>
       <c r="M20" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="21" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B21" t="s">
         <v>43</v>
@@ -5328,25 +5337,25 @@
         <v>545603</v>
       </c>
       <c r="D21" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E21" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F21" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G21" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I21" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J21" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K21" t="s">
         <v>44</v>
@@ -5355,12 +5364,12 @@
         <v>44</v>
       </c>
       <c r="M21" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>336</v>
+        <v>339</v>
       </c>
       <c r="B22" t="s">
         <v>43</v>
@@ -5369,25 +5378,25 @@
         <v>545548</v>
       </c>
       <c r="D22" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E22" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F22" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G22" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H22" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I22" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J22" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K22" t="s">
         <v>44</v>
@@ -5396,12 +5405,12 @@
         <v>44</v>
       </c>
       <c r="M22" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="23" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B23" t="s">
         <v>69</v>
@@ -5410,25 +5419,25 @@
         <v>545410</v>
       </c>
       <c r="D23" t="s">
-        <v>343</v>
+        <v>346</v>
       </c>
       <c r="E23" t="s">
-        <v>344</v>
+        <v>347</v>
       </c>
       <c r="F23" t="s">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="G23" t="s">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="H23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I23" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J23" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K23" t="s">
         <v>44</v>
@@ -5437,12 +5446,12 @@
         <v>44</v>
       </c>
       <c r="M23" t="s">
-        <v>347</v>
+        <v>350</v>
       </c>
     </row>
     <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B24" t="s">
         <v>69</v>
@@ -5451,25 +5460,25 @@
         <v>545642</v>
       </c>
       <c r="D24" t="s">
-        <v>348</v>
+        <v>351</v>
       </c>
       <c r="E24" t="s">
-        <v>349</v>
+        <v>352</v>
       </c>
       <c r="F24" t="s">
-        <v>350</v>
+        <v>353</v>
       </c>
       <c r="G24" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="H24" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I24" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J24" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
       <c r="K24" t="s">
         <v>44</v>
@@ -5478,12 +5487,12 @@
         <v>44</v>
       </c>
       <c r="M24" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
     </row>
     <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>342</v>
+        <v>345</v>
       </c>
       <c r="B25" t="s">
         <v>69</v>
@@ -5492,25 +5501,25 @@
         <v>545549</v>
       </c>
       <c r="D25" t="s">
-        <v>354</v>
+        <v>357</v>
       </c>
       <c r="E25" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="F25" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="G25" t="s">
-        <v>357</v>
+        <v>360</v>
       </c>
       <c r="H25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I25" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J25" t="s">
-        <v>358</v>
+        <v>361</v>
       </c>
       <c r="K25" t="s">
         <v>44</v>
@@ -5519,12 +5528,12 @@
         <v>44</v>
       </c>
       <c r="M25" t="s">
-        <v>359</v>
+        <v>362</v>
       </c>
     </row>
     <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B26" t="s">
         <v>43</v>
@@ -5533,25 +5542,25 @@
         <v>545551</v>
       </c>
       <c r="D26" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E26" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F26" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G26" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H26" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I26" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J26" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K26" t="s">
         <v>44</v>
@@ -5560,12 +5569,12 @@
         <v>44</v>
       </c>
       <c r="M26" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B27" t="s">
         <v>43</v>
@@ -5574,39 +5583,39 @@
         <v>545550</v>
       </c>
       <c r="D27" t="s">
+        <v>291</v>
+      </c>
+      <c r="E27" t="s">
+        <v>292</v>
+      </c>
+      <c r="F27" t="s">
+        <v>293</v>
+      </c>
+      <c r="G27" t="s">
+        <v>294</v>
+      </c>
+      <c r="H27" t="s">
         <v>288</v>
       </c>
-      <c r="E27" t="s">
-        <v>289</v>
-      </c>
-      <c r="F27" t="s">
+      <c r="I27" t="s">
+        <v>288</v>
+      </c>
+      <c r="J27" t="s">
+        <v>295</v>
+      </c>
+      <c r="K27" t="s">
+        <v>44</v>
+      </c>
+      <c r="L27" t="s">
+        <v>44</v>
+      </c>
+      <c r="M27" t="s">
         <v>290</v>
-      </c>
-      <c r="G27" t="s">
-        <v>291</v>
-      </c>
-      <c r="H27" t="s">
-        <v>285</v>
-      </c>
-      <c r="I27" t="s">
-        <v>285</v>
-      </c>
-      <c r="J27" t="s">
-        <v>292</v>
-      </c>
-      <c r="K27" t="s">
-        <v>44</v>
-      </c>
-      <c r="L27" t="s">
-        <v>44</v>
-      </c>
-      <c r="M27" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B28" t="s">
         <v>43</v>
@@ -5615,25 +5624,25 @@
         <v>545640</v>
       </c>
       <c r="D28" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E28" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F28" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G28" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I28" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J28" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K28" t="s">
         <v>44</v>
@@ -5642,12 +5651,12 @@
         <v>44</v>
       </c>
       <c r="M28" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B29" t="s">
         <v>43</v>
@@ -5656,25 +5665,25 @@
         <v>545572</v>
       </c>
       <c r="D29" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E29" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F29" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G29" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I29" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J29" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K29" t="s">
         <v>44</v>
@@ -5683,12 +5692,12 @@
         <v>44</v>
       </c>
       <c r="M29" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B30" t="s">
         <v>43</v>
@@ -5697,25 +5706,25 @@
         <v>545571</v>
       </c>
       <c r="D30" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E30" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F30" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G30" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I30" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J30" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K30" t="s">
         <v>44</v>
@@ -5724,12 +5733,12 @@
         <v>44</v>
       </c>
       <c r="M30" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B31" t="s">
         <v>43</v>
@@ -5738,25 +5747,25 @@
         <v>545619</v>
       </c>
       <c r="D31" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E31" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F31" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G31" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I31" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J31" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K31" t="s">
         <v>44</v>
@@ -5765,12 +5774,12 @@
         <v>44</v>
       </c>
       <c r="M31" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B32" t="s">
         <v>43</v>
@@ -5779,25 +5788,25 @@
         <v>545618</v>
       </c>
       <c r="D32" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E32" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F32" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G32" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I32" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J32" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K32" t="s">
         <v>44</v>
@@ -5806,12 +5815,12 @@
         <v>44</v>
       </c>
       <c r="M32" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B33" t="s">
         <v>43</v>
@@ -5820,25 +5829,25 @@
         <v>545573</v>
       </c>
       <c r="D33" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E33" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F33" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G33" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I33" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J33" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K33" t="s">
         <v>44</v>
@@ -5847,12 +5856,12 @@
         <v>44</v>
       </c>
       <c r="M33" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B34" t="s">
         <v>43</v>
@@ -5861,25 +5870,25 @@
         <v>545433</v>
       </c>
       <c r="D34" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E34" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F34" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G34" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H34" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I34" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J34" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K34" t="s">
         <v>44</v>
@@ -5888,12 +5897,12 @@
         <v>44</v>
       </c>
       <c r="M34" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B35" t="s">
         <v>43</v>
@@ -5902,25 +5911,25 @@
         <v>545603</v>
       </c>
       <c r="D35" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E35" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F35" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G35" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I35" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J35" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K35" t="s">
         <v>44</v>
@@ -5929,12 +5938,12 @@
         <v>44</v>
       </c>
       <c r="M35" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B36" t="s">
         <v>43</v>
@@ -5943,25 +5952,25 @@
         <v>545548</v>
       </c>
       <c r="D36" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E36" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F36" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G36" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H36" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I36" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J36" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K36" t="s">
         <v>44</v>
@@ -5970,12 +5979,12 @@
         <v>44</v>
       </c>
       <c r="M36" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>360</v>
+        <v>363</v>
       </c>
       <c r="B37" t="s">
         <v>43</v>
@@ -5984,25 +5993,25 @@
         <v>545648</v>
       </c>
       <c r="D37" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E37" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F37" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G37" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I37" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J37" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K37" t="s">
         <v>44</v>
@@ -6011,12 +6020,12 @@
         <v>44</v>
       </c>
       <c r="M37" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="38" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B38" t="s">
         <v>43</v>
@@ -6025,25 +6034,25 @@
         <v>545551</v>
       </c>
       <c r="D38" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E38" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F38" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G38" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H38" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I38" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J38" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K38" t="s">
         <v>44</v>
@@ -6052,12 +6061,12 @@
         <v>44</v>
       </c>
       <c r="M38" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="39" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B39" t="s">
         <v>43</v>
@@ -6066,39 +6075,39 @@
         <v>545550</v>
       </c>
       <c r="D39" t="s">
+        <v>291</v>
+      </c>
+      <c r="E39" t="s">
+        <v>292</v>
+      </c>
+      <c r="F39" t="s">
+        <v>293</v>
+      </c>
+      <c r="G39" t="s">
+        <v>294</v>
+      </c>
+      <c r="H39" t="s">
         <v>288</v>
       </c>
-      <c r="E39" t="s">
-        <v>289</v>
-      </c>
-      <c r="F39" t="s">
+      <c r="I39" t="s">
+        <v>288</v>
+      </c>
+      <c r="J39" t="s">
+        <v>295</v>
+      </c>
+      <c r="K39" t="s">
+        <v>44</v>
+      </c>
+      <c r="L39" t="s">
+        <v>44</v>
+      </c>
+      <c r="M39" t="s">
         <v>290</v>
-      </c>
-      <c r="G39" t="s">
-        <v>291</v>
-      </c>
-      <c r="H39" t="s">
-        <v>285</v>
-      </c>
-      <c r="I39" t="s">
-        <v>285</v>
-      </c>
-      <c r="J39" t="s">
-        <v>292</v>
-      </c>
-      <c r="K39" t="s">
-        <v>44</v>
-      </c>
-      <c r="L39" t="s">
-        <v>44</v>
-      </c>
-      <c r="M39" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="40" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B40" t="s">
         <v>43</v>
@@ -6107,25 +6116,25 @@
         <v>545640</v>
       </c>
       <c r="D40" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E40" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F40" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G40" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I40" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J40" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K40" t="s">
         <v>44</v>
@@ -6134,12 +6143,12 @@
         <v>44</v>
       </c>
       <c r="M40" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="41" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B41" t="s">
         <v>43</v>
@@ -6148,25 +6157,25 @@
         <v>545572</v>
       </c>
       <c r="D41" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E41" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F41" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G41" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I41" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J41" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K41" t="s">
         <v>44</v>
@@ -6175,12 +6184,12 @@
         <v>44</v>
       </c>
       <c r="M41" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="42" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B42" t="s">
         <v>43</v>
@@ -6189,25 +6198,25 @@
         <v>545571</v>
       </c>
       <c r="D42" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E42" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F42" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G42" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I42" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J42" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K42" t="s">
         <v>44</v>
@@ -6216,12 +6225,12 @@
         <v>44</v>
       </c>
       <c r="M42" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B43" t="s">
         <v>43</v>
@@ -6230,25 +6239,25 @@
         <v>545643</v>
       </c>
       <c r="D43" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E43" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F43" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G43" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H43" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I43" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J43" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K43" t="s">
         <v>44</v>
@@ -6257,12 +6266,12 @@
         <v>44</v>
       </c>
       <c r="M43" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="44" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B44" t="s">
         <v>43</v>
@@ -6271,25 +6280,25 @@
         <v>545619</v>
       </c>
       <c r="D44" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E44" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F44" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G44" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H44" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I44" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J44" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K44" t="s">
         <v>44</v>
@@ -6298,12 +6307,12 @@
         <v>44</v>
       </c>
       <c r="M44" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="45" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B45" t="s">
         <v>43</v>
@@ -6312,25 +6321,25 @@
         <v>545618</v>
       </c>
       <c r="D45" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E45" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F45" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G45" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I45" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J45" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K45" t="s">
         <v>44</v>
@@ -6339,12 +6348,12 @@
         <v>44</v>
       </c>
       <c r="M45" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="46" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B46" t="s">
         <v>43</v>
@@ -6353,25 +6362,25 @@
         <v>545645</v>
       </c>
       <c r="D46" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E46" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F46" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G46" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H46" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I46" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J46" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K46" t="s">
         <v>44</v>
@@ -6380,12 +6389,12 @@
         <v>44</v>
       </c>
       <c r="M46" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="47" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B47" t="s">
         <v>43</v>
@@ -6394,25 +6403,25 @@
         <v>545644</v>
       </c>
       <c r="D47" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E47" t="s">
+        <v>381</v>
+      </c>
+      <c r="F47" t="s">
+        <v>382</v>
+      </c>
+      <c r="G47" t="s">
+        <v>383</v>
+      </c>
+      <c r="H47" t="s">
         <v>378</v>
       </c>
-      <c r="F47" t="s">
-        <v>379</v>
-      </c>
-      <c r="G47" t="s">
-        <v>380</v>
-      </c>
-      <c r="H47" t="s">
-        <v>375</v>
-      </c>
       <c r="I47" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J47" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K47" t="s">
         <v>44</v>
@@ -6421,12 +6430,12 @@
         <v>44</v>
       </c>
       <c r="M47" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="48" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B48" t="s">
         <v>43</v>
@@ -6435,25 +6444,25 @@
         <v>545573</v>
       </c>
       <c r="D48" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E48" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F48" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G48" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I48" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J48" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K48" t="s">
         <v>44</v>
@@ -6462,12 +6471,12 @@
         <v>44</v>
       </c>
       <c r="M48" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="49" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B49" t="s">
         <v>43</v>
@@ -6476,25 +6485,25 @@
         <v>545433</v>
       </c>
       <c r="D49" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E49" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F49" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G49" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H49" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I49" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J49" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K49" t="s">
         <v>44</v>
@@ -6503,12 +6512,12 @@
         <v>44</v>
       </c>
       <c r="M49" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="50" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B50" t="s">
         <v>43</v>
@@ -6517,25 +6526,25 @@
         <v>545603</v>
       </c>
       <c r="D50" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E50" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F50" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G50" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I50" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J50" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K50" t="s">
         <v>44</v>
@@ -6544,12 +6553,12 @@
         <v>44</v>
       </c>
       <c r="M50" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="51" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B51" t="s">
         <v>43</v>
@@ -6558,25 +6567,25 @@
         <v>545548</v>
       </c>
       <c r="D51" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E51" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F51" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G51" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H51" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I51" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J51" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K51" t="s">
         <v>44</v>
@@ -6585,12 +6594,12 @@
         <v>44</v>
       </c>
       <c r="M51" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="52" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>365</v>
+        <v>368</v>
       </c>
       <c r="B52" t="s">
         <v>43</v>
@@ -6599,25 +6608,25 @@
         <v>545648</v>
       </c>
       <c r="D52" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E52" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F52" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G52" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H52" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I52" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J52" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K52" t="s">
         <v>44</v>
@@ -6626,12 +6635,12 @@
         <v>44</v>
       </c>
       <c r="M52" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="53" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B53" t="s">
         <v>43</v>
@@ -6640,25 +6649,25 @@
         <v>545551</v>
       </c>
       <c r="D53" t="s">
-        <v>281</v>
+        <v>284</v>
       </c>
       <c r="E53" t="s">
-        <v>282</v>
+        <v>285</v>
       </c>
       <c r="F53" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
       <c r="G53" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="H53" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="I53" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
       <c r="J53" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="K53" t="s">
         <v>44</v>
@@ -6667,12 +6676,12 @@
         <v>44</v>
       </c>
       <c r="M53" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="54" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B54" t="s">
         <v>43</v>
@@ -6681,39 +6690,39 @@
         <v>545550</v>
       </c>
       <c r="D54" t="s">
+        <v>291</v>
+      </c>
+      <c r="E54" t="s">
+        <v>292</v>
+      </c>
+      <c r="F54" t="s">
+        <v>293</v>
+      </c>
+      <c r="G54" t="s">
+        <v>294</v>
+      </c>
+      <c r="H54" t="s">
         <v>288</v>
       </c>
-      <c r="E54" t="s">
-        <v>289</v>
-      </c>
-      <c r="F54" t="s">
+      <c r="I54" t="s">
+        <v>288</v>
+      </c>
+      <c r="J54" t="s">
+        <v>295</v>
+      </c>
+      <c r="K54" t="s">
+        <v>44</v>
+      </c>
+      <c r="L54" t="s">
+        <v>44</v>
+      </c>
+      <c r="M54" t="s">
         <v>290</v>
-      </c>
-      <c r="G54" t="s">
-        <v>291</v>
-      </c>
-      <c r="H54" t="s">
-        <v>285</v>
-      </c>
-      <c r="I54" t="s">
-        <v>285</v>
-      </c>
-      <c r="J54" t="s">
-        <v>292</v>
-      </c>
-      <c r="K54" t="s">
-        <v>44</v>
-      </c>
-      <c r="L54" t="s">
-        <v>44</v>
-      </c>
-      <c r="M54" t="s">
-        <v>287</v>
       </c>
     </row>
     <row r="55" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B55" t="s">
         <v>43</v>
@@ -6722,25 +6731,25 @@
         <v>545640</v>
       </c>
       <c r="D55" t="s">
-        <v>293</v>
+        <v>296</v>
       </c>
       <c r="E55" t="s">
-        <v>294</v>
+        <v>297</v>
       </c>
       <c r="F55" t="s">
-        <v>295</v>
+        <v>298</v>
       </c>
       <c r="G55" t="s">
-        <v>296</v>
+        <v>299</v>
       </c>
       <c r="H55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I55" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J55" t="s">
-        <v>297</v>
+        <v>300</v>
       </c>
       <c r="K55" t="s">
         <v>44</v>
@@ -6749,12 +6758,12 @@
         <v>44</v>
       </c>
       <c r="M55" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="56" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B56" t="s">
         <v>43</v>
@@ -6763,25 +6772,25 @@
         <v>545572</v>
       </c>
       <c r="D56" t="s">
-        <v>298</v>
+        <v>301</v>
       </c>
       <c r="E56" t="s">
-        <v>299</v>
+        <v>302</v>
       </c>
       <c r="F56" t="s">
-        <v>300</v>
+        <v>303</v>
       </c>
       <c r="G56" t="s">
-        <v>301</v>
+        <v>304</v>
       </c>
       <c r="H56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I56" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J56" t="s">
-        <v>302</v>
+        <v>305</v>
       </c>
       <c r="K56" t="s">
         <v>44</v>
@@ -6790,12 +6799,12 @@
         <v>44</v>
       </c>
       <c r="M56" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="57" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B57" t="s">
         <v>43</v>
@@ -6804,25 +6813,25 @@
         <v>545571</v>
       </c>
       <c r="D57" t="s">
-        <v>303</v>
+        <v>306</v>
       </c>
       <c r="E57" t="s">
-        <v>304</v>
+        <v>307</v>
       </c>
       <c r="F57" t="s">
-        <v>305</v>
+        <v>308</v>
       </c>
       <c r="G57" t="s">
-        <v>306</v>
+        <v>309</v>
       </c>
       <c r="H57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I57" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J57" t="s">
-        <v>307</v>
+        <v>310</v>
       </c>
       <c r="K57" t="s">
         <v>44</v>
@@ -6831,12 +6840,12 @@
         <v>44</v>
       </c>
       <c r="M57" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="58" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B58" t="s">
         <v>43</v>
@@ -6845,25 +6854,25 @@
         <v>545643</v>
       </c>
       <c r="D58" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="E58" t="s">
-        <v>367</v>
+        <v>370</v>
       </c>
       <c r="F58" t="s">
-        <v>368</v>
+        <v>371</v>
       </c>
       <c r="G58" t="s">
-        <v>369</v>
+        <v>372</v>
       </c>
       <c r="H58" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="I58" t="s">
-        <v>370</v>
+        <v>373</v>
       </c>
       <c r="J58" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K58" t="s">
         <v>44</v>
@@ -6872,12 +6881,12 @@
         <v>44</v>
       </c>
       <c r="M58" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="59" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B59" t="s">
         <v>43</v>
@@ -6886,25 +6895,25 @@
         <v>545619</v>
       </c>
       <c r="D59" t="s">
-        <v>337</v>
+        <v>340</v>
       </c>
       <c r="E59" t="s">
-        <v>338</v>
+        <v>341</v>
       </c>
       <c r="F59" t="s">
-        <v>339</v>
+        <v>342</v>
       </c>
       <c r="G59" t="s">
-        <v>340</v>
+        <v>343</v>
       </c>
       <c r="H59" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="I59" t="s">
-        <v>182</v>
+        <v>185</v>
       </c>
       <c r="J59" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K59" t="s">
         <v>44</v>
@@ -6913,12 +6922,12 @@
         <v>44</v>
       </c>
       <c r="M59" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="60" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B60" t="s">
         <v>43</v>
@@ -6927,25 +6936,25 @@
         <v>545618</v>
       </c>
       <c r="D60" t="s">
-        <v>309</v>
+        <v>312</v>
       </c>
       <c r="E60" t="s">
-        <v>310</v>
+        <v>313</v>
       </c>
       <c r="F60" t="s">
-        <v>311</v>
+        <v>314</v>
       </c>
       <c r="G60" t="s">
-        <v>312</v>
+        <v>315</v>
       </c>
       <c r="H60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I60" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J60" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K60" t="s">
         <v>44</v>
@@ -6954,12 +6963,12 @@
         <v>44</v>
       </c>
       <c r="M60" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="61" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B61" t="s">
         <v>43</v>
@@ -6968,25 +6977,25 @@
         <v>545646</v>
       </c>
       <c r="D61" t="s">
-        <v>382</v>
+        <v>385</v>
       </c>
       <c r="E61" t="s">
-        <v>383</v>
+        <v>386</v>
       </c>
       <c r="F61" t="s">
-        <v>384</v>
+        <v>387</v>
       </c>
       <c r="G61" t="s">
-        <v>385</v>
+        <v>388</v>
       </c>
       <c r="H61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="I61" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="J61" t="s">
-        <v>386</v>
+        <v>389</v>
       </c>
       <c r="K61" t="s">
         <v>44</v>
@@ -6995,12 +7004,12 @@
         <v>44</v>
       </c>
       <c r="M61" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="62" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B62" t="s">
         <v>43</v>
@@ -7009,25 +7018,25 @@
         <v>545645</v>
       </c>
       <c r="D62" t="s">
-        <v>371</v>
+        <v>374</v>
       </c>
       <c r="E62" t="s">
-        <v>372</v>
+        <v>375</v>
       </c>
       <c r="F62" t="s">
-        <v>373</v>
+        <v>376</v>
       </c>
       <c r="G62" t="s">
-        <v>374</v>
+        <v>377</v>
       </c>
       <c r="H62" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="I62" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J62" t="s">
-        <v>376</v>
+        <v>379</v>
       </c>
       <c r="K62" t="s">
         <v>44</v>
@@ -7036,12 +7045,12 @@
         <v>44</v>
       </c>
       <c r="M62" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="63" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B63" t="s">
         <v>43</v>
@@ -7050,25 +7059,25 @@
         <v>545644</v>
       </c>
       <c r="D63" t="s">
-        <v>377</v>
+        <v>380</v>
       </c>
       <c r="E63" t="s">
+        <v>381</v>
+      </c>
+      <c r="F63" t="s">
+        <v>382</v>
+      </c>
+      <c r="G63" t="s">
+        <v>383</v>
+      </c>
+      <c r="H63" t="s">
         <v>378</v>
       </c>
-      <c r="F63" t="s">
-        <v>379</v>
-      </c>
-      <c r="G63" t="s">
-        <v>380</v>
-      </c>
-      <c r="H63" t="s">
-        <v>375</v>
-      </c>
       <c r="I63" t="s">
-        <v>375</v>
+        <v>378</v>
       </c>
       <c r="J63" t="s">
-        <v>341</v>
+        <v>344</v>
       </c>
       <c r="K63" t="s">
         <v>44</v>
@@ -7077,12 +7086,12 @@
         <v>44</v>
       </c>
       <c r="M63" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="64" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B64" t="s">
         <v>43</v>
@@ -7091,25 +7100,25 @@
         <v>545573</v>
       </c>
       <c r="D64" t="s">
-        <v>314</v>
+        <v>317</v>
       </c>
       <c r="E64" t="s">
-        <v>315</v>
+        <v>318</v>
       </c>
       <c r="F64" t="s">
-        <v>316</v>
+        <v>319</v>
       </c>
       <c r="G64" t="s">
-        <v>317</v>
+        <v>320</v>
       </c>
       <c r="H64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="I64" t="s">
-        <v>164</v>
+        <v>167</v>
       </c>
       <c r="J64" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K64" t="s">
         <v>44</v>
@@ -7118,12 +7127,12 @@
         <v>44</v>
       </c>
       <c r="M64" t="s">
-        <v>308</v>
+        <v>311</v>
       </c>
     </row>
     <row r="65" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B65" t="s">
         <v>43</v>
@@ -7132,25 +7141,25 @@
         <v>545433</v>
       </c>
       <c r="D65" t="s">
-        <v>319</v>
+        <v>322</v>
       </c>
       <c r="E65" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="F65" t="s">
-        <v>321</v>
+        <v>324</v>
       </c>
       <c r="G65" t="s">
-        <v>322</v>
+        <v>325</v>
       </c>
       <c r="H65" t="s">
-        <v>323</v>
+        <v>326</v>
       </c>
       <c r="I65" t="s">
-        <v>324</v>
+        <v>327</v>
       </c>
       <c r="J65" t="s">
-        <v>325</v>
+        <v>328</v>
       </c>
       <c r="K65" t="s">
         <v>44</v>
@@ -7159,12 +7168,12 @@
         <v>44</v>
       </c>
       <c r="M65" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="66" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B66" t="s">
         <v>43</v>
@@ -7173,25 +7182,25 @@
         <v>545603</v>
       </c>
       <c r="D66" t="s">
-        <v>326</v>
+        <v>329</v>
       </c>
       <c r="E66" t="s">
-        <v>327</v>
+        <v>330</v>
       </c>
       <c r="F66" t="s">
-        <v>328</v>
+        <v>331</v>
       </c>
       <c r="G66" t="s">
-        <v>329</v>
+        <v>332</v>
       </c>
       <c r="H66" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="I66" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
       <c r="J66" t="s">
-        <v>330</v>
+        <v>333</v>
       </c>
       <c r="K66" t="s">
         <v>44</v>
@@ -7200,12 +7209,12 @@
         <v>44</v>
       </c>
       <c r="M66" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="67" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B67" t="s">
         <v>43</v>
@@ -7214,25 +7223,25 @@
         <v>545548</v>
       </c>
       <c r="D67" t="s">
-        <v>331</v>
+        <v>334</v>
       </c>
       <c r="E67" t="s">
-        <v>332</v>
+        <v>335</v>
       </c>
       <c r="F67" t="s">
-        <v>333</v>
+        <v>336</v>
       </c>
       <c r="G67" t="s">
-        <v>334</v>
+        <v>337</v>
       </c>
       <c r="H67" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="I67" t="s">
-        <v>335</v>
+        <v>338</v>
       </c>
       <c r="J67" t="s">
-        <v>318</v>
+        <v>321</v>
       </c>
       <c r="K67" t="s">
         <v>44</v>
@@ -7241,12 +7250,12 @@
         <v>44</v>
       </c>
       <c r="M67" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
     <row r="68" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>381</v>
+        <v>384</v>
       </c>
       <c r="B68" t="s">
         <v>43</v>
@@ -7255,25 +7264,25 @@
         <v>545648</v>
       </c>
       <c r="D68" t="s">
-        <v>361</v>
+        <v>364</v>
       </c>
       <c r="E68" t="s">
-        <v>362</v>
+        <v>365</v>
       </c>
       <c r="F68" t="s">
-        <v>363</v>
+        <v>366</v>
       </c>
       <c r="G68" t="s">
-        <v>364</v>
+        <v>367</v>
       </c>
       <c r="H68" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="I68" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="J68" t="s">
-        <v>313</v>
+        <v>316</v>
       </c>
       <c r="K68" t="s">
         <v>44</v>
@@ -7282,7 +7291,7 @@
         <v>44</v>
       </c>
       <c r="M68" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
     </row>
   </sheetData>
@@ -7304,36 +7313,36 @@
         <v>2</v>
       </c>
       <c r="C1" t="s">
-        <v>387</v>
+        <v>390</v>
       </c>
       <c r="D1" t="s">
-        <v>388</v>
+        <v>391</v>
       </c>
       <c r="E1" t="s">
-        <v>389</v>
+        <v>392</v>
       </c>
       <c r="F1" t="s">
-        <v>390</v>
+        <v>393</v>
       </c>
       <c r="G1" t="s">
-        <v>391</v>
+        <v>394</v>
       </c>
       <c r="H1" t="s">
-        <v>392</v>
+        <v>395</v>
       </c>
       <c r="I1" t="s">
-        <v>393</v>
+        <v>396</v>
       </c>
       <c r="J1" t="s">
-        <v>394</v>
+        <v>397</v>
       </c>
       <c r="K1" t="s">
-        <v>395</v>
+        <v>398</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B2" t="s">
         <v>103</v>
@@ -7342,16 +7351,16 @@
         <v>71175</v>
       </c>
       <c r="D2" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E2">
         <v>103560</v>
       </c>
       <c r="F2" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G2" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H2">
         <v>1</v>
@@ -7368,7 +7377,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B3" t="s">
         <v>103</v>
@@ -7377,16 +7386,16 @@
         <v>71175</v>
       </c>
       <c r="D3" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E3">
         <v>103560</v>
       </c>
       <c r="F3" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G3" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H3">
         <v>2</v>
@@ -7403,7 +7412,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B4" t="s">
         <v>103</v>
@@ -7412,16 +7421,16 @@
         <v>71175</v>
       </c>
       <c r="D4" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E4">
         <v>103561</v>
       </c>
       <c r="F4" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G4" t="s">
-        <v>402</v>
+        <v>405</v>
       </c>
       <c r="H4">
         <v>3</v>
@@ -7438,7 +7447,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B5" t="s">
         <v>103</v>
@@ -7447,16 +7456,16 @@
         <v>71175</v>
       </c>
       <c r="D5" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E5">
         <v>103561</v>
       </c>
       <c r="F5" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G5" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H5">
         <v>2</v>
@@ -7473,7 +7482,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
         <v>103</v>
@@ -7482,16 +7491,16 @@
         <v>71175</v>
       </c>
       <c r="D6" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E6">
         <v>103561</v>
       </c>
       <c r="F6" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G6" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H6">
         <v>1</v>
@@ -7508,7 +7517,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B7" t="s">
         <v>103</v>
@@ -7517,16 +7526,16 @@
         <v>71175</v>
       </c>
       <c r="D7" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E7">
         <v>103562</v>
       </c>
       <c r="F7" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G7" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H7">
         <v>1</v>
@@ -7543,7 +7552,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B8" t="s">
         <v>103</v>
@@ -7552,16 +7561,16 @@
         <v>71175</v>
       </c>
       <c r="D8" t="s">
-        <v>403</v>
+        <v>406</v>
       </c>
       <c r="E8">
         <v>103562</v>
       </c>
       <c r="F8" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G8" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H8">
         <v>2</v>
@@ -7578,7 +7587,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B9" t="s">
         <v>103</v>
@@ -7587,16 +7596,16 @@
         <v>71175</v>
       </c>
       <c r="D9" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E9">
         <v>103580</v>
       </c>
       <c r="F9" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G9" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H9">
         <v>2</v>
@@ -7613,7 +7622,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B10" t="s">
         <v>103</v>
@@ -7622,16 +7631,16 @@
         <v>71175</v>
       </c>
       <c r="D10" t="s">
-        <v>405</v>
+        <v>408</v>
       </c>
       <c r="E10">
         <v>103580</v>
       </c>
       <c r="F10" t="s">
-        <v>404</v>
+        <v>407</v>
       </c>
       <c r="G10" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H10">
         <v>1</v>
@@ -7648,7 +7657,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>396</v>
+        <v>399</v>
       </c>
       <c r="B11" t="s">
         <v>103</v>
@@ -7657,16 +7666,16 @@
         <v>71175</v>
       </c>
       <c r="D11" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E11">
         <v>103581</v>
       </c>
       <c r="F11" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G11" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H11">
         <v>1</v>
@@ -7683,7 +7692,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B12" t="s">
         <v>103</v>
@@ -7692,16 +7701,16 @@
         <v>71175</v>
       </c>
       <c r="D12" t="s">
-        <v>406</v>
+        <v>409</v>
       </c>
       <c r="E12">
         <v>103581</v>
       </c>
       <c r="F12" t="s">
-        <v>398</v>
+        <v>401</v>
       </c>
       <c r="G12" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H12">
         <v>2</v>
@@ -7718,7 +7727,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B13" t="s">
         <v>103</v>
@@ -7727,16 +7736,16 @@
         <v>71175</v>
       </c>
       <c r="D13" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E13">
         <v>103582</v>
       </c>
       <c r="F13" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G13" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H13">
         <v>2</v>
@@ -7753,7 +7762,7 @@
     </row>
     <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B14" t="s">
         <v>103</v>
@@ -7762,16 +7771,16 @@
         <v>71175</v>
       </c>
       <c r="D14" t="s">
-        <v>397</v>
+        <v>400</v>
       </c>
       <c r="E14">
         <v>103582</v>
       </c>
       <c r="F14" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G14" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H14">
         <v>1</v>
@@ -7788,7 +7797,7 @@
     </row>
     <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B15" t="s">
         <v>103</v>
@@ -7797,16 +7806,16 @@
         <v>71175</v>
       </c>
       <c r="D15" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E15">
         <v>103583</v>
       </c>
       <c r="F15" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G15" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H15">
         <v>1</v>
@@ -7823,7 +7832,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B16" t="s">
         <v>103</v>
@@ -7832,16 +7841,16 @@
         <v>71175</v>
       </c>
       <c r="D16" t="s">
-        <v>401</v>
+        <v>404</v>
       </c>
       <c r="E16">
         <v>103583</v>
       </c>
       <c r="F16" t="s">
-        <v>408</v>
+        <v>411</v>
       </c>
       <c r="G16" t="s">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="H16">
         <v>2</v>
@@ -7858,7 +7867,7 @@
     </row>
     <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
         <v>103</v>
@@ -7867,16 +7876,16 @@
         <v>71175</v>
       </c>
       <c r="D17" t="s">
-        <v>409</v>
+        <v>412</v>
       </c>
       <c r="E17">
         <v>103584</v>
       </c>
       <c r="F17" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G17" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H17">
         <v>1</v>
@@ -7893,7 +7902,7 @@
     </row>
     <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>407</v>
+        <v>410</v>
       </c>
       <c r="B18" t="s">
         <v>103</v>
@@ -7902,16 +7911,16 @@
         <v>71175</v>
       </c>
       <c r="D18" t="s">
-        <v>411</v>
+        <v>414</v>
       </c>
       <c r="E18">
         <v>103585</v>
       </c>
       <c r="F18" t="s">
-        <v>410</v>
+        <v>413</v>
       </c>
       <c r="G18" t="s">
-        <v>399</v>
+        <v>402</v>
       </c>
       <c r="H18">
         <v>1</v>
@@ -7934,7 +7943,7 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:G97"/>
+  <dimension ref="A1:G100"/>
   <sheetFormatPr defaultRowHeight="15" outlineLevelRow="0" outlineLevelCol="0" x14ac:dyDescent="55"/>
   <cols>
     <col min="1" max="1" width="24" customWidth="1"/>
@@ -10176,6 +10185,75 @@
         <v>22</v>
       </c>
     </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>132</v>
+      </c>
+      <c r="B98" t="s">
+        <v>8</v>
+      </c>
+      <c r="C98">
+        <v>70617</v>
+      </c>
+      <c r="D98">
+        <v>103060</v>
+      </c>
+      <c r="E98">
+        <v>1</v>
+      </c>
+      <c r="F98">
+        <v>1</v>
+      </c>
+      <c r="G98" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>133</v>
+      </c>
+      <c r="B99" t="s">
+        <v>8</v>
+      </c>
+      <c r="C99">
+        <v>70617</v>
+      </c>
+      <c r="D99">
+        <v>103060</v>
+      </c>
+      <c r="E99">
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <v>1</v>
+      </c>
+      <c r="G99" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>134</v>
+      </c>
+      <c r="B100" t="s">
+        <v>8</v>
+      </c>
+      <c r="C100">
+        <v>70617</v>
+      </c>
+      <c r="D100">
+        <v>103060</v>
+      </c>
+      <c r="E100">
+        <v>1</v>
+      </c>
+      <c r="F100">
+        <v>1</v>
+      </c>
+      <c r="G100" t="s">
+        <v>19</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="4294967295" verticalDpi="4294967295" scale="100" fitToWidth="1" fitToHeight="1" firstPageNumber="1" useFirstPageNumber="1" copies="1"/>
